--- a/Фопи/Зарплата ФОП 2021/Підхомна О 2021.xlsx
+++ b/Фопи/Зарплата ФОП 2021/Підхомна О 2021.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ЭтаКнига" checkCompatibility="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Фопи\Зарплата ФОП 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nastia\GitHub\Фопи\Зарплата ФОП 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="180" windowWidth="11340" windowHeight="5920" tabRatio="798" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="360" yWindow="180" windowWidth="11340" windowHeight="5920" tabRatio="798" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="12" sheetId="149" r:id="rId1"/>
@@ -18,31 +18,32 @@
     <sheet name="09" sheetId="146" r:id="rId4"/>
     <sheet name="08" sheetId="145" r:id="rId5"/>
     <sheet name="07" sheetId="144" r:id="rId6"/>
-    <sheet name="08-21 " sheetId="153" r:id="rId7"/>
-    <sheet name="07-21" sheetId="152" r:id="rId8"/>
-    <sheet name="06" sheetId="151" r:id="rId9"/>
-    <sheet name="05" sheetId="142" r:id="rId10"/>
-    <sheet name="04" sheetId="141" r:id="rId11"/>
-    <sheet name="03" sheetId="140" r:id="rId12"/>
-    <sheet name="02" sheetId="139" r:id="rId13"/>
-    <sheet name="01" sheetId="138" r:id="rId14"/>
-    <sheet name="пд1 зп" sheetId="45" r:id="rId15"/>
-    <sheet name="пд2 зп" sheetId="46" r:id="rId16"/>
-    <sheet name="пд1 аванс" sheetId="2" r:id="rId17"/>
-    <sheet name="пд2 аванс" sheetId="4" r:id="rId18"/>
-    <sheet name="Звірка21" sheetId="150" r:id="rId19"/>
-    <sheet name="звірка" sheetId="110" r:id="rId20"/>
+    <sheet name="09-21 " sheetId="154" r:id="rId7"/>
+    <sheet name="08-21 " sheetId="153" r:id="rId8"/>
+    <sheet name="07-21" sheetId="152" r:id="rId9"/>
+    <sheet name="06" sheetId="151" r:id="rId10"/>
+    <sheet name="05" sheetId="142" r:id="rId11"/>
+    <sheet name="04" sheetId="141" r:id="rId12"/>
+    <sheet name="03" sheetId="140" r:id="rId13"/>
+    <sheet name="02" sheetId="139" r:id="rId14"/>
+    <sheet name="01" sheetId="138" r:id="rId15"/>
+    <sheet name="пд1 зп" sheetId="45" r:id="rId16"/>
+    <sheet name="пд2 зп" sheetId="46" r:id="rId17"/>
+    <sheet name="пд1 аванс" sheetId="2" r:id="rId18"/>
+    <sheet name="пд2 аванс" sheetId="4" r:id="rId19"/>
+    <sheet name="Звірка21" sheetId="150" r:id="rId20"/>
+    <sheet name="звірка" sheetId="110" r:id="rId21"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId21"/>
     <externalReference r:id="rId22"/>
+    <externalReference r:id="rId23"/>
   </externalReferences>
   <calcPr calcId="162913" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="97">
   <si>
     <t>№</t>
   </si>
@@ -330,6 +331,9 @@
   </si>
   <si>
     <t>ПЛАТІЖНА ВІДОМІСТЬ № 08/А</t>
+  </si>
+  <si>
+    <t>Розрахунково-платіжна відомість за ВЕРЕСЕНЬ 2021 року</t>
   </si>
 </sst>
 </file>
@@ -2030,6 +2034,335 @@
   <dimension ref="A2:R16"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="7" width="10.6328125" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" customWidth="1"/>
+    <col min="10" max="10" width="10.08984375" customWidth="1"/>
+    <col min="11" max="11" width="8.6328125" customWidth="1"/>
+    <col min="12" max="12" width="9.90625" customWidth="1"/>
+    <col min="13" max="13" width="12.453125" customWidth="1"/>
+    <col min="14" max="14" width="9.54296875" customWidth="1"/>
+    <col min="15" max="15" width="8.453125" customWidth="1"/>
+    <col min="16" max="16" width="10.54296875" customWidth="1"/>
+    <col min="17" max="17" width="10.453125" customWidth="1"/>
+    <col min="18" max="18" width="9.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="23"/>
+    </row>
+    <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
+      <c r="A3" s="87" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+    </row>
+    <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="88" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="89" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="92" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="89" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="88" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
+    </row>
+    <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3371314500</v>
+      </c>
+      <c r="D9" s="3">
+        <v>6060</v>
+      </c>
+      <c r="E9" s="3">
+        <v>160</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <f>D9/E6*E9</f>
+        <v>6060</v>
+      </c>
+      <c r="H9" s="65"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L9" s="25">
+        <f>G9</f>
+        <v>6060</v>
+      </c>
+      <c r="M9" s="3">
+        <f>ROUND((L9)*18/100,2)</f>
+        <v>1090.8</v>
+      </c>
+      <c r="N9" s="3">
+        <f>L9*0.015</f>
+        <v>90.899999999999991</v>
+      </c>
+      <c r="O9" s="3">
+        <f>M9+N9</f>
+        <v>1181.7</v>
+      </c>
+      <c r="P9" s="3">
+        <f>L9-O9</f>
+        <v>4878.3</v>
+      </c>
+      <c r="Q9" s="3">
+        <f>P9-K9</f>
+        <v>1878.3000000000002</v>
+      </c>
+      <c r="R9" s="66"/>
+    </row>
+    <row r="10" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49">
+        <f>SUM(D9:D9)</f>
+        <v>6060</v>
+      </c>
+      <c r="E10" s="49">
+        <f>SUM(E9)</f>
+        <v>160</v>
+      </c>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49">
+        <f>SUM(G9)</f>
+        <v>6060</v>
+      </c>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49">
+        <f t="shared" ref="K10:Q10" si="0">SUM(K9:K9)</f>
+        <v>3000</v>
+      </c>
+      <c r="L10" s="75">
+        <f>SUM(L9:L9)</f>
+        <v>6060</v>
+      </c>
+      <c r="M10" s="74">
+        <f t="shared" si="0"/>
+        <v>1090.8</v>
+      </c>
+      <c r="N10" s="74">
+        <f t="shared" si="0"/>
+        <v>90.899999999999991</v>
+      </c>
+      <c r="O10" s="74">
+        <f t="shared" si="0"/>
+        <v>1181.7</v>
+      </c>
+      <c r="P10" s="74">
+        <f t="shared" si="0"/>
+        <v>4878.3</v>
+      </c>
+      <c r="Q10" s="74">
+        <f t="shared" si="0"/>
+        <v>1878.3000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="13" x14ac:dyDescent="0.25">
+      <c r="M11" s="22"/>
+      <c r="Q11" s="47">
+        <f>Q10+K10</f>
+        <v>4878.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="24">
+        <v>0.22</v>
+      </c>
+      <c r="M13" s="54">
+        <f>L9*22%</f>
+        <v>1333.2</v>
+      </c>
+      <c r="N13" s="50"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+    </row>
+    <row r="15" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+    </row>
+    <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="M16" s="73">
+        <f>O10+M13</f>
+        <v>2514.9</v>
+      </c>
+      <c r="N16" s="53"/>
+      <c r="O16" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+  </mergeCells>
+  <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:R16"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -2290,335 +2623,6 @@
       </c>
       <c r="M13" s="54">
         <f>L9*22%</f>
-        <v>1333.2</v>
-      </c>
-      <c r="N13" s="50"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-    </row>
-    <row r="15" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-    </row>
-    <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
-      <c r="M16" s="73">
-        <f>O10+M13</f>
-        <v>2514.9</v>
-      </c>
-      <c r="N16" s="53"/>
-      <c r="O16" s="52"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-  </mergeCells>
-  <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R16"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="7" width="10.6328125" customWidth="1"/>
-    <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" customWidth="1"/>
-    <col min="10" max="10" width="9.90625" customWidth="1"/>
-    <col min="11" max="11" width="8.6328125" customWidth="1"/>
-    <col min="12" max="12" width="11.6328125" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.54296875" customWidth="1"/>
-    <col min="15" max="15" width="8.453125" customWidth="1"/>
-    <col min="16" max="16" width="10.54296875" customWidth="1"/>
-    <col min="17" max="17" width="10.453125" customWidth="1"/>
-    <col min="18" max="18" width="9.36328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="23"/>
-    </row>
-    <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="87" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-    </row>
-    <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="88" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="88" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="89" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="89" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="88" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="J7" s="88" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="88" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="92" t="s">
-        <v>66</v>
-      </c>
-      <c r="M7" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" s="89" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" s="88" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" s="88" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q7" s="88" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
-    </row>
-    <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3371314500</v>
-      </c>
-      <c r="D9" s="3">
-        <v>6060</v>
-      </c>
-      <c r="E9" s="3">
-        <v>176</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <f>D9/E6*E9</f>
-        <v>6060</v>
-      </c>
-      <c r="H9" s="65"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3">
-        <v>3000</v>
-      </c>
-      <c r="L9" s="25">
-        <f>G9</f>
-        <v>6060</v>
-      </c>
-      <c r="M9" s="3">
-        <f>ROUND((L9)*18/100,2)</f>
-        <v>1090.8</v>
-      </c>
-      <c r="N9" s="3">
-        <f>L9*0.015</f>
-        <v>90.899999999999991</v>
-      </c>
-      <c r="O9" s="3">
-        <f>M9+N9</f>
-        <v>1181.7</v>
-      </c>
-      <c r="P9" s="3">
-        <f>L9-O9</f>
-        <v>4878.3</v>
-      </c>
-      <c r="Q9" s="3">
-        <f>P9-K9</f>
-        <v>1878.3000000000002</v>
-      </c>
-      <c r="R9" s="66"/>
-    </row>
-    <row r="10" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49">
-        <f>SUM(D9:D9)</f>
-        <v>6060</v>
-      </c>
-      <c r="E10" s="49">
-        <f>SUM(E9)</f>
-        <v>176</v>
-      </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49">
-        <f>G9</f>
-        <v>6060</v>
-      </c>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49">
-        <f t="shared" ref="K10:Q10" si="0">SUM(K9:K9)</f>
-        <v>3000</v>
-      </c>
-      <c r="L10" s="75">
-        <f>SUM(L9:L9)</f>
-        <v>6060</v>
-      </c>
-      <c r="M10" s="74">
-        <f t="shared" si="0"/>
-        <v>1090.8</v>
-      </c>
-      <c r="N10" s="74">
-        <f t="shared" si="0"/>
-        <v>90.899999999999991</v>
-      </c>
-      <c r="O10" s="74">
-        <f t="shared" si="0"/>
-        <v>1181.7</v>
-      </c>
-      <c r="P10" s="74">
-        <f t="shared" si="0"/>
-        <v>4878.3</v>
-      </c>
-      <c r="Q10" s="74">
-        <f t="shared" si="0"/>
-        <v>1878.3000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="13" x14ac:dyDescent="0.25">
-      <c r="M11" s="22"/>
-      <c r="Q11" s="47">
-        <f>Q10+K10</f>
-        <v>4878.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="91" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="24">
-        <v>0.22</v>
-      </c>
-      <c r="M13" s="54">
-        <f>L9*0.22</f>
         <v>1333.2</v>
       </c>
       <c r="N13" s="50"/>
@@ -2688,6 +2692,335 @@
   <dimension ref="A2:R16"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="7" width="10.6328125" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.90625" customWidth="1"/>
+    <col min="11" max="11" width="8.6328125" customWidth="1"/>
+    <col min="12" max="12" width="11.6328125" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.54296875" customWidth="1"/>
+    <col min="15" max="15" width="8.453125" customWidth="1"/>
+    <col min="16" max="16" width="10.54296875" customWidth="1"/>
+    <col min="17" max="17" width="10.453125" customWidth="1"/>
+    <col min="18" max="18" width="9.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="23"/>
+    </row>
+    <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
+      <c r="A3" s="87" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+    </row>
+    <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="88" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="89" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="92" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="89" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="88" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
+    </row>
+    <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3371314500</v>
+      </c>
+      <c r="D9" s="3">
+        <v>6060</v>
+      </c>
+      <c r="E9" s="3">
+        <v>176</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <f>D9/E6*E9</f>
+        <v>6060</v>
+      </c>
+      <c r="H9" s="65"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L9" s="25">
+        <f>G9</f>
+        <v>6060</v>
+      </c>
+      <c r="M9" s="3">
+        <f>ROUND((L9)*18/100,2)</f>
+        <v>1090.8</v>
+      </c>
+      <c r="N9" s="3">
+        <f>L9*0.015</f>
+        <v>90.899999999999991</v>
+      </c>
+      <c r="O9" s="3">
+        <f>M9+N9</f>
+        <v>1181.7</v>
+      </c>
+      <c r="P9" s="3">
+        <f>L9-O9</f>
+        <v>4878.3</v>
+      </c>
+      <c r="Q9" s="3">
+        <f>P9-K9</f>
+        <v>1878.3000000000002</v>
+      </c>
+      <c r="R9" s="66"/>
+    </row>
+    <row r="10" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49">
+        <f>SUM(D9:D9)</f>
+        <v>6060</v>
+      </c>
+      <c r="E10" s="49">
+        <f>SUM(E9)</f>
+        <v>176</v>
+      </c>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49">
+        <f>G9</f>
+        <v>6060</v>
+      </c>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49">
+        <f t="shared" ref="K10:Q10" si="0">SUM(K9:K9)</f>
+        <v>3000</v>
+      </c>
+      <c r="L10" s="75">
+        <f>SUM(L9:L9)</f>
+        <v>6060</v>
+      </c>
+      <c r="M10" s="74">
+        <f t="shared" si="0"/>
+        <v>1090.8</v>
+      </c>
+      <c r="N10" s="74">
+        <f t="shared" si="0"/>
+        <v>90.899999999999991</v>
+      </c>
+      <c r="O10" s="74">
+        <f t="shared" si="0"/>
+        <v>1181.7</v>
+      </c>
+      <c r="P10" s="74">
+        <f t="shared" si="0"/>
+        <v>4878.3</v>
+      </c>
+      <c r="Q10" s="74">
+        <f t="shared" si="0"/>
+        <v>1878.3000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="13" x14ac:dyDescent="0.25">
+      <c r="M11" s="22"/>
+      <c r="Q11" s="47">
+        <f>Q10+K10</f>
+        <v>4878.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="24">
+        <v>0.22</v>
+      </c>
+      <c r="M13" s="54">
+        <f>L9*0.22</f>
+        <v>1333.2</v>
+      </c>
+      <c r="N13" s="50"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+    </row>
+    <row r="15" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+    </row>
+    <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="M16" s="73">
+        <f>O10+M13</f>
+        <v>2514.9</v>
+      </c>
+      <c r="N16" s="53"/>
+      <c r="O16" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+  </mergeCells>
+  <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:R16"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -3012,7 +3345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R16"/>
   <sheetViews>
@@ -3342,7 +3675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R16"/>
   <sheetViews>
@@ -3674,7 +4007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:P39"/>
@@ -3949,7 +4282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист4"/>
   <dimension ref="A1:F43"/>
@@ -4128,7 +4461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист7"/>
   <dimension ref="A1:P39"/>
@@ -4409,7 +4742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист8"/>
   <dimension ref="A1:F43"/>
@@ -4587,275 +4920,6 @@
   <pageMargins left="0.51181102362204722" right="0" top="0.27559055118110237" bottom="0.98425196850393704" header="0.15748031496062992" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.6328125" customWidth="1"/>
-    <col min="2" max="4" width="12.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="23" x14ac:dyDescent="0.5">
-      <c r="A1" s="120" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-    </row>
-    <row r="3" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="121"/>
-      <c r="B3" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="56" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="121"/>
-      <c r="B4" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="13" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="str">
-        <f>A17</f>
-        <v>грудень</v>
-      </c>
-      <c r="B5" s="57">
-        <v>1160.3699999999999</v>
-      </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="58"/>
-    </row>
-    <row r="6" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="60">
-        <v>1333.2</v>
-      </c>
-      <c r="C6" s="60">
-        <v>1090.8</v>
-      </c>
-      <c r="D6" s="60">
-        <v>90.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="60">
-        <v>1333.2</v>
-      </c>
-      <c r="C7" s="60">
-        <v>1090.8</v>
-      </c>
-      <c r="D7" s="60">
-        <v>90.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="60">
-        <v>1333.2</v>
-      </c>
-      <c r="C8" s="60">
-        <v>1090.8</v>
-      </c>
-      <c r="D8" s="60">
-        <v>90.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="60">
-        <v>1333.2</v>
-      </c>
-      <c r="C9" s="60">
-        <v>1090.8</v>
-      </c>
-      <c r="D9" s="60">
-        <v>90.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="60">
-        <v>1333.2</v>
-      </c>
-      <c r="C10" s="60">
-        <v>1090.8</v>
-      </c>
-      <c r="D10" s="60">
-        <v>90.9</v>
-      </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-    </row>
-    <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="60">
-        <v>1333.2</v>
-      </c>
-      <c r="C11" s="60">
-        <v>1090.8</v>
-      </c>
-      <c r="D11" s="78">
-        <v>90.9</v>
-      </c>
-      <c r="E11" s="79"/>
-    </row>
-    <row r="12" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="60">
-        <v>1337.0730000000001</v>
-      </c>
-      <c r="C12" s="60">
-        <v>1093.97</v>
-      </c>
-      <c r="D12" s="60">
-        <v>91.16406818181818</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="60">
-        <v>1351</v>
-      </c>
-      <c r="C13" s="60">
-        <v>1105.3599999999999</v>
-      </c>
-      <c r="D13" s="60">
-        <v>92.113349999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-    </row>
-    <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-    </row>
-    <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-    </row>
-    <row r="17" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="79"/>
-    </row>
-    <row r="18" spans="1:5" ht="13" x14ac:dyDescent="0.25">
-      <c r="A18" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="62">
-        <f>SUM(B6:B17)</f>
-        <v>10687.272999999999</v>
-      </c>
-      <c r="C18" s="62">
-        <f>SUM(C6:C17)</f>
-        <v>8744.130000000001</v>
-      </c>
-      <c r="D18" s="62">
-        <f>SUM(D6:D17)</f>
-        <v>728.6774181818181</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="72">
-        <v>9319.2000000000007</v>
-      </c>
-      <c r="C19" s="64">
-        <v>7583.79</v>
-      </c>
-      <c r="D19" s="64">
-        <v>631.98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="71">
-        <f>B18-B19</f>
-        <v>1368.0729999999985</v>
-      </c>
-      <c r="C20" s="71">
-        <f>C18-C19</f>
-        <v>1160.3400000000011</v>
-      </c>
-      <c r="D20" s="71">
-        <f>D18-D19</f>
-        <v>96.69741818181808</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="67"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="80"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:A4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5186,6 +5250,281 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.6328125" customWidth="1"/>
+    <col min="2" max="4" width="12.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="23" x14ac:dyDescent="0.5">
+      <c r="A1" s="120" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+    </row>
+    <row r="3" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="121"/>
+      <c r="B3" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="121"/>
+      <c r="B4" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="13" x14ac:dyDescent="0.25">
+      <c r="A5" s="55" t="str">
+        <f>A17</f>
+        <v>грудень</v>
+      </c>
+      <c r="B5" s="57">
+        <v>1160.3699999999999</v>
+      </c>
+      <c r="C5" s="57"/>
+      <c r="D5" s="58"/>
+    </row>
+    <row r="6" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="60">
+        <v>1333.2</v>
+      </c>
+      <c r="C6" s="60">
+        <v>1090.8</v>
+      </c>
+      <c r="D6" s="60">
+        <v>90.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="60">
+        <v>1333.2</v>
+      </c>
+      <c r="C7" s="60">
+        <v>1090.8</v>
+      </c>
+      <c r="D7" s="60">
+        <v>90.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="60">
+        <v>1333.2</v>
+      </c>
+      <c r="C8" s="60">
+        <v>1090.8</v>
+      </c>
+      <c r="D8" s="60">
+        <v>90.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="60">
+        <v>1333.2</v>
+      </c>
+      <c r="C9" s="60">
+        <v>1090.8</v>
+      </c>
+      <c r="D9" s="60">
+        <v>90.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="60">
+        <v>1333.2</v>
+      </c>
+      <c r="C10" s="60">
+        <v>1090.8</v>
+      </c>
+      <c r="D10" s="60">
+        <v>90.9</v>
+      </c>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+    </row>
+    <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="60">
+        <v>1333.2</v>
+      </c>
+      <c r="C11" s="60">
+        <v>1090.8</v>
+      </c>
+      <c r="D11" s="78">
+        <v>90.9</v>
+      </c>
+      <c r="E11" s="79"/>
+    </row>
+    <row r="12" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="60">
+        <v>1337.0730000000001</v>
+      </c>
+      <c r="C12" s="60">
+        <v>1093.97</v>
+      </c>
+      <c r="D12" s="60">
+        <v>91.16406818181818</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="60">
+        <v>1351</v>
+      </c>
+      <c r="C13" s="60">
+        <v>1105.3599999999999</v>
+      </c>
+      <c r="D13" s="60">
+        <v>92.113349999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="60">
+        <v>1351</v>
+      </c>
+      <c r="C14" s="60">
+        <v>1105.3599999999999</v>
+      </c>
+      <c r="D14" s="60">
+        <v>92.113349999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+    </row>
+    <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+    </row>
+    <row r="17" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="79"/>
+    </row>
+    <row r="18" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="A18" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="62">
+        <f>SUM(B6:B17)</f>
+        <v>12038.272999999999</v>
+      </c>
+      <c r="C18" s="62">
+        <f>SUM(C6:C17)</f>
+        <v>9849.4900000000016</v>
+      </c>
+      <c r="D18" s="62">
+        <f>SUM(D6:D17)</f>
+        <v>820.79076818181807</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="72">
+        <v>9319.2000000000007</v>
+      </c>
+      <c r="C19" s="64">
+        <v>7583.79</v>
+      </c>
+      <c r="D19" s="64">
+        <v>631.98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="71">
+        <f>B18-B19</f>
+        <v>2719.0729999999985</v>
+      </c>
+      <c r="C20" s="71">
+        <f>C18-C19</f>
+        <v>2265.7000000000016</v>
+      </c>
+      <c r="D20" s="71">
+        <f>D18-D19</f>
+        <v>188.81076818181805</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="67"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="80"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:A4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
@@ -6797,6 +7136,342 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q16"/>
   <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="7" width="10.6328125" customWidth="1"/>
+    <col min="8" max="8" width="8.26953125" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" customWidth="1"/>
+    <col min="10" max="10" width="10.08984375" customWidth="1"/>
+    <col min="11" max="11" width="8.6328125" customWidth="1"/>
+    <col min="12" max="12" width="9.90625" customWidth="1"/>
+    <col min="13" max="13" width="12.453125" customWidth="1"/>
+    <col min="14" max="14" width="9.54296875" customWidth="1"/>
+    <col min="15" max="15" width="8.453125" customWidth="1"/>
+    <col min="16" max="16" width="10.54296875" customWidth="1"/>
+    <col min="17" max="17" width="10.453125" customWidth="1"/>
+    <col min="18" max="18" width="9.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="23"/>
+    </row>
+    <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
+      <c r="A3" s="87" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+    </row>
+    <row r="4" spans="1:17" ht="20" x14ac:dyDescent="0.4">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="88" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="89" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="92" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="89" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" s="88" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+    </row>
+    <row r="9" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3371314500</v>
+      </c>
+      <c r="D9" s="3">
+        <v>6060</v>
+      </c>
+      <c r="E9" s="3">
+        <v>176</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <f>D9/E6*E9</f>
+        <v>6060</v>
+      </c>
+      <c r="H9" s="3">
+        <v>80.89</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K9" s="25">
+        <f>G9+H9+I9</f>
+        <v>6140.89</v>
+      </c>
+      <c r="L9" s="3">
+        <f>ROUND((K9)*18/100,2)</f>
+        <v>1105.3599999999999</v>
+      </c>
+      <c r="M9" s="3">
+        <f>K9*0.015</f>
+        <v>92.113349999999997</v>
+      </c>
+      <c r="N9" s="3">
+        <f>L9+M9</f>
+        <v>1197.47335</v>
+      </c>
+      <c r="O9" s="3">
+        <f>K9-N9</f>
+        <v>4943.4166500000001</v>
+      </c>
+      <c r="P9" s="3">
+        <f>O9-J9</f>
+        <v>1943.4166500000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49">
+        <f>SUM(D9:D9)</f>
+        <v>6060</v>
+      </c>
+      <c r="E10" s="49">
+        <f>SUM(E9)</f>
+        <v>176</v>
+      </c>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49">
+        <f>SUM(G9)</f>
+        <v>6060</v>
+      </c>
+      <c r="H10" s="49">
+        <f>SUM(H9)</f>
+        <v>80.89</v>
+      </c>
+      <c r="I10" s="49">
+        <v>0</v>
+      </c>
+      <c r="J10" s="49">
+        <f t="shared" ref="J10:P10" si="0">SUM(J9:J9)</f>
+        <v>3000</v>
+      </c>
+      <c r="K10" s="75">
+        <f t="shared" si="0"/>
+        <v>6140.89</v>
+      </c>
+      <c r="L10" s="74">
+        <f t="shared" si="0"/>
+        <v>1105.3599999999999</v>
+      </c>
+      <c r="M10" s="74">
+        <f t="shared" si="0"/>
+        <v>92.113349999999997</v>
+      </c>
+      <c r="N10" s="74">
+        <f t="shared" si="0"/>
+        <v>1197.47335</v>
+      </c>
+      <c r="O10" s="74">
+        <f t="shared" si="0"/>
+        <v>4943.4166500000001</v>
+      </c>
+      <c r="P10" s="74">
+        <f t="shared" si="0"/>
+        <v>1943.4166500000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="13" x14ac:dyDescent="0.25">
+      <c r="M11" s="22"/>
+      <c r="Q11" s="47">
+        <f>P10+J10</f>
+        <v>4943.4166500000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="24">
+        <v>0.22</v>
+      </c>
+      <c r="M13" s="54">
+        <f>K9*22%</f>
+        <v>1350.9958000000001</v>
+      </c>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="M14" s="50"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+    </row>
+    <row r="15" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N15" s="53"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+    </row>
+    <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="M16" s="73">
+        <f>N10+M13</f>
+        <v>2548.4691499999999</v>
+      </c>
+      <c r="N16" s="85" t="e">
+        <f>'07-21'!M9-'07-21'!#REF!+'07-21'!N9-'07-21'!#REF!+'07-21'!M13-1320</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O16" s="86" t="e">
+        <f>M16+N16</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+  </mergeCells>
+  <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Q16"/>
+  <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
@@ -7092,13 +7767,13 @@
         <f>N10+M13</f>
         <v>2548.4691499999999</v>
       </c>
-      <c r="N16" s="85">
-        <f>'07-21'!M9-'07-21'!M10+'07-21'!N9-'07-21'!N10+'07-21'!M14-1320</f>
-        <v>76.634818181817991</v>
-      </c>
-      <c r="O16" s="86">
+      <c r="N16" s="85" t="e">
+        <f>'07-21'!M9-'07-21'!#REF!+'07-21'!N9-'07-21'!#REF!+'07-21'!M13-1320</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O16" s="86" t="e">
         <f>M16+N16</f>
-        <v>2625.1039681818179</v>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -7129,12 +7804,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q17"/>
+  <dimension ref="A2:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -7322,403 +7997,7 @@
         <v>1892.4704772727264</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>1</v>
-      </c>
-      <c r="B10" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3371314500</v>
-      </c>
-      <c r="D10" s="3">
-        <v>6060</v>
-      </c>
-      <c r="E10" s="3">
-        <v>96</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>3305.454545454545</v>
-      </c>
-      <c r="H10" s="84">
-        <v>77.180000000000007</v>
-      </c>
-      <c r="I10" s="3">
-        <v>80.89</v>
-      </c>
-      <c r="J10" s="3">
-        <v>2614.08</v>
-      </c>
-      <c r="K10" s="3">
-        <v>3000</v>
-      </c>
-      <c r="L10" s="25">
-        <f>K10+H10+I10+J10</f>
-        <v>5772.15</v>
-      </c>
-      <c r="M10" s="3">
-        <f>ROUND((L10)*18/100,2)</f>
-        <v>1038.99</v>
-      </c>
-      <c r="N10" s="3">
-        <f>L10*0.015</f>
-        <v>86.582249999999988</v>
-      </c>
-      <c r="O10" s="3">
-        <f>M10+N10</f>
-        <v>1125.5722499999999</v>
-      </c>
-      <c r="P10" s="3">
-        <f>L10-O10</f>
-        <v>4646.5777499999995</v>
-      </c>
-      <c r="Q10" s="3">
-        <f>P10-K10</f>
-        <v>1646.5777499999995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49">
-        <f>SUM(D9:D9)</f>
-        <v>6060</v>
-      </c>
-      <c r="E11" s="49">
-        <f>SUM(E9)</f>
-        <v>96</v>
-      </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49">
-        <f>SUM(G9)</f>
-        <v>3305.454545454545</v>
-      </c>
-      <c r="H11" s="49">
-        <f>SUM(H9)</f>
-        <v>77.180000000000007</v>
-      </c>
-      <c r="I11" s="49">
-        <f>SUM(I9)</f>
-        <v>80.89</v>
-      </c>
-      <c r="J11" s="49">
-        <f>SUM(J9)</f>
-        <v>2614.08</v>
-      </c>
-      <c r="K11" s="49">
-        <f t="shared" ref="K11:Q11" si="0">SUM(K9:K9)</f>
-        <v>3000</v>
-      </c>
-      <c r="L11" s="75">
-        <f t="shared" si="0"/>
-        <v>6077.6045454545447</v>
-      </c>
-      <c r="M11" s="74">
-        <f t="shared" si="0"/>
-        <v>1093.97</v>
-      </c>
-      <c r="N11" s="74">
-        <f t="shared" si="0"/>
-        <v>91.164068181818166</v>
-      </c>
-      <c r="O11" s="74">
-        <f t="shared" si="0"/>
-        <v>1185.1340681818183</v>
-      </c>
-      <c r="P11" s="74">
-        <f t="shared" si="0"/>
-        <v>4892.4704772727264</v>
-      </c>
-      <c r="Q11" s="74">
-        <f t="shared" si="0"/>
-        <v>1892.4704772727264</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="13" x14ac:dyDescent="0.25">
-      <c r="M12" s="22"/>
-      <c r="Q12" s="47">
-        <f>Q11+K11</f>
-        <v>4892.4704772727264</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="91" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="24">
-        <v>0.22</v>
-      </c>
-      <c r="M14" s="54">
-        <f>L9*22%</f>
-        <v>1337.0729999999999</v>
-      </c>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-    </row>
-    <row r="15" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="M15" s="50"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-    </row>
-    <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="N16" s="53"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-    </row>
-    <row r="17" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="M17" s="73">
-        <f>O11+M14</f>
-        <v>2522.2070681818182</v>
-      </c>
-      <c r="O17" s="52"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-  </mergeCells>
-  <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R16"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="7" width="10.6328125" customWidth="1"/>
-    <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" customWidth="1"/>
-    <col min="10" max="10" width="10.08984375" customWidth="1"/>
-    <col min="11" max="11" width="8.6328125" customWidth="1"/>
-    <col min="12" max="12" width="9.90625" customWidth="1"/>
-    <col min="13" max="13" width="12.453125" customWidth="1"/>
-    <col min="14" max="14" width="9.54296875" customWidth="1"/>
-    <col min="15" max="15" width="8.453125" customWidth="1"/>
-    <col min="16" max="16" width="10.54296875" customWidth="1"/>
-    <col min="17" max="17" width="10.453125" customWidth="1"/>
-    <col min="18" max="18" width="9.36328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="23"/>
-    </row>
-    <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="87" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-    </row>
-    <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="88" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="88" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="89" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="89" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="88" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="J7" s="88" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="88" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="92" t="s">
-        <v>66</v>
-      </c>
-      <c r="M7" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" s="89" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" s="88" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" s="88" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q7" s="88" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
-    </row>
-    <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3371314500</v>
-      </c>
-      <c r="D9" s="3">
-        <v>6060</v>
-      </c>
-      <c r="E9" s="3">
-        <v>160</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <f>D9/E6*E9</f>
-        <v>6060</v>
-      </c>
-      <c r="H9" s="65"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3">
-        <v>3000</v>
-      </c>
-      <c r="L9" s="25">
-        <f>G9</f>
-        <v>6060</v>
-      </c>
-      <c r="M9" s="3">
-        <f>ROUND((L9)*18/100,2)</f>
-        <v>1090.8</v>
-      </c>
-      <c r="N9" s="3">
-        <f>L9*0.015</f>
-        <v>90.899999999999991</v>
-      </c>
-      <c r="O9" s="3">
-        <f>M9+N9</f>
-        <v>1181.7</v>
-      </c>
-      <c r="P9" s="3">
-        <f>L9-O9</f>
-        <v>4878.3</v>
-      </c>
-      <c r="Q9" s="3">
-        <f>P9-K9</f>
-        <v>1878.3000000000002</v>
-      </c>
-      <c r="R9" s="66"/>
-    </row>
-    <row r="10" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="48" t="s">
         <v>3</v>
@@ -7730,54 +8009,63 @@
       </c>
       <c r="E10" s="49">
         <f>SUM(E9)</f>
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="F10" s="49"/>
       <c r="G10" s="49">
         <f>SUM(G9)</f>
-        <v>6060</v>
-      </c>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
+        <v>3305.454545454545</v>
+      </c>
+      <c r="H10" s="49">
+        <f>SUM(H9)</f>
+        <v>77.180000000000007</v>
+      </c>
+      <c r="I10" s="49">
+        <f>SUM(I9)</f>
+        <v>80.89</v>
+      </c>
+      <c r="J10" s="49">
+        <f>SUM(J9)</f>
+        <v>2614.08</v>
+      </c>
       <c r="K10" s="49">
         <f t="shared" ref="K10:Q10" si="0">SUM(K9:K9)</f>
         <v>3000</v>
       </c>
       <c r="L10" s="75">
-        <f>SUM(L9:L9)</f>
-        <v>6060</v>
+        <f t="shared" si="0"/>
+        <v>6077.6045454545447</v>
       </c>
       <c r="M10" s="74">
         <f t="shared" si="0"/>
-        <v>1090.8</v>
+        <v>1093.97</v>
       </c>
       <c r="N10" s="74">
         <f t="shared" si="0"/>
-        <v>90.899999999999991</v>
+        <v>91.164068181818166</v>
       </c>
       <c r="O10" s="74">
         <f t="shared" si="0"/>
-        <v>1181.7</v>
+        <v>1185.1340681818183</v>
       </c>
       <c r="P10" s="74">
         <f t="shared" si="0"/>
-        <v>4878.3</v>
+        <v>4892.4704772727264</v>
       </c>
       <c r="Q10" s="74">
         <f t="shared" si="0"/>
-        <v>1878.3000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="13" x14ac:dyDescent="0.25">
+        <v>1892.4704772727264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="13" x14ac:dyDescent="0.25">
       <c r="M11" s="22"/>
       <c r="Q11" s="47">
         <f>Q10+K10</f>
-        <v>4878.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+        <v>4892.4704772727264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="91" t="s">
         <v>37</v>
       </c>
@@ -7795,22 +8083,22 @@
       </c>
       <c r="M13" s="54">
         <f>L9*22%</f>
-        <v>1333.2</v>
-      </c>
-      <c r="N13" s="50"/>
+        <v>1337.0729999999999</v>
+      </c>
+      <c r="N13" s="52"/>
       <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M14" s="52"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="M14" s="50"/>
       <c r="O14" s="52"/>
       <c r="P14" s="52"/>
     </row>
-    <row r="15" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N15" s="53"/>
       <c r="O15" s="52"/>
       <c r="P15" s="52"/>
     </row>
-    <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="91" t="s">
         <v>38</v>
       </c>
@@ -7825,9 +8113,8 @@
       <c r="K16" s="91"/>
       <c r="M16" s="73">
         <f>O10+M13</f>
-        <v>2514.9</v>
-      </c>
-      <c r="N16" s="53"/>
+        <v>2522.2070681818182</v>
+      </c>
       <c r="O16" s="52"/>
     </row>
   </sheetData>

--- a/Фопи/Зарплата ФОП 2021/Підхомна О 2021.xlsx
+++ b/Фопи/Зарплата ФОП 2021/Підхомна О 2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="180" windowWidth="11340" windowHeight="5920" tabRatio="798" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="360" yWindow="180" windowWidth="11340" windowHeight="5920" tabRatio="798" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="12" sheetId="149" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="99">
   <si>
     <t>№</t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>Розрахунково-платіжна відомість за ЖОВТЕНЬ 2021 року</t>
+  </si>
+  <si>
+    <t>Арабчук Лілія Василівна 01.10.21</t>
   </si>
 </sst>
 </file>
@@ -1199,6 +1202,7 @@
     </xf>
     <xf numFmtId="2" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1302,7 +1306,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -1738,26 +1741,26 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="87" t="str">
+      <c r="A3" s="88" t="str">
         <f>'[1]12'!$A$3:$Q$3</f>
         <v xml:space="preserve">Розрахунково – платіжна відомість за Грудень 2020 р. </v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
     </row>
     <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -1770,76 +1773,76 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="88" t="s">
+      <c r="D7" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="89" t="s">
+      <c r="F7" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="89" t="s">
+      <c r="G7" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="88" t="s">
+      <c r="H7" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="88" t="s">
+      <c r="I7" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="88" t="s">
+      <c r="J7" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="88" t="s">
+      <c r="K7" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="92" t="s">
+      <c r="L7" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="88" t="s">
+      <c r="M7" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="89" t="s">
+      <c r="N7" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="88" t="s">
+      <c r="O7" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="88" t="s">
+      <c r="P7" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="88" t="s">
+      <c r="Q7" s="89" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
+      <c r="A8" s="89"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
     </row>
     <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -1953,18 +1956,18 @@
     </row>
     <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -1986,18 +1989,18 @@
       <c r="P15" s="52"/>
     </row>
     <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
       <c r="M16" s="73">
         <f>O10+M13</f>
         <v>2095.75</v>
@@ -2065,25 +2068,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
     </row>
     <row r="4" spans="1:17" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -2096,76 +2099,76 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="88" t="s">
+      <c r="D7" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="89" t="s">
+      <c r="F7" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="89" t="s">
+      <c r="G7" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="88" t="s">
+      <c r="H7" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="88" t="s">
+      <c r="I7" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="88" t="s">
+      <c r="J7" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="88" t="s">
+      <c r="K7" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="92" t="s">
+      <c r="L7" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="88" t="s">
+      <c r="M7" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="89" t="s">
+      <c r="N7" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="88" t="s">
+      <c r="O7" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="88" t="s">
+      <c r="P7" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="88" t="s">
+      <c r="Q7" s="89" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
+      <c r="A8" s="89"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
     </row>
     <row r="9" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -2296,18 +2299,18 @@
     </row>
     <row r="12" spans="1:17" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -2324,7 +2327,7 @@
       <c r="P14" s="52"/>
     </row>
     <row r="15" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D15" s="122">
+      <c r="D15" s="87">
         <f>G9+H9+I9</f>
         <v>3463.5245454545448</v>
       </c>
@@ -2333,18 +2336,18 @@
       <c r="P15" s="52"/>
     </row>
     <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
       <c r="M16" s="73">
         <f>O10+M13</f>
         <v>2522.2070681818182</v>
@@ -2411,25 +2414,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
     </row>
     <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -2442,76 +2445,76 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="88" t="s">
+      <c r="D7" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="89" t="s">
+      <c r="F7" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="89" t="s">
+      <c r="G7" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="88" t="s">
+      <c r="H7" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="88" t="s">
+      <c r="I7" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="88" t="s">
+      <c r="J7" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="88" t="s">
+      <c r="K7" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="92" t="s">
+      <c r="L7" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="88" t="s">
+      <c r="M7" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="89" t="s">
+      <c r="N7" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="88" t="s">
+      <c r="O7" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="88" t="s">
+      <c r="P7" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="88" t="s">
+      <c r="Q7" s="89" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
+      <c r="A8" s="89"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
     </row>
     <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -2628,18 +2631,18 @@
     </row>
     <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -2661,18 +2664,18 @@
       <c r="P15" s="52"/>
     </row>
     <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
       <c r="M16" s="73">
         <f>O10+M13</f>
         <v>2514.9</v>
@@ -2740,25 +2743,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
     </row>
     <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -2771,76 +2774,76 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="88" t="s">
+      <c r="D7" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="89" t="s">
+      <c r="F7" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="89" t="s">
+      <c r="G7" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="88" t="s">
+      <c r="H7" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="88" t="s">
+      <c r="I7" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="88" t="s">
+      <c r="J7" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="88" t="s">
+      <c r="K7" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="92" t="s">
+      <c r="L7" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="88" t="s">
+      <c r="M7" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="89" t="s">
+      <c r="N7" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="88" t="s">
+      <c r="O7" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="88" t="s">
+      <c r="P7" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="88" t="s">
+      <c r="Q7" s="89" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
+      <c r="A8" s="89"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
     </row>
     <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -2957,18 +2960,18 @@
     </row>
     <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -2990,18 +2993,18 @@
       <c r="P15" s="52"/>
     </row>
     <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
       <c r="M16" s="73">
         <f>O10+M13</f>
         <v>2514.9</v>
@@ -3069,25 +3072,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
     </row>
     <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -3100,76 +3103,76 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="88" t="s">
+      <c r="D7" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="89" t="s">
+      <c r="F7" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="89" t="s">
+      <c r="G7" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="88" t="s">
+      <c r="H7" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="88" t="s">
+      <c r="I7" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="88" t="s">
+      <c r="J7" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="88" t="s">
+      <c r="K7" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="92" t="s">
+      <c r="L7" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="88" t="s">
+      <c r="M7" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="89" t="s">
+      <c r="N7" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="88" t="s">
+      <c r="O7" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="88" t="s">
+      <c r="P7" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="88" t="s">
+      <c r="Q7" s="89" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
+      <c r="A8" s="89"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
     </row>
     <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -3286,18 +3289,18 @@
     </row>
     <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -3319,18 +3322,18 @@
       <c r="P15" s="52"/>
     </row>
     <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
       <c r="M16" s="73">
         <f>O10+M13</f>
         <v>2514.9</v>
@@ -3398,25 +3401,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
     </row>
     <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -3429,76 +3432,76 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="88" t="s">
+      <c r="D7" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="89" t="s">
+      <c r="F7" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="89" t="s">
+      <c r="G7" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="88" t="s">
+      <c r="H7" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="88" t="s">
+      <c r="I7" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="88" t="s">
+      <c r="J7" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="88" t="s">
+      <c r="K7" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="92" t="s">
+      <c r="L7" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="88" t="s">
+      <c r="M7" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="89" t="s">
+      <c r="N7" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="88" t="s">
+      <c r="O7" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="88" t="s">
+      <c r="P7" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="88" t="s">
+      <c r="Q7" s="89" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
+      <c r="A8" s="89"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
     </row>
     <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -3615,18 +3618,18 @@
     </row>
     <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -3648,18 +3651,18 @@
       <c r="P15" s="52"/>
     </row>
     <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
       <c r="M16" s="73">
         <f>O10+M13</f>
         <v>2514.9</v>
@@ -3701,7 +3704,7 @@
   <dimension ref="A2:R16"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F65536"/>
+      <selection activeCell="F1" sqref="A1:Q65536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3730,25 +3733,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
     </row>
     <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -3761,76 +3764,76 @@
       </c>
     </row>
     <row r="7" spans="1:18" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="94" t="s">
+      <c r="D7" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="95" t="s">
+      <c r="E7" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="94" t="s">
+      <c r="F7" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="95" t="s">
+      <c r="G7" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="94" t="s">
+      <c r="H7" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="94" t="s">
+      <c r="I7" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="94" t="s">
+      <c r="J7" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="94" t="s">
+      <c r="K7" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="93" t="s">
+      <c r="L7" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="94" t="s">
+      <c r="M7" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="95" t="s">
+      <c r="N7" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="94" t="s">
+      <c r="O7" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="94" t="s">
+      <c r="P7" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="94" t="s">
+      <c r="Q7" s="95" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="83" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="94"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="96"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="94"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="95"/>
     </row>
     <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -3945,18 +3948,18 @@
     </row>
     <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -3978,18 +3981,18 @@
       <c r="P15" s="52"/>
     </row>
     <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
       <c r="M16" s="73">
         <f>O10+M13</f>
         <v>2514.9</v>
@@ -4060,25 +4063,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
     </row>
     <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -4091,76 +4094,76 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="88" t="s">
+      <c r="D7" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="89" t="s">
+      <c r="F7" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="89" t="s">
+      <c r="G7" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="88" t="s">
+      <c r="H7" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="88" t="s">
+      <c r="I7" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="88" t="s">
+      <c r="J7" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="88" t="s">
+      <c r="K7" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="92" t="s">
+      <c r="L7" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="88" t="s">
+      <c r="M7" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="89" t="s">
+      <c r="N7" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="88" t="s">
+      <c r="O7" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="88" t="s">
+      <c r="P7" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="88" t="s">
+      <c r="Q7" s="89" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="82" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
+      <c r="A8" s="89"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
     </row>
     <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -4277,18 +4280,18 @@
     </row>
     <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -4310,18 +4313,18 @@
       <c r="P15" s="52"/>
     </row>
     <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
       <c r="M16" s="73">
         <f>O10+M13</f>
         <v>2514.9</v>
@@ -4382,14 +4385,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
       <c r="I1" s="51" t="s">
         <v>7</v>
       </c>
@@ -4398,11 +4401,11 @@
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
     </row>
@@ -4414,26 +4417,26 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="G3" s="105" t="s">
+      <c r="G3" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
     </row>
     <row r="4" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
     </row>
     <row r="5" spans="1:16" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="107" t="s">
+      <c r="G5" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="108"/>
-      <c r="I5" s="112" t="s">
+      <c r="H5" s="109"/>
+      <c r="I5" s="113" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4445,25 +4448,25 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="113"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="114"/>
     </row>
     <row r="7" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
       <c r="G7" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="114"/>
+      <c r="I7" s="115"/>
     </row>
     <row r="8" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
@@ -4485,15 +4488,15 @@
       <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="98" t="str">
+      <c r="A10" s="99" t="str">
         <f>[2]!СумаПрописом(C9)</f>
         <v>Одна тисяча дев`ятсот сорок три гривнi 42 копiйки</v>
       </c>
-      <c r="B10" s="99"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
@@ -4510,10 +4513,10 @@
       <c r="A12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="111" t="s">
+      <c r="G12" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="H12" s="111"/>
+      <c r="H12" s="112"/>
     </row>
     <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
@@ -4521,54 +4524,54 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="100" t="s">
+      <c r="A14" s="101" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="100"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
     </row>
     <row r="15" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="101" t="s">
+      <c r="A15" s="102" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="101"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
     </row>
     <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="103" t="str">
+      <c r="A17" s="104" t="str">
         <f>A10</f>
         <v>Одна тисяча дев`ятсот сорок три гривнi 42 копiйки</v>
       </c>
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="103"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104"/>
     </row>
     <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -4643,7 +4646,7 @@
       <selection activeCell="E7" sqref="E7:E8"/>
       <selection pane="topRight" activeCell="E7" sqref="E7:E8"/>
       <selection pane="bottomLeft" activeCell="E7" sqref="E7:E8"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
@@ -4714,10 +4717,16 @@
       <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
+      <c r="A4" s="33">
+        <v>2</v>
+      </c>
       <c r="B4" s="37"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="35"/>
+      <c r="C4" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="35">
+        <v>1143.4500000000003</v>
+      </c>
       <c r="E4" s="34"/>
       <c r="F4" s="36"/>
     </row>
@@ -4746,14 +4755,14 @@
       <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="117"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="118"/>
       <c r="D8" s="39">
         <f>SUM(D3:D4)</f>
-        <v>1943.4166500000001</v>
+        <v>3086.8666500000004</v>
       </c>
       <c r="E8" s="34"/>
       <c r="F8" s="36"/>
@@ -4836,15 +4845,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="str">
+      <c r="A1" s="98" t="str">
         <f>'пд1 зп'!A1:E1</f>
         <v>Приватний нотаріус Підхомна Олександра Дмитрівна</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
       <c r="G1" s="51"/>
       <c r="H1" s="51"/>
       <c r="I1" s="51" t="s">
@@ -4855,11 +4864,11 @@
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
     </row>
@@ -4871,26 +4880,26 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="G3" s="105" t="s">
+      <c r="G3" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
     </row>
     <row r="4" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
     </row>
     <row r="5" spans="1:16" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="107" t="s">
+      <c r="G5" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="108"/>
-      <c r="I5" s="112" t="s">
+      <c r="H5" s="109"/>
+      <c r="I5" s="113" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4902,25 +4911,25 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="113"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="114"/>
     </row>
     <row r="7" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
       <c r="G7" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="114"/>
+      <c r="I7" s="115"/>
     </row>
     <row r="8" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
@@ -4941,15 +4950,15 @@
       <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="98" t="str">
+      <c r="A10" s="99" t="str">
         <f>[2]!СумаПрописом(C9)</f>
         <v>Три тисячi гривень 00 копiйок</v>
       </c>
-      <c r="B10" s="99"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
@@ -4966,10 +4975,10 @@
       <c r="A12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="119" t="s">
+      <c r="G12" s="120" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="119"/>
+      <c r="H12" s="120"/>
     </row>
     <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
@@ -4977,55 +4986,55 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="100" t="s">
+      <c r="A14" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="100"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
     </row>
     <row r="15" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="118" t="str">
+      <c r="A15" s="119" t="str">
         <f>'пд1 зп'!A15:I15</f>
         <v>за СЕРПЕНЬ 2021</v>
       </c>
-      <c r="B15" s="101"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
     </row>
     <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="103" t="str">
+      <c r="A17" s="104" t="str">
         <f>A10</f>
         <v>Три тисячi гривень 00 копiйок</v>
       </c>
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="103"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104"/>
     </row>
     <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -5124,25 +5133,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
     </row>
     <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -5155,76 +5164,76 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="88" t="s">
+      <c r="D7" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="89" t="s">
+      <c r="F7" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="89" t="s">
+      <c r="G7" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="88" t="s">
+      <c r="H7" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="88" t="s">
+      <c r="I7" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="88" t="s">
+      <c r="J7" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="88" t="s">
+      <c r="K7" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="92" t="s">
+      <c r="L7" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="88" t="s">
+      <c r="M7" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="89" t="s">
+      <c r="N7" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="88" t="s">
+      <c r="O7" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="88" t="s">
+      <c r="P7" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="88" t="s">
+      <c r="Q7" s="89" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
+      <c r="A8" s="89"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
     </row>
     <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -5338,18 +5347,18 @@
     </row>
     <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -5371,18 +5380,18 @@
       <c r="P15" s="52"/>
     </row>
     <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
       <c r="M16" s="73">
         <f>O10+M13</f>
         <v>2095.75</v>
@@ -5429,7 +5438,7 @@
       <selection activeCell="E7" sqref="E7:E8"/>
       <selection pane="topRight" activeCell="E7" sqref="E7:E8"/>
       <selection pane="bottomLeft" activeCell="E7" sqref="E7:E8"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
@@ -5501,10 +5510,16 @@
       <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
+      <c r="A4" s="33">
+        <v>2</v>
+      </c>
       <c r="B4" s="34"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="35"/>
+      <c r="C4" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="35">
+        <v>1500</v>
+      </c>
       <c r="E4" s="34"/>
       <c r="F4" s="36"/>
     </row>
@@ -5533,14 +5548,14 @@
       <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="117"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="118"/>
       <c r="D8" s="39">
         <f>SUM(D3:D7)</f>
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="E8" s="34"/>
       <c r="F8" s="36"/>
@@ -5604,8 +5619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5615,15 +5630,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23" x14ac:dyDescent="0.5">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="121" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
     </row>
     <row r="3" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="121"/>
+      <c r="A3" s="122"/>
       <c r="B3" s="56" t="s">
         <v>61</v>
       </c>
@@ -5635,7 +5650,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="121"/>
+      <c r="A4" s="122"/>
       <c r="B4" s="57" t="s">
         <v>46</v>
       </c>
@@ -5791,9 +5806,15 @@
       <c r="A15" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
+      <c r="B15" s="60">
+        <v>2670.9958000000006</v>
+      </c>
+      <c r="C15" s="60">
+        <v>1446.46</v>
+      </c>
+      <c r="D15" s="60">
+        <v>137.56335000000001</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="59" t="s">
@@ -5818,15 +5839,15 @@
       </c>
       <c r="B18" s="62">
         <f>SUM(B6:B17)</f>
-        <v>12038.272999999999</v>
+        <v>14709.2688</v>
       </c>
       <c r="C18" s="62">
         <f>SUM(C6:C17)</f>
-        <v>9849.4900000000016</v>
+        <v>11295.95</v>
       </c>
       <c r="D18" s="62">
         <f>SUM(D6:D17)</f>
-        <v>820.79076818181807</v>
+        <v>958.35411818181808</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5849,15 +5870,15 @@
       </c>
       <c r="B20" s="71">
         <f>B18-B19</f>
-        <v>1351.0029999999988</v>
+        <v>4021.9987999999994</v>
       </c>
       <c r="C20" s="71">
         <f>C18-C19</f>
-        <v>1105.3600000000024</v>
+        <v>2551.8200000000015</v>
       </c>
       <c r="D20" s="71">
         <f>D18-D19</f>
-        <v>92.110768181818116</v>
+        <v>229.67411818181813</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
@@ -5890,15 +5911,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23" x14ac:dyDescent="0.5">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
     </row>
     <row r="3" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="121"/>
+      <c r="A3" s="122"/>
       <c r="B3" s="56" t="s">
         <v>61</v>
       </c>
@@ -5910,7 +5931,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="121"/>
+      <c r="A4" s="122"/>
       <c r="B4" s="57" t="s">
         <v>46</v>
       </c>
@@ -6210,25 +6231,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
     </row>
     <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -6241,76 +6262,76 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="88" t="s">
+      <c r="D7" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="89" t="s">
+      <c r="F7" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="89" t="s">
+      <c r="G7" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="88" t="s">
+      <c r="H7" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="88" t="s">
+      <c r="I7" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="88" t="s">
+      <c r="J7" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="88" t="s">
+      <c r="K7" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="92" t="s">
+      <c r="L7" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="88" t="s">
+      <c r="M7" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="89" t="s">
+      <c r="N7" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="88" t="s">
+      <c r="O7" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="88" t="s">
+      <c r="P7" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="88" t="s">
+      <c r="Q7" s="89" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
+      <c r="A8" s="89"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
     </row>
     <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -6424,18 +6445,18 @@
     </row>
     <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -6457,18 +6478,18 @@
       <c r="P15" s="52"/>
     </row>
     <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
       <c r="M16" s="73">
         <f>O10+M13</f>
         <v>2095.75</v>
@@ -6536,25 +6557,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
     </row>
     <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -6567,76 +6588,76 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="88" t="s">
+      <c r="D7" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="89" t="s">
+      <c r="F7" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="89" t="s">
+      <c r="G7" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="88" t="s">
+      <c r="H7" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="88" t="s">
+      <c r="I7" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="88" t="s">
+      <c r="J7" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="88" t="s">
+      <c r="K7" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="92" t="s">
+      <c r="L7" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="88" t="s">
+      <c r="M7" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="89" t="s">
+      <c r="N7" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="88" t="s">
+      <c r="O7" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="88" t="s">
+      <c r="P7" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="88" t="s">
+      <c r="Q7" s="89" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
+      <c r="A8" s="89"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
     </row>
     <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -6750,18 +6771,18 @@
     </row>
     <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -6783,18 +6804,18 @@
       <c r="P15" s="52"/>
     </row>
     <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
       <c r="M16" s="73">
         <f>O10+M13</f>
         <v>2095.75</v>
@@ -6862,25 +6883,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
     </row>
     <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -6893,76 +6914,76 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="88" t="s">
+      <c r="D7" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="89" t="s">
+      <c r="F7" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="89" t="s">
+      <c r="G7" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="88" t="s">
+      <c r="H7" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="88" t="s">
+      <c r="I7" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="88" t="s">
+      <c r="J7" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="88" t="s">
+      <c r="K7" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="92" t="s">
+      <c r="L7" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="88" t="s">
+      <c r="M7" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="89" t="s">
+      <c r="N7" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="88" t="s">
+      <c r="O7" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="88" t="s">
+      <c r="P7" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="88" t="s">
+      <c r="Q7" s="89" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
+      <c r="A8" s="89"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
     </row>
     <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -7076,18 +7097,18 @@
     </row>
     <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -7109,18 +7130,18 @@
       <c r="P15" s="52"/>
     </row>
     <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
       <c r="M16" s="73">
         <f>O10+M13</f>
         <v>1979.5500000000002</v>
@@ -7188,25 +7209,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
     </row>
     <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -7219,76 +7240,76 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="88" t="s">
+      <c r="D7" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="89" t="s">
+      <c r="F7" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="89" t="s">
+      <c r="G7" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="88" t="s">
+      <c r="H7" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="88" t="s">
+      <c r="I7" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="88" t="s">
+      <c r="J7" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="88" t="s">
+      <c r="K7" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="92" t="s">
+      <c r="L7" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="88" t="s">
+      <c r="M7" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="89" t="s">
+      <c r="N7" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="88" t="s">
+      <c r="O7" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="88" t="s">
+      <c r="P7" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="88" t="s">
+      <c r="Q7" s="89" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
+      <c r="A8" s="89"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
     </row>
     <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -7402,18 +7423,18 @@
     </row>
     <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -7435,18 +7456,18 @@
       <c r="P15" s="52"/>
     </row>
     <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
       <c r="M16" s="73">
         <f>O10+M13</f>
         <v>1979.5500000000002</v>
@@ -7485,10 +7506,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q16"/>
+  <dimension ref="A2:Q17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -7514,25 +7535,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
     </row>
     <row r="4" spans="1:17" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -7541,76 +7562,76 @@
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="88" t="s">
+      <c r="D7" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="89" t="s">
+      <c r="F7" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="89" t="s">
+      <c r="G7" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="88" t="s">
+      <c r="H7" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="88" t="s">
+      <c r="I7" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="88" t="s">
+      <c r="J7" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="92" t="s">
+      <c r="K7" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="L7" s="88" t="s">
+      <c r="L7" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="89" t="s">
+      <c r="M7" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="88" t="s">
+      <c r="N7" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="88" t="s">
+      <c r="O7" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="88" t="s">
+      <c r="P7" s="89" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
+      <c r="A8" s="89"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
     </row>
     <row r="9" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -7626,14 +7647,14 @@
         <v>6060</v>
       </c>
       <c r="E9" s="3">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
       </c>
       <c r="G9" s="3">
         <f>D9/E6*E9</f>
-        <v>6060</v>
+        <v>6060.0000000000009</v>
       </c>
       <c r="H9" s="3">
         <v>80.89</v>
@@ -7646,7 +7667,7 @@
       </c>
       <c r="K9" s="25">
         <f>G9+H9+I9</f>
-        <v>6140.89</v>
+        <v>6140.8900000000012</v>
       </c>
       <c r="L9" s="3">
         <f>ROUND((K9)*18/100,2)</f>
@@ -7654,7 +7675,7 @@
       </c>
       <c r="M9" s="3">
         <f>K9*0.015</f>
-        <v>92.113349999999997</v>
+        <v>92.113350000000011</v>
       </c>
       <c r="N9" s="3">
         <f>L9+M9</f>
@@ -7662,146 +7683,199 @@
       </c>
       <c r="O9" s="3">
         <f>K9-N9</f>
-        <v>4943.4166500000001</v>
+        <v>4943.416650000001</v>
       </c>
       <c r="P9" s="3">
         <f>O9-J9</f>
-        <v>1943.4166500000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="48" t="s">
+        <v>1943.416650000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3268013166</v>
+      </c>
+      <c r="D10" s="3">
+        <v>6060</v>
+      </c>
+      <c r="E10" s="3">
+        <v>79.5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="3">
+        <f>D10/E6*E10</f>
+        <v>3030.0000000000005</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K10" s="25">
+        <f>G10+H10+I10</f>
+        <v>3030.0000000000005</v>
+      </c>
+      <c r="L10" s="3">
+        <f>ROUND((K10-1135)*18/100,2)</f>
+        <v>341.1</v>
+      </c>
+      <c r="M10" s="3">
+        <f>K10*0.015</f>
+        <v>45.45</v>
+      </c>
+      <c r="N10" s="3">
+        <f>L10+M10</f>
+        <v>386.55</v>
+      </c>
+      <c r="O10" s="3">
+        <f>K10-N10</f>
+        <v>2643.4500000000003</v>
+      </c>
+      <c r="P10" s="3">
+        <f>O10-J10</f>
+        <v>1143.4500000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49">
+      <c r="C11" s="48"/>
+      <c r="D11" s="49">
         <f>SUM(D9:D9)</f>
         <v>6060</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E11" s="49">
         <f>SUM(E9)</f>
-        <v>176</v>
-      </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49">
+        <v>159</v>
+      </c>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49">
         <f>SUM(G9)</f>
-        <v>6060</v>
-      </c>
-      <c r="H10" s="49">
+        <v>6060.0000000000009</v>
+      </c>
+      <c r="H11" s="49">
         <f>SUM(H9)</f>
         <v>80.89</v>
       </c>
-      <c r="I10" s="49">
+      <c r="I11" s="49">
         <v>0</v>
       </c>
-      <c r="J10" s="49">
-        <f t="shared" ref="J10:P10" si="0">SUM(J9:J9)</f>
+      <c r="J11" s="49">
+        <f>SUM(J9:J9)</f>
         <v>3000</v>
       </c>
-      <c r="K10" s="75">
+      <c r="K11" s="75">
+        <f>SUM(K9:K9)</f>
+        <v>6140.8900000000012</v>
+      </c>
+      <c r="L11" s="74">
+        <f>SUM(L9:L10)</f>
+        <v>1446.46</v>
+      </c>
+      <c r="M11" s="74">
+        <f>SUM(M9:M10)</f>
+        <v>137.56335000000001</v>
+      </c>
+      <c r="N11" s="74">
+        <f t="shared" ref="N11:P11" si="0">SUM(N9:N10)</f>
+        <v>1584.0233499999999</v>
+      </c>
+      <c r="O11" s="74">
         <f t="shared" si="0"/>
-        <v>6140.89</v>
-      </c>
-      <c r="L10" s="74">
+        <v>7586.8666500000018</v>
+      </c>
+      <c r="P11" s="74">
         <f t="shared" si="0"/>
-        <v>1105.3599999999999</v>
-      </c>
-      <c r="M10" s="74">
-        <f t="shared" si="0"/>
-        <v>92.113349999999997</v>
-      </c>
-      <c r="N10" s="74">
-        <f t="shared" si="0"/>
-        <v>1197.47335</v>
-      </c>
-      <c r="O10" s="74">
-        <f t="shared" si="0"/>
-        <v>4943.4166500000001</v>
-      </c>
-      <c r="P10" s="74">
-        <f t="shared" si="0"/>
-        <v>1943.4166500000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="13" x14ac:dyDescent="0.25">
-      <c r="M11" s="22"/>
-      <c r="Q11" s="47">
-        <f>P10+J10</f>
-        <v>4943.4166500000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="91" t="s">
+        <v>3086.8666500000013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="13" x14ac:dyDescent="0.25">
+      <c r="M12" s="22"/>
+      <c r="Q12" s="47">
+        <f>P11+J11</f>
+        <v>6086.8666500000018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="24">
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="24">
         <v>0.22</v>
       </c>
-      <c r="M13" s="54">
-        <f>K9*22%</f>
-        <v>1350.9958000000001</v>
-      </c>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-    </row>
-    <row r="14" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="M14" s="50"/>
+      <c r="M14" s="54">
+        <f>K9*22%+1320</f>
+        <v>2670.9958000000006</v>
+      </c>
+      <c r="N14" s="52"/>
       <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-    </row>
-    <row r="15" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="N15" s="53"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="M15" s="50"/>
       <c r="O15" s="52"/>
       <c r="P15" s="52"/>
     </row>
     <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="91" t="s">
+      <c r="N16" s="53"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+    </row>
+    <row r="17" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
-      <c r="M16" s="73">
-        <f>N10+M13</f>
-        <v>2548.4691499999999</v>
-      </c>
-      <c r="N16" s="85" t="e">
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="M17" s="73">
+        <f>N11+M14</f>
+        <v>4255.0191500000001</v>
+      </c>
+      <c r="N17" s="85" t="e">
         <f>'07-21'!M9-'07-21'!#REF!+'07-21'!N9-'07-21'!#REF!+'07-21'!M13-1320</f>
         <v>#REF!</v>
       </c>
-      <c r="O16" s="86" t="e">
-        <f>M16+N16</f>
+      <c r="O17" s="86" t="e">
+        <f>M17+N17</f>
         <v>#REF!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B17:K17"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -7812,6 +7886,10 @@
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -7823,8 +7901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E8"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -7850,25 +7928,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
     </row>
     <row r="4" spans="1:17" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -7881,72 +7959,72 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="88" t="s">
+      <c r="D7" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="89" t="s">
+      <c r="F7" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="89" t="s">
+      <c r="G7" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="88" t="s">
+      <c r="H7" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="88" t="s">
+      <c r="I7" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="88" t="s">
+      <c r="J7" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="92" t="s">
+      <c r="K7" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="L7" s="88" t="s">
+      <c r="L7" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="89" t="s">
+      <c r="M7" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="88" t="s">
+      <c r="N7" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="88" t="s">
+      <c r="O7" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="88" t="s">
+      <c r="P7" s="89" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
+      <c r="A8" s="89"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
     </row>
     <row r="9" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -8069,18 +8147,18 @@
     </row>
     <row r="12" spans="1:17" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -8102,18 +8180,18 @@
       <c r="P15" s="52"/>
     </row>
     <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
       <c r="M16" s="73">
         <f>N10+M13</f>
         <v>2548.4691499999999</v>
@@ -8186,25 +8264,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
     </row>
     <row r="4" spans="1:17" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -8217,72 +8295,72 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="88" t="s">
+      <c r="D7" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="89" t="s">
+      <c r="F7" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="89" t="s">
+      <c r="G7" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="88" t="s">
+      <c r="H7" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="88" t="s">
+      <c r="I7" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="88" t="s">
+      <c r="J7" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="92" t="s">
+      <c r="K7" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="L7" s="88" t="s">
+      <c r="L7" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="89" t="s">
+      <c r="M7" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="88" t="s">
+      <c r="N7" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="88" t="s">
+      <c r="O7" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="88" t="s">
+      <c r="P7" s="89" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
+      <c r="A8" s="89"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
     </row>
     <row r="9" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -8405,18 +8483,18 @@
     </row>
     <row r="12" spans="1:17" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -8438,18 +8516,18 @@
       <c r="P15" s="52"/>
     </row>
     <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
       <c r="M16" s="73">
         <f>N10+M13</f>
         <v>2548.4691499999999</v>

--- a/Фопи/Зарплата ФОП 2021/Підхомна О 2021.xlsx
+++ b/Фопи/Зарплата ФОП 2021/Підхомна О 2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="180" windowWidth="11340" windowHeight="5920" tabRatio="798" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="180" windowWidth="11340" windowHeight="5920" tabRatio="798" firstSheet="6" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="12" sheetId="149" r:id="rId1"/>
@@ -1203,53 +1203,35 @@
     <xf numFmtId="2" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1287,6 +1269,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1741,26 +1741,26 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="88" t="str">
+      <c r="A3" s="91" t="str">
         <f>'[1]12'!$A$3:$Q$3</f>
         <v xml:space="preserve">Розрахунково – платіжна відомість за Грудень 2020 р. </v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
     </row>
     <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -1785,13 +1785,13 @@
       <c r="D7" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="90" t="s">
+      <c r="G7" s="92" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="89" t="s">
@@ -1806,13 +1806,13 @@
       <c r="K7" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="93" t="s">
+      <c r="L7" s="90" t="s">
         <v>66</v>
       </c>
       <c r="M7" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="90" t="s">
+      <c r="N7" s="92" t="s">
         <v>42</v>
       </c>
       <c r="O7" s="89" t="s">
@@ -1830,16 +1830,16 @@
       <c r="B8" s="89"/>
       <c r="C8" s="89"/>
       <c r="D8" s="89"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
       <c r="H8" s="89"/>
       <c r="I8" s="89"/>
       <c r="J8" s="89"/>
       <c r="K8" s="89"/>
-      <c r="L8" s="93"/>
+      <c r="L8" s="90"/>
       <c r="M8" s="89"/>
-      <c r="N8" s="91"/>
+      <c r="N8" s="93"/>
       <c r="O8" s="89"/>
       <c r="P8" s="89"/>
       <c r="Q8" s="89"/>
@@ -1956,18 +1956,18 @@
     </row>
     <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -1989,18 +1989,18 @@
       <c r="P15" s="52"/>
     </row>
     <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
       <c r="M16" s="73">
         <f>O10+M13</f>
         <v>2095.75</v>
@@ -2010,11 +2010,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -2030,6 +2025,11 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
@@ -2068,25 +2068,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
     </row>
     <row r="4" spans="1:17" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -2111,13 +2111,13 @@
       <c r="D7" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="90" t="s">
+      <c r="G7" s="92" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="89" t="s">
@@ -2132,13 +2132,13 @@
       <c r="K7" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="93" t="s">
+      <c r="L7" s="90" t="s">
         <v>66</v>
       </c>
       <c r="M7" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="90" t="s">
+      <c r="N7" s="92" t="s">
         <v>42</v>
       </c>
       <c r="O7" s="89" t="s">
@@ -2156,16 +2156,16 @@
       <c r="B8" s="89"/>
       <c r="C8" s="89"/>
       <c r="D8" s="89"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
       <c r="H8" s="89"/>
       <c r="I8" s="89"/>
       <c r="J8" s="89"/>
       <c r="K8" s="89"/>
-      <c r="L8" s="93"/>
+      <c r="L8" s="90"/>
       <c r="M8" s="89"/>
-      <c r="N8" s="91"/>
+      <c r="N8" s="93"/>
       <c r="O8" s="89"/>
       <c r="P8" s="89"/>
       <c r="Q8" s="89"/>
@@ -2299,18 +2299,18 @@
     </row>
     <row r="12" spans="1:17" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -2336,18 +2336,18 @@
       <c r="P15" s="52"/>
     </row>
     <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
       <c r="M16" s="73">
         <f>O10+M13</f>
         <v>2522.2070681818182</v>
@@ -2356,11 +2356,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -2376,6 +2371,11 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -2414,25 +2414,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
     </row>
     <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -2457,13 +2457,13 @@
       <c r="D7" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="90" t="s">
+      <c r="G7" s="92" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="89" t="s">
@@ -2478,13 +2478,13 @@
       <c r="K7" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="93" t="s">
+      <c r="L7" s="90" t="s">
         <v>66</v>
       </c>
       <c r="M7" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="90" t="s">
+      <c r="N7" s="92" t="s">
         <v>42</v>
       </c>
       <c r="O7" s="89" t="s">
@@ -2502,16 +2502,16 @@
       <c r="B8" s="89"/>
       <c r="C8" s="89"/>
       <c r="D8" s="89"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
       <c r="H8" s="89"/>
       <c r="I8" s="89"/>
       <c r="J8" s="89"/>
       <c r="K8" s="89"/>
-      <c r="L8" s="93"/>
+      <c r="L8" s="90"/>
       <c r="M8" s="89"/>
-      <c r="N8" s="91"/>
+      <c r="N8" s="93"/>
       <c r="O8" s="89"/>
       <c r="P8" s="89"/>
       <c r="Q8" s="89"/>
@@ -2631,18 +2631,18 @@
     </row>
     <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -2664,18 +2664,18 @@
       <c r="P15" s="52"/>
     </row>
     <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
       <c r="M16" s="73">
         <f>O10+M13</f>
         <v>2514.9</v>
@@ -2685,11 +2685,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -2705,6 +2700,11 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -2743,25 +2743,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
     </row>
     <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -2786,13 +2786,13 @@
       <c r="D7" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="90" t="s">
+      <c r="G7" s="92" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="89" t="s">
@@ -2807,13 +2807,13 @@
       <c r="K7" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="93" t="s">
+      <c r="L7" s="90" t="s">
         <v>66</v>
       </c>
       <c r="M7" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="90" t="s">
+      <c r="N7" s="92" t="s">
         <v>42</v>
       </c>
       <c r="O7" s="89" t="s">
@@ -2831,16 +2831,16 @@
       <c r="B8" s="89"/>
       <c r="C8" s="89"/>
       <c r="D8" s="89"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
       <c r="H8" s="89"/>
       <c r="I8" s="89"/>
       <c r="J8" s="89"/>
       <c r="K8" s="89"/>
-      <c r="L8" s="93"/>
+      <c r="L8" s="90"/>
       <c r="M8" s="89"/>
-      <c r="N8" s="91"/>
+      <c r="N8" s="93"/>
       <c r="O8" s="89"/>
       <c r="P8" s="89"/>
       <c r="Q8" s="89"/>
@@ -2960,18 +2960,18 @@
     </row>
     <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -2993,18 +2993,18 @@
       <c r="P15" s="52"/>
     </row>
     <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
       <c r="M16" s="73">
         <f>O10+M13</f>
         <v>2514.9</v>
@@ -3014,6 +3014,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -3029,11 +3034,6 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -3072,25 +3072,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
     </row>
     <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -3115,13 +3115,13 @@
       <c r="D7" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="90" t="s">
+      <c r="G7" s="92" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="89" t="s">
@@ -3136,13 +3136,13 @@
       <c r="K7" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="93" t="s">
+      <c r="L7" s="90" t="s">
         <v>66</v>
       </c>
       <c r="M7" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="90" t="s">
+      <c r="N7" s="92" t="s">
         <v>42</v>
       </c>
       <c r="O7" s="89" t="s">
@@ -3160,16 +3160,16 @@
       <c r="B8" s="89"/>
       <c r="C8" s="89"/>
       <c r="D8" s="89"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
       <c r="H8" s="89"/>
       <c r="I8" s="89"/>
       <c r="J8" s="89"/>
       <c r="K8" s="89"/>
-      <c r="L8" s="93"/>
+      <c r="L8" s="90"/>
       <c r="M8" s="89"/>
-      <c r="N8" s="91"/>
+      <c r="N8" s="93"/>
       <c r="O8" s="89"/>
       <c r="P8" s="89"/>
       <c r="Q8" s="89"/>
@@ -3289,18 +3289,18 @@
     </row>
     <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -3322,18 +3322,18 @@
       <c r="P15" s="52"/>
     </row>
     <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
       <c r="M16" s="73">
         <f>O10+M13</f>
         <v>2514.9</v>
@@ -3343,6 +3343,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -3358,11 +3363,6 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -3401,25 +3401,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
     </row>
     <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -3444,13 +3444,13 @@
       <c r="D7" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="90" t="s">
+      <c r="G7" s="92" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="89" t="s">
@@ -3465,13 +3465,13 @@
       <c r="K7" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="93" t="s">
+      <c r="L7" s="90" t="s">
         <v>66</v>
       </c>
       <c r="M7" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="90" t="s">
+      <c r="N7" s="92" t="s">
         <v>42</v>
       </c>
       <c r="O7" s="89" t="s">
@@ -3489,16 +3489,16 @@
       <c r="B8" s="89"/>
       <c r="C8" s="89"/>
       <c r="D8" s="89"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
       <c r="H8" s="89"/>
       <c r="I8" s="89"/>
       <c r="J8" s="89"/>
       <c r="K8" s="89"/>
-      <c r="L8" s="93"/>
+      <c r="L8" s="90"/>
       <c r="M8" s="89"/>
-      <c r="N8" s="91"/>
+      <c r="N8" s="93"/>
       <c r="O8" s="89"/>
       <c r="P8" s="89"/>
       <c r="Q8" s="89"/>
@@ -3618,18 +3618,18 @@
     </row>
     <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -3651,18 +3651,18 @@
       <c r="P15" s="52"/>
     </row>
     <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
       <c r="M16" s="73">
         <f>O10+M13</f>
         <v>2514.9</v>
@@ -3672,6 +3672,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -3686,12 +3692,6 @@
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="P7:P8"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="G7:G8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -3733,25 +3733,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
     </row>
     <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -3764,76 +3764,76 @@
       </c>
     </row>
     <row r="7" spans="1:18" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="96" t="s">
+      <c r="E7" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="95" t="s">
+      <c r="F7" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="96" t="s">
+      <c r="G7" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="95" t="s">
+      <c r="H7" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="95" t="s">
+      <c r="I7" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="95" t="s">
+      <c r="J7" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="95" t="s">
+      <c r="K7" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="94" t="s">
+      <c r="L7" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="95" t="s">
+      <c r="M7" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="96" t="s">
+      <c r="N7" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="95" t="s">
+      <c r="O7" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="95" t="s">
+      <c r="P7" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="95" t="s">
+      <c r="Q7" s="94" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="83" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="95"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="95"/>
+      <c r="A8" s="94"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="96"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="94"/>
     </row>
     <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -3948,18 +3948,18 @@
     </row>
     <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -3981,18 +3981,18 @@
       <c r="P15" s="52"/>
     </row>
     <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
       <c r="M16" s="73">
         <f>O10+M13</f>
         <v>2514.9</v>
@@ -4002,6 +4002,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="Q7:Q8"/>
     <mergeCell ref="A3:Q3"/>
@@ -4013,15 +4022,6 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -4063,25 +4063,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
     </row>
     <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -4106,13 +4106,13 @@
       <c r="D7" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="90" t="s">
+      <c r="G7" s="92" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="89" t="s">
@@ -4127,13 +4127,13 @@
       <c r="K7" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="93" t="s">
+      <c r="L7" s="90" t="s">
         <v>33</v>
       </c>
       <c r="M7" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="90" t="s">
+      <c r="N7" s="92" t="s">
         <v>42</v>
       </c>
       <c r="O7" s="89" t="s">
@@ -4151,16 +4151,16 @@
       <c r="B8" s="89"/>
       <c r="C8" s="89"/>
       <c r="D8" s="89"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
       <c r="H8" s="89"/>
       <c r="I8" s="89"/>
       <c r="J8" s="89"/>
       <c r="K8" s="89"/>
-      <c r="L8" s="93"/>
+      <c r="L8" s="90"/>
       <c r="M8" s="89"/>
-      <c r="N8" s="91"/>
+      <c r="N8" s="93"/>
       <c r="O8" s="89"/>
       <c r="P8" s="89"/>
       <c r="Q8" s="89"/>
@@ -4280,18 +4280,18 @@
     </row>
     <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -4313,18 +4313,18 @@
       <c r="P15" s="52"/>
     </row>
     <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
       <c r="M16" s="73">
         <f>O10+M13</f>
         <v>2514.9</v>
@@ -4334,11 +4334,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B16:K16"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -4354,6 +4349,11 @@
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="P7:P8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B16:K16"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
@@ -4385,14 +4385,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
       <c r="I1" s="51" t="s">
         <v>7</v>
       </c>
@@ -4401,11 +4401,11 @@
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
     </row>
@@ -4417,26 +4417,26 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="G3" s="106" t="s">
+      <c r="G3" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
     </row>
     <row r="4" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
     </row>
     <row r="5" spans="1:16" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="108" t="s">
+      <c r="G5" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="109"/>
-      <c r="I5" s="113" t="s">
+      <c r="H5" s="103"/>
+      <c r="I5" s="107" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4448,25 +4448,25 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="114"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="108"/>
     </row>
     <row r="7" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
       <c r="G7" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="115"/>
+      <c r="I7" s="109"/>
     </row>
     <row r="8" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
@@ -4488,15 +4488,15 @@
       <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="99" t="str">
+      <c r="A10" s="112" t="str">
         <f>[2]!СумаПрописом(C9)</f>
         <v>Одна тисяча дев`ятсот сорок три гривнi 42 копiйки</v>
       </c>
-      <c r="B10" s="100"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
@@ -4513,10 +4513,10 @@
       <c r="A12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="112" t="s">
+      <c r="G12" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="H12" s="112"/>
+      <c r="H12" s="106"/>
     </row>
     <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
@@ -4524,54 +4524,54 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="101" t="s">
+      <c r="A14" s="114" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="101"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
     </row>
     <row r="15" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
     </row>
     <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="103"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="104" t="str">
+      <c r="A17" s="98" t="str">
         <f>A10</f>
         <v>Одна тисяча дев`ятсот сорок три гривнi 42 копiйки</v>
       </c>
-      <c r="B17" s="104"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="98"/>
     </row>
     <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -4616,6 +4616,11 @@
     <row r="39" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:I16"/>
     <mergeCell ref="A17:I17"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G3:I3"/>
@@ -4624,11 +4629,6 @@
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:I16"/>
   </mergeCells>
   <pageMargins left="0.42" right="0.23" top="0.44" bottom="0.98425196850393704" header="0.3" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -4845,15 +4845,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="str">
+      <c r="A1" s="111" t="str">
         <f>'пд1 зп'!A1:E1</f>
         <v>Приватний нотаріус Підхомна Олександра Дмитрівна</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
       <c r="G1" s="51"/>
       <c r="H1" s="51"/>
       <c r="I1" s="51" t="s">
@@ -4864,11 +4864,11 @@
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
     </row>
@@ -4880,26 +4880,26 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="G3" s="106" t="s">
+      <c r="G3" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
     </row>
     <row r="4" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
     </row>
     <row r="5" spans="1:16" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="108" t="s">
+      <c r="G5" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="109"/>
-      <c r="I5" s="113" t="s">
+      <c r="H5" s="103"/>
+      <c r="I5" s="107" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4911,25 +4911,25 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="114"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="108"/>
     </row>
     <row r="7" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
       <c r="G7" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="115"/>
+      <c r="I7" s="109"/>
     </row>
     <row r="8" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
@@ -4950,15 +4950,15 @@
       <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="99" t="str">
+      <c r="A10" s="112" t="str">
         <f>[2]!СумаПрописом(C9)</f>
         <v>Три тисячi гривень 00 копiйок</v>
       </c>
-      <c r="B10" s="100"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
@@ -4986,55 +4986,55 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="101" t="s">
+      <c r="A14" s="114" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="101"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
     </row>
     <row r="15" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="119" t="str">
         <f>'пд1 зп'!A15:I15</f>
         <v>за СЕРПЕНЬ 2021</v>
       </c>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
     </row>
     <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="103"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="104" t="str">
+      <c r="A17" s="98" t="str">
         <f>A10</f>
         <v>Три тисячi гривень 00 копiйок</v>
       </c>
-      <c r="B17" s="104"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="98"/>
     </row>
     <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -5081,6 +5081,12 @@
     <row r="39" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="G12:H12"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G3:I3"/>
@@ -5088,12 +5094,6 @@
     <mergeCell ref="G5:H6"/>
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.43307086614173229" bottom="0.98425196850393704" header="0.31496062992125984" footer="0.51181102362204722"/>
@@ -5133,25 +5133,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
     </row>
     <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -5176,13 +5176,13 @@
       <c r="D7" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="90" t="s">
+      <c r="G7" s="92" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="89" t="s">
@@ -5197,13 +5197,13 @@
       <c r="K7" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="93" t="s">
+      <c r="L7" s="90" t="s">
         <v>66</v>
       </c>
       <c r="M7" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="90" t="s">
+      <c r="N7" s="92" t="s">
         <v>42</v>
       </c>
       <c r="O7" s="89" t="s">
@@ -5221,16 +5221,16 @@
       <c r="B8" s="89"/>
       <c r="C8" s="89"/>
       <c r="D8" s="89"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
       <c r="H8" s="89"/>
       <c r="I8" s="89"/>
       <c r="J8" s="89"/>
       <c r="K8" s="89"/>
-      <c r="L8" s="93"/>
+      <c r="L8" s="90"/>
       <c r="M8" s="89"/>
-      <c r="N8" s="91"/>
+      <c r="N8" s="93"/>
       <c r="O8" s="89"/>
       <c r="P8" s="89"/>
       <c r="Q8" s="89"/>
@@ -5347,18 +5347,18 @@
     </row>
     <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -5380,18 +5380,18 @@
       <c r="P15" s="52"/>
     </row>
     <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
       <c r="M16" s="73">
         <f>O10+M13</f>
         <v>2095.75</v>
@@ -5401,11 +5401,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -5421,6 +5416,11 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
@@ -5619,7 +5619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -6231,25 +6231,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
     </row>
     <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -6274,13 +6274,13 @@
       <c r="D7" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="90" t="s">
+      <c r="G7" s="92" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="89" t="s">
@@ -6295,13 +6295,13 @@
       <c r="K7" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="93" t="s">
+      <c r="L7" s="90" t="s">
         <v>66</v>
       </c>
       <c r="M7" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="90" t="s">
+      <c r="N7" s="92" t="s">
         <v>42</v>
       </c>
       <c r="O7" s="89" t="s">
@@ -6319,16 +6319,16 @@
       <c r="B8" s="89"/>
       <c r="C8" s="89"/>
       <c r="D8" s="89"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
       <c r="H8" s="89"/>
       <c r="I8" s="89"/>
       <c r="J8" s="89"/>
       <c r="K8" s="89"/>
-      <c r="L8" s="93"/>
+      <c r="L8" s="90"/>
       <c r="M8" s="89"/>
-      <c r="N8" s="91"/>
+      <c r="N8" s="93"/>
       <c r="O8" s="89"/>
       <c r="P8" s="89"/>
       <c r="Q8" s="89"/>
@@ -6445,18 +6445,18 @@
     </row>
     <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -6478,18 +6478,18 @@
       <c r="P15" s="52"/>
     </row>
     <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
       <c r="M16" s="73">
         <f>O10+M13</f>
         <v>2095.75</v>
@@ -6499,11 +6499,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -6519,6 +6514,11 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
@@ -6557,25 +6557,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
     </row>
     <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -6600,13 +6600,13 @@
       <c r="D7" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="90" t="s">
+      <c r="G7" s="92" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="89" t="s">
@@ -6621,13 +6621,13 @@
       <c r="K7" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="93" t="s">
+      <c r="L7" s="90" t="s">
         <v>66</v>
       </c>
       <c r="M7" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="90" t="s">
+      <c r="N7" s="92" t="s">
         <v>42</v>
       </c>
       <c r="O7" s="89" t="s">
@@ -6645,16 +6645,16 @@
       <c r="B8" s="89"/>
       <c r="C8" s="89"/>
       <c r="D8" s="89"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
       <c r="H8" s="89"/>
       <c r="I8" s="89"/>
       <c r="J8" s="89"/>
       <c r="K8" s="89"/>
-      <c r="L8" s="93"/>
+      <c r="L8" s="90"/>
       <c r="M8" s="89"/>
-      <c r="N8" s="91"/>
+      <c r="N8" s="93"/>
       <c r="O8" s="89"/>
       <c r="P8" s="89"/>
       <c r="Q8" s="89"/>
@@ -6771,18 +6771,18 @@
     </row>
     <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -6804,18 +6804,18 @@
       <c r="P15" s="52"/>
     </row>
     <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
       <c r="M16" s="73">
         <f>O10+M13</f>
         <v>2095.75</v>
@@ -6825,11 +6825,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -6845,6 +6840,11 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
@@ -6883,25 +6883,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
     </row>
     <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -6926,13 +6926,13 @@
       <c r="D7" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="90" t="s">
+      <c r="G7" s="92" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="89" t="s">
@@ -6947,13 +6947,13 @@
       <c r="K7" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="93" t="s">
+      <c r="L7" s="90" t="s">
         <v>66</v>
       </c>
       <c r="M7" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="90" t="s">
+      <c r="N7" s="92" t="s">
         <v>42</v>
       </c>
       <c r="O7" s="89" t="s">
@@ -6971,16 +6971,16 @@
       <c r="B8" s="89"/>
       <c r="C8" s="89"/>
       <c r="D8" s="89"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
       <c r="H8" s="89"/>
       <c r="I8" s="89"/>
       <c r="J8" s="89"/>
       <c r="K8" s="89"/>
-      <c r="L8" s="93"/>
+      <c r="L8" s="90"/>
       <c r="M8" s="89"/>
-      <c r="N8" s="91"/>
+      <c r="N8" s="93"/>
       <c r="O8" s="89"/>
       <c r="P8" s="89"/>
       <c r="Q8" s="89"/>
@@ -7097,18 +7097,18 @@
     </row>
     <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -7130,18 +7130,18 @@
       <c r="P15" s="52"/>
     </row>
     <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
       <c r="M16" s="73">
         <f>O10+M13</f>
         <v>1979.5500000000002</v>
@@ -7151,11 +7151,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -7171,6 +7166,11 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
@@ -7209,25 +7209,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
     </row>
     <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -7252,13 +7252,13 @@
       <c r="D7" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="90" t="s">
+      <c r="G7" s="92" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="89" t="s">
@@ -7273,13 +7273,13 @@
       <c r="K7" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="93" t="s">
+      <c r="L7" s="90" t="s">
         <v>66</v>
       </c>
       <c r="M7" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="90" t="s">
+      <c r="N7" s="92" t="s">
         <v>42</v>
       </c>
       <c r="O7" s="89" t="s">
@@ -7297,16 +7297,16 @@
       <c r="B8" s="89"/>
       <c r="C8" s="89"/>
       <c r="D8" s="89"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
       <c r="H8" s="89"/>
       <c r="I8" s="89"/>
       <c r="J8" s="89"/>
       <c r="K8" s="89"/>
-      <c r="L8" s="93"/>
+      <c r="L8" s="90"/>
       <c r="M8" s="89"/>
-      <c r="N8" s="91"/>
+      <c r="N8" s="93"/>
       <c r="O8" s="89"/>
       <c r="P8" s="89"/>
       <c r="Q8" s="89"/>
@@ -7423,18 +7423,18 @@
     </row>
     <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -7456,18 +7456,18 @@
       <c r="P15" s="52"/>
     </row>
     <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
       <c r="M16" s="73">
         <f>O10+M13</f>
         <v>1979.5500000000002</v>
@@ -7477,6 +7477,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -7492,11 +7497,6 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
@@ -7508,7 +7508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -7535,25 +7535,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
     </row>
     <row r="4" spans="1:17" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -7578,13 +7578,13 @@
       <c r="D7" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="90" t="s">
+      <c r="G7" s="92" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="89" t="s">
@@ -7596,13 +7596,13 @@
       <c r="J7" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="93" t="s">
+      <c r="K7" s="90" t="s">
         <v>66</v>
       </c>
       <c r="L7" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="90" t="s">
+      <c r="M7" s="92" t="s">
         <v>42</v>
       </c>
       <c r="N7" s="89" t="s">
@@ -7620,15 +7620,15 @@
       <c r="B8" s="89"/>
       <c r="C8" s="89"/>
       <c r="D8" s="89"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
       <c r="H8" s="89"/>
       <c r="I8" s="89"/>
       <c r="J8" s="89"/>
-      <c r="K8" s="93"/>
+      <c r="K8" s="90"/>
       <c r="L8" s="89"/>
-      <c r="M8" s="91"/>
+      <c r="M8" s="93"/>
       <c r="N8" s="89"/>
       <c r="O8" s="89"/>
       <c r="P8" s="89"/>
@@ -7811,18 +7811,18 @@
     </row>
     <row r="13" spans="1:17" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="92" t="s">
+      <c r="B14" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
       <c r="L14" s="24">
         <v>0.22</v>
       </c>
@@ -7844,18 +7844,18 @@
       <c r="P16" s="52"/>
     </row>
     <row r="17" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="92"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
       <c r="M17" s="73">
         <f>N11+M14</f>
         <v>4255.0191500000001</v>
@@ -7871,11 +7871,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -7890,6 +7885,11 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -7928,25 +7928,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
     </row>
     <row r="4" spans="1:17" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -7971,13 +7971,13 @@
       <c r="D7" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="90" t="s">
+      <c r="G7" s="92" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="89" t="s">
@@ -7989,13 +7989,13 @@
       <c r="J7" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="93" t="s">
+      <c r="K7" s="90" t="s">
         <v>66</v>
       </c>
       <c r="L7" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="90" t="s">
+      <c r="M7" s="92" t="s">
         <v>42</v>
       </c>
       <c r="N7" s="89" t="s">
@@ -8013,15 +8013,15 @@
       <c r="B8" s="89"/>
       <c r="C8" s="89"/>
       <c r="D8" s="89"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
       <c r="H8" s="89"/>
       <c r="I8" s="89"/>
       <c r="J8" s="89"/>
-      <c r="K8" s="93"/>
+      <c r="K8" s="90"/>
       <c r="L8" s="89"/>
-      <c r="M8" s="91"/>
+      <c r="M8" s="93"/>
       <c r="N8" s="89"/>
       <c r="O8" s="89"/>
       <c r="P8" s="89"/>
@@ -8147,18 +8147,18 @@
     </row>
     <row r="12" spans="1:17" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -8180,18 +8180,18 @@
       <c r="P15" s="52"/>
     </row>
     <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
       <c r="M16" s="73">
         <f>N10+M13</f>
         <v>2548.4691499999999</v>
@@ -8207,6 +8207,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -8221,11 +8226,6 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -8264,25 +8264,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
     </row>
     <row r="4" spans="1:17" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -8307,13 +8307,13 @@
       <c r="D7" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="90" t="s">
+      <c r="G7" s="92" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="89" t="s">
@@ -8325,13 +8325,13 @@
       <c r="J7" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="93" t="s">
+      <c r="K7" s="90" t="s">
         <v>66</v>
       </c>
       <c r="L7" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="90" t="s">
+      <c r="M7" s="92" t="s">
         <v>42</v>
       </c>
       <c r="N7" s="89" t="s">
@@ -8349,15 +8349,15 @@
       <c r="B8" s="89"/>
       <c r="C8" s="89"/>
       <c r="D8" s="89"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
       <c r="H8" s="89"/>
       <c r="I8" s="89"/>
       <c r="J8" s="89"/>
-      <c r="K8" s="93"/>
+      <c r="K8" s="90"/>
       <c r="L8" s="89"/>
-      <c r="M8" s="91"/>
+      <c r="M8" s="93"/>
       <c r="N8" s="89"/>
       <c r="O8" s="89"/>
       <c r="P8" s="89"/>
@@ -8483,18 +8483,18 @@
     </row>
     <row r="12" spans="1:17" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -8516,18 +8516,18 @@
       <c r="P15" s="52"/>
     </row>
     <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
       <c r="M16" s="73">
         <f>N10+M13</f>
         <v>2548.4691499999999</v>
@@ -8543,11 +8543,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -8562,6 +8557,11 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>

--- a/Фопи/Зарплата ФОП 2021/Підхомна О 2021.xlsx
+++ b/Фопи/Зарплата ФОП 2021/Підхомна О 2021.xlsx
@@ -9,42 +9,43 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="180" windowWidth="11340" windowHeight="5920" tabRatio="798" firstSheet="6" activeTab="20"/>
+    <workbookView xWindow="360" yWindow="180" windowWidth="11340" windowHeight="5920" tabRatio="798"/>
   </bookViews>
   <sheets>
-    <sheet name="12" sheetId="149" r:id="rId1"/>
-    <sheet name="11" sheetId="148" r:id="rId2"/>
-    <sheet name="10" sheetId="147" r:id="rId3"/>
-    <sheet name="09" sheetId="146" r:id="rId4"/>
-    <sheet name="08" sheetId="145" r:id="rId5"/>
-    <sheet name="07" sheetId="144" r:id="rId6"/>
-    <sheet name="10-21" sheetId="155" r:id="rId7"/>
-    <sheet name="09-21 " sheetId="154" r:id="rId8"/>
-    <sheet name="08-21 " sheetId="153" r:id="rId9"/>
-    <sheet name="07-21" sheetId="152" r:id="rId10"/>
-    <sheet name="06" sheetId="151" r:id="rId11"/>
-    <sheet name="05" sheetId="142" r:id="rId12"/>
-    <sheet name="04" sheetId="141" r:id="rId13"/>
-    <sheet name="03" sheetId="140" r:id="rId14"/>
-    <sheet name="02" sheetId="139" r:id="rId15"/>
-    <sheet name="01" sheetId="138" r:id="rId16"/>
-    <sheet name="пд1 зп" sheetId="45" r:id="rId17"/>
-    <sheet name="пд2 зп" sheetId="46" r:id="rId18"/>
-    <sheet name="пд1 аванс" sheetId="2" r:id="rId19"/>
-    <sheet name="пд2 аванс" sheetId="4" r:id="rId20"/>
-    <sheet name="Звірка21" sheetId="150" r:id="rId21"/>
-    <sheet name="звірка" sheetId="110" r:id="rId22"/>
+    <sheet name="10-21 (2)" sheetId="156" r:id="rId1"/>
+    <sheet name="12" sheetId="149" r:id="rId2"/>
+    <sheet name="11" sheetId="148" r:id="rId3"/>
+    <sheet name="10" sheetId="147" r:id="rId4"/>
+    <sheet name="09" sheetId="146" r:id="rId5"/>
+    <sheet name="08" sheetId="145" r:id="rId6"/>
+    <sheet name="07" sheetId="144" r:id="rId7"/>
+    <sheet name="10-21" sheetId="155" r:id="rId8"/>
+    <sheet name="09-21 " sheetId="154" r:id="rId9"/>
+    <sheet name="08-21 " sheetId="153" r:id="rId10"/>
+    <sheet name="07-21" sheetId="152" r:id="rId11"/>
+    <sheet name="06" sheetId="151" r:id="rId12"/>
+    <sheet name="05" sheetId="142" r:id="rId13"/>
+    <sheet name="04" sheetId="141" r:id="rId14"/>
+    <sheet name="03" sheetId="140" r:id="rId15"/>
+    <sheet name="02" sheetId="139" r:id="rId16"/>
+    <sheet name="01" sheetId="138" r:id="rId17"/>
+    <sheet name="пд1 зп" sheetId="45" r:id="rId18"/>
+    <sheet name="пд2 зп" sheetId="46" r:id="rId19"/>
+    <sheet name="пд1 аванс" sheetId="2" r:id="rId20"/>
+    <sheet name="пд2 аванс" sheetId="4" r:id="rId21"/>
+    <sheet name="Звірка21" sheetId="150" r:id="rId22"/>
+    <sheet name="звірка" sheetId="110" r:id="rId23"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId23"/>
     <externalReference r:id="rId24"/>
+    <externalReference r:id="rId25"/>
   </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="99">
   <si>
     <t>№</t>
   </si>
@@ -1203,22 +1204,25 @@
     <xf numFmtId="2" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1230,8 +1234,23 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1269,24 +1288,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1712,24 +1713,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R16"/>
+  <dimension ref="A2:Q17"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:K16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="18.08984375" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" customWidth="1"/>
     <col min="3" max="3" width="13.54296875" customWidth="1"/>
     <col min="4" max="7" width="10.6328125" customWidth="1"/>
-    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="8" max="8" width="8.1796875" customWidth="1"/>
     <col min="9" max="9" width="7.6328125" customWidth="1"/>
     <col min="10" max="10" width="10.08984375" customWidth="1"/>
     <col min="11" max="11" width="8.6328125" customWidth="1"/>
-    <col min="12" max="12" width="11.6328125" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.90625" customWidth="1"/>
+    <col min="13" max="13" width="12.453125" customWidth="1"/>
     <col min="14" max="14" width="9.54296875" customWidth="1"/>
     <col min="15" max="15" width="8.453125" customWidth="1"/>
     <col min="16" max="16" width="10.54296875" customWidth="1"/>
@@ -1737,42 +1738,41 @@
     <col min="18" max="18" width="9.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="23"/>
     </row>
-    <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="91" t="str">
-        <f>'[1]12'!$A$3:$Q$3</f>
-        <v xml:space="preserve">Розрахунково – платіжна відомість за Грудень 2020 р. </v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
-    </row>
-    <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
+      <c r="A3" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+    </row>
+    <row r="4" spans="1:17" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="89" t="s">
         <v>0</v>
       </c>
@@ -1785,66 +1785,62 @@
       <c r="D7" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="92" t="s">
+      <c r="F7" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="90" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="89" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="I7" s="89" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="J7" s="89" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="90" t="s">
+      <c r="K7" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="89" t="s">
+      <c r="L7" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="92" t="s">
+      <c r="M7" s="90" t="s">
         <v>42</v>
       </c>
+      <c r="N7" s="89" t="s">
+        <v>34</v>
+      </c>
       <c r="O7" s="89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P7" s="89" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q7" s="89" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="89"/>
       <c r="B8" s="89"/>
       <c r="C8" s="89"/>
       <c r="D8" s="89"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
       <c r="H8" s="89"/>
       <c r="I8" s="89"/>
       <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="89"/>
       <c r="O8" s="89"/>
       <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
-    </row>
-    <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -1855,161 +1851,242 @@
         <v>3371314500</v>
       </c>
       <c r="D9" s="3">
-        <v>5050</v>
+        <v>6060</v>
       </c>
       <c r="E9" s="3">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
       </c>
       <c r="G9" s="3">
         <f>D9/E6*E9</f>
-        <v>5050</v>
-      </c>
-      <c r="H9" s="65"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3">
-        <v>2000</v>
-      </c>
-      <c r="L9" s="25">
-        <f>G9</f>
-        <v>5050</v>
+        <v>6060</v>
+      </c>
+      <c r="H9" s="3">
+        <v>80.89</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K9" s="25">
+        <f>G9+H9+I9</f>
+        <v>6140.89</v>
+      </c>
+      <c r="L9" s="3">
+        <f>ROUND((K9)*18/100,2)</f>
+        <v>1105.3599999999999</v>
       </c>
       <c r="M9" s="3">
-        <f>ROUND((L9)*18/100,2)</f>
-        <v>909</v>
+        <f>K9*0.015</f>
+        <v>92.113349999999997</v>
       </c>
       <c r="N9" s="3">
-        <f>L9*0.015</f>
-        <v>75.75</v>
+        <f>L9+M9</f>
+        <v>1197.47335</v>
       </c>
       <c r="O9" s="3">
-        <f>N9+M9</f>
-        <v>984.75</v>
+        <f>K9-N9</f>
+        <v>4943.4166500000001</v>
       </c>
       <c r="P9" s="3">
-        <f>L9-O9</f>
-        <v>4065.25</v>
-      </c>
-      <c r="Q9" s="3">
-        <f>P9-K9</f>
-        <v>2065.25</v>
-      </c>
-      <c r="R9" s="66"/>
-    </row>
-    <row r="10" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="48" t="s">
+        <f>O9-J9</f>
+        <v>1943.4166500000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3268013166</v>
+      </c>
+      <c r="D10" s="3">
+        <v>6060</v>
+      </c>
+      <c r="E10" s="3">
+        <v>88</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="3">
+        <f>D10/E6*E10</f>
+        <v>3030</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K10" s="25">
+        <f>G10+H10+I10</f>
+        <v>3030</v>
+      </c>
+      <c r="L10" s="3">
+        <f>ROUND((K10-1135)*18/100,2)</f>
+        <v>341.1</v>
+      </c>
+      <c r="M10" s="3">
+        <f>K10*0.015</f>
+        <v>45.449999999999996</v>
+      </c>
+      <c r="N10" s="3">
+        <f>L10+M10</f>
+        <v>386.55</v>
+      </c>
+      <c r="O10" s="3">
+        <f>K10-N10</f>
+        <v>2643.45</v>
+      </c>
+      <c r="P10" s="3">
+        <f>O10-J10</f>
+        <v>1143.4499999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49">
+      <c r="C11" s="48"/>
+      <c r="D11" s="49">
         <f>SUM(D9:D9)</f>
-        <v>5050</v>
-      </c>
-      <c r="E10" s="49">
+        <v>6060</v>
+      </c>
+      <c r="E11" s="49">
         <f>SUM(E9)</f>
-        <v>174</v>
-      </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49">
-        <f t="shared" ref="K10:Q10" si="0">SUM(K9:K9)</f>
-        <v>2000</v>
-      </c>
-      <c r="L10" s="75">
-        <f>SUM(L9:L9)</f>
-        <v>5050</v>
-      </c>
-      <c r="M10" s="74">
+        <v>176</v>
+      </c>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49">
+        <f>SUM(G9)</f>
+        <v>6060</v>
+      </c>
+      <c r="H11" s="49">
+        <f>SUM(H9)</f>
+        <v>80.89</v>
+      </c>
+      <c r="I11" s="49">
+        <v>0</v>
+      </c>
+      <c r="J11" s="49">
+        <f>SUM(J9:J9)</f>
+        <v>3000</v>
+      </c>
+      <c r="K11" s="75">
+        <f>SUM(K9:K9)</f>
+        <v>6140.89</v>
+      </c>
+      <c r="L11" s="74">
+        <f>SUM(L9:L10)</f>
+        <v>1446.46</v>
+      </c>
+      <c r="M11" s="74">
+        <f>SUM(M9:M10)</f>
+        <v>137.56334999999999</v>
+      </c>
+      <c r="N11" s="74">
+        <f t="shared" ref="N11:P11" si="0">SUM(N9:N10)</f>
+        <v>1584.0233499999999</v>
+      </c>
+      <c r="O11" s="74">
         <f t="shared" si="0"/>
-        <v>909</v>
-      </c>
-      <c r="N10" s="74">
+        <v>7586.8666499999999</v>
+      </c>
+      <c r="P11" s="74">
         <f t="shared" si="0"/>
-        <v>75.75</v>
-      </c>
-      <c r="O10" s="74">
-        <f t="shared" si="0"/>
-        <v>984.75</v>
-      </c>
-      <c r="P10" s="74">
-        <f t="shared" si="0"/>
-        <v>4065.25</v>
-      </c>
-      <c r="Q10" s="74">
-        <f t="shared" si="0"/>
-        <v>2065.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="13" x14ac:dyDescent="0.25">
-      <c r="M11" s="22"/>
-      <c r="Q11" s="47">
-        <f>Q10+K10</f>
-        <v>4065.25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="88" t="s">
+        <v>3086.8666499999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="13" x14ac:dyDescent="0.25">
+      <c r="M12" s="22"/>
+      <c r="Q12" s="47">
+        <f>P11+J11</f>
+        <v>6086.8666499999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="24">
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="24">
         <v>0.22</v>
       </c>
-      <c r="M13" s="54">
-        <f>L9*0.22</f>
-        <v>1111</v>
-      </c>
-      <c r="N13" s="50"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M14" s="52"/>
+      <c r="M14" s="54">
+        <f>K9*22%+1320</f>
+        <v>2670.9958000000001</v>
+      </c>
+      <c r="N14" s="52"/>
       <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-    </row>
-    <row r="15" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="M15" s="50"/>
       <c r="O15" s="52"/>
       <c r="P15" s="52"/>
     </row>
-    <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="M16" s="73">
-        <f>O10+M13</f>
-        <v>2095.75</v>
-      </c>
+    <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="N16" s="53"/>
       <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+    </row>
+    <row r="17" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="M17" s="73">
+        <f>N11+M14</f>
+        <v>4255.0191500000001</v>
+      </c>
+      <c r="N17" s="85" t="e">
+        <f>'07-21'!M9-'07-21'!#REF!+'07-21'!N9-'07-21'!#REF!+'07-21'!M13-1320</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O17" s="86" t="e">
+        <f>M17+N17</f>
+        <v>#REF!</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="19">
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -2020,24 +2097,350 @@
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Q16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="7" width="10.6328125" customWidth="1"/>
+    <col min="8" max="8" width="8.1796875" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" customWidth="1"/>
+    <col min="10" max="10" width="10.08984375" customWidth="1"/>
+    <col min="11" max="11" width="8.6328125" customWidth="1"/>
+    <col min="12" max="12" width="9.90625" customWidth="1"/>
+    <col min="13" max="13" width="12.453125" customWidth="1"/>
+    <col min="14" max="14" width="9.54296875" customWidth="1"/>
+    <col min="15" max="15" width="8.453125" customWidth="1"/>
+    <col min="16" max="16" width="10.54296875" customWidth="1"/>
+    <col min="17" max="17" width="10.453125" customWidth="1"/>
+    <col min="18" max="18" width="9.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="23"/>
+    </row>
+    <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
+      <c r="A3" s="88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+    </row>
+    <row r="4" spans="1:17" ht="20" x14ac:dyDescent="0.4">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="89" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="90" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="90" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="89" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="89" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" s="89" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="89"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+    </row>
+    <row r="9" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3371314500</v>
+      </c>
+      <c r="D9" s="3">
+        <v>6060</v>
+      </c>
+      <c r="E9" s="3">
+        <v>167</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <f>D9/E6*E9</f>
+        <v>6059.9999999999991</v>
+      </c>
+      <c r="H9" s="3">
+        <v>80.89</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K9" s="25">
+        <f>G9+H9+I9</f>
+        <v>6140.8899999999994</v>
+      </c>
+      <c r="L9" s="3">
+        <f>ROUND((K9)*18/100,2)</f>
+        <v>1105.3599999999999</v>
+      </c>
+      <c r="M9" s="3">
+        <f>K9*0.015</f>
+        <v>92.113349999999983</v>
+      </c>
+      <c r="N9" s="3">
+        <f>L9+M9</f>
+        <v>1197.47335</v>
+      </c>
+      <c r="O9" s="3">
+        <f>K9-N9</f>
+        <v>4943.4166499999992</v>
+      </c>
+      <c r="P9" s="3">
+        <f>O9-J9</f>
+        <v>1943.4166499999992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49">
+        <f>SUM(D9:D9)</f>
+        <v>6060</v>
+      </c>
+      <c r="E10" s="49">
+        <f>SUM(E9)</f>
+        <v>167</v>
+      </c>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49">
+        <f>SUM(G9)</f>
+        <v>6059.9999999999991</v>
+      </c>
+      <c r="H10" s="49">
+        <f>SUM(H9)</f>
+        <v>80.89</v>
+      </c>
+      <c r="I10" s="49">
+        <v>0</v>
+      </c>
+      <c r="J10" s="49">
+        <f t="shared" ref="J10:P10" si="0">SUM(J9:J9)</f>
+        <v>3000</v>
+      </c>
+      <c r="K10" s="75">
+        <f t="shared" si="0"/>
+        <v>6140.8899999999994</v>
+      </c>
+      <c r="L10" s="74">
+        <f t="shared" si="0"/>
+        <v>1105.3599999999999</v>
+      </c>
+      <c r="M10" s="74">
+        <f t="shared" si="0"/>
+        <v>92.113349999999983</v>
+      </c>
+      <c r="N10" s="74">
+        <f t="shared" si="0"/>
+        <v>1197.47335</v>
+      </c>
+      <c r="O10" s="74">
+        <f t="shared" si="0"/>
+        <v>4943.4166499999992</v>
+      </c>
+      <c r="P10" s="74">
+        <f t="shared" si="0"/>
+        <v>1943.4166499999992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="13" x14ac:dyDescent="0.25">
+      <c r="M11" s="22"/>
+      <c r="Q11" s="47">
+        <f>P10+J10</f>
+        <v>4943.4166499999992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="24">
+        <v>0.22</v>
+      </c>
+      <c r="M13" s="54">
+        <f>K9*22%</f>
+        <v>1350.9957999999999</v>
+      </c>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="M14" s="50"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+    </row>
+    <row r="15" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N15" s="53"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+    </row>
+    <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
+      <c r="M16" s="73">
+        <f>N10+M13</f>
+        <v>2548.4691499999999</v>
+      </c>
+      <c r="N16" s="85" t="e">
+        <f>'07-21'!M9-'07-21'!#REF!+'07-21'!N9-'07-21'!#REF!+'07-21'!M13-1320</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O16" s="86" t="e">
+        <f>M16+N16</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+  </mergeCells>
+  <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q16"/>
   <sheetViews>
@@ -2068,25 +2471,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
     </row>
     <row r="4" spans="1:17" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -2111,13 +2514,13 @@
       <c r="D7" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="92" t="s">
+      <c r="F7" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="90" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="89" t="s">
@@ -2132,13 +2535,13 @@
       <c r="K7" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="90" t="s">
+      <c r="L7" s="93" t="s">
         <v>66</v>
       </c>
       <c r="M7" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="92" t="s">
+      <c r="N7" s="90" t="s">
         <v>42</v>
       </c>
       <c r="O7" s="89" t="s">
@@ -2156,16 +2559,16 @@
       <c r="B8" s="89"/>
       <c r="C8" s="89"/>
       <c r="D8" s="89"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
       <c r="H8" s="89"/>
       <c r="I8" s="89"/>
       <c r="J8" s="89"/>
       <c r="K8" s="89"/>
-      <c r="L8" s="90"/>
+      <c r="L8" s="93"/>
       <c r="M8" s="89"/>
-      <c r="N8" s="93"/>
+      <c r="N8" s="91"/>
       <c r="O8" s="89"/>
       <c r="P8" s="89"/>
       <c r="Q8" s="89"/>
@@ -2299,18 +2702,18 @@
     </row>
     <row r="12" spans="1:17" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -2336,18 +2739,18 @@
       <c r="P15" s="52"/>
     </row>
     <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
       <c r="M16" s="73">
         <f>O10+M13</f>
         <v>2522.2070681818182</v>
@@ -2356,6 +2759,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -2371,11 +2779,6 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -2383,7 +2786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R16"/>
   <sheetViews>
@@ -2414,25 +2817,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
     </row>
     <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -2457,13 +2860,13 @@
       <c r="D7" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="92" t="s">
+      <c r="F7" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="90" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="89" t="s">
@@ -2478,13 +2881,13 @@
       <c r="K7" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="90" t="s">
+      <c r="L7" s="93" t="s">
         <v>66</v>
       </c>
       <c r="M7" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="92" t="s">
+      <c r="N7" s="90" t="s">
         <v>42</v>
       </c>
       <c r="O7" s="89" t="s">
@@ -2502,16 +2905,16 @@
       <c r="B8" s="89"/>
       <c r="C8" s="89"/>
       <c r="D8" s="89"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
       <c r="H8" s="89"/>
       <c r="I8" s="89"/>
       <c r="J8" s="89"/>
       <c r="K8" s="89"/>
-      <c r="L8" s="90"/>
+      <c r="L8" s="93"/>
       <c r="M8" s="89"/>
-      <c r="N8" s="93"/>
+      <c r="N8" s="91"/>
       <c r="O8" s="89"/>
       <c r="P8" s="89"/>
       <c r="Q8" s="89"/>
@@ -2631,18 +3034,18 @@
     </row>
     <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -2664,347 +3067,18 @@
       <c r="P15" s="52"/>
     </row>
     <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="M16" s="73">
-        <f>O10+M13</f>
-        <v>2514.9</v>
-      </c>
-      <c r="N16" s="53"/>
-      <c r="O16" s="52"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-  </mergeCells>
-  <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R16"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="7" width="10.6328125" customWidth="1"/>
-    <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" customWidth="1"/>
-    <col min="10" max="10" width="10.08984375" customWidth="1"/>
-    <col min="11" max="11" width="8.6328125" customWidth="1"/>
-    <col min="12" max="12" width="9.90625" customWidth="1"/>
-    <col min="13" max="13" width="12.453125" customWidth="1"/>
-    <col min="14" max="14" width="9.54296875" customWidth="1"/>
-    <col min="15" max="15" width="8.453125" customWidth="1"/>
-    <col min="16" max="16" width="10.54296875" customWidth="1"/>
-    <col min="17" max="17" width="10.453125" customWidth="1"/>
-    <col min="18" max="18" width="9.36328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="23"/>
-    </row>
-    <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="91" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
-    </row>
-    <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="89" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="89" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="92" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="92" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="89" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="89" t="s">
-        <v>64</v>
-      </c>
-      <c r="J7" s="89" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="90" t="s">
-        <v>66</v>
-      </c>
-      <c r="M7" s="89" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" s="92" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" s="89" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" s="89" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q7" s="89" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="89"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
-    </row>
-    <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3371314500</v>
-      </c>
-      <c r="D9" s="3">
-        <v>6060</v>
-      </c>
-      <c r="E9" s="3">
-        <v>144</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <f>D9/E6*E9</f>
-        <v>6060</v>
-      </c>
-      <c r="H9" s="65"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3">
-        <v>3000</v>
-      </c>
-      <c r="L9" s="25">
-        <f>G9</f>
-        <v>6060</v>
-      </c>
-      <c r="M9" s="3">
-        <f>ROUND((L9)*18/100,2)</f>
-        <v>1090.8</v>
-      </c>
-      <c r="N9" s="3">
-        <f>L9*0.015</f>
-        <v>90.899999999999991</v>
-      </c>
-      <c r="O9" s="3">
-        <f>M9+N9</f>
-        <v>1181.7</v>
-      </c>
-      <c r="P9" s="3">
-        <f>L9-O9</f>
-        <v>4878.3</v>
-      </c>
-      <c r="Q9" s="3">
-        <f>P9-K9</f>
-        <v>1878.3000000000002</v>
-      </c>
-      <c r="R9" s="66"/>
-    </row>
-    <row r="10" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49">
-        <f>SUM(D9:D9)</f>
-        <v>6060</v>
-      </c>
-      <c r="E10" s="49">
-        <f>SUM(E9)</f>
-        <v>144</v>
-      </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49">
-        <f>SUM(G9)</f>
-        <v>6060</v>
-      </c>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49">
-        <f t="shared" ref="K10:Q10" si="0">SUM(K9:K9)</f>
-        <v>3000</v>
-      </c>
-      <c r="L10" s="75">
-        <f>SUM(L9:L9)</f>
-        <v>6060</v>
-      </c>
-      <c r="M10" s="74">
-        <f t="shared" si="0"/>
-        <v>1090.8</v>
-      </c>
-      <c r="N10" s="74">
-        <f t="shared" si="0"/>
-        <v>90.899999999999991</v>
-      </c>
-      <c r="O10" s="74">
-        <f t="shared" si="0"/>
-        <v>1181.7</v>
-      </c>
-      <c r="P10" s="74">
-        <f t="shared" si="0"/>
-        <v>4878.3</v>
-      </c>
-      <c r="Q10" s="74">
-        <f t="shared" si="0"/>
-        <v>1878.3000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="13" x14ac:dyDescent="0.25">
-      <c r="M11" s="22"/>
-      <c r="Q11" s="47">
-        <f>Q10+K10</f>
-        <v>4878.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="88" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="24">
-        <v>0.22</v>
-      </c>
-      <c r="M13" s="54">
-        <f>L9*22%</f>
-        <v>1333.2</v>
-      </c>
-      <c r="N13" s="50"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-    </row>
-    <row r="15" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-    </row>
-    <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
       <c r="M16" s="73">
         <f>O10+M13</f>
         <v>2514.9</v>
@@ -3057,10 +3131,10 @@
     <col min="4" max="7" width="10.6328125" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
     <col min="9" max="9" width="7.6328125" customWidth="1"/>
-    <col min="10" max="10" width="9.90625" customWidth="1"/>
+    <col min="10" max="10" width="10.08984375" customWidth="1"/>
     <col min="11" max="11" width="8.6328125" customWidth="1"/>
-    <col min="12" max="12" width="11.6328125" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.90625" customWidth="1"/>
+    <col min="13" max="13" width="12.453125" customWidth="1"/>
     <col min="14" max="14" width="9.54296875" customWidth="1"/>
     <col min="15" max="15" width="8.453125" customWidth="1"/>
     <col min="16" max="16" width="10.54296875" customWidth="1"/>
@@ -3072,25 +3146,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="91" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
+      <c r="A3" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
     </row>
     <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -3099,7 +3173,7 @@
     <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6">
-        <v>176</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3115,13 +3189,13 @@
       <c r="D7" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="92" t="s">
+      <c r="F7" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="90" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="89" t="s">
@@ -3136,13 +3210,13 @@
       <c r="K7" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="90" t="s">
+      <c r="L7" s="93" t="s">
         <v>66</v>
       </c>
       <c r="M7" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="92" t="s">
+      <c r="N7" s="90" t="s">
         <v>42</v>
       </c>
       <c r="O7" s="89" t="s">
@@ -3160,16 +3234,16 @@
       <c r="B8" s="89"/>
       <c r="C8" s="89"/>
       <c r="D8" s="89"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
       <c r="H8" s="89"/>
       <c r="I8" s="89"/>
       <c r="J8" s="89"/>
       <c r="K8" s="89"/>
-      <c r="L8" s="90"/>
+      <c r="L8" s="93"/>
       <c r="M8" s="89"/>
-      <c r="N8" s="93"/>
+      <c r="N8" s="91"/>
       <c r="O8" s="89"/>
       <c r="P8" s="89"/>
       <c r="Q8" s="89"/>
@@ -3188,7 +3262,7 @@
         <v>6060</v>
       </c>
       <c r="E9" s="3">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
@@ -3241,11 +3315,11 @@
       </c>
       <c r="E10" s="49">
         <f>SUM(E9)</f>
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="F10" s="49"/>
       <c r="G10" s="49">
-        <f>G9</f>
+        <f>SUM(G9)</f>
         <v>6060</v>
       </c>
       <c r="H10" s="49"/>
@@ -3289,23 +3363,23 @@
     </row>
     <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
       <c r="M13" s="54">
-        <f>L9*0.22</f>
+        <f>L9*22%</f>
         <v>1333.2</v>
       </c>
       <c r="N13" s="50"/>
@@ -3322,18 +3396,18 @@
       <c r="P15" s="52"/>
     </row>
     <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
       <c r="M16" s="73">
         <f>O10+M13</f>
         <v>2514.9</v>
@@ -3343,11 +3417,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -3363,6 +3432,11 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -3371,6 +3445,335 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:R16"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="7" width="10.6328125" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.90625" customWidth="1"/>
+    <col min="11" max="11" width="8.6328125" customWidth="1"/>
+    <col min="12" max="12" width="11.6328125" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.54296875" customWidth="1"/>
+    <col min="15" max="15" width="8.453125" customWidth="1"/>
+    <col min="16" max="16" width="10.54296875" customWidth="1"/>
+    <col min="17" max="17" width="10.453125" customWidth="1"/>
+    <col min="18" max="18" width="9.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="23"/>
+    </row>
+    <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
+      <c r="A3" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+    </row>
+    <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="89" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="90" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="90" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="89" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="89" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="89"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+    </row>
+    <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3371314500</v>
+      </c>
+      <c r="D9" s="3">
+        <v>6060</v>
+      </c>
+      <c r="E9" s="3">
+        <v>176</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <f>D9/E6*E9</f>
+        <v>6060</v>
+      </c>
+      <c r="H9" s="65"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L9" s="25">
+        <f>G9</f>
+        <v>6060</v>
+      </c>
+      <c r="M9" s="3">
+        <f>ROUND((L9)*18/100,2)</f>
+        <v>1090.8</v>
+      </c>
+      <c r="N9" s="3">
+        <f>L9*0.015</f>
+        <v>90.899999999999991</v>
+      </c>
+      <c r="O9" s="3">
+        <f>M9+N9</f>
+        <v>1181.7</v>
+      </c>
+      <c r="P9" s="3">
+        <f>L9-O9</f>
+        <v>4878.3</v>
+      </c>
+      <c r="Q9" s="3">
+        <f>P9-K9</f>
+        <v>1878.3000000000002</v>
+      </c>
+      <c r="R9" s="66"/>
+    </row>
+    <row r="10" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49">
+        <f>SUM(D9:D9)</f>
+        <v>6060</v>
+      </c>
+      <c r="E10" s="49">
+        <f>SUM(E9)</f>
+        <v>176</v>
+      </c>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49">
+        <f>G9</f>
+        <v>6060</v>
+      </c>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49">
+        <f t="shared" ref="K10:Q10" si="0">SUM(K9:K9)</f>
+        <v>3000</v>
+      </c>
+      <c r="L10" s="75">
+        <f>SUM(L9:L9)</f>
+        <v>6060</v>
+      </c>
+      <c r="M10" s="74">
+        <f t="shared" si="0"/>
+        <v>1090.8</v>
+      </c>
+      <c r="N10" s="74">
+        <f t="shared" si="0"/>
+        <v>90.899999999999991</v>
+      </c>
+      <c r="O10" s="74">
+        <f t="shared" si="0"/>
+        <v>1181.7</v>
+      </c>
+      <c r="P10" s="74">
+        <f t="shared" si="0"/>
+        <v>4878.3</v>
+      </c>
+      <c r="Q10" s="74">
+        <f t="shared" si="0"/>
+        <v>1878.3000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="13" x14ac:dyDescent="0.25">
+      <c r="M11" s="22"/>
+      <c r="Q11" s="47">
+        <f>Q10+K10</f>
+        <v>4878.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="24">
+        <v>0.22</v>
+      </c>
+      <c r="M13" s="54">
+        <f>L9*0.22</f>
+        <v>1333.2</v>
+      </c>
+      <c r="N13" s="50"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+    </row>
+    <row r="15" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+    </row>
+    <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
+      <c r="M16" s="73">
+        <f>O10+M13</f>
+        <v>2514.9</v>
+      </c>
+      <c r="N16" s="53"/>
+      <c r="O16" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+  </mergeCells>
+  <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R16"/>
   <sheetViews>
@@ -3401,25 +3804,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
     </row>
     <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -3444,13 +3847,13 @@
       <c r="D7" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="92" t="s">
+      <c r="F7" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="90" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="89" t="s">
@@ -3465,13 +3868,13 @@
       <c r="K7" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="90" t="s">
+      <c r="L7" s="93" t="s">
         <v>66</v>
       </c>
       <c r="M7" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="92" t="s">
+      <c r="N7" s="90" t="s">
         <v>42</v>
       </c>
       <c r="O7" s="89" t="s">
@@ -3489,16 +3892,16 @@
       <c r="B8" s="89"/>
       <c r="C8" s="89"/>
       <c r="D8" s="89"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
       <c r="H8" s="89"/>
       <c r="I8" s="89"/>
       <c r="J8" s="89"/>
       <c r="K8" s="89"/>
-      <c r="L8" s="90"/>
+      <c r="L8" s="93"/>
       <c r="M8" s="89"/>
-      <c r="N8" s="93"/>
+      <c r="N8" s="91"/>
       <c r="O8" s="89"/>
       <c r="P8" s="89"/>
       <c r="Q8" s="89"/>
@@ -3618,18 +4021,18 @@
     </row>
     <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -3651,18 +4054,18 @@
       <c r="P15" s="52"/>
     </row>
     <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
       <c r="M16" s="73">
         <f>O10+M13</f>
         <v>2514.9</v>
@@ -3672,12 +4075,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="G7:G8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -3692,6 +4089,12 @@
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="P7:P8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="G7:G8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -3699,7 +4102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R16"/>
   <sheetViews>
@@ -3733,25 +4136,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
     </row>
     <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -3764,76 +4167,76 @@
       </c>
     </row>
     <row r="7" spans="1:18" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="94" t="s">
+      <c r="D7" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="95" t="s">
+      <c r="E7" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="94" t="s">
+      <c r="F7" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="95" t="s">
+      <c r="G7" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="94" t="s">
+      <c r="H7" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="94" t="s">
+      <c r="I7" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="94" t="s">
+      <c r="J7" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="94" t="s">
+      <c r="K7" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="97" t="s">
+      <c r="L7" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="94" t="s">
+      <c r="M7" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="95" t="s">
+      <c r="N7" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="94" t="s">
+      <c r="O7" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="94" t="s">
+      <c r="P7" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="94" t="s">
+      <c r="Q7" s="95" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="83" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="94"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="96"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="94"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="95"/>
     </row>
     <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -3948,18 +4351,18 @@
     </row>
     <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -3981,18 +4384,18 @@
       <c r="P15" s="52"/>
     </row>
     <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
       <c r="M16" s="73">
         <f>O10+M13</f>
         <v>2514.9</v>
@@ -4002,15 +4405,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="Q7:Q8"/>
     <mergeCell ref="A3:Q3"/>
@@ -4022,6 +4416,15 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -4029,7 +4432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R16"/>
   <sheetViews>
@@ -4063,25 +4466,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
     </row>
     <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -4106,13 +4509,13 @@
       <c r="D7" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="92" t="s">
+      <c r="F7" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="90" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="89" t="s">
@@ -4127,13 +4530,13 @@
       <c r="K7" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="90" t="s">
+      <c r="L7" s="93" t="s">
         <v>33</v>
       </c>
       <c r="M7" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="92" t="s">
+      <c r="N7" s="90" t="s">
         <v>42</v>
       </c>
       <c r="O7" s="89" t="s">
@@ -4151,16 +4554,16 @@
       <c r="B8" s="89"/>
       <c r="C8" s="89"/>
       <c r="D8" s="89"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
       <c r="H8" s="89"/>
       <c r="I8" s="89"/>
       <c r="J8" s="89"/>
       <c r="K8" s="89"/>
-      <c r="L8" s="90"/>
+      <c r="L8" s="93"/>
       <c r="M8" s="89"/>
-      <c r="N8" s="93"/>
+      <c r="N8" s="91"/>
       <c r="O8" s="89"/>
       <c r="P8" s="89"/>
       <c r="Q8" s="89"/>
@@ -4280,18 +4683,18 @@
     </row>
     <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -4313,18 +4716,18 @@
       <c r="P15" s="52"/>
     </row>
     <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
       <c r="M16" s="73">
         <f>O10+M13</f>
         <v>2514.9</v>
@@ -4334,6 +4737,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B16:K16"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -4349,11 +4757,6 @@
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="P7:P8"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B16:K16"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
@@ -4361,7 +4764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:P39"/>
@@ -4385,14 +4788,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
       <c r="I1" s="51" t="s">
         <v>7</v>
       </c>
@@ -4401,11 +4804,11 @@
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
     </row>
@@ -4417,26 +4820,26 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="G3" s="100" t="s">
+      <c r="G3" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
     </row>
     <row r="4" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
     </row>
     <row r="5" spans="1:16" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="102" t="s">
+      <c r="G5" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="103"/>
-      <c r="I5" s="107" t="s">
+      <c r="H5" s="109"/>
+      <c r="I5" s="113" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4448,25 +4851,25 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="108"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="114"/>
     </row>
     <row r="7" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
       <c r="G7" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="109"/>
+      <c r="I7" s="115"/>
     </row>
     <row r="8" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
@@ -4488,15 +4891,15 @@
       <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="112" t="str">
+      <c r="A10" s="99" t="str">
         <f>[2]!СумаПрописом(C9)</f>
         <v>Одна тисяча дев`ятсот сорок три гривнi 42 копiйки</v>
       </c>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
@@ -4513,10 +4916,10 @@
       <c r="A12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="106" t="s">
+      <c r="G12" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="H12" s="106"/>
+      <c r="H12" s="112"/>
     </row>
     <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
@@ -4524,54 +4927,54 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="114" t="s">
+      <c r="A14" s="101" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
     </row>
     <row r="15" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="115" t="s">
+      <c r="A15" s="102" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="115"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
     </row>
     <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="98" t="str">
+      <c r="A17" s="104" t="str">
         <f>A10</f>
         <v>Одна тисяча дев`ятсот сорок три гривнi 42 копiйки</v>
       </c>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104"/>
     </row>
     <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -4616,11 +5019,6 @@
     <row r="39" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:I16"/>
     <mergeCell ref="A17:I17"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G3:I3"/>
@@ -4629,6 +5027,11 @@
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:I16"/>
   </mergeCells>
   <pageMargins left="0.42" right="0.23" top="0.44" bottom="0.98425196850393704" header="0.3" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -4636,7 +5039,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист4"/>
   <dimension ref="A1:F43"/>
@@ -4821,7 +5224,334 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:R16"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="18.08984375" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="7" width="10.6328125" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" customWidth="1"/>
+    <col min="10" max="10" width="10.08984375" customWidth="1"/>
+    <col min="11" max="11" width="8.6328125" customWidth="1"/>
+    <col min="12" max="12" width="11.6328125" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.54296875" customWidth="1"/>
+    <col min="15" max="15" width="8.453125" customWidth="1"/>
+    <col min="16" max="16" width="10.54296875" customWidth="1"/>
+    <col min="17" max="17" width="10.453125" customWidth="1"/>
+    <col min="18" max="18" width="9.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="23"/>
+    </row>
+    <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
+      <c r="A3" s="88" t="str">
+        <f>'[1]12'!$A$3:$Q$3</f>
+        <v xml:space="preserve">Розрахунково – платіжна відомість за Грудень 2020 р. </v>
+      </c>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+    </row>
+    <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="89" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="90" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="90" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="89" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="89" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="89"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+    </row>
+    <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3371314500</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5050</v>
+      </c>
+      <c r="E9" s="3">
+        <v>174</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <f>D9/E6*E9</f>
+        <v>5050</v>
+      </c>
+      <c r="H9" s="65"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L9" s="25">
+        <f>G9</f>
+        <v>5050</v>
+      </c>
+      <c r="M9" s="3">
+        <f>ROUND((L9)*18/100,2)</f>
+        <v>909</v>
+      </c>
+      <c r="N9" s="3">
+        <f>L9*0.015</f>
+        <v>75.75</v>
+      </c>
+      <c r="O9" s="3">
+        <f>N9+M9</f>
+        <v>984.75</v>
+      </c>
+      <c r="P9" s="3">
+        <f>L9-O9</f>
+        <v>4065.25</v>
+      </c>
+      <c r="Q9" s="3">
+        <f>P9-K9</f>
+        <v>2065.25</v>
+      </c>
+      <c r="R9" s="66"/>
+    </row>
+    <row r="10" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49">
+        <f>SUM(D9:D9)</f>
+        <v>5050</v>
+      </c>
+      <c r="E10" s="49">
+        <f>SUM(E9)</f>
+        <v>174</v>
+      </c>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49">
+        <f t="shared" ref="K10:Q10" si="0">SUM(K9:K9)</f>
+        <v>2000</v>
+      </c>
+      <c r="L10" s="75">
+        <f>SUM(L9:L9)</f>
+        <v>5050</v>
+      </c>
+      <c r="M10" s="74">
+        <f t="shared" si="0"/>
+        <v>909</v>
+      </c>
+      <c r="N10" s="74">
+        <f t="shared" si="0"/>
+        <v>75.75</v>
+      </c>
+      <c r="O10" s="74">
+        <f t="shared" si="0"/>
+        <v>984.75</v>
+      </c>
+      <c r="P10" s="74">
+        <f t="shared" si="0"/>
+        <v>4065.25</v>
+      </c>
+      <c r="Q10" s="74">
+        <f t="shared" si="0"/>
+        <v>2065.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="13" x14ac:dyDescent="0.25">
+      <c r="M11" s="22"/>
+      <c r="Q11" s="47">
+        <f>Q10+K10</f>
+        <v>4065.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="24">
+        <v>0.22</v>
+      </c>
+      <c r="M13" s="54">
+        <f>L9*0.22</f>
+        <v>1111</v>
+      </c>
+      <c r="N13" s="50"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+    </row>
+    <row r="15" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+    </row>
+    <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
+      <c r="M16" s="73">
+        <f>O10+M13</f>
+        <v>2095.75</v>
+      </c>
+      <c r="N16" s="53"/>
+      <c r="O16" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+  </mergeCells>
+  <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист7"/>
   <dimension ref="A1:P39"/>
@@ -4845,15 +5575,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="str">
+      <c r="A1" s="98" t="str">
         <f>'пд1 зп'!A1:E1</f>
         <v>Приватний нотаріус Підхомна Олександра Дмитрівна</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
       <c r="G1" s="51"/>
       <c r="H1" s="51"/>
       <c r="I1" s="51" t="s">
@@ -4864,11 +5594,11 @@
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
     </row>
@@ -4880,26 +5610,26 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="G3" s="100" t="s">
+      <c r="G3" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
     </row>
     <row r="4" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
     </row>
     <row r="5" spans="1:16" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="102" t="s">
+      <c r="G5" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="103"/>
-      <c r="I5" s="107" t="s">
+      <c r="H5" s="109"/>
+      <c r="I5" s="113" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4911,25 +5641,25 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="108"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="114"/>
     </row>
     <row r="7" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
       <c r="G7" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="109"/>
+      <c r="I7" s="115"/>
     </row>
     <row r="8" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
@@ -4950,15 +5680,15 @@
       <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="112" t="str">
+      <c r="A10" s="99" t="str">
         <f>[2]!СумаПрописом(C9)</f>
         <v>Три тисячi гривень 00 копiйок</v>
       </c>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
@@ -4986,55 +5716,55 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="114" t="s">
+      <c r="A14" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
     </row>
     <row r="15" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="119" t="str">
         <f>'пд1 зп'!A15:I15</f>
         <v>за СЕРПЕНЬ 2021</v>
       </c>
-      <c r="B15" s="115"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
     </row>
     <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="98" t="str">
+      <c r="A17" s="104" t="str">
         <f>A10</f>
         <v>Три тисячi гривень 00 копiйок</v>
       </c>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104"/>
     </row>
     <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -5081,12 +5811,6 @@
     <row r="39" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="G12:H12"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G3:I3"/>
@@ -5094,6 +5818,12 @@
     <mergeCell ref="G5:H6"/>
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.43307086614173229" bottom="0.98425196850393704" header="0.31496062992125984" footer="0.51181102362204722"/>
@@ -5102,7 +5832,779 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист8"/>
+  <dimension ref="A1:F43"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E7" sqref="E7:E8"/>
+      <selection pane="topRight" activeCell="E7" sqref="E7:E8"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7:E8"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.6328125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="7.453125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="35.453125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" style="29" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="13.36328125" style="29" customWidth="1"/>
+    <col min="7" max="8" width="15.08984375" style="29" customWidth="1"/>
+    <col min="9" max="16384" width="9.08984375" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="30">
+        <v>1</v>
+      </c>
+      <c r="B2" s="31">
+        <v>2</v>
+      </c>
+      <c r="C2" s="31">
+        <v>3</v>
+      </c>
+      <c r="D2" s="31">
+        <v>4</v>
+      </c>
+      <c r="E2" s="31">
+        <v>5</v>
+      </c>
+      <c r="F2" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33">
+        <v>1</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="20" t="str">
+        <f>'пд2 зп'!C3</f>
+        <v>Крива Оксана Володимирівна</v>
+      </c>
+      <c r="D3" s="35">
+        <f>'пд1 аванс'!C9</f>
+        <v>3000</v>
+      </c>
+      <c r="E3" s="34"/>
+      <c r="F3" s="36"/>
+    </row>
+    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="33">
+        <v>2</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="35">
+        <v>1500</v>
+      </c>
+      <c r="E4" s="34"/>
+      <c r="F4" s="36"/>
+    </row>
+    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="36"/>
+    </row>
+    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="33"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="36"/>
+    </row>
+    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="36"/>
+    </row>
+    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="117"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="39">
+        <f>SUM(D3:D7)</f>
+        <v>4500</v>
+      </c>
+      <c r="E8" s="34"/>
+      <c r="F8" s="36"/>
+    </row>
+    <row r="10" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="40"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="41"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="41"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="43"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="43"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="46"/>
+    </row>
+    <row r="41" spans="1:1" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="40"/>
+    </row>
+    <row r="43" spans="1:1" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:C8"/>
+  </mergeCells>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.51181102362204722" right="0" top="0.27559055118110237" bottom="0.98425196850393704" header="0.15748031496062992" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.6328125" customWidth="1"/>
+    <col min="2" max="4" width="12.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="23" x14ac:dyDescent="0.5">
+      <c r="A1" s="121" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+    </row>
+    <row r="3" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="122"/>
+      <c r="B3" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="122"/>
+      <c r="B4" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="13" x14ac:dyDescent="0.25">
+      <c r="A5" s="55" t="str">
+        <f>A17</f>
+        <v>грудень</v>
+      </c>
+      <c r="B5" s="57">
+        <v>1160.3699999999999</v>
+      </c>
+      <c r="C5" s="57"/>
+      <c r="D5" s="58"/>
+    </row>
+    <row r="6" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="60">
+        <v>1333.2</v>
+      </c>
+      <c r="C6" s="60">
+        <v>1090.8</v>
+      </c>
+      <c r="D6" s="60">
+        <v>90.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="60">
+        <v>1333.2</v>
+      </c>
+      <c r="C7" s="60">
+        <v>1090.8</v>
+      </c>
+      <c r="D7" s="60">
+        <v>90.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="60">
+        <v>1333.2</v>
+      </c>
+      <c r="C8" s="60">
+        <v>1090.8</v>
+      </c>
+      <c r="D8" s="60">
+        <v>90.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="60">
+        <v>1333.2</v>
+      </c>
+      <c r="C9" s="60">
+        <v>1090.8</v>
+      </c>
+      <c r="D9" s="60">
+        <v>90.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="60">
+        <v>1333.2</v>
+      </c>
+      <c r="C10" s="60">
+        <v>1090.8</v>
+      </c>
+      <c r="D10" s="60">
+        <v>90.9</v>
+      </c>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+    </row>
+    <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="60">
+        <v>1333.2</v>
+      </c>
+      <c r="C11" s="60">
+        <v>1090.8</v>
+      </c>
+      <c r="D11" s="78">
+        <v>90.9</v>
+      </c>
+      <c r="E11" s="79"/>
+    </row>
+    <row r="12" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="60">
+        <v>1337.0730000000001</v>
+      </c>
+      <c r="C12" s="60">
+        <v>1093.97</v>
+      </c>
+      <c r="D12" s="60">
+        <v>91.16406818181818</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="60">
+        <v>1351</v>
+      </c>
+      <c r="C13" s="60">
+        <v>1105.3599999999999</v>
+      </c>
+      <c r="D13" s="60">
+        <v>92.113349999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="60">
+        <v>1351</v>
+      </c>
+      <c r="C14" s="60">
+        <v>1105.3599999999999</v>
+      </c>
+      <c r="D14" s="60">
+        <v>92.113349999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="60">
+        <v>2670.9958000000006</v>
+      </c>
+      <c r="C15" s="60">
+        <v>1446.46</v>
+      </c>
+      <c r="D15" s="60">
+        <v>137.56335000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+    </row>
+    <row r="17" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="79"/>
+    </row>
+    <row r="18" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="A18" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="62">
+        <f>SUM(B6:B17)</f>
+        <v>14709.2688</v>
+      </c>
+      <c r="C18" s="62">
+        <f>SUM(C6:C17)</f>
+        <v>11295.95</v>
+      </c>
+      <c r="D18" s="62">
+        <f>SUM(D6:D17)</f>
+        <v>958.35411818181808</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="72">
+        <v>10687.27</v>
+      </c>
+      <c r="C19" s="64">
+        <v>8744.1299999999992</v>
+      </c>
+      <c r="D19" s="64">
+        <v>728.68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="71">
+        <f>B18-B19</f>
+        <v>4021.9987999999994</v>
+      </c>
+      <c r="C20" s="71">
+        <f>C18-C19</f>
+        <v>2551.8200000000015</v>
+      </c>
+      <c r="D20" s="71">
+        <f>D18-D19</f>
+        <v>229.67411818181813</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="67"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="80"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:A4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.6328125" customWidth="1"/>
+    <col min="2" max="4" width="12.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="23" x14ac:dyDescent="0.5">
+      <c r="A1" s="121" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+    </row>
+    <row r="3" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="122"/>
+      <c r="B3" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="122"/>
+      <c r="B4" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="13" x14ac:dyDescent="0.25">
+      <c r="A5" s="55" t="str">
+        <f>A17</f>
+        <v>грудень</v>
+      </c>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="58"/>
+    </row>
+    <row r="6" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="60">
+        <v>1049.4000000000001</v>
+      </c>
+      <c r="C6" s="60">
+        <v>858.6</v>
+      </c>
+      <c r="D6" s="60">
+        <v>71.55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="60">
+        <v>1049.4000000000001</v>
+      </c>
+      <c r="C7" s="60">
+        <v>858.6</v>
+      </c>
+      <c r="D7" s="60">
+        <v>71.55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="60">
+        <v>1039.06</v>
+      </c>
+      <c r="C8" s="60">
+        <v>260.56</v>
+      </c>
+      <c r="D8" s="60">
+        <v>37.479999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="60">
+        <v>0</v>
+      </c>
+      <c r="C9" s="60">
+        <v>0</v>
+      </c>
+      <c r="D9" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="60">
+        <v>4301.04</v>
+      </c>
+      <c r="C10" s="60">
+        <v>0</v>
+      </c>
+      <c r="D10" s="60">
+        <v>0</v>
+      </c>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+    </row>
+    <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="60">
+        <v>577.16999999999996</v>
+      </c>
+      <c r="C11" s="60">
+        <v>283.05</v>
+      </c>
+      <c r="D11" s="60">
+        <v>39.35</v>
+      </c>
+      <c r="E11" s="60"/>
+    </row>
+    <row r="12" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="60">
+        <v>1049.4000000000001</v>
+      </c>
+      <c r="C12" s="60">
+        <v>858.6</v>
+      </c>
+      <c r="D12" s="60">
+        <v>71.55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="60">
+        <v>1049.4000000000001</v>
+      </c>
+      <c r="C13" s="60">
+        <v>858.6</v>
+      </c>
+      <c r="D13" s="60">
+        <v>71.55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="60">
+        <v>1111</v>
+      </c>
+      <c r="C14" s="60">
+        <v>909</v>
+      </c>
+      <c r="D14" s="60">
+        <v>75.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="60">
+        <v>1111</v>
+      </c>
+      <c r="C15" s="60">
+        <v>909</v>
+      </c>
+      <c r="D15" s="60">
+        <v>75.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="60">
+        <v>1111</v>
+      </c>
+      <c r="C16" s="60">
+        <v>909</v>
+      </c>
+      <c r="D16" s="60">
+        <v>75.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="60">
+        <v>1111</v>
+      </c>
+      <c r="C17" s="60">
+        <v>909</v>
+      </c>
+      <c r="D17" s="60">
+        <v>75.75</v>
+      </c>
+      <c r="E17" s="77"/>
+    </row>
+    <row r="18" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="A18" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="62">
+        <f>SUM(B6:B17)</f>
+        <v>14558.869999999999</v>
+      </c>
+      <c r="C18" s="62">
+        <f>SUM(C6:C17)</f>
+        <v>7614.01</v>
+      </c>
+      <c r="D18" s="62">
+        <f>SUM(D6:D17)</f>
+        <v>666.03</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="72">
+        <v>13497.23</v>
+      </c>
+      <c r="C19" s="64">
+        <v>6705.01</v>
+      </c>
+      <c r="D19" s="64">
+        <v>590.28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="71">
+        <f>B19-B18</f>
+        <v>-1061.6399999999994</v>
+      </c>
+      <c r="C20" s="71">
+        <f>C19-C18</f>
+        <v>-909</v>
+      </c>
+      <c r="D20" s="71">
+        <f>D19-D18</f>
+        <v>-75.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="67"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="68"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R16"/>
   <sheetViews>
@@ -5133,25 +6635,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
     </row>
     <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -5176,13 +6678,13 @@
       <c r="D7" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="92" t="s">
+      <c r="F7" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="90" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="89" t="s">
@@ -5197,13 +6699,13 @@
       <c r="K7" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="90" t="s">
+      <c r="L7" s="93" t="s">
         <v>66</v>
       </c>
       <c r="M7" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="92" t="s">
+      <c r="N7" s="90" t="s">
         <v>42</v>
       </c>
       <c r="O7" s="89" t="s">
@@ -5221,16 +6723,16 @@
       <c r="B8" s="89"/>
       <c r="C8" s="89"/>
       <c r="D8" s="89"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
       <c r="H8" s="89"/>
       <c r="I8" s="89"/>
       <c r="J8" s="89"/>
       <c r="K8" s="89"/>
-      <c r="L8" s="90"/>
+      <c r="L8" s="93"/>
       <c r="M8" s="89"/>
-      <c r="N8" s="93"/>
+      <c r="N8" s="91"/>
       <c r="O8" s="89"/>
       <c r="P8" s="89"/>
       <c r="Q8" s="89"/>
@@ -5347,18 +6849,18 @@
     </row>
     <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -5380,18 +6882,18 @@
       <c r="P15" s="52"/>
     </row>
     <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
       <c r="M16" s="73">
         <f>O10+M13</f>
         <v>2095.75</v>
@@ -5401,6 +6903,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -5416,11 +6923,6 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
@@ -5428,779 +6930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист8"/>
-  <dimension ref="A1:F43"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="E7" sqref="E7:E8"/>
-      <selection pane="topRight" activeCell="E7" sqref="E7:E8"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7:E8"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.6328125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="7.453125" style="29" customWidth="1"/>
-    <col min="3" max="3" width="35.453125" style="29" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" style="29" customWidth="1"/>
-    <col min="5" max="5" width="15.6328125" style="29" customWidth="1"/>
-    <col min="6" max="6" width="13.36328125" style="29" customWidth="1"/>
-    <col min="7" max="8" width="15.08984375" style="29" customWidth="1"/>
-    <col min="9" max="16384" width="9.08984375" style="29"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="30">
-        <v>1</v>
-      </c>
-      <c r="B2" s="31">
-        <v>2</v>
-      </c>
-      <c r="C2" s="31">
-        <v>3</v>
-      </c>
-      <c r="D2" s="31">
-        <v>4</v>
-      </c>
-      <c r="E2" s="31">
-        <v>5</v>
-      </c>
-      <c r="F2" s="32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33">
-        <v>1</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="20" t="str">
-        <f>'пд2 зп'!C3</f>
-        <v>Крива Оксана Володимирівна</v>
-      </c>
-      <c r="D3" s="35">
-        <f>'пд1 аванс'!C9</f>
-        <v>3000</v>
-      </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="36"/>
-    </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33">
-        <v>2</v>
-      </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="35">
-        <v>1500</v>
-      </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="36"/>
-    </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="36"/>
-    </row>
-    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="36"/>
-    </row>
-    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="36"/>
-    </row>
-    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="117" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="117"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="39">
-        <f>SUM(D3:D7)</f>
-        <v>4500</v>
-      </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="36"/>
-    </row>
-    <row r="10" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="43"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
-    </row>
-    <row r="41" spans="1:1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
-    </row>
-    <row r="43" spans="1:1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A8:C8"/>
-  </mergeCells>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.51181102362204722" right="0" top="0.27559055118110237" bottom="0.98425196850393704" header="0.15748031496062992" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.6328125" customWidth="1"/>
-    <col min="2" max="4" width="12.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="23" x14ac:dyDescent="0.5">
-      <c r="A1" s="121" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-    </row>
-    <row r="3" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="122"/>
-      <c r="B3" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="56" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="122"/>
-      <c r="B4" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="13" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="str">
-        <f>A17</f>
-        <v>грудень</v>
-      </c>
-      <c r="B5" s="57">
-        <v>1160.3699999999999</v>
-      </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="58"/>
-    </row>
-    <row r="6" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="60">
-        <v>1333.2</v>
-      </c>
-      <c r="C6" s="60">
-        <v>1090.8</v>
-      </c>
-      <c r="D6" s="60">
-        <v>90.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="60">
-        <v>1333.2</v>
-      </c>
-      <c r="C7" s="60">
-        <v>1090.8</v>
-      </c>
-      <c r="D7" s="60">
-        <v>90.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="60">
-        <v>1333.2</v>
-      </c>
-      <c r="C8" s="60">
-        <v>1090.8</v>
-      </c>
-      <c r="D8" s="60">
-        <v>90.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="60">
-        <v>1333.2</v>
-      </c>
-      <c r="C9" s="60">
-        <v>1090.8</v>
-      </c>
-      <c r="D9" s="60">
-        <v>90.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="60">
-        <v>1333.2</v>
-      </c>
-      <c r="C10" s="60">
-        <v>1090.8</v>
-      </c>
-      <c r="D10" s="60">
-        <v>90.9</v>
-      </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-    </row>
-    <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="60">
-        <v>1333.2</v>
-      </c>
-      <c r="C11" s="60">
-        <v>1090.8</v>
-      </c>
-      <c r="D11" s="78">
-        <v>90.9</v>
-      </c>
-      <c r="E11" s="79"/>
-    </row>
-    <row r="12" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="60">
-        <v>1337.0730000000001</v>
-      </c>
-      <c r="C12" s="60">
-        <v>1093.97</v>
-      </c>
-      <c r="D12" s="60">
-        <v>91.16406818181818</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="60">
-        <v>1351</v>
-      </c>
-      <c r="C13" s="60">
-        <v>1105.3599999999999</v>
-      </c>
-      <c r="D13" s="60">
-        <v>92.113349999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="60">
-        <v>1351</v>
-      </c>
-      <c r="C14" s="60">
-        <v>1105.3599999999999</v>
-      </c>
-      <c r="D14" s="60">
-        <v>92.113349999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="60">
-        <v>2670.9958000000006</v>
-      </c>
-      <c r="C15" s="60">
-        <v>1446.46</v>
-      </c>
-      <c r="D15" s="60">
-        <v>137.56335000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-    </row>
-    <row r="17" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="79"/>
-    </row>
-    <row r="18" spans="1:5" ht="13" x14ac:dyDescent="0.25">
-      <c r="A18" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="62">
-        <f>SUM(B6:B17)</f>
-        <v>14709.2688</v>
-      </c>
-      <c r="C18" s="62">
-        <f>SUM(C6:C17)</f>
-        <v>11295.95</v>
-      </c>
-      <c r="D18" s="62">
-        <f>SUM(D6:D17)</f>
-        <v>958.35411818181808</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="72">
-        <v>10687.27</v>
-      </c>
-      <c r="C19" s="64">
-        <v>8744.1299999999992</v>
-      </c>
-      <c r="D19" s="64">
-        <v>728.68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="71">
-        <f>B18-B19</f>
-        <v>4021.9987999999994</v>
-      </c>
-      <c r="C20" s="71">
-        <f>C18-C19</f>
-        <v>2551.8200000000015</v>
-      </c>
-      <c r="D20" s="71">
-        <f>D18-D19</f>
-        <v>229.67411818181813</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="67"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="80"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:A4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.6328125" customWidth="1"/>
-    <col min="2" max="4" width="12.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="23" x14ac:dyDescent="0.5">
-      <c r="A1" s="121" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-    </row>
-    <row r="3" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="122"/>
-      <c r="B3" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="56" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="122"/>
-      <c r="B4" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="13" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="str">
-        <f>A17</f>
-        <v>грудень</v>
-      </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="58"/>
-    </row>
-    <row r="6" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="60">
-        <v>1049.4000000000001</v>
-      </c>
-      <c r="C6" s="60">
-        <v>858.6</v>
-      </c>
-      <c r="D6" s="60">
-        <v>71.55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="60">
-        <v>1049.4000000000001</v>
-      </c>
-      <c r="C7" s="60">
-        <v>858.6</v>
-      </c>
-      <c r="D7" s="60">
-        <v>71.55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="60">
-        <v>1039.06</v>
-      </c>
-      <c r="C8" s="60">
-        <v>260.56</v>
-      </c>
-      <c r="D8" s="60">
-        <v>37.479999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="60">
-        <v>0</v>
-      </c>
-      <c r="C9" s="60">
-        <v>0</v>
-      </c>
-      <c r="D9" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="60">
-        <v>4301.04</v>
-      </c>
-      <c r="C10" s="60">
-        <v>0</v>
-      </c>
-      <c r="D10" s="60">
-        <v>0</v>
-      </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-    </row>
-    <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="60">
-        <v>577.16999999999996</v>
-      </c>
-      <c r="C11" s="60">
-        <v>283.05</v>
-      </c>
-      <c r="D11" s="60">
-        <v>39.35</v>
-      </c>
-      <c r="E11" s="60"/>
-    </row>
-    <row r="12" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="60">
-        <v>1049.4000000000001</v>
-      </c>
-      <c r="C12" s="60">
-        <v>858.6</v>
-      </c>
-      <c r="D12" s="60">
-        <v>71.55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="60">
-        <v>1049.4000000000001</v>
-      </c>
-      <c r="C13" s="60">
-        <v>858.6</v>
-      </c>
-      <c r="D13" s="60">
-        <v>71.55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="60">
-        <v>1111</v>
-      </c>
-      <c r="C14" s="60">
-        <v>909</v>
-      </c>
-      <c r="D14" s="60">
-        <v>75.75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="60">
-        <v>1111</v>
-      </c>
-      <c r="C15" s="60">
-        <v>909</v>
-      </c>
-      <c r="D15" s="60">
-        <v>75.75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="60">
-        <v>1111</v>
-      </c>
-      <c r="C16" s="60">
-        <v>909</v>
-      </c>
-      <c r="D16" s="60">
-        <v>75.75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="60">
-        <v>1111</v>
-      </c>
-      <c r="C17" s="60">
-        <v>909</v>
-      </c>
-      <c r="D17" s="60">
-        <v>75.75</v>
-      </c>
-      <c r="E17" s="77"/>
-    </row>
-    <row r="18" spans="1:5" ht="13" x14ac:dyDescent="0.25">
-      <c r="A18" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="62">
-        <f>SUM(B6:B17)</f>
-        <v>14558.869999999999</v>
-      </c>
-      <c r="C18" s="62">
-        <f>SUM(C6:C17)</f>
-        <v>7614.01</v>
-      </c>
-      <c r="D18" s="62">
-        <f>SUM(D6:D17)</f>
-        <v>666.03</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="72">
-        <v>13497.23</v>
-      </c>
-      <c r="C19" s="64">
-        <v>6705.01</v>
-      </c>
-      <c r="D19" s="64">
-        <v>590.28</v>
-      </c>
-      <c r="E19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="71">
-        <f>B19-B18</f>
-        <v>-1061.6399999999994</v>
-      </c>
-      <c r="C20" s="71">
-        <f>C19-C18</f>
-        <v>-909</v>
-      </c>
-      <c r="D20" s="71">
-        <f>D19-D18</f>
-        <v>-75.75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="14" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="67"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="68"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R16"/>
   <sheetViews>
@@ -6231,25 +6961,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
     </row>
     <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -6274,13 +7004,13 @@
       <c r="D7" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="92" t="s">
+      <c r="F7" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="90" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="89" t="s">
@@ -6295,13 +7025,13 @@
       <c r="K7" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="90" t="s">
+      <c r="L7" s="93" t="s">
         <v>66</v>
       </c>
       <c r="M7" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="92" t="s">
+      <c r="N7" s="90" t="s">
         <v>42</v>
       </c>
       <c r="O7" s="89" t="s">
@@ -6319,16 +7049,16 @@
       <c r="B8" s="89"/>
       <c r="C8" s="89"/>
       <c r="D8" s="89"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
       <c r="H8" s="89"/>
       <c r="I8" s="89"/>
       <c r="J8" s="89"/>
       <c r="K8" s="89"/>
-      <c r="L8" s="90"/>
+      <c r="L8" s="93"/>
       <c r="M8" s="89"/>
-      <c r="N8" s="93"/>
+      <c r="N8" s="91"/>
       <c r="O8" s="89"/>
       <c r="P8" s="89"/>
       <c r="Q8" s="89"/>
@@ -6445,18 +7175,18 @@
     </row>
     <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -6478,18 +7208,18 @@
       <c r="P15" s="52"/>
     </row>
     <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
       <c r="M16" s="73">
         <f>O10+M13</f>
         <v>2095.75</v>
@@ -6499,6 +7229,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -6514,11 +7249,6 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
@@ -6526,7 +7256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R16"/>
   <sheetViews>
@@ -6557,25 +7287,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
     </row>
     <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -6600,13 +7330,13 @@
       <c r="D7" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="92" t="s">
+      <c r="F7" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="90" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="89" t="s">
@@ -6621,13 +7351,13 @@
       <c r="K7" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="90" t="s">
+      <c r="L7" s="93" t="s">
         <v>66</v>
       </c>
       <c r="M7" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="92" t="s">
+      <c r="N7" s="90" t="s">
         <v>42</v>
       </c>
       <c r="O7" s="89" t="s">
@@ -6645,16 +7375,16 @@
       <c r="B8" s="89"/>
       <c r="C8" s="89"/>
       <c r="D8" s="89"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
       <c r="H8" s="89"/>
       <c r="I8" s="89"/>
       <c r="J8" s="89"/>
       <c r="K8" s="89"/>
-      <c r="L8" s="90"/>
+      <c r="L8" s="93"/>
       <c r="M8" s="89"/>
-      <c r="N8" s="93"/>
+      <c r="N8" s="91"/>
       <c r="O8" s="89"/>
       <c r="P8" s="89"/>
       <c r="Q8" s="89"/>
@@ -6771,18 +7501,18 @@
     </row>
     <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -6804,18 +7534,18 @@
       <c r="P15" s="52"/>
     </row>
     <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
       <c r="M16" s="73">
         <f>O10+M13</f>
         <v>2095.75</v>
@@ -6825,6 +7555,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -6840,11 +7575,6 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
@@ -6852,7 +7582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R16"/>
   <sheetViews>
@@ -6883,25 +7613,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
     </row>
     <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -6926,13 +7656,13 @@
       <c r="D7" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="92" t="s">
+      <c r="F7" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="90" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="89" t="s">
@@ -6947,13 +7677,13 @@
       <c r="K7" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="90" t="s">
+      <c r="L7" s="93" t="s">
         <v>66</v>
       </c>
       <c r="M7" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="92" t="s">
+      <c r="N7" s="90" t="s">
         <v>42</v>
       </c>
       <c r="O7" s="89" t="s">
@@ -6971,16 +7701,16 @@
       <c r="B8" s="89"/>
       <c r="C8" s="89"/>
       <c r="D8" s="89"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
       <c r="H8" s="89"/>
       <c r="I8" s="89"/>
       <c r="J8" s="89"/>
       <c r="K8" s="89"/>
-      <c r="L8" s="90"/>
+      <c r="L8" s="93"/>
       <c r="M8" s="89"/>
-      <c r="N8" s="93"/>
+      <c r="N8" s="91"/>
       <c r="O8" s="89"/>
       <c r="P8" s="89"/>
       <c r="Q8" s="89"/>
@@ -7097,18 +7827,18 @@
     </row>
     <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -7130,344 +7860,18 @@
       <c r="P15" s="52"/>
     </row>
     <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="M16" s="73">
-        <f>O10+M13</f>
-        <v>1979.5500000000002</v>
-      </c>
-      <c r="N16" s="53"/>
-      <c r="O16" s="52"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-  </mergeCells>
-  <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R16"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="18.08984375" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="7" width="10.6328125" customWidth="1"/>
-    <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" customWidth="1"/>
-    <col min="10" max="10" width="10.08984375" customWidth="1"/>
-    <col min="11" max="11" width="8.6328125" customWidth="1"/>
-    <col min="12" max="12" width="11.6328125" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.54296875" customWidth="1"/>
-    <col min="15" max="15" width="8.453125" customWidth="1"/>
-    <col min="16" max="16" width="10.54296875" customWidth="1"/>
-    <col min="17" max="17" width="10.453125" customWidth="1"/>
-    <col min="18" max="18" width="9.36328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="23"/>
-    </row>
-    <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="91" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
-    </row>
-    <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="89" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="89" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="92" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="92" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="89" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="89" t="s">
-        <v>64</v>
-      </c>
-      <c r="J7" s="89" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="90" t="s">
-        <v>66</v>
-      </c>
-      <c r="M7" s="89" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" s="92" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" s="89" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" s="89" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q7" s="89" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="89"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
-    </row>
-    <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3371314500</v>
-      </c>
-      <c r="D9" s="3">
-        <v>4770</v>
-      </c>
-      <c r="E9" s="3">
-        <v>184</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <f>D9/E6*E9</f>
-        <v>4770</v>
-      </c>
-      <c r="H9" s="65"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3">
-        <v>2000</v>
-      </c>
-      <c r="L9" s="25">
-        <f>G9</f>
-        <v>4770</v>
-      </c>
-      <c r="M9" s="3">
-        <f>ROUND((L9)*18/100,2)</f>
-        <v>858.6</v>
-      </c>
-      <c r="N9" s="3">
-        <f>L9*0.015</f>
-        <v>71.55</v>
-      </c>
-      <c r="O9" s="3">
-        <f>N9+M9</f>
-        <v>930.15</v>
-      </c>
-      <c r="P9" s="3">
-        <f>L9-O9</f>
-        <v>3839.85</v>
-      </c>
-      <c r="Q9" s="3">
-        <f>P9-K9</f>
-        <v>1839.85</v>
-      </c>
-      <c r="R9" s="66"/>
-    </row>
-    <row r="10" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49">
-        <f>SUM(D9:D9)</f>
-        <v>4770</v>
-      </c>
-      <c r="E10" s="49">
-        <f>SUM(E9)</f>
-        <v>184</v>
-      </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49">
-        <f t="shared" ref="K10:Q10" si="0">SUM(K9:K9)</f>
-        <v>2000</v>
-      </c>
-      <c r="L10" s="75">
-        <f>SUM(L9:L9)</f>
-        <v>4770</v>
-      </c>
-      <c r="M10" s="74">
-        <f t="shared" si="0"/>
-        <v>858.6</v>
-      </c>
-      <c r="N10" s="74">
-        <f t="shared" si="0"/>
-        <v>71.55</v>
-      </c>
-      <c r="O10" s="74">
-        <f t="shared" si="0"/>
-        <v>930.15</v>
-      </c>
-      <c r="P10" s="74">
-        <f t="shared" si="0"/>
-        <v>3839.85</v>
-      </c>
-      <c r="Q10" s="74">
-        <f t="shared" si="0"/>
-        <v>1839.85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="13" x14ac:dyDescent="0.25">
-      <c r="M11" s="22"/>
-      <c r="Q11" s="47">
-        <f>Q10+K10</f>
-        <v>3839.85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="88" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="24">
-        <v>0.22</v>
-      </c>
-      <c r="M13" s="54">
-        <f>L9*0.22</f>
-        <v>1049.4000000000001</v>
-      </c>
-      <c r="N13" s="50"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-    </row>
-    <row r="15" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-    </row>
-    <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
       <c r="M16" s="73">
         <f>O10+M13</f>
         <v>1979.5500000000002</v>
@@ -7506,6 +7910,332 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:R16"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="18.08984375" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="7" width="10.6328125" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" customWidth="1"/>
+    <col min="10" max="10" width="10.08984375" customWidth="1"/>
+    <col min="11" max="11" width="8.6328125" customWidth="1"/>
+    <col min="12" max="12" width="11.6328125" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.54296875" customWidth="1"/>
+    <col min="15" max="15" width="8.453125" customWidth="1"/>
+    <col min="16" max="16" width="10.54296875" customWidth="1"/>
+    <col min="17" max="17" width="10.453125" customWidth="1"/>
+    <col min="18" max="18" width="9.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="23"/>
+    </row>
+    <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
+      <c r="A3" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+    </row>
+    <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="89" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="90" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="90" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="89" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="89" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="89"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+    </row>
+    <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3371314500</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4770</v>
+      </c>
+      <c r="E9" s="3">
+        <v>184</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <f>D9/E6*E9</f>
+        <v>4770</v>
+      </c>
+      <c r="H9" s="65"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L9" s="25">
+        <f>G9</f>
+        <v>4770</v>
+      </c>
+      <c r="M9" s="3">
+        <f>ROUND((L9)*18/100,2)</f>
+        <v>858.6</v>
+      </c>
+      <c r="N9" s="3">
+        <f>L9*0.015</f>
+        <v>71.55</v>
+      </c>
+      <c r="O9" s="3">
+        <f>N9+M9</f>
+        <v>930.15</v>
+      </c>
+      <c r="P9" s="3">
+        <f>L9-O9</f>
+        <v>3839.85</v>
+      </c>
+      <c r="Q9" s="3">
+        <f>P9-K9</f>
+        <v>1839.85</v>
+      </c>
+      <c r="R9" s="66"/>
+    </row>
+    <row r="10" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49">
+        <f>SUM(D9:D9)</f>
+        <v>4770</v>
+      </c>
+      <c r="E10" s="49">
+        <f>SUM(E9)</f>
+        <v>184</v>
+      </c>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49">
+        <f t="shared" ref="K10:Q10" si="0">SUM(K9:K9)</f>
+        <v>2000</v>
+      </c>
+      <c r="L10" s="75">
+        <f>SUM(L9:L9)</f>
+        <v>4770</v>
+      </c>
+      <c r="M10" s="74">
+        <f t="shared" si="0"/>
+        <v>858.6</v>
+      </c>
+      <c r="N10" s="74">
+        <f t="shared" si="0"/>
+        <v>71.55</v>
+      </c>
+      <c r="O10" s="74">
+        <f t="shared" si="0"/>
+        <v>930.15</v>
+      </c>
+      <c r="P10" s="74">
+        <f t="shared" si="0"/>
+        <v>3839.85</v>
+      </c>
+      <c r="Q10" s="74">
+        <f t="shared" si="0"/>
+        <v>1839.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="13" x14ac:dyDescent="0.25">
+      <c r="M11" s="22"/>
+      <c r="Q11" s="47">
+        <f>Q10+K10</f>
+        <v>3839.85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="24">
+        <v>0.22</v>
+      </c>
+      <c r="M13" s="54">
+        <f>L9*0.22</f>
+        <v>1049.4000000000001</v>
+      </c>
+      <c r="N13" s="50"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+    </row>
+    <row r="15" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+    </row>
+    <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
+      <c r="M16" s="73">
+        <f>O10+M13</f>
+        <v>1979.5500000000002</v>
+      </c>
+      <c r="N16" s="53"/>
+      <c r="O16" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+  </mergeCells>
+  <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q17"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -7535,25 +8265,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
     </row>
     <row r="4" spans="1:17" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -7578,13 +8308,13 @@
       <c r="D7" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="92" t="s">
+      <c r="F7" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="90" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="89" t="s">
@@ -7596,13 +8326,13 @@
       <c r="J7" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="90" t="s">
+      <c r="K7" s="93" t="s">
         <v>66</v>
       </c>
       <c r="L7" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="92" t="s">
+      <c r="M7" s="90" t="s">
         <v>42</v>
       </c>
       <c r="N7" s="89" t="s">
@@ -7620,15 +8350,15 @@
       <c r="B8" s="89"/>
       <c r="C8" s="89"/>
       <c r="D8" s="89"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
       <c r="H8" s="89"/>
       <c r="I8" s="89"/>
       <c r="J8" s="89"/>
-      <c r="K8" s="90"/>
+      <c r="K8" s="93"/>
       <c r="L8" s="89"/>
-      <c r="M8" s="93"/>
+      <c r="M8" s="91"/>
       <c r="N8" s="89"/>
       <c r="O8" s="89"/>
       <c r="P8" s="89"/>
@@ -7811,18 +8541,18 @@
     </row>
     <row r="13" spans="1:17" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
       <c r="L14" s="24">
         <v>0.22</v>
       </c>
@@ -7844,18 +8574,18 @@
       <c r="P16" s="52"/>
     </row>
     <row r="17" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="88" t="s">
+      <c r="B17" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
       <c r="M17" s="73">
         <f>N11+M14</f>
         <v>4255.0191500000001</v>
@@ -7871,6 +8601,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -7885,11 +8620,6 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -7897,7 +8627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q16"/>
   <sheetViews>
@@ -7928,25 +8658,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
     </row>
     <row r="4" spans="1:17" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -7971,13 +8701,13 @@
       <c r="D7" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="92" t="s">
+      <c r="F7" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="90" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="89" t="s">
@@ -7989,13 +8719,13 @@
       <c r="J7" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="90" t="s">
+      <c r="K7" s="93" t="s">
         <v>66</v>
       </c>
       <c r="L7" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="92" t="s">
+      <c r="M7" s="90" t="s">
         <v>42</v>
       </c>
       <c r="N7" s="89" t="s">
@@ -8013,15 +8743,15 @@
       <c r="B8" s="89"/>
       <c r="C8" s="89"/>
       <c r="D8" s="89"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
       <c r="H8" s="89"/>
       <c r="I8" s="89"/>
       <c r="J8" s="89"/>
-      <c r="K8" s="90"/>
+      <c r="K8" s="93"/>
       <c r="L8" s="89"/>
-      <c r="M8" s="93"/>
+      <c r="M8" s="91"/>
       <c r="N8" s="89"/>
       <c r="O8" s="89"/>
       <c r="P8" s="89"/>
@@ -8147,18 +8877,18 @@
     </row>
     <row r="12" spans="1:17" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -8180,18 +8910,18 @@
       <c r="P15" s="52"/>
     </row>
     <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
       <c r="M16" s="73">
         <f>N10+M13</f>
         <v>2548.4691499999999</v>
@@ -8207,11 +8937,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -8226,342 +8951,11 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
-  </mergeCells>
-  <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q16"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="7" width="10.6328125" customWidth="1"/>
-    <col min="8" max="8" width="8.1796875" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" customWidth="1"/>
-    <col min="10" max="10" width="10.08984375" customWidth="1"/>
-    <col min="11" max="11" width="8.6328125" customWidth="1"/>
-    <col min="12" max="12" width="9.90625" customWidth="1"/>
-    <col min="13" max="13" width="12.453125" customWidth="1"/>
-    <col min="14" max="14" width="9.54296875" customWidth="1"/>
-    <col min="15" max="15" width="8.453125" customWidth="1"/>
-    <col min="16" max="16" width="10.54296875" customWidth="1"/>
-    <col min="17" max="17" width="10.453125" customWidth="1"/>
-    <col min="18" max="18" width="9.36328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="23"/>
-    </row>
-    <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="91" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
-    </row>
-    <row r="4" spans="1:17" ht="20" x14ac:dyDescent="0.4">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="89" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="89" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="92" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="92" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="89" t="s">
-        <v>89</v>
-      </c>
-      <c r="I7" s="89" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="90" t="s">
-        <v>66</v>
-      </c>
-      <c r="L7" s="89" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" s="92" t="s">
-        <v>42</v>
-      </c>
-      <c r="N7" s="89" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7" s="89" t="s">
-        <v>35</v>
-      </c>
-      <c r="P7" s="89" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="89"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-    </row>
-    <row r="9" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3371314500</v>
-      </c>
-      <c r="D9" s="3">
-        <v>6060</v>
-      </c>
-      <c r="E9" s="3">
-        <v>167</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <f>D9/E6*E9</f>
-        <v>6059.9999999999991</v>
-      </c>
-      <c r="H9" s="3">
-        <v>80.89</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K9" s="25">
-        <f>G9+H9+I9</f>
-        <v>6140.8899999999994</v>
-      </c>
-      <c r="L9" s="3">
-        <f>ROUND((K9)*18/100,2)</f>
-        <v>1105.3599999999999</v>
-      </c>
-      <c r="M9" s="3">
-        <f>K9*0.015</f>
-        <v>92.113349999999983</v>
-      </c>
-      <c r="N9" s="3">
-        <f>L9+M9</f>
-        <v>1197.47335</v>
-      </c>
-      <c r="O9" s="3">
-        <f>K9-N9</f>
-        <v>4943.4166499999992</v>
-      </c>
-      <c r="P9" s="3">
-        <f>O9-J9</f>
-        <v>1943.4166499999992</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49">
-        <f>SUM(D9:D9)</f>
-        <v>6060</v>
-      </c>
-      <c r="E10" s="49">
-        <f>SUM(E9)</f>
-        <v>167</v>
-      </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49">
-        <f>SUM(G9)</f>
-        <v>6059.9999999999991</v>
-      </c>
-      <c r="H10" s="49">
-        <f>SUM(H9)</f>
-        <v>80.89</v>
-      </c>
-      <c r="I10" s="49">
-        <v>0</v>
-      </c>
-      <c r="J10" s="49">
-        <f t="shared" ref="J10:P10" si="0">SUM(J9:J9)</f>
-        <v>3000</v>
-      </c>
-      <c r="K10" s="75">
-        <f t="shared" si="0"/>
-        <v>6140.8899999999994</v>
-      </c>
-      <c r="L10" s="74">
-        <f t="shared" si="0"/>
-        <v>1105.3599999999999</v>
-      </c>
-      <c r="M10" s="74">
-        <f t="shared" si="0"/>
-        <v>92.113349999999983</v>
-      </c>
-      <c r="N10" s="74">
-        <f t="shared" si="0"/>
-        <v>1197.47335</v>
-      </c>
-      <c r="O10" s="74">
-        <f t="shared" si="0"/>
-        <v>4943.4166499999992</v>
-      </c>
-      <c r="P10" s="74">
-        <f t="shared" si="0"/>
-        <v>1943.4166499999992</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="13" x14ac:dyDescent="0.25">
-      <c r="M11" s="22"/>
-      <c r="Q11" s="47">
-        <f>P10+J10</f>
-        <v>4943.4166499999992</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="88" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="24">
-        <v>0.22</v>
-      </c>
-      <c r="M13" s="54">
-        <f>K9*22%</f>
-        <v>1350.9957999999999</v>
-      </c>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-    </row>
-    <row r="14" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="M14" s="50"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-    </row>
-    <row r="15" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="N15" s="53"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-    </row>
-    <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="M16" s="73">
-        <f>N10+M13</f>
-        <v>2548.4691499999999</v>
-      </c>
-      <c r="N16" s="85" t="e">
-        <f>'07-21'!M9-'07-21'!#REF!+'07-21'!N9-'07-21'!#REF!+'07-21'!M13-1320</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O16" s="86" t="e">
-        <f>M16+N16</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B16:K16"/>
-    <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>

--- a/Фопи/Зарплата ФОП 2021/Підхомна О 2021.xlsx
+++ b/Фопи/Зарплата ФОП 2021/Підхомна О 2021.xlsx
@@ -9,16 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="180" windowWidth="11340" windowHeight="5920" tabRatio="798"/>
+    <workbookView xWindow="360" yWindow="180" windowWidth="11340" windowHeight="5920" tabRatio="798" firstSheet="5" activeTab="20"/>
   </bookViews>
   <sheets>
-    <sheet name="10-21 (2)" sheetId="156" r:id="rId1"/>
-    <sheet name="12" sheetId="149" r:id="rId2"/>
-    <sheet name="11" sheetId="148" r:id="rId3"/>
-    <sheet name="10" sheetId="147" r:id="rId4"/>
-    <sheet name="09" sheetId="146" r:id="rId5"/>
-    <sheet name="08" sheetId="145" r:id="rId6"/>
-    <sheet name="07" sheetId="144" r:id="rId7"/>
+    <sheet name="12" sheetId="149" r:id="rId1"/>
+    <sheet name="11" sheetId="148" r:id="rId2"/>
+    <sheet name="10" sheetId="147" r:id="rId3"/>
+    <sheet name="09" sheetId="146" r:id="rId4"/>
+    <sheet name="08" sheetId="145" r:id="rId5"/>
+    <sheet name="07" sheetId="144" r:id="rId6"/>
+    <sheet name="11-21 " sheetId="156" r:id="rId7"/>
     <sheet name="10-21" sheetId="155" r:id="rId8"/>
     <sheet name="09-21 " sheetId="154" r:id="rId9"/>
     <sheet name="08-21 " sheetId="153" r:id="rId10"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="100">
   <si>
     <t>№</t>
   </si>
@@ -320,21 +320,6 @@
     <t>Розрахунково-платіжна відомість за СЕРПЕНЬ 2021 року</t>
   </si>
   <si>
-    <t>ПЛАТІЖНА ВІДОМІСТЬ № 08</t>
-  </si>
-  <si>
-    <t>06 ВЕРЕСНЯ 2021</t>
-  </si>
-  <si>
-    <t>за СЕРПЕНЬ 2021</t>
-  </si>
-  <si>
-    <t>20 СЕРПНЯ 2021</t>
-  </si>
-  <si>
-    <t>ПЛАТІЖНА ВІДОМІСТЬ № 08/А</t>
-  </si>
-  <si>
     <t>Розрахунково-платіжна відомість за ВЕРЕСЕНЬ 2021 року</t>
   </si>
   <si>
@@ -342,6 +327,24 @@
   </si>
   <si>
     <t>Арабчук Лілія Василівна 01.10.21</t>
+  </si>
+  <si>
+    <t>Розрахунково-платіжна відомість за ЛИСТОПАД 2021 року</t>
+  </si>
+  <si>
+    <t>ПЛАТІЖНА ВІДОМІСТЬ № 09/А</t>
+  </si>
+  <si>
+    <t>за ВЕРЕСЕНЬ 2021</t>
+  </si>
+  <si>
+    <t>06 ЖОВТНЯ 2021</t>
+  </si>
+  <si>
+    <t>20 ВЕРЕСНЯ 2021</t>
+  </si>
+  <si>
+    <t>ПЛАТІЖНА ВІДОМІСТЬ № 9</t>
   </si>
 </sst>
 </file>
@@ -351,7 +354,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -607,6 +610,37 @@
       <sz val="10"/>
       <color theme="0"/>
       <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -967,7 +1001,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1067,9 +1101,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1204,53 +1235,35 @@
     <xf numFmtId="2" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1289,6 +1302,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1306,6 +1337,27 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="40" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1713,24 +1765,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q17"/>
+  <dimension ref="A2:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" customWidth="1"/>
+    <col min="2" max="2" width="18.08984375" customWidth="1"/>
     <col min="3" max="3" width="13.54296875" customWidth="1"/>
     <col min="4" max="7" width="10.6328125" customWidth="1"/>
-    <col min="8" max="8" width="8.1796875" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
     <col min="9" max="9" width="7.6328125" customWidth="1"/>
     <col min="10" max="10" width="10.08984375" customWidth="1"/>
     <col min="11" max="11" width="8.6328125" customWidth="1"/>
-    <col min="12" max="12" width="9.90625" customWidth="1"/>
-    <col min="13" max="13" width="12.453125" customWidth="1"/>
+    <col min="12" max="12" width="11.6328125" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.54296875" customWidth="1"/>
     <col min="15" max="15" width="8.453125" customWidth="1"/>
     <col min="16" max="16" width="10.54296875" customWidth="1"/>
@@ -1738,355 +1790,279 @@
     <col min="18" max="18" width="9.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="23"/>
     </row>
-    <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="88" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-    </row>
-    <row r="4" spans="1:17" ht="20" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
+      <c r="A3" s="90" t="str">
+        <f>'[1]12'!$A$3:$Q$3</f>
+        <v xml:space="preserve">Розрахунково – платіжна відомість за Грудень 2020 р. </v>
+      </c>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+    </row>
+    <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="90" t="s">
+      <c r="G7" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="89" t="s">
-        <v>89</v>
-      </c>
-      <c r="I7" s="89" t="s">
+      <c r="H7" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="89" t="s">
+      <c r="K7" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="93" t="s">
+      <c r="L7" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="L7" s="89" t="s">
+      <c r="M7" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="90" t="s">
+      <c r="N7" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="89" t="s">
+      <c r="O7" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="89" t="s">
+      <c r="P7" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="89" t="s">
+      <c r="Q7" s="88" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="89"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="93"/>
+    <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
       <c r="L8" s="89"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-    </row>
-    <row r="9" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="88"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
+    </row>
+    <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="75" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="2">
         <v>3371314500</v>
       </c>
       <c r="D9" s="3">
-        <v>6060</v>
+        <v>5050</v>
       </c>
       <c r="E9" s="3">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
       </c>
       <c r="G9" s="3">
         <f>D9/E6*E9</f>
-        <v>6060</v>
-      </c>
-      <c r="H9" s="3">
-        <v>80.89</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K9" s="25">
-        <f>G9+H9+I9</f>
-        <v>6140.89</v>
-      </c>
-      <c r="L9" s="3">
-        <f>ROUND((K9)*18/100,2)</f>
-        <v>1105.3599999999999</v>
+        <v>5050</v>
+      </c>
+      <c r="H9" s="64"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L9" s="25">
+        <f>G9</f>
+        <v>5050</v>
       </c>
       <c r="M9" s="3">
-        <f>K9*0.015</f>
-        <v>92.113349999999997</v>
+        <f>ROUND((L9)*18/100,2)</f>
+        <v>909</v>
       </c>
       <c r="N9" s="3">
-        <f>L9+M9</f>
-        <v>1197.47335</v>
+        <f>L9*0.015</f>
+        <v>75.75</v>
       </c>
       <c r="O9" s="3">
-        <f>K9-N9</f>
-        <v>4943.4166500000001</v>
+        <f>N9+M9</f>
+        <v>984.75</v>
       </c>
       <c r="P9" s="3">
-        <f>O9-J9</f>
-        <v>1943.4166500000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>1</v>
-      </c>
-      <c r="B10" s="76" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3268013166</v>
-      </c>
-      <c r="D10" s="3">
-        <v>6060</v>
-      </c>
-      <c r="E10" s="3">
-        <v>88</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="3">
-        <f>D10/E6*E10</f>
-        <v>3030</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K10" s="25">
-        <f>G10+H10+I10</f>
-        <v>3030</v>
-      </c>
-      <c r="L10" s="3">
-        <f>ROUND((K10-1135)*18/100,2)</f>
-        <v>341.1</v>
-      </c>
-      <c r="M10" s="3">
-        <f>K10*0.015</f>
-        <v>45.449999999999996</v>
-      </c>
-      <c r="N10" s="3">
-        <f>L10+M10</f>
-        <v>386.55</v>
-      </c>
-      <c r="O10" s="3">
-        <f>K10-N10</f>
-        <v>2643.45</v>
-      </c>
-      <c r="P10" s="3">
-        <f>O10-J10</f>
-        <v>1143.4499999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="48" t="s">
+        <f>L9-O9</f>
+        <v>4065.25</v>
+      </c>
+      <c r="Q9" s="3">
+        <f>P9-K9</f>
+        <v>2065.25</v>
+      </c>
+      <c r="R9" s="65"/>
+    </row>
+    <row r="10" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49">
+      <c r="C10" s="47"/>
+      <c r="D10" s="48">
         <f>SUM(D9:D9)</f>
-        <v>6060</v>
-      </c>
-      <c r="E11" s="49">
+        <v>5050</v>
+      </c>
+      <c r="E10" s="48">
         <f>SUM(E9)</f>
-        <v>176</v>
-      </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49">
-        <f>SUM(G9)</f>
-        <v>6060</v>
-      </c>
-      <c r="H11" s="49">
-        <f>SUM(H9)</f>
-        <v>80.89</v>
-      </c>
-      <c r="I11" s="49">
-        <v>0</v>
-      </c>
-      <c r="J11" s="49">
-        <f>SUM(J9:J9)</f>
-        <v>3000</v>
-      </c>
-      <c r="K11" s="75">
-        <f>SUM(K9:K9)</f>
-        <v>6140.89</v>
-      </c>
-      <c r="L11" s="74">
-        <f>SUM(L9:L10)</f>
-        <v>1446.46</v>
-      </c>
-      <c r="M11" s="74">
-        <f>SUM(M9:M10)</f>
-        <v>137.56334999999999</v>
-      </c>
-      <c r="N11" s="74">
-        <f t="shared" ref="N11:P11" si="0">SUM(N9:N10)</f>
-        <v>1584.0233499999999</v>
-      </c>
-      <c r="O11" s="74">
+        <v>174</v>
+      </c>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48">
+        <f t="shared" ref="K10:Q10" si="0">SUM(K9:K9)</f>
+        <v>2000</v>
+      </c>
+      <c r="L10" s="74">
+        <f>SUM(L9:L9)</f>
+        <v>5050</v>
+      </c>
+      <c r="M10" s="73">
         <f t="shared" si="0"/>
-        <v>7586.8666499999999</v>
-      </c>
-      <c r="P11" s="74">
+        <v>909</v>
+      </c>
+      <c r="N10" s="73">
         <f t="shared" si="0"/>
-        <v>3086.8666499999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="13" x14ac:dyDescent="0.25">
-      <c r="M12" s="22"/>
-      <c r="Q12" s="47">
-        <f>P11+J11</f>
-        <v>6086.8666499999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="92" t="s">
+        <v>75.75</v>
+      </c>
+      <c r="O10" s="73">
+        <f t="shared" si="0"/>
+        <v>984.75</v>
+      </c>
+      <c r="P10" s="73">
+        <f t="shared" si="0"/>
+        <v>4065.25</v>
+      </c>
+      <c r="Q10" s="73">
+        <f t="shared" si="0"/>
+        <v>2065.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="13" x14ac:dyDescent="0.25">
+      <c r="M11" s="22"/>
+      <c r="Q11" s="46">
+        <f>Q10+K10</f>
+        <v>4065.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="24">
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="24">
         <v>0.22</v>
       </c>
-      <c r="M14" s="54">
-        <f>K9*22%+1320</f>
-        <v>2670.9958000000001</v>
-      </c>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-    </row>
-    <row r="15" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="M15" s="50"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-    </row>
-    <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="N16" s="53"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-    </row>
-    <row r="17" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="92" t="s">
+      <c r="M13" s="53">
+        <f>L9*0.22</f>
+        <v>1111</v>
+      </c>
+      <c r="N13" s="49"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+    </row>
+    <row r="15" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+    </row>
+    <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="92"/>
-      <c r="M17" s="73">
-        <f>N11+M14</f>
-        <v>4255.0191500000001</v>
-      </c>
-      <c r="N17" s="85" t="e">
-        <f>'07-21'!M9-'07-21'!#REF!+'07-21'!N9-'07-21'!#REF!+'07-21'!M13-1320</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O17" s="86" t="e">
-        <f>M17+N17</f>
-        <v>#REF!</v>
-      </c>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="M16" s="72">
+        <f>O10+M13</f>
+        <v>2095.75</v>
+      </c>
+      <c r="N16" s="52"/>
+      <c r="O16" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
+  <mergeCells count="20">
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -2097,9 +2073,19 @@
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -2135,25 +2121,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
     </row>
     <row r="4" spans="1:17" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -2166,78 +2152,78 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="90" t="s">
+      <c r="G7" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="89" t="s">
+      <c r="H7" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="89" t="s">
+      <c r="I7" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="89" t="s">
+      <c r="J7" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="93" t="s">
+      <c r="K7" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="L7" s="89" t="s">
+      <c r="L7" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="90" t="s">
+      <c r="M7" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="89" t="s">
+      <c r="N7" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="89" t="s">
+      <c r="O7" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="89" t="s">
+      <c r="P7" s="88" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="89"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
     </row>
     <row r="9" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="75" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="2">
@@ -2292,133 +2278,128 @@
     </row>
     <row r="10" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49">
+      <c r="C10" s="47"/>
+      <c r="D10" s="48">
         <f>SUM(D9:D9)</f>
         <v>6060</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="48">
         <f>SUM(E9)</f>
         <v>167</v>
       </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49">
+      <c r="F10" s="48"/>
+      <c r="G10" s="48">
         <f>SUM(G9)</f>
         <v>6059.9999999999991</v>
       </c>
-      <c r="H10" s="49">
+      <c r="H10" s="48">
         <f>SUM(H9)</f>
         <v>80.89</v>
       </c>
-      <c r="I10" s="49">
+      <c r="I10" s="48">
         <v>0</v>
       </c>
-      <c r="J10" s="49">
+      <c r="J10" s="48">
         <f t="shared" ref="J10:P10" si="0">SUM(J9:J9)</f>
         <v>3000</v>
       </c>
-      <c r="K10" s="75">
+      <c r="K10" s="74">
         <f t="shared" si="0"/>
         <v>6140.8899999999994</v>
       </c>
-      <c r="L10" s="74">
+      <c r="L10" s="73">
         <f t="shared" si="0"/>
         <v>1105.3599999999999</v>
       </c>
-      <c r="M10" s="74">
+      <c r="M10" s="73">
         <f t="shared" si="0"/>
         <v>92.113349999999983</v>
       </c>
-      <c r="N10" s="74">
+      <c r="N10" s="73">
         <f t="shared" si="0"/>
         <v>1197.47335</v>
       </c>
-      <c r="O10" s="74">
+      <c r="O10" s="73">
         <f t="shared" si="0"/>
         <v>4943.4166499999992</v>
       </c>
-      <c r="P10" s="74">
+      <c r="P10" s="73">
         <f t="shared" si="0"/>
         <v>1943.4166499999992</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="13" x14ac:dyDescent="0.25">
       <c r="M11" s="22"/>
-      <c r="Q11" s="47">
+      <c r="Q11" s="46">
         <f>P10+J10</f>
         <v>4943.4166499999992</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
-      <c r="M13" s="54">
+      <c r="M13" s="53">
         <f>K9*22%</f>
         <v>1350.9957999999999</v>
       </c>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
     </row>
     <row r="14" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="M14" s="50"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
+      <c r="M14" s="49"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
     </row>
     <row r="15" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="N15" s="53"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-      <c r="M16" s="73">
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="M16" s="72">
         <f>N10+M13</f>
         <v>2548.4691499999999</v>
       </c>
-      <c r="N16" s="85" t="e">
+      <c r="N16" s="84" t="e">
         <f>'07-21'!M9-'07-21'!#REF!+'07-21'!N9-'07-21'!#REF!+'07-21'!M13-1320</f>
         <v>#REF!</v>
       </c>
-      <c r="O16" s="86" t="e">
+      <c r="O16" s="85" t="e">
         <f>M16+N16</f>
         <v>#REF!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -2433,6 +2414,11 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -2471,25 +2457,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
     </row>
     <row r="4" spans="1:17" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -2502,82 +2488,82 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="90" t="s">
+      <c r="G7" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="89" t="s">
+      <c r="H7" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="89" t="s">
+      <c r="I7" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="89" t="s">
+      <c r="J7" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="89" t="s">
+      <c r="K7" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="93" t="s">
+      <c r="L7" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="89" t="s">
+      <c r="M7" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="90" t="s">
+      <c r="N7" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="89" t="s">
+      <c r="O7" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="89" t="s">
+      <c r="P7" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="89" t="s">
+      <c r="Q7" s="88" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="89"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
     </row>
     <row r="9" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="75" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="2">
@@ -2596,7 +2582,7 @@
         <f>D9/E6*E9</f>
         <v>3305.454545454545</v>
       </c>
-      <c r="H9" s="84">
+      <c r="H9" s="83">
         <v>77.180000000000007</v>
       </c>
       <c r="I9" s="3">
@@ -2635,135 +2621,130 @@
     </row>
     <row r="10" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49">
+      <c r="C10" s="47"/>
+      <c r="D10" s="48">
         <f>SUM(D9:D9)</f>
         <v>6060</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="48">
         <f>SUM(E9)</f>
         <v>96</v>
       </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49">
+      <c r="F10" s="48"/>
+      <c r="G10" s="48">
         <f>SUM(G9)</f>
         <v>3305.454545454545</v>
       </c>
-      <c r="H10" s="49">
+      <c r="H10" s="48">
         <f>SUM(H9)</f>
         <v>77.180000000000007</v>
       </c>
-      <c r="I10" s="49">
+      <c r="I10" s="48">
         <f>SUM(I9)</f>
         <v>80.89</v>
       </c>
-      <c r="J10" s="49">
+      <c r="J10" s="48">
         <f>SUM(J9)</f>
         <v>2614.08</v>
       </c>
-      <c r="K10" s="49">
+      <c r="K10" s="48">
         <f t="shared" ref="K10:Q10" si="0">SUM(K9:K9)</f>
         <v>3000</v>
       </c>
-      <c r="L10" s="75">
+      <c r="L10" s="74">
         <f t="shared" si="0"/>
         <v>6077.6045454545447</v>
       </c>
-      <c r="M10" s="74">
+      <c r="M10" s="73">
         <f t="shared" si="0"/>
         <v>1093.97</v>
       </c>
-      <c r="N10" s="74">
+      <c r="N10" s="73">
         <f t="shared" si="0"/>
         <v>91.164068181818166</v>
       </c>
-      <c r="O10" s="74">
+      <c r="O10" s="73">
         <f t="shared" si="0"/>
         <v>1185.1340681818183</v>
       </c>
-      <c r="P10" s="74">
+      <c r="P10" s="73">
         <f t="shared" si="0"/>
         <v>4892.4704772727264</v>
       </c>
-      <c r="Q10" s="74">
+      <c r="Q10" s="73">
         <f t="shared" si="0"/>
         <v>1892.4704772727264</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="13" x14ac:dyDescent="0.25">
       <c r="M11" s="22"/>
-      <c r="Q11" s="47">
+      <c r="Q11" s="46">
         <f>Q10+K10</f>
         <v>4892.4704772727264</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
-      <c r="M13" s="54">
+      <c r="M13" s="53">
         <f>L9*22%</f>
         <v>1337.0729999999999</v>
       </c>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
     </row>
     <row r="14" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="M14" s="50"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
+      <c r="M14" s="49"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
     </row>
     <row r="15" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D15" s="87">
+      <c r="D15" s="86">
         <f>G9+H9+I9</f>
         <v>3463.5245454545448</v>
       </c>
-      <c r="N15" s="53"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-      <c r="M16" s="73">
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="M16" s="72">
         <f>O10+M13</f>
         <v>2522.2070681818182</v>
       </c>
-      <c r="O16" s="52"/>
+      <c r="O16" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -2779,6 +2760,11 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -2817,25 +2803,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
     </row>
     <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -2848,82 +2834,82 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="90" t="s">
+      <c r="G7" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="89" t="s">
+      <c r="H7" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="89" t="s">
+      <c r="I7" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="89" t="s">
+      <c r="J7" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="89" t="s">
+      <c r="K7" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="93" t="s">
+      <c r="L7" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="89" t="s">
+      <c r="M7" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="90" t="s">
+      <c r="N7" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="89" t="s">
+      <c r="O7" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="89" t="s">
+      <c r="P7" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="89" t="s">
+      <c r="Q7" s="88" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="89"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
     </row>
     <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="75" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="2">
@@ -2942,7 +2928,7 @@
         <f>D9/E6*E9</f>
         <v>6060</v>
       </c>
-      <c r="H9" s="65"/>
+      <c r="H9" s="64"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3">
@@ -2972,127 +2958,122 @@
         <f>P9-K9</f>
         <v>1878.3000000000002</v>
       </c>
-      <c r="R9" s="66"/>
+      <c r="R9" s="65"/>
     </row>
     <row r="10" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49">
+      <c r="C10" s="47"/>
+      <c r="D10" s="48">
         <f>SUM(D9:D9)</f>
         <v>6060</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="48">
         <f>SUM(E9)</f>
         <v>160</v>
       </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49">
+      <c r="F10" s="48"/>
+      <c r="G10" s="48">
         <f>SUM(G9)</f>
         <v>6060</v>
       </c>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49">
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48">
         <f t="shared" ref="K10:Q10" si="0">SUM(K9:K9)</f>
         <v>3000</v>
       </c>
-      <c r="L10" s="75">
+      <c r="L10" s="74">
         <f>SUM(L9:L9)</f>
         <v>6060</v>
       </c>
-      <c r="M10" s="74">
+      <c r="M10" s="73">
         <f t="shared" si="0"/>
         <v>1090.8</v>
       </c>
-      <c r="N10" s="74">
+      <c r="N10" s="73">
         <f t="shared" si="0"/>
         <v>90.899999999999991</v>
       </c>
-      <c r="O10" s="74">
+      <c r="O10" s="73">
         <f t="shared" si="0"/>
         <v>1181.7</v>
       </c>
-      <c r="P10" s="74">
+      <c r="P10" s="73">
         <f t="shared" si="0"/>
         <v>4878.3</v>
       </c>
-      <c r="Q10" s="74">
+      <c r="Q10" s="73">
         <f t="shared" si="0"/>
         <v>1878.3000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="13" x14ac:dyDescent="0.25">
       <c r="M11" s="22"/>
-      <c r="Q11" s="47">
+      <c r="Q11" s="46">
         <f>Q10+K10</f>
         <v>4878.3</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
-      <c r="M13" s="54">
+      <c r="M13" s="53">
         <f>L9*22%</f>
         <v>1333.2</v>
       </c>
-      <c r="N13" s="50"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
+      <c r="M14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
     </row>
     <row r="15" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-      <c r="M16" s="73">
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="M16" s="72">
         <f>O10+M13</f>
         <v>2514.9</v>
       </c>
-      <c r="N16" s="53"/>
-      <c r="O16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -3108,6 +3089,11 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -3146,25 +3132,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
     </row>
     <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -3177,82 +3163,82 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="90" t="s">
+      <c r="G7" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="89" t="s">
+      <c r="H7" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="89" t="s">
+      <c r="I7" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="89" t="s">
+      <c r="J7" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="89" t="s">
+      <c r="K7" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="93" t="s">
+      <c r="L7" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="89" t="s">
+      <c r="M7" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="90" t="s">
+      <c r="N7" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="89" t="s">
+      <c r="O7" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="89" t="s">
+      <c r="P7" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="89" t="s">
+      <c r="Q7" s="88" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="89"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
     </row>
     <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="75" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="2">
@@ -3271,7 +3257,7 @@
         <f>D9/E6*E9</f>
         <v>6060</v>
       </c>
-      <c r="H9" s="65"/>
+      <c r="H9" s="64"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3">
@@ -3301,122 +3287,127 @@
         <f>P9-K9</f>
         <v>1878.3000000000002</v>
       </c>
-      <c r="R9" s="66"/>
+      <c r="R9" s="65"/>
     </row>
     <row r="10" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49">
+      <c r="C10" s="47"/>
+      <c r="D10" s="48">
         <f>SUM(D9:D9)</f>
         <v>6060</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="48">
         <f>SUM(E9)</f>
         <v>144</v>
       </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49">
+      <c r="F10" s="48"/>
+      <c r="G10" s="48">
         <f>SUM(G9)</f>
         <v>6060</v>
       </c>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49">
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48">
         <f t="shared" ref="K10:Q10" si="0">SUM(K9:K9)</f>
         <v>3000</v>
       </c>
-      <c r="L10" s="75">
+      <c r="L10" s="74">
         <f>SUM(L9:L9)</f>
         <v>6060</v>
       </c>
-      <c r="M10" s="74">
+      <c r="M10" s="73">
         <f t="shared" si="0"/>
         <v>1090.8</v>
       </c>
-      <c r="N10" s="74">
+      <c r="N10" s="73">
         <f t="shared" si="0"/>
         <v>90.899999999999991</v>
       </c>
-      <c r="O10" s="74">
+      <c r="O10" s="73">
         <f t="shared" si="0"/>
         <v>1181.7</v>
       </c>
-      <c r="P10" s="74">
+      <c r="P10" s="73">
         <f t="shared" si="0"/>
         <v>4878.3</v>
       </c>
-      <c r="Q10" s="74">
+      <c r="Q10" s="73">
         <f t="shared" si="0"/>
         <v>1878.3000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="13" x14ac:dyDescent="0.25">
       <c r="M11" s="22"/>
-      <c r="Q11" s="47">
+      <c r="Q11" s="46">
         <f>Q10+K10</f>
         <v>4878.3</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
-      <c r="M13" s="54">
+      <c r="M13" s="53">
         <f>L9*22%</f>
         <v>1333.2</v>
       </c>
-      <c r="N13" s="50"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
+      <c r="M14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
     </row>
     <row r="15" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-      <c r="M16" s="73">
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="M16" s="72">
         <f>O10+M13</f>
         <v>2514.9</v>
       </c>
-      <c r="N16" s="53"/>
-      <c r="O16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -3432,11 +3423,6 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -3475,25 +3461,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
     </row>
     <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -3506,82 +3492,82 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="90" t="s">
+      <c r="G7" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="89" t="s">
+      <c r="H7" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="89" t="s">
+      <c r="I7" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="89" t="s">
+      <c r="J7" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="89" t="s">
+      <c r="K7" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="93" t="s">
+      <c r="L7" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="89" t="s">
+      <c r="M7" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="90" t="s">
+      <c r="N7" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="89" t="s">
+      <c r="O7" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="89" t="s">
+      <c r="P7" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="89" t="s">
+      <c r="Q7" s="88" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="89"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
     </row>
     <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="75" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="2">
@@ -3600,7 +3586,7 @@
         <f>D9/E6*E9</f>
         <v>6060</v>
       </c>
-      <c r="H9" s="65"/>
+      <c r="H9" s="64"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3">
@@ -3630,122 +3616,127 @@
         <f>P9-K9</f>
         <v>1878.3000000000002</v>
       </c>
-      <c r="R9" s="66"/>
+      <c r="R9" s="65"/>
     </row>
     <row r="10" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49">
+      <c r="C10" s="47"/>
+      <c r="D10" s="48">
         <f>SUM(D9:D9)</f>
         <v>6060</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="48">
         <f>SUM(E9)</f>
         <v>176</v>
       </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49">
+      <c r="F10" s="48"/>
+      <c r="G10" s="48">
         <f>G9</f>
         <v>6060</v>
       </c>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49">
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48">
         <f t="shared" ref="K10:Q10" si="0">SUM(K9:K9)</f>
         <v>3000</v>
       </c>
-      <c r="L10" s="75">
+      <c r="L10" s="74">
         <f>SUM(L9:L9)</f>
         <v>6060</v>
       </c>
-      <c r="M10" s="74">
+      <c r="M10" s="73">
         <f t="shared" si="0"/>
         <v>1090.8</v>
       </c>
-      <c r="N10" s="74">
+      <c r="N10" s="73">
         <f t="shared" si="0"/>
         <v>90.899999999999991</v>
       </c>
-      <c r="O10" s="74">
+      <c r="O10" s="73">
         <f t="shared" si="0"/>
         <v>1181.7</v>
       </c>
-      <c r="P10" s="74">
+      <c r="P10" s="73">
         <f t="shared" si="0"/>
         <v>4878.3</v>
       </c>
-      <c r="Q10" s="74">
+      <c r="Q10" s="73">
         <f t="shared" si="0"/>
         <v>1878.3000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="13" x14ac:dyDescent="0.25">
       <c r="M11" s="22"/>
-      <c r="Q11" s="47">
+      <c r="Q11" s="46">
         <f>Q10+K10</f>
         <v>4878.3</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
-      <c r="M13" s="54">
+      <c r="M13" s="53">
         <f>L9*0.22</f>
         <v>1333.2</v>
       </c>
-      <c r="N13" s="50"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
+      <c r="M14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
     </row>
     <row r="15" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-      <c r="M16" s="73">
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="M16" s="72">
         <f>O10+M13</f>
         <v>2514.9</v>
       </c>
-      <c r="N16" s="53"/>
-      <c r="O16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -3761,11 +3752,6 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -3804,25 +3790,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
     </row>
     <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -3835,82 +3821,82 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="90" t="s">
+      <c r="G7" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="89" t="s">
+      <c r="H7" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="89" t="s">
+      <c r="I7" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="89" t="s">
+      <c r="J7" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="89" t="s">
+      <c r="K7" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="93" t="s">
+      <c r="L7" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="89" t="s">
+      <c r="M7" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="90" t="s">
+      <c r="N7" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="89" t="s">
+      <c r="O7" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="89" t="s">
+      <c r="P7" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="89" t="s">
+      <c r="Q7" s="88" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="89"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
     </row>
     <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="75" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="2">
@@ -3929,7 +3915,7 @@
         <f>D9/E6*E9</f>
         <v>6060</v>
       </c>
-      <c r="H9" s="65"/>
+      <c r="H9" s="64"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3">
@@ -3959,122 +3945,128 @@
         <f>P9-K9</f>
         <v>1878.3000000000002</v>
       </c>
-      <c r="R9" s="66"/>
+      <c r="R9" s="65"/>
     </row>
     <row r="10" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49">
+      <c r="C10" s="47"/>
+      <c r="D10" s="48">
         <f>SUM(D9:D9)</f>
         <v>6060</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="48">
         <f>SUM(E9)</f>
         <v>176</v>
       </c>
-      <c r="F10" s="49"/>
+      <c r="F10" s="48"/>
       <c r="G10" s="3">
         <f>G9</f>
         <v>6060</v>
       </c>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49">
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48">
         <f t="shared" ref="K10:Q10" si="0">SUM(K9:K9)</f>
         <v>3000</v>
       </c>
-      <c r="L10" s="75">
+      <c r="L10" s="74">
         <f>SUM(L9:L9)</f>
         <v>6060</v>
       </c>
-      <c r="M10" s="74">
+      <c r="M10" s="73">
         <f t="shared" si="0"/>
         <v>1090.8</v>
       </c>
-      <c r="N10" s="74">
+      <c r="N10" s="73">
         <f t="shared" si="0"/>
         <v>90.899999999999991</v>
       </c>
-      <c r="O10" s="74">
+      <c r="O10" s="73">
         <f t="shared" si="0"/>
         <v>1181.7</v>
       </c>
-      <c r="P10" s="74">
+      <c r="P10" s="73">
         <f t="shared" si="0"/>
         <v>4878.3</v>
       </c>
-      <c r="Q10" s="74">
+      <c r="Q10" s="73">
         <f t="shared" si="0"/>
         <v>1878.3000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="13" x14ac:dyDescent="0.25">
       <c r="M11" s="22"/>
-      <c r="Q11" s="47">
+      <c r="Q11" s="46">
         <f>Q10+K10</f>
         <v>4878.3</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
-      <c r="M13" s="54">
+      <c r="M13" s="53">
         <f>L9*0.22</f>
         <v>1333.2</v>
       </c>
-      <c r="N13" s="50"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
+      <c r="M14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
     </row>
     <row r="15" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-      <c r="M16" s="73">
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="M16" s="72">
         <f>O10+M13</f>
         <v>2514.9</v>
       </c>
-      <c r="N16" s="53"/>
-      <c r="O16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -4089,12 +4081,6 @@
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="P7:P8"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="G7:G8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -4136,25 +4122,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
     </row>
     <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -4166,83 +4152,83 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+    <row r="7" spans="1:18" s="82" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="96" t="s">
+      <c r="E7" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="95" t="s">
+      <c r="F7" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="96" t="s">
+      <c r="G7" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="95" t="s">
+      <c r="H7" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="95" t="s">
+      <c r="I7" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="95" t="s">
+      <c r="J7" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="95" t="s">
+      <c r="K7" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="94" t="s">
+      <c r="L7" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="95" t="s">
+      <c r="M7" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="96" t="s">
+      <c r="N7" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="95" t="s">
+      <c r="O7" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="95" t="s">
+      <c r="P7" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="95" t="s">
+      <c r="Q7" s="93" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="83" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="95"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="95"/>
+    <row r="8" spans="1:18" s="82" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="93"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="93"/>
+      <c r="Q8" s="93"/>
     </row>
     <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="75" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="2">
@@ -4260,7 +4246,7 @@
       <c r="G9" s="3">
         <v>6060</v>
       </c>
-      <c r="H9" s="65"/>
+      <c r="H9" s="64"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3">
@@ -4290,121 +4276,130 @@
         <f>P9-K9</f>
         <v>1878.3000000000002</v>
       </c>
-      <c r="R9" s="66"/>
+      <c r="R9" s="65"/>
     </row>
     <row r="10" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49">
+      <c r="C10" s="47"/>
+      <c r="D10" s="48">
         <f>SUM(D9:D9)</f>
         <v>6060</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="48">
         <f>SUM(E9)</f>
         <v>160</v>
       </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="81">
+      <c r="F10" s="48"/>
+      <c r="G10" s="80">
         <v>6060</v>
       </c>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49">
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48">
         <f t="shared" ref="K10:Q10" si="0">SUM(K9:K9)</f>
         <v>3000</v>
       </c>
-      <c r="L10" s="75">
+      <c r="L10" s="74">
         <f>SUM(L9:L9)</f>
         <v>6060</v>
       </c>
-      <c r="M10" s="74">
+      <c r="M10" s="73">
         <f t="shared" si="0"/>
         <v>1090.8</v>
       </c>
-      <c r="N10" s="74">
+      <c r="N10" s="73">
         <f t="shared" si="0"/>
         <v>90.899999999999991</v>
       </c>
-      <c r="O10" s="74">
+      <c r="O10" s="73">
         <f t="shared" si="0"/>
         <v>1181.7</v>
       </c>
-      <c r="P10" s="74">
+      <c r="P10" s="73">
         <f t="shared" si="0"/>
         <v>4878.3</v>
       </c>
-      <c r="Q10" s="74">
+      <c r="Q10" s="73">
         <f t="shared" si="0"/>
         <v>1878.3000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="13" x14ac:dyDescent="0.25">
       <c r="M11" s="22"/>
-      <c r="Q11" s="47">
+      <c r="Q11" s="46">
         <f>Q10+K10</f>
         <v>4878.3</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
-      <c r="M13" s="54">
+      <c r="M13" s="53">
         <f>L9*0.22</f>
         <v>1333.2</v>
       </c>
-      <c r="N13" s="50"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
+      <c r="M14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
     </row>
     <row r="15" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-      <c r="M16" s="73">
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="M16" s="72">
         <f>O10+M13</f>
         <v>2514.9</v>
       </c>
-      <c r="N16" s="53"/>
-      <c r="O16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="Q7:Q8"/>
     <mergeCell ref="A3:Q3"/>
@@ -4416,15 +4411,6 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -4466,25 +4452,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
     </row>
     <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -4497,82 +4483,82 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="90" t="s">
+      <c r="G7" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="89" t="s">
+      <c r="H7" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="89" t="s">
+      <c r="I7" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="89" t="s">
+      <c r="J7" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="89" t="s">
+      <c r="K7" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="93" t="s">
+      <c r="L7" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="89" t="s">
+      <c r="M7" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="90" t="s">
+      <c r="N7" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="89" t="s">
+      <c r="O7" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="89" t="s">
+      <c r="P7" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="89" t="s">
+      <c r="Q7" s="88" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="82" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="89"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
+    <row r="8" spans="1:18" s="81" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
     </row>
     <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="75" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="2">
@@ -4590,7 +4576,7 @@
       <c r="G9" s="3">
         <v>6060</v>
       </c>
-      <c r="H9" s="65"/>
+      <c r="H9" s="64"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3">
@@ -4620,19 +4606,19 @@
         <f>P9-K9</f>
         <v>1878.3000000000002</v>
       </c>
-      <c r="R9" s="66"/>
+      <c r="R9" s="65"/>
     </row>
     <row r="10" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49">
+      <c r="C10" s="47"/>
+      <c r="D10" s="48">
         <f>SUM(D9:D9)</f>
         <v>6060</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="48">
         <f>SUM(E9)</f>
         <v>151</v>
       </c>
@@ -4642,106 +4628,101 @@
       <c r="G10" s="3">
         <v>6060</v>
       </c>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49">
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48">
         <f t="shared" ref="K10:Q10" si="0">SUM(K9:K9)</f>
         <v>3000</v>
       </c>
-      <c r="L10" s="75">
+      <c r="L10" s="74">
         <f>SUM(L9:L9)</f>
         <v>6060</v>
       </c>
-      <c r="M10" s="74">
+      <c r="M10" s="73">
         <f t="shared" si="0"/>
         <v>1090.8</v>
       </c>
-      <c r="N10" s="74">
+      <c r="N10" s="73">
         <f t="shared" si="0"/>
         <v>90.899999999999991</v>
       </c>
-      <c r="O10" s="74">
+      <c r="O10" s="73">
         <f t="shared" si="0"/>
         <v>1181.7</v>
       </c>
-      <c r="P10" s="74">
+      <c r="P10" s="73">
         <f t="shared" si="0"/>
         <v>4878.3</v>
       </c>
-      <c r="Q10" s="74">
+      <c r="Q10" s="73">
         <f t="shared" si="0"/>
         <v>1878.3000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="13" x14ac:dyDescent="0.25">
       <c r="M11" s="22"/>
-      <c r="Q11" s="47">
+      <c r="Q11" s="46">
         <f>Q10+K10</f>
         <v>4878.3</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
-      <c r="M13" s="54">
+      <c r="M13" s="53">
         <f>L9*0.22</f>
         <v>1333.2</v>
       </c>
-      <c r="N13" s="50"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
+      <c r="M14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
     </row>
     <row r="15" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-      <c r="M16" s="73">
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="M16" s="72">
         <f>O10+M13</f>
         <v>2514.9</v>
       </c>
-      <c r="N16" s="53"/>
-      <c r="O16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B16:K16"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -4757,6 +4738,11 @@
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="P7:P8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B16:K16"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
@@ -4769,8 +4755,8 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
@@ -4788,15 +4774,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="I1" s="51" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="I1" s="50" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4804,11 +4790,11 @@
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
     </row>
@@ -4820,26 +4806,26 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="G3" s="106" t="s">
+      <c r="G3" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
     </row>
     <row r="4" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
     </row>
     <row r="5" spans="1:16" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="108" t="s">
+      <c r="G5" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="109"/>
-      <c r="I5" s="113" t="s">
+      <c r="H5" s="102"/>
+      <c r="I5" s="106" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4851,25 +4837,25 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="114"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="107"/>
     </row>
     <row r="7" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
       <c r="G7" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="115"/>
+      <c r="I7" s="108"/>
     </row>
     <row r="8" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
@@ -4891,15 +4877,15 @@
       <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="99" t="str">
+      <c r="A10" s="111" t="str">
         <f>[2]!СумаПрописом(C9)</f>
         <v>Одна тисяча дев`ятсот сорок три гривнi 42 копiйки</v>
       </c>
-      <c r="B10" s="100"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
@@ -4916,10 +4902,10 @@
       <c r="A12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="112" t="s">
-        <v>92</v>
-      </c>
-      <c r="H12" s="112"/>
+      <c r="G12" s="105" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" s="105"/>
     </row>
     <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
@@ -4927,54 +4913,54 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="101" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="101"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
+      <c r="A14" s="113" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="113"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
     </row>
     <row r="15" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="102" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
+      <c r="A15" s="114" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="114"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
     </row>
     <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="103"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="104" t="str">
+      <c r="A17" s="97" t="str">
         <f>A10</f>
         <v>Одна тисяча дев`ятсот сорок три гривнi 42 копiйки</v>
       </c>
-      <c r="B17" s="104"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97"/>
     </row>
     <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -5019,6 +5005,11 @@
     <row r="39" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:I16"/>
     <mergeCell ref="A17:I17"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G3:I3"/>
@@ -5027,11 +5018,6 @@
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:I16"/>
   </mergeCells>
   <pageMargins left="0.42" right="0.23" top="0.44" bottom="0.98425196850393704" header="0.3" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -5049,7 +5035,7 @@
       <selection activeCell="E7" sqref="E7:E8"/>
       <selection pane="topRight" activeCell="E7" sqref="E7:E8"/>
       <selection pane="bottomLeft" activeCell="E7" sqref="E7:E8"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
@@ -5113,25 +5099,24 @@
         <v>68</v>
       </c>
       <c r="D3" s="35">
-        <f>'пд1 зп'!C9</f>
         <v>1943.4166500000001</v>
       </c>
       <c r="E3" s="34"/>
       <c r="F3" s="36"/>
     </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33">
+    <row r="4" spans="1:6" s="128" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="122">
         <v>2</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="35">
+      <c r="B4" s="123"/>
+      <c r="C4" s="124" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="125">
         <v>1143.4500000000003</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="36"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="127"/>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
@@ -5152,67 +5137,66 @@
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="38"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="35"/>
       <c r="E7" s="34"/>
       <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="117" t="s">
+      <c r="A8" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="117"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="39">
-        <f>SUM(D3:D4)</f>
-        <v>3086.8666500000004</v>
+      <c r="B8" s="116"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="38">
+        <v>1943.4166500000001</v>
       </c>
       <c r="E8" s="34"/>
       <c r="F8" s="36"/>
     </row>
     <row r="10" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="39" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
+      <c r="A12" s="39"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
+      <c r="A15" s="40"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
+      <c r="A17" s="40"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
+      <c r="A19" s="40"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="43"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="42"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
+      <c r="A25" s="45"/>
     </row>
     <row r="41" spans="1:1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
+      <c r="A41" s="39"/>
     </row>
     <row r="43" spans="1:1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
+      <c r="A43" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5229,7 +5213,7 @@
   <dimension ref="A2:R16"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:K16"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5255,26 +5239,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="88" t="str">
-        <f>'[1]12'!$A$3:$Q$3</f>
-        <v xml:space="preserve">Розрахунково – платіжна відомість за Грудень 2020 р. </v>
-      </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
+      <c r="A3" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
     </row>
     <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -5283,86 +5266,86 @@
     <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="90" t="s">
+      <c r="G7" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="89" t="s">
+      <c r="H7" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="89" t="s">
+      <c r="I7" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="89" t="s">
+      <c r="J7" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="89" t="s">
+      <c r="K7" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="93" t="s">
+      <c r="L7" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="89" t="s">
+      <c r="M7" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="90" t="s">
+      <c r="N7" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="89" t="s">
+      <c r="O7" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="89" t="s">
+      <c r="P7" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="89" t="s">
+      <c r="Q7" s="88" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="89"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
     </row>
     <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="75" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="2">
@@ -5372,7 +5355,7 @@
         <v>5050</v>
       </c>
       <c r="E9" s="3">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
@@ -5381,7 +5364,7 @@
         <f>D9/E6*E9</f>
         <v>5050</v>
       </c>
-      <c r="H9" s="65"/>
+      <c r="H9" s="64"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3">
@@ -5411,124 +5394,119 @@
         <f>P9-K9</f>
         <v>2065.25</v>
       </c>
-      <c r="R9" s="66"/>
+      <c r="R9" s="65"/>
     </row>
     <row r="10" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49">
+      <c r="C10" s="47"/>
+      <c r="D10" s="48">
         <f>SUM(D9:D9)</f>
         <v>5050</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="48">
         <f>SUM(E9)</f>
-        <v>174</v>
-      </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49">
+        <v>168</v>
+      </c>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48">
         <f t="shared" ref="K10:Q10" si="0">SUM(K9:K9)</f>
         <v>2000</v>
       </c>
-      <c r="L10" s="75">
+      <c r="L10" s="74">
         <f>SUM(L9:L9)</f>
         <v>5050</v>
       </c>
-      <c r="M10" s="74">
+      <c r="M10" s="73">
         <f t="shared" si="0"/>
         <v>909</v>
       </c>
-      <c r="N10" s="74">
+      <c r="N10" s="73">
         <f t="shared" si="0"/>
         <v>75.75</v>
       </c>
-      <c r="O10" s="74">
+      <c r="O10" s="73">
         <f t="shared" si="0"/>
         <v>984.75</v>
       </c>
-      <c r="P10" s="74">
+      <c r="P10" s="73">
         <f t="shared" si="0"/>
         <v>4065.25</v>
       </c>
-      <c r="Q10" s="74">
+      <c r="Q10" s="73">
         <f t="shared" si="0"/>
         <v>2065.25</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="13" x14ac:dyDescent="0.25">
       <c r="M11" s="22"/>
-      <c r="Q11" s="47">
+      <c r="Q11" s="46">
         <f>Q10+K10</f>
         <v>4065.25</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
-      <c r="M13" s="54">
+      <c r="M13" s="53">
         <f>L9*0.22</f>
         <v>1111</v>
       </c>
-      <c r="N13" s="50"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
+      <c r="M14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
     </row>
     <row r="15" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-      <c r="M16" s="73">
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="M16" s="72">
         <f>O10+M13</f>
         <v>2095.75</v>
       </c>
-      <c r="N16" s="53"/>
-      <c r="O16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -5544,6 +5522,11 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
@@ -5575,18 +5558,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="str">
+      <c r="A1" s="110" t="str">
         <f>'пд1 зп'!A1:E1</f>
         <v>Приватний нотаріус Підхомна Олександра Дмитрівна</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5594,11 +5577,11 @@
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
     </row>
@@ -5610,26 +5593,26 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="G3" s="106" t="s">
+      <c r="G3" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
     </row>
     <row r="4" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
     </row>
     <row r="5" spans="1:16" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="108" t="s">
+      <c r="G5" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="109"/>
-      <c r="I5" s="113" t="s">
+      <c r="H5" s="102"/>
+      <c r="I5" s="106" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5641,25 +5624,25 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="114"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="107"/>
     </row>
     <row r="7" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
       <c r="G7" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="115"/>
+      <c r="I7" s="108"/>
     </row>
     <row r="8" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
@@ -5673,22 +5656,21 @@
       <c r="A9" s="14"/>
       <c r="B9" s="15"/>
       <c r="C9" s="21">
-        <f>3000</f>
         <v>3000</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="99" t="str">
+      <c r="A10" s="111" t="str">
         <f>[2]!СумаПрописом(C9)</f>
         <v>Три тисячi гривень 00 копiйок</v>
       </c>
-      <c r="B10" s="100"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
@@ -5705,10 +5687,10 @@
       <c r="A12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="120" t="s">
-        <v>94</v>
-      </c>
-      <c r="H12" s="120"/>
+      <c r="G12" s="119" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" s="119"/>
     </row>
     <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
@@ -5716,55 +5698,55 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="101" t="s">
+      <c r="A14" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="101"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
     </row>
     <row r="15" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="119" t="str">
+      <c r="A15" s="118" t="str">
         <f>'пд1 зп'!A15:I15</f>
-        <v>за СЕРПЕНЬ 2021</v>
-      </c>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
+        <v>за ВЕРЕСЕНЬ 2021</v>
+      </c>
+      <c r="B15" s="114"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
     </row>
     <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="103"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="104" t="str">
+      <c r="A17" s="97" t="str">
         <f>A10</f>
         <v>Три тисячi гривень 00 копiйок</v>
       </c>
-      <c r="B17" s="104"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97"/>
     </row>
     <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -5811,6 +5793,12 @@
     <row r="39" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="G12:H12"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G3:I3"/>
@@ -5818,12 +5806,6 @@
     <mergeCell ref="G5:H6"/>
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.43307086614173229" bottom="0.98425196850393704" header="0.31496062992125984" footer="0.51181102362204722"/>
@@ -5837,12 +5819,12 @@
   <sheetPr codeName="Лист8"/>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E7" sqref="E7:E8"/>
       <selection pane="topRight" activeCell="E7" sqref="E7:E8"/>
       <selection pane="bottomLeft" activeCell="E7" sqref="E7:E8"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
@@ -5902,9 +5884,8 @@
         <v>1</v>
       </c>
       <c r="B3" s="34"/>
-      <c r="C3" s="20" t="str">
-        <f>'пд2 зп'!C3</f>
-        <v>Крива Оксана Володимирівна</v>
+      <c r="C3" s="20" t="s">
+        <v>68</v>
       </c>
       <c r="D3" s="35">
         <f>'пд1 аванс'!C9</f>
@@ -5913,19 +5894,19 @@
       <c r="E3" s="34"/>
       <c r="F3" s="36"/>
     </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33">
+    <row r="4" spans="1:6" s="128" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="122">
         <v>2</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="35">
+      <c r="B4" s="126"/>
+      <c r="C4" s="124" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="125">
         <v>1500</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="36"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="127"/>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
@@ -5946,67 +5927,66 @@
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="38"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="35"/>
       <c r="E7" s="34"/>
       <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="117" t="s">
+      <c r="A8" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="117"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="39">
-        <f>SUM(D3:D7)</f>
-        <v>4500</v>
+      <c r="B8" s="116"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="38">
+        <v>3000</v>
       </c>
       <c r="E8" s="34"/>
       <c r="F8" s="36"/>
     </row>
     <row r="10" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="39" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
+      <c r="A12" s="39"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
+      <c r="A15" s="40"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
+      <c r="A17" s="40"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
+      <c r="A19" s="40"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="43"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="42"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
+      <c r="A25" s="45"/>
     </row>
     <row r="41" spans="1:1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
+      <c r="A41" s="39"/>
     </row>
     <row r="43" spans="1:1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
+      <c r="A43" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6023,8 +6003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -6034,261 +6014,267 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23" x14ac:dyDescent="0.5">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="120" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
     </row>
     <row r="3" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="122"/>
-      <c r="B3" s="56" t="s">
+      <c r="A3" s="121"/>
+      <c r="B3" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="55" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="122"/>
-      <c r="B4" s="57" t="s">
+      <c r="A4" s="121"/>
+      <c r="B4" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="56" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="13" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="str">
+      <c r="A5" s="54" t="str">
         <f>A17</f>
         <v>грудень</v>
       </c>
-      <c r="B5" s="57">
+      <c r="B5" s="56">
         <v>1160.3699999999999</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="58"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
     </row>
     <row r="6" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="60">
+      <c r="B6" s="59">
         <v>1333.2</v>
       </c>
-      <c r="C6" s="60">
+      <c r="C6" s="59">
         <v>1090.8</v>
       </c>
-      <c r="D6" s="60">
+      <c r="D6" s="59">
         <v>90.9</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="60">
+      <c r="B7" s="59">
         <v>1333.2</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="59">
         <v>1090.8</v>
       </c>
-      <c r="D7" s="60">
+      <c r="D7" s="59">
         <v>90.9</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="60">
+      <c r="B8" s="59">
         <v>1333.2</v>
       </c>
-      <c r="C8" s="60">
+      <c r="C8" s="59">
         <v>1090.8</v>
       </c>
-      <c r="D8" s="60">
+      <c r="D8" s="59">
         <v>90.9</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="60">
+      <c r="B9" s="59">
         <v>1333.2</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="59">
         <v>1090.8</v>
       </c>
-      <c r="D9" s="60">
+      <c r="D9" s="59">
         <v>90.9</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="60">
+      <c r="B10" s="59">
         <v>1333.2</v>
       </c>
-      <c r="C10" s="60">
+      <c r="C10" s="59">
         <v>1090.8</v>
       </c>
-      <c r="D10" s="60">
+      <c r="D10" s="59">
         <v>90.9</v>
       </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
     </row>
     <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="60">
+      <c r="B11" s="59">
         <v>1333.2</v>
       </c>
-      <c r="C11" s="60">
+      <c r="C11" s="59">
         <v>1090.8</v>
       </c>
-      <c r="D11" s="78">
+      <c r="D11" s="77">
         <v>90.9</v>
       </c>
-      <c r="E11" s="79"/>
+      <c r="E11" s="78"/>
     </row>
     <row r="12" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="60">
+      <c r="B12" s="59">
         <v>1337.0730000000001</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C12" s="59">
         <v>1093.97</v>
       </c>
-      <c r="D12" s="60">
+      <c r="D12" s="59">
         <v>91.16406818181818</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="60">
+      <c r="B13" s="59">
         <v>1351</v>
       </c>
-      <c r="C13" s="60">
+      <c r="C13" s="59">
         <v>1105.3599999999999</v>
       </c>
-      <c r="D13" s="60">
+      <c r="D13" s="59">
         <v>92.113349999999997</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="60">
+      <c r="B14" s="59">
         <v>1351</v>
       </c>
-      <c r="C14" s="60">
+      <c r="C14" s="59">
         <v>1105.3599999999999</v>
       </c>
-      <c r="D14" s="60">
+      <c r="D14" s="59">
         <v>92.113349999999997</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="60">
+      <c r="B15" s="59">
         <v>2670.9958000000006</v>
       </c>
-      <c r="C15" s="60">
+      <c r="C15" s="59">
         <v>1446.46</v>
       </c>
-      <c r="D15" s="60">
+      <c r="D15" s="59">
         <v>137.56335000000001</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
+      <c r="B16" s="59">
+        <v>2670.9958000000001</v>
+      </c>
+      <c r="C16" s="59">
+        <v>1446.46</v>
+      </c>
+      <c r="D16" s="59">
+        <v>137.56334999999999</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="79"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="78"/>
     </row>
     <row r="18" spans="1:5" ht="13" x14ac:dyDescent="0.25">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="62">
+      <c r="B18" s="61">
         <f>SUM(B6:B17)</f>
-        <v>14709.2688</v>
-      </c>
-      <c r="C18" s="62">
+        <v>17380.264599999999</v>
+      </c>
+      <c r="C18" s="61">
         <f>SUM(C6:C17)</f>
-        <v>11295.95</v>
-      </c>
-      <c r="D18" s="62">
+        <v>12742.41</v>
+      </c>
+      <c r="D18" s="61">
         <f>SUM(D6:D17)</f>
-        <v>958.35411818181808</v>
+        <v>1095.9174681818181</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="72">
-        <v>10687.27</v>
-      </c>
-      <c r="C19" s="64">
-        <v>8744.1299999999992</v>
-      </c>
-      <c r="D19" s="64">
-        <v>728.68</v>
+      <c r="B19" s="71">
+        <v>12038.27</v>
+      </c>
+      <c r="C19" s="63">
+        <v>9849.49</v>
+      </c>
+      <c r="D19" s="63">
+        <v>820.79</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="71">
+      <c r="B20" s="70">
         <f>B18-B19</f>
-        <v>4021.9987999999994</v>
-      </c>
-      <c r="C20" s="71">
+        <v>5341.9945999999982</v>
+      </c>
+      <c r="C20" s="70">
         <f>C18-C19</f>
-        <v>2551.8200000000015</v>
-      </c>
-      <c r="D20" s="71">
+        <v>2892.92</v>
+      </c>
+      <c r="D20" s="70">
         <f>D18-D19</f>
-        <v>229.67411818181813</v>
+        <v>275.12746818181813</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="67"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="80"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6315,247 +6301,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23" x14ac:dyDescent="0.5">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
     </row>
     <row r="3" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="122"/>
-      <c r="B3" s="56" t="s">
+      <c r="A3" s="121"/>
+      <c r="B3" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="55" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="122"/>
-      <c r="B4" s="57" t="s">
+      <c r="A4" s="121"/>
+      <c r="B4" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="56" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="13" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="str">
+      <c r="A5" s="54" t="str">
         <f>A17</f>
         <v>грудень</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="58"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
     </row>
     <row r="6" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="60">
+      <c r="B6" s="59">
         <v>1049.4000000000001</v>
       </c>
-      <c r="C6" s="60">
+      <c r="C6" s="59">
         <v>858.6</v>
       </c>
-      <c r="D6" s="60">
+      <c r="D6" s="59">
         <v>71.55</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="60">
+      <c r="B7" s="59">
         <v>1049.4000000000001</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="59">
         <v>858.6</v>
       </c>
-      <c r="D7" s="60">
+      <c r="D7" s="59">
         <v>71.55</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="60">
+      <c r="B8" s="59">
         <v>1039.06</v>
       </c>
-      <c r="C8" s="60">
+      <c r="C8" s="59">
         <v>260.56</v>
       </c>
-      <c r="D8" s="60">
+      <c r="D8" s="59">
         <v>37.479999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="60">
+      <c r="B9" s="59">
         <v>0</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="59">
         <v>0</v>
       </c>
-      <c r="D9" s="60">
+      <c r="D9" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="60">
+      <c r="B10" s="59">
         <v>4301.04</v>
       </c>
-      <c r="C10" s="60">
+      <c r="C10" s="59">
         <v>0</v>
       </c>
-      <c r="D10" s="60">
+      <c r="D10" s="59">
         <v>0</v>
       </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
     </row>
     <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="60">
+      <c r="B11" s="59">
         <v>577.16999999999996</v>
       </c>
-      <c r="C11" s="60">
+      <c r="C11" s="59">
         <v>283.05</v>
       </c>
-      <c r="D11" s="60">
+      <c r="D11" s="59">
         <v>39.35</v>
       </c>
-      <c r="E11" s="60"/>
+      <c r="E11" s="59"/>
     </row>
     <row r="12" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="60">
+      <c r="B12" s="59">
         <v>1049.4000000000001</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C12" s="59">
         <v>858.6</v>
       </c>
-      <c r="D12" s="60">
+      <c r="D12" s="59">
         <v>71.55</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="60">
+      <c r="B13" s="59">
         <v>1049.4000000000001</v>
       </c>
-      <c r="C13" s="60">
+      <c r="C13" s="59">
         <v>858.6</v>
       </c>
-      <c r="D13" s="60">
+      <c r="D13" s="59">
         <v>71.55</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="60">
+      <c r="B14" s="59">
         <v>1111</v>
       </c>
-      <c r="C14" s="60">
+      <c r="C14" s="59">
         <v>909</v>
       </c>
-      <c r="D14" s="60">
+      <c r="D14" s="59">
         <v>75.75</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="60">
+      <c r="B15" s="59">
         <v>1111</v>
       </c>
-      <c r="C15" s="60">
+      <c r="C15" s="59">
         <v>909</v>
       </c>
-      <c r="D15" s="60">
+      <c r="D15" s="59">
         <v>75.75</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="60">
+      <c r="B16" s="59">
         <v>1111</v>
       </c>
-      <c r="C16" s="60">
+      <c r="C16" s="59">
         <v>909</v>
       </c>
-      <c r="D16" s="60">
+      <c r="D16" s="59">
         <v>75.75</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="60">
+      <c r="B17" s="59">
         <v>1111</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="59">
         <v>909</v>
       </c>
-      <c r="D17" s="60">
+      <c r="D17" s="59">
         <v>75.75</v>
       </c>
-      <c r="E17" s="77"/>
+      <c r="E17" s="76"/>
     </row>
     <row r="18" spans="1:5" ht="13" x14ac:dyDescent="0.25">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="62">
+      <c r="B18" s="61">
         <f>SUM(B6:B17)</f>
         <v>14558.869999999999</v>
       </c>
-      <c r="C18" s="62">
+      <c r="C18" s="61">
         <f>SUM(C6:C17)</f>
         <v>7614.01</v>
       </c>
-      <c r="D18" s="62">
+      <c r="D18" s="61">
         <f>SUM(D6:D17)</f>
         <v>666.03</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="72">
+      <c r="B19" s="71">
         <v>13497.23</v>
       </c>
-      <c r="C19" s="64">
+      <c r="C19" s="63">
         <v>6705.01</v>
       </c>
-      <c r="D19" s="64">
+      <c r="D19" s="63">
         <v>590.28</v>
       </c>
       <c r="E19" t="s">
@@ -6563,26 +6549,26 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="71">
+      <c r="B20" s="70">
         <f>B19-B18</f>
         <v>-1061.6399999999994</v>
       </c>
-      <c r="C20" s="71">
+      <c r="C20" s="70">
         <f>C19-C18</f>
         <v>-909</v>
       </c>
-      <c r="D20" s="71">
+      <c r="D20" s="70">
         <f>D19-D18</f>
         <v>-75.75</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="67"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="68"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="67"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -6605,332 +6591,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R16"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="18.08984375" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="7" width="10.6328125" customWidth="1"/>
-    <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" customWidth="1"/>
-    <col min="10" max="10" width="10.08984375" customWidth="1"/>
-    <col min="11" max="11" width="8.6328125" customWidth="1"/>
-    <col min="12" max="12" width="11.6328125" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.54296875" customWidth="1"/>
-    <col min="15" max="15" width="8.453125" customWidth="1"/>
-    <col min="16" max="16" width="10.54296875" customWidth="1"/>
-    <col min="17" max="17" width="10.453125" customWidth="1"/>
-    <col min="18" max="18" width="9.36328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="23"/>
-    </row>
-    <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="88" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-    </row>
-    <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="89" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="89" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="90" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="90" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="89" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="89" t="s">
-        <v>64</v>
-      </c>
-      <c r="J7" s="89" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="M7" s="89" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" s="89" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" s="89" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q7" s="89" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="89"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
-    </row>
-    <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3371314500</v>
-      </c>
-      <c r="D9" s="3">
-        <v>5050</v>
-      </c>
-      <c r="E9" s="3">
-        <v>168</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <f>D9/E6*E9</f>
-        <v>5050</v>
-      </c>
-      <c r="H9" s="65"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3">
-        <v>2000</v>
-      </c>
-      <c r="L9" s="25">
-        <f>G9</f>
-        <v>5050</v>
-      </c>
-      <c r="M9" s="3">
-        <f>ROUND((L9)*18/100,2)</f>
-        <v>909</v>
-      </c>
-      <c r="N9" s="3">
-        <f>L9*0.015</f>
-        <v>75.75</v>
-      </c>
-      <c r="O9" s="3">
-        <f>N9+M9</f>
-        <v>984.75</v>
-      </c>
-      <c r="P9" s="3">
-        <f>L9-O9</f>
-        <v>4065.25</v>
-      </c>
-      <c r="Q9" s="3">
-        <f>P9-K9</f>
-        <v>2065.25</v>
-      </c>
-      <c r="R9" s="66"/>
-    </row>
-    <row r="10" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49">
-        <f>SUM(D9:D9)</f>
-        <v>5050</v>
-      </c>
-      <c r="E10" s="49">
-        <f>SUM(E9)</f>
-        <v>168</v>
-      </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49">
-        <f t="shared" ref="K10:Q10" si="0">SUM(K9:K9)</f>
-        <v>2000</v>
-      </c>
-      <c r="L10" s="75">
-        <f>SUM(L9:L9)</f>
-        <v>5050</v>
-      </c>
-      <c r="M10" s="74">
-        <f t="shared" si="0"/>
-        <v>909</v>
-      </c>
-      <c r="N10" s="74">
-        <f t="shared" si="0"/>
-        <v>75.75</v>
-      </c>
-      <c r="O10" s="74">
-        <f t="shared" si="0"/>
-        <v>984.75</v>
-      </c>
-      <c r="P10" s="74">
-        <f t="shared" si="0"/>
-        <v>4065.25</v>
-      </c>
-      <c r="Q10" s="74">
-        <f t="shared" si="0"/>
-        <v>2065.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="13" x14ac:dyDescent="0.25">
-      <c r="M11" s="22"/>
-      <c r="Q11" s="47">
-        <f>Q10+K10</f>
-        <v>4065.25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="92" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="24">
-        <v>0.22</v>
-      </c>
-      <c r="M13" s="54">
-        <f>L9*0.22</f>
-        <v>1111</v>
-      </c>
-      <c r="N13" s="50"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-    </row>
-    <row r="15" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-    </row>
-    <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-      <c r="M16" s="73">
-        <f>O10+M13</f>
-        <v>2095.75</v>
-      </c>
-      <c r="N16" s="53"/>
-      <c r="O16" s="52"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-  </mergeCells>
-  <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R16"/>
   <sheetViews>
@@ -6961,25 +6621,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
     </row>
     <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -6992,82 +6652,82 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="90" t="s">
+      <c r="G7" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="89" t="s">
+      <c r="H7" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="89" t="s">
+      <c r="I7" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="89" t="s">
+      <c r="J7" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="89" t="s">
+      <c r="K7" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="93" t="s">
+      <c r="L7" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="89" t="s">
+      <c r="M7" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="90" t="s">
+      <c r="N7" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="89" t="s">
+      <c r="O7" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="89" t="s">
+      <c r="P7" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="89" t="s">
+      <c r="Q7" s="88" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="89"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
     </row>
     <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="75" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="2">
@@ -7086,7 +6746,7 @@
         <f>D9/E6*E9</f>
         <v>5050</v>
       </c>
-      <c r="H9" s="65"/>
+      <c r="H9" s="64"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3">
@@ -7116,124 +6776,119 @@
         <f>P9-K9</f>
         <v>2065.25</v>
       </c>
-      <c r="R9" s="66"/>
+      <c r="R9" s="65"/>
     </row>
     <row r="10" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49">
+      <c r="C10" s="47"/>
+      <c r="D10" s="48">
         <f>SUM(D9:D9)</f>
         <v>5050</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="48">
         <f>SUM(E9)</f>
         <v>167</v>
       </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49">
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48">
         <f t="shared" ref="K10:Q10" si="0">SUM(K9:K9)</f>
         <v>2000</v>
       </c>
-      <c r="L10" s="75">
+      <c r="L10" s="74">
         <f>SUM(L9:L9)</f>
         <v>5050</v>
       </c>
-      <c r="M10" s="74">
+      <c r="M10" s="73">
         <f t="shared" si="0"/>
         <v>909</v>
       </c>
-      <c r="N10" s="74">
+      <c r="N10" s="73">
         <f t="shared" si="0"/>
         <v>75.75</v>
       </c>
-      <c r="O10" s="74">
+      <c r="O10" s="73">
         <f t="shared" si="0"/>
         <v>984.75</v>
       </c>
-      <c r="P10" s="74">
+      <c r="P10" s="73">
         <f t="shared" si="0"/>
         <v>4065.25</v>
       </c>
-      <c r="Q10" s="74">
+      <c r="Q10" s="73">
         <f t="shared" si="0"/>
         <v>2065.25</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="13" x14ac:dyDescent="0.25">
       <c r="M11" s="22"/>
-      <c r="Q11" s="47">
+      <c r="Q11" s="46">
         <f>Q10+K10</f>
         <v>4065.25</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
-      <c r="M13" s="54">
+      <c r="M13" s="53">
         <f>L9*0.22</f>
         <v>1111</v>
       </c>
-      <c r="N13" s="50"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
+      <c r="M14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
     </row>
     <row r="15" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-      <c r="M16" s="73">
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="M16" s="72">
         <f>O10+M13</f>
         <v>2095.75</v>
       </c>
-      <c r="N16" s="53"/>
-      <c r="O16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -7249,6 +6904,11 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
@@ -7256,7 +6916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R16"/>
   <sheetViews>
@@ -7287,25 +6947,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
     </row>
     <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -7318,82 +6978,82 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="90" t="s">
+      <c r="G7" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="89" t="s">
+      <c r="H7" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="89" t="s">
+      <c r="I7" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="89" t="s">
+      <c r="J7" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="89" t="s">
+      <c r="K7" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="93" t="s">
+      <c r="L7" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="89" t="s">
+      <c r="M7" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="90" t="s">
+      <c r="N7" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="89" t="s">
+      <c r="O7" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="89" t="s">
+      <c r="P7" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="89" t="s">
+      <c r="Q7" s="88" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="89"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
     </row>
     <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="75" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="2">
@@ -7412,7 +7072,7 @@
         <f>D9/E6*E9</f>
         <v>5050</v>
       </c>
-      <c r="H9" s="65"/>
+      <c r="H9" s="64"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3">
@@ -7442,124 +7102,119 @@
         <f>P9-K9</f>
         <v>2065.25</v>
       </c>
-      <c r="R9" s="66"/>
+      <c r="R9" s="65"/>
     </row>
     <row r="10" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49">
+      <c r="C10" s="47"/>
+      <c r="D10" s="48">
         <f>SUM(D9:D9)</f>
         <v>5050</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="48">
         <f>SUM(E9)</f>
         <v>176</v>
       </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49">
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48">
         <f t="shared" ref="K10:Q10" si="0">SUM(K9:K9)</f>
         <v>2000</v>
       </c>
-      <c r="L10" s="75">
+      <c r="L10" s="74">
         <f>SUM(L9:L9)</f>
         <v>5050</v>
       </c>
-      <c r="M10" s="74">
+      <c r="M10" s="73">
         <f t="shared" si="0"/>
         <v>909</v>
       </c>
-      <c r="N10" s="74">
+      <c r="N10" s="73">
         <f t="shared" si="0"/>
         <v>75.75</v>
       </c>
-      <c r="O10" s="74">
+      <c r="O10" s="73">
         <f t="shared" si="0"/>
         <v>984.75</v>
       </c>
-      <c r="P10" s="74">
+      <c r="P10" s="73">
         <f t="shared" si="0"/>
         <v>4065.25</v>
       </c>
-      <c r="Q10" s="74">
+      <c r="Q10" s="73">
         <f t="shared" si="0"/>
         <v>2065.25</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="13" x14ac:dyDescent="0.25">
       <c r="M11" s="22"/>
-      <c r="Q11" s="47">
+      <c r="Q11" s="46">
         <f>Q10+K10</f>
         <v>4065.25</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
-      <c r="M13" s="54">
+      <c r="M13" s="53">
         <f>L9*0.22</f>
         <v>1111</v>
       </c>
-      <c r="N13" s="50"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
+      <c r="M14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
     </row>
     <row r="15" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-      <c r="M16" s="73">
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="M16" s="72">
         <f>O10+M13</f>
         <v>2095.75</v>
       </c>
-      <c r="N16" s="53"/>
-      <c r="O16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -7575,6 +7230,11 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
@@ -7582,7 +7242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R16"/>
   <sheetViews>
@@ -7613,25 +7273,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
     </row>
     <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -7644,82 +7304,82 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="90" t="s">
+      <c r="G7" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="89" t="s">
+      <c r="H7" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="89" t="s">
+      <c r="I7" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="89" t="s">
+      <c r="J7" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="89" t="s">
+      <c r="K7" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="93" t="s">
+      <c r="L7" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="89" t="s">
+      <c r="M7" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="90" t="s">
+      <c r="N7" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="89" t="s">
+      <c r="O7" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="89" t="s">
+      <c r="P7" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="89" t="s">
+      <c r="Q7" s="88" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="89"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
     </row>
     <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="75" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="2">
@@ -7738,7 +7398,7 @@
         <f>D9/E6*E9</f>
         <v>4770</v>
       </c>
-      <c r="H9" s="65"/>
+      <c r="H9" s="64"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3">
@@ -7768,116 +7428,442 @@
         <f>P9-K9</f>
         <v>1839.85</v>
       </c>
-      <c r="R9" s="66"/>
+      <c r="R9" s="65"/>
     </row>
     <row r="10" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49">
+      <c r="C10" s="47"/>
+      <c r="D10" s="48">
         <f>SUM(D9:D9)</f>
         <v>4770</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="48">
         <f>SUM(E9)</f>
         <v>160</v>
       </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49">
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48">
         <f t="shared" ref="K10:Q10" si="0">SUM(K9:K9)</f>
         <v>2000</v>
       </c>
-      <c r="L10" s="75">
+      <c r="L10" s="74">
         <f>SUM(L9:L9)</f>
         <v>4770</v>
       </c>
-      <c r="M10" s="74">
+      <c r="M10" s="73">
         <f t="shared" si="0"/>
         <v>858.6</v>
       </c>
-      <c r="N10" s="74">
+      <c r="N10" s="73">
         <f t="shared" si="0"/>
         <v>71.55</v>
       </c>
-      <c r="O10" s="74">
+      <c r="O10" s="73">
         <f t="shared" si="0"/>
         <v>930.15</v>
       </c>
-      <c r="P10" s="74">
+      <c r="P10" s="73">
         <f t="shared" si="0"/>
         <v>3839.85</v>
       </c>
-      <c r="Q10" s="74">
+      <c r="Q10" s="73">
         <f t="shared" si="0"/>
         <v>1839.85</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="13" x14ac:dyDescent="0.25">
       <c r="M11" s="22"/>
-      <c r="Q11" s="47">
+      <c r="Q11" s="46">
         <f>Q10+K10</f>
         <v>3839.85</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
-      <c r="M13" s="54">
+      <c r="M13" s="53">
         <f>L9*0.22</f>
         <v>1049.4000000000001</v>
       </c>
-      <c r="N13" s="50"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
+      <c r="M14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
     </row>
     <row r="15" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-      <c r="M16" s="73">
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="M16" s="72">
         <f>O10+M13</f>
         <v>1979.5500000000002</v>
       </c>
-      <c r="N16" s="53"/>
-      <c r="O16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+  </mergeCells>
+  <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:R16"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="18.08984375" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="7" width="10.6328125" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" customWidth="1"/>
+    <col min="10" max="10" width="10.08984375" customWidth="1"/>
+    <col min="11" max="11" width="8.6328125" customWidth="1"/>
+    <col min="12" max="12" width="11.6328125" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.54296875" customWidth="1"/>
+    <col min="15" max="15" width="8.453125" customWidth="1"/>
+    <col min="16" max="16" width="10.54296875" customWidth="1"/>
+    <col min="17" max="17" width="10.453125" customWidth="1"/>
+    <col min="18" max="18" width="9.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="23"/>
+    </row>
+    <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
+      <c r="A3" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+    </row>
+    <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="88" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="91" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="91" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="91" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="88" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
+    </row>
+    <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3371314500</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4770</v>
+      </c>
+      <c r="E9" s="3">
+        <v>184</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <f>D9/E6*E9</f>
+        <v>4770</v>
+      </c>
+      <c r="H9" s="64"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L9" s="25">
+        <f>G9</f>
+        <v>4770</v>
+      </c>
+      <c r="M9" s="3">
+        <f>ROUND((L9)*18/100,2)</f>
+        <v>858.6</v>
+      </c>
+      <c r="N9" s="3">
+        <f>L9*0.015</f>
+        <v>71.55</v>
+      </c>
+      <c r="O9" s="3">
+        <f>N9+M9</f>
+        <v>930.15</v>
+      </c>
+      <c r="P9" s="3">
+        <f>L9-O9</f>
+        <v>3839.85</v>
+      </c>
+      <c r="Q9" s="3">
+        <f>P9-K9</f>
+        <v>1839.85</v>
+      </c>
+      <c r="R9" s="65"/>
+    </row>
+    <row r="10" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48">
+        <f>SUM(D9:D9)</f>
+        <v>4770</v>
+      </c>
+      <c r="E10" s="48">
+        <f>SUM(E9)</f>
+        <v>184</v>
+      </c>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48">
+        <f t="shared" ref="K10:Q10" si="0">SUM(K9:K9)</f>
+        <v>2000</v>
+      </c>
+      <c r="L10" s="74">
+        <f>SUM(L9:L9)</f>
+        <v>4770</v>
+      </c>
+      <c r="M10" s="73">
+        <f t="shared" si="0"/>
+        <v>858.6</v>
+      </c>
+      <c r="N10" s="73">
+        <f t="shared" si="0"/>
+        <v>71.55</v>
+      </c>
+      <c r="O10" s="73">
+        <f t="shared" si="0"/>
+        <v>930.15</v>
+      </c>
+      <c r="P10" s="73">
+        <f t="shared" si="0"/>
+        <v>3839.85</v>
+      </c>
+      <c r="Q10" s="73">
+        <f t="shared" si="0"/>
+        <v>1839.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="13" x14ac:dyDescent="0.25">
+      <c r="M11" s="22"/>
+      <c r="Q11" s="46">
+        <f>Q10+K10</f>
+        <v>3839.85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="24">
+        <v>0.22</v>
+      </c>
+      <c r="M13" s="53">
+        <f>L9*0.22</f>
+        <v>1049.4000000000001</v>
+      </c>
+      <c r="N13" s="49"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+    </row>
+    <row r="15" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+    </row>
+    <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="M16" s="72">
+        <f>O10+M13</f>
+        <v>1979.5500000000002</v>
+      </c>
+      <c r="N16" s="52"/>
+      <c r="O16" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -7910,336 +7896,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R16"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="18.08984375" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="7" width="10.6328125" customWidth="1"/>
-    <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" customWidth="1"/>
-    <col min="10" max="10" width="10.08984375" customWidth="1"/>
-    <col min="11" max="11" width="8.6328125" customWidth="1"/>
-    <col min="12" max="12" width="11.6328125" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.54296875" customWidth="1"/>
-    <col min="15" max="15" width="8.453125" customWidth="1"/>
-    <col min="16" max="16" width="10.54296875" customWidth="1"/>
-    <col min="17" max="17" width="10.453125" customWidth="1"/>
-    <col min="18" max="18" width="9.36328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="23"/>
-    </row>
-    <row r="3" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="88" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-    </row>
-    <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.4">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="89" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="89" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="90" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="90" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="89" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="89" t="s">
-        <v>64</v>
-      </c>
-      <c r="J7" s="89" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="M7" s="89" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" s="89" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" s="89" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q7" s="89" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="89"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
-    </row>
-    <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3371314500</v>
-      </c>
-      <c r="D9" s="3">
-        <v>4770</v>
-      </c>
-      <c r="E9" s="3">
-        <v>184</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <f>D9/E6*E9</f>
-        <v>4770</v>
-      </c>
-      <c r="H9" s="65"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3">
-        <v>2000</v>
-      </c>
-      <c r="L9" s="25">
-        <f>G9</f>
-        <v>4770</v>
-      </c>
-      <c r="M9" s="3">
-        <f>ROUND((L9)*18/100,2)</f>
-        <v>858.6</v>
-      </c>
-      <c r="N9" s="3">
-        <f>L9*0.015</f>
-        <v>71.55</v>
-      </c>
-      <c r="O9" s="3">
-        <f>N9+M9</f>
-        <v>930.15</v>
-      </c>
-      <c r="P9" s="3">
-        <f>L9-O9</f>
-        <v>3839.85</v>
-      </c>
-      <c r="Q9" s="3">
-        <f>P9-K9</f>
-        <v>1839.85</v>
-      </c>
-      <c r="R9" s="66"/>
-    </row>
-    <row r="10" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49">
-        <f>SUM(D9:D9)</f>
-        <v>4770</v>
-      </c>
-      <c r="E10" s="49">
-        <f>SUM(E9)</f>
-        <v>184</v>
-      </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49">
-        <f t="shared" ref="K10:Q10" si="0">SUM(K9:K9)</f>
-        <v>2000</v>
-      </c>
-      <c r="L10" s="75">
-        <f>SUM(L9:L9)</f>
-        <v>4770</v>
-      </c>
-      <c r="M10" s="74">
-        <f t="shared" si="0"/>
-        <v>858.6</v>
-      </c>
-      <c r="N10" s="74">
-        <f t="shared" si="0"/>
-        <v>71.55</v>
-      </c>
-      <c r="O10" s="74">
-        <f t="shared" si="0"/>
-        <v>930.15</v>
-      </c>
-      <c r="P10" s="74">
-        <f t="shared" si="0"/>
-        <v>3839.85</v>
-      </c>
-      <c r="Q10" s="74">
-        <f t="shared" si="0"/>
-        <v>1839.85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="13" x14ac:dyDescent="0.25">
-      <c r="M11" s="22"/>
-      <c r="Q11" s="47">
-        <f>Q10+K10</f>
-        <v>3839.85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="92" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="24">
-        <v>0.22</v>
-      </c>
-      <c r="M13" s="54">
-        <f>L9*0.22</f>
-        <v>1049.4000000000001</v>
-      </c>
-      <c r="N13" s="50"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-    </row>
-    <row r="15" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-    </row>
-    <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-      <c r="M16" s="73">
-        <f>O10+M13</f>
-        <v>1979.5500000000002</v>
-      </c>
-      <c r="N16" s="53"/>
-      <c r="O16" s="52"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-  </mergeCells>
-  <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q17"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -8265,25 +7925,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="88" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
+      <c r="A3" s="90" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
     </row>
     <row r="4" spans="1:17" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -8292,82 +7952,82 @@
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="90" t="s">
+      <c r="G7" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="89" t="s">
+      <c r="H7" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="89" t="s">
+      <c r="I7" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="89" t="s">
+      <c r="J7" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="93" t="s">
+      <c r="K7" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="L7" s="89" t="s">
+      <c r="L7" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="90" t="s">
+      <c r="M7" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="89" t="s">
+      <c r="N7" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="89" t="s">
+      <c r="O7" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="89" t="s">
+      <c r="P7" s="88" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="89"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
     </row>
     <row r="9" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="75" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="2">
@@ -8377,14 +8037,14 @@
         <v>6060</v>
       </c>
       <c r="E9" s="3">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
       </c>
       <c r="G9" s="3">
         <f>D9/E6*E9</f>
-        <v>6060.0000000000009</v>
+        <v>6060</v>
       </c>
       <c r="H9" s="3">
         <v>80.89</v>
@@ -8397,7 +8057,7 @@
       </c>
       <c r="K9" s="25">
         <f>G9+H9+I9</f>
-        <v>6140.8900000000012</v>
+        <v>6140.89</v>
       </c>
       <c r="L9" s="3">
         <f>ROUND((K9)*18/100,2)</f>
@@ -8405,7 +8065,7 @@
       </c>
       <c r="M9" s="3">
         <f>K9*0.015</f>
-        <v>92.113350000000011</v>
+        <v>92.113349999999997</v>
       </c>
       <c r="N9" s="3">
         <f>L9+M9</f>
@@ -8413,19 +8073,19 @@
       </c>
       <c r="O9" s="3">
         <f>K9-N9</f>
-        <v>4943.416650000001</v>
+        <v>4943.4166500000001</v>
       </c>
       <c r="P9" s="3">
         <f>O9-J9</f>
-        <v>1943.416650000001</v>
+        <v>1943.4166500000001</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1</v>
       </c>
-      <c r="B10" s="76" t="s">
-        <v>98</v>
+      <c r="B10" s="75" t="s">
+        <v>93</v>
       </c>
       <c r="C10" s="2">
         <v>3268013166</v>
@@ -8434,14 +8094,14 @@
         <v>6060</v>
       </c>
       <c r="E10" s="3">
-        <v>79.5</v>
+        <v>88</v>
       </c>
       <c r="F10" s="3">
         <v>0.5</v>
       </c>
       <c r="G10" s="3">
         <f>D10/E6*E10</f>
-        <v>3030.0000000000005</v>
+        <v>3030</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -8454,7 +8114,7 @@
       </c>
       <c r="K10" s="25">
         <f>G10+H10+I10</f>
-        <v>3030.0000000000005</v>
+        <v>3030</v>
       </c>
       <c r="L10" s="3">
         <f>ROUND((K10-1135)*18/100,2)</f>
@@ -8462,7 +8122,7 @@
       </c>
       <c r="M10" s="3">
         <f>K10*0.015</f>
-        <v>45.45</v>
+        <v>45.449999999999996</v>
       </c>
       <c r="N10" s="3">
         <f>L10+M10</f>
@@ -8470,142 +8130,137 @@
       </c>
       <c r="O10" s="3">
         <f>K10-N10</f>
-        <v>2643.4500000000003</v>
+        <v>2643.45</v>
       </c>
       <c r="P10" s="3">
         <f>O10-J10</f>
-        <v>1143.4500000000003</v>
+        <v>1143.4499999999998</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49">
+      <c r="C11" s="47"/>
+      <c r="D11" s="48">
         <f>SUM(D9:D9)</f>
         <v>6060</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="48">
         <f>SUM(E9)</f>
-        <v>159</v>
-      </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49">
+        <v>176</v>
+      </c>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48">
         <f>SUM(G9)</f>
-        <v>6060.0000000000009</v>
-      </c>
-      <c r="H11" s="49">
+        <v>6060</v>
+      </c>
+      <c r="H11" s="48">
         <f>SUM(H9)</f>
         <v>80.89</v>
       </c>
-      <c r="I11" s="49">
+      <c r="I11" s="48">
         <v>0</v>
       </c>
-      <c r="J11" s="49">
+      <c r="J11" s="48">
         <f>SUM(J9:J9)</f>
         <v>3000</v>
       </c>
-      <c r="K11" s="75">
+      <c r="K11" s="74">
         <f>SUM(K9:K9)</f>
-        <v>6140.8900000000012</v>
-      </c>
-      <c r="L11" s="74">
+        <v>6140.89</v>
+      </c>
+      <c r="L11" s="73">
         <f>SUM(L9:L10)</f>
         <v>1446.46</v>
       </c>
-      <c r="M11" s="74">
+      <c r="M11" s="73">
         <f>SUM(M9:M10)</f>
-        <v>137.56335000000001</v>
-      </c>
-      <c r="N11" s="74">
+        <v>137.56334999999999</v>
+      </c>
+      <c r="N11" s="73">
         <f t="shared" ref="N11:P11" si="0">SUM(N9:N10)</f>
         <v>1584.0233499999999</v>
       </c>
-      <c r="O11" s="74">
+      <c r="O11" s="73">
         <f t="shared" si="0"/>
-        <v>7586.8666500000018</v>
-      </c>
-      <c r="P11" s="74">
+        <v>7586.8666499999999</v>
+      </c>
+      <c r="P11" s="73">
         <f t="shared" si="0"/>
-        <v>3086.8666500000013</v>
+        <v>3086.8666499999999</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="13" x14ac:dyDescent="0.25">
       <c r="M12" s="22"/>
-      <c r="Q12" s="47">
+      <c r="Q12" s="46">
         <f>P11+J11</f>
-        <v>6086.8666500000018</v>
+        <v>6086.8666499999999</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="92" t="s">
+      <c r="B14" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
       <c r="L14" s="24">
         <v>0.22</v>
       </c>
-      <c r="M14" s="54">
+      <c r="M14" s="53">
         <f>K9*22%+1320</f>
-        <v>2670.9958000000006</v>
-      </c>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
+        <v>2670.9958000000001</v>
+      </c>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="M15" s="50"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
+      <c r="M15" s="49"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="N16" s="53"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
     </row>
     <row r="17" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="92"/>
-      <c r="M17" s="73">
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="M17" s="72">
         <f>N11+M14</f>
         <v>4255.0191500000001</v>
       </c>
-      <c r="N17" s="85" t="e">
+      <c r="N17" s="84" t="e">
         <f>'07-21'!M9-'07-21'!#REF!+'07-21'!N9-'07-21'!#REF!+'07-21'!M13-1320</f>
         <v>#REF!</v>
       </c>
-      <c r="O17" s="86" t="e">
+      <c r="O17" s="85" t="e">
         <f>M17+N17</f>
         <v>#REF!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -8620,6 +8275,11 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -8627,12 +8287,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q16"/>
+  <dimension ref="A2:Q17"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -8658,25 +8318,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="88" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
+      <c r="A3" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
     </row>
     <row r="4" spans="1:17" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
@@ -8685,82 +8345,82 @@
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="90" t="s">
+      <c r="G7" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="89" t="s">
+      <c r="H7" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="89" t="s">
+      <c r="I7" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="89" t="s">
+      <c r="J7" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="93" t="s">
+      <c r="K7" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="L7" s="89" t="s">
+      <c r="L7" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="90" t="s">
+      <c r="M7" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="89" t="s">
+      <c r="N7" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="89" t="s">
+      <c r="O7" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="89" t="s">
+      <c r="P7" s="88" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="89"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
     </row>
     <row r="9" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="75" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="2">
@@ -8770,14 +8430,14 @@
         <v>6060</v>
       </c>
       <c r="E9" s="3">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
       </c>
       <c r="G9" s="3">
         <f>D9/E6*E9</f>
-        <v>6060</v>
+        <v>6060.0000000000009</v>
       </c>
       <c r="H9" s="3">
         <v>80.89</v>
@@ -8790,7 +8450,7 @@
       </c>
       <c r="K9" s="25">
         <f>G9+H9+I9</f>
-        <v>6140.89</v>
+        <v>6140.8900000000012</v>
       </c>
       <c r="L9" s="3">
         <f>ROUND((K9)*18/100,2)</f>
@@ -8798,7 +8458,7 @@
       </c>
       <c r="M9" s="3">
         <f>K9*0.015</f>
-        <v>92.113349999999997</v>
+        <v>92.113350000000011</v>
       </c>
       <c r="N9" s="3">
         <f>L9+M9</f>
@@ -8806,132 +8466,189 @@
       </c>
       <c r="O9" s="3">
         <f>K9-N9</f>
-        <v>4943.4166500000001</v>
+        <v>4943.416650000001</v>
       </c>
       <c r="P9" s="3">
         <f>O9-J9</f>
-        <v>1943.4166500000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="48" t="s">
+        <v>1943.416650000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3268013166</v>
+      </c>
+      <c r="D10" s="3">
+        <v>6060</v>
+      </c>
+      <c r="E10" s="3">
+        <v>79.5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="3">
+        <f>D10/E6*E10</f>
+        <v>3030.0000000000005</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K10" s="25">
+        <f>G10+H10+I10</f>
+        <v>3030.0000000000005</v>
+      </c>
+      <c r="L10" s="3">
+        <f>ROUND((K10-1135)*18/100,2)</f>
+        <v>341.1</v>
+      </c>
+      <c r="M10" s="3">
+        <f>K10*0.015</f>
+        <v>45.45</v>
+      </c>
+      <c r="N10" s="3">
+        <f>L10+M10</f>
+        <v>386.55</v>
+      </c>
+      <c r="O10" s="3">
+        <f>K10-N10</f>
+        <v>2643.4500000000003</v>
+      </c>
+      <c r="P10" s="3">
+        <f>O10-J10</f>
+        <v>1143.4500000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49">
+      <c r="C11" s="47"/>
+      <c r="D11" s="48">
         <f>SUM(D9:D9)</f>
         <v>6060</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E11" s="48">
         <f>SUM(E9)</f>
-        <v>176</v>
-      </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49">
+        <v>159</v>
+      </c>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48">
         <f>SUM(G9)</f>
-        <v>6060</v>
-      </c>
-      <c r="H10" s="49">
+        <v>6060.0000000000009</v>
+      </c>
+      <c r="H11" s="48">
         <f>SUM(H9)</f>
         <v>80.89</v>
       </c>
-      <c r="I10" s="49">
+      <c r="I11" s="48">
         <v>0</v>
       </c>
-      <c r="J10" s="49">
-        <f t="shared" ref="J10:P10" si="0">SUM(J9:J9)</f>
+      <c r="J11" s="48">
+        <f>SUM(J9:J9)</f>
         <v>3000</v>
       </c>
-      <c r="K10" s="75">
+      <c r="K11" s="74">
+        <f>SUM(K9:K9)</f>
+        <v>6140.8900000000012</v>
+      </c>
+      <c r="L11" s="73">
+        <f>SUM(L9:L10)</f>
+        <v>1446.46</v>
+      </c>
+      <c r="M11" s="73">
+        <f>SUM(M9:M10)</f>
+        <v>137.56335000000001</v>
+      </c>
+      <c r="N11" s="73">
+        <f t="shared" ref="N11:P11" si="0">SUM(N9:N10)</f>
+        <v>1584.0233499999999</v>
+      </c>
+      <c r="O11" s="73">
         <f t="shared" si="0"/>
-        <v>6140.89</v>
-      </c>
-      <c r="L10" s="74">
+        <v>7586.8666500000018</v>
+      </c>
+      <c r="P11" s="73">
         <f t="shared" si="0"/>
-        <v>1105.3599999999999</v>
-      </c>
-      <c r="M10" s="74">
-        <f t="shared" si="0"/>
-        <v>92.113349999999997</v>
-      </c>
-      <c r="N10" s="74">
-        <f t="shared" si="0"/>
-        <v>1197.47335</v>
-      </c>
-      <c r="O10" s="74">
-        <f t="shared" si="0"/>
-        <v>4943.4166500000001</v>
-      </c>
-      <c r="P10" s="74">
-        <f t="shared" si="0"/>
-        <v>1943.4166500000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="13" x14ac:dyDescent="0.25">
-      <c r="M11" s="22"/>
-      <c r="Q11" s="47">
-        <f>P10+J10</f>
-        <v>4943.4166500000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="92" t="s">
+        <v>3086.8666500000013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="13" x14ac:dyDescent="0.25">
+      <c r="M12" s="22"/>
+      <c r="Q12" s="46">
+        <f>P11+J11</f>
+        <v>6086.8666500000018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="24">
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="24">
         <v>0.22</v>
       </c>
-      <c r="M13" s="54">
-        <f>K9*22%</f>
-        <v>1350.9958000000001</v>
-      </c>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-    </row>
-    <row r="14" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="M14" s="50"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-    </row>
-    <row r="15" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="N15" s="53"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
+      <c r="M14" s="53">
+        <f>K9*22%+1320</f>
+        <v>2670.9958000000006</v>
+      </c>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="M15" s="49"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="92" t="s">
+      <c r="N16" s="52"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+    </row>
+    <row r="17" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-      <c r="M16" s="73">
-        <f>N10+M13</f>
-        <v>2548.4691499999999</v>
-      </c>
-      <c r="N16" s="85" t="e">
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="M17" s="72">
+        <f>N11+M14</f>
+        <v>4255.0191500000001</v>
+      </c>
+      <c r="N17" s="84" t="e">
         <f>'07-21'!M9-'07-21'!#REF!+'07-21'!N9-'07-21'!#REF!+'07-21'!M13-1320</f>
         <v>#REF!</v>
       </c>
-      <c r="O16" s="86" t="e">
-        <f>M16+N16</f>
+      <c r="O17" s="85" t="e">
+        <f>M17+N17</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -8951,8 +8668,8 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B17:K17"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="L7:L8"/>
@@ -8961,4 +8678,340 @@
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Q16"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="7" width="10.6328125" customWidth="1"/>
+    <col min="8" max="8" width="8.1796875" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" customWidth="1"/>
+    <col min="10" max="10" width="10.08984375" customWidth="1"/>
+    <col min="11" max="11" width="8.6328125" customWidth="1"/>
+    <col min="12" max="12" width="9.90625" customWidth="1"/>
+    <col min="13" max="13" width="12.453125" customWidth="1"/>
+    <col min="14" max="14" width="9.54296875" customWidth="1"/>
+    <col min="15" max="15" width="8.453125" customWidth="1"/>
+    <col min="16" max="16" width="10.54296875" customWidth="1"/>
+    <col min="17" max="17" width="10.453125" customWidth="1"/>
+    <col min="18" max="18" width="9.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="23"/>
+    </row>
+    <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
+      <c r="A3" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+    </row>
+    <row r="4" spans="1:17" ht="20" x14ac:dyDescent="0.4">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="88" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="91" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="91" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="91" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" s="88" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+    </row>
+    <row r="9" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3371314500</v>
+      </c>
+      <c r="D9" s="3">
+        <v>6060</v>
+      </c>
+      <c r="E9" s="3">
+        <v>176</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <f>D9/E6*E9</f>
+        <v>6060</v>
+      </c>
+      <c r="H9" s="3">
+        <v>80.89</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K9" s="25">
+        <f>G9+H9+I9</f>
+        <v>6140.89</v>
+      </c>
+      <c r="L9" s="3">
+        <f>ROUND((K9)*18/100,2)</f>
+        <v>1105.3599999999999</v>
+      </c>
+      <c r="M9" s="3">
+        <f>K9*0.015</f>
+        <v>92.113349999999997</v>
+      </c>
+      <c r="N9" s="3">
+        <f>L9+M9</f>
+        <v>1197.47335</v>
+      </c>
+      <c r="O9" s="3">
+        <f>K9-N9</f>
+        <v>4943.4166500000001</v>
+      </c>
+      <c r="P9" s="3">
+        <f>O9-J9</f>
+        <v>1943.4166500000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48">
+        <f>SUM(D9:D9)</f>
+        <v>6060</v>
+      </c>
+      <c r="E10" s="48">
+        <f>SUM(E9)</f>
+        <v>176</v>
+      </c>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48">
+        <f>SUM(G9)</f>
+        <v>6060</v>
+      </c>
+      <c r="H10" s="48">
+        <f>SUM(H9)</f>
+        <v>80.89</v>
+      </c>
+      <c r="I10" s="48">
+        <v>0</v>
+      </c>
+      <c r="J10" s="48">
+        <f t="shared" ref="J10:P10" si="0">SUM(J9:J9)</f>
+        <v>3000</v>
+      </c>
+      <c r="K10" s="74">
+        <f t="shared" si="0"/>
+        <v>6140.89</v>
+      </c>
+      <c r="L10" s="73">
+        <f t="shared" si="0"/>
+        <v>1105.3599999999999</v>
+      </c>
+      <c r="M10" s="73">
+        <f t="shared" si="0"/>
+        <v>92.113349999999997</v>
+      </c>
+      <c r="N10" s="73">
+        <f t="shared" si="0"/>
+        <v>1197.47335</v>
+      </c>
+      <c r="O10" s="73">
+        <f t="shared" si="0"/>
+        <v>4943.4166500000001</v>
+      </c>
+      <c r="P10" s="73">
+        <f t="shared" si="0"/>
+        <v>1943.4166500000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="13" x14ac:dyDescent="0.25">
+      <c r="M11" s="22"/>
+      <c r="Q11" s="46">
+        <f>P10+J10</f>
+        <v>4943.4166500000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="24">
+        <v>0.22</v>
+      </c>
+      <c r="M13" s="53">
+        <f>K9*22%</f>
+        <v>1350.9958000000001</v>
+      </c>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="M14" s="49"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+    </row>
+    <row r="15" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N15" s="52"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+    </row>
+    <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="M16" s="72">
+        <f>N10+M13</f>
+        <v>2548.4691499999999</v>
+      </c>
+      <c r="N16" s="84" t="e">
+        <f>'07-21'!M9-'07-21'!#REF!+'07-21'!N9-'07-21'!#REF!+'07-21'!M13-1320</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O16" s="85" t="e">
+        <f>M16+N16</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+  </mergeCells>
+  <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/Фопи/Зарплата ФОП 2021/Підхомна О 2021.xlsx
+++ b/Фопи/Зарплата ФОП 2021/Підхомна О 2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="180" windowWidth="11340" windowHeight="5916" tabRatio="798" firstSheet="5" activeTab="21"/>
+    <workbookView xWindow="360" yWindow="180" windowWidth="11340" windowHeight="5916" tabRatio="798" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="12" sheetId="149" r:id="rId1"/>
@@ -18,34 +18,36 @@
     <sheet name="09" sheetId="146" r:id="rId4"/>
     <sheet name="08" sheetId="145" r:id="rId5"/>
     <sheet name="07" sheetId="144" r:id="rId6"/>
-    <sheet name="11-21 " sheetId="156" r:id="rId7"/>
-    <sheet name="10-21" sheetId="155" r:id="rId8"/>
-    <sheet name="09-21 " sheetId="154" r:id="rId9"/>
-    <sheet name="08-21 " sheetId="153" r:id="rId10"/>
-    <sheet name="07-21" sheetId="152" r:id="rId11"/>
-    <sheet name="06" sheetId="151" r:id="rId12"/>
-    <sheet name="05" sheetId="142" r:id="rId13"/>
-    <sheet name="04" sheetId="141" r:id="rId14"/>
-    <sheet name="03" sheetId="140" r:id="rId15"/>
-    <sheet name="02" sheetId="139" r:id="rId16"/>
-    <sheet name="01" sheetId="138" r:id="rId17"/>
-    <sheet name="пд1 зп" sheetId="45" r:id="rId18"/>
-    <sheet name="пд2 зп" sheetId="46" r:id="rId19"/>
-    <sheet name="пд1 аванс" sheetId="2" r:id="rId20"/>
-    <sheet name="пд2 аванс" sheetId="4" r:id="rId21"/>
-    <sheet name="Звірка21" sheetId="150" r:id="rId22"/>
-    <sheet name="звірка" sheetId="110" r:id="rId23"/>
+    <sheet name="12-21 " sheetId="157" r:id="rId7"/>
+    <sheet name="11-21 " sheetId="156" r:id="rId8"/>
+    <sheet name="10-21" sheetId="155" r:id="rId9"/>
+    <sheet name="09-21 " sheetId="154" r:id="rId10"/>
+    <sheet name="08-21 " sheetId="153" r:id="rId11"/>
+    <sheet name="07-21" sheetId="152" r:id="rId12"/>
+    <sheet name="06" sheetId="151" r:id="rId13"/>
+    <sheet name="05" sheetId="142" r:id="rId14"/>
+    <sheet name="04" sheetId="141" r:id="rId15"/>
+    <sheet name="03" sheetId="140" r:id="rId16"/>
+    <sheet name="02" sheetId="139" r:id="rId17"/>
+    <sheet name="01" sheetId="138" r:id="rId18"/>
+    <sheet name="пд1 зп (2)" sheetId="158" r:id="rId19"/>
+    <sheet name="пд1 зп" sheetId="159" r:id="rId20"/>
+    <sheet name="пд2 зп" sheetId="46" r:id="rId21"/>
+    <sheet name="пд1 аванс" sheetId="2" r:id="rId22"/>
+    <sheet name="пд2 аванс" sheetId="4" r:id="rId23"/>
+    <sheet name="Звірка21" sheetId="150" r:id="rId24"/>
+    <sheet name="звірка" sheetId="110" r:id="rId25"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId24"/>
-    <externalReference r:id="rId25"/>
+    <externalReference r:id="rId26"/>
+    <externalReference r:id="rId27"/>
   </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="101">
   <si>
     <t>№</t>
   </si>
@@ -251,9 +253,6 @@
     <t>Розрахунково-платіжна відомість ЗА ЛИПЕНЬ 2020 Р</t>
   </si>
   <si>
-    <t>Крива Оксана Володимирівна</t>
-  </si>
-  <si>
     <t>Крива Оксана Володимирівна 16.06.20</t>
   </si>
   <si>
@@ -332,19 +331,25 @@
     <t>Розрахунково-платіжна відомість за ЛИСТОПАД 2021 року</t>
   </si>
   <si>
-    <t>ПЛАТІЖНА ВІДОМІСТЬ № 09/А</t>
-  </si>
-  <si>
-    <t>за ВЕРЕСЕНЬ 2021</t>
-  </si>
-  <si>
-    <t>06 ЖОВТНЯ 2021</t>
-  </si>
-  <si>
-    <t>20 ВЕРЕСНЯ 2021</t>
-  </si>
-  <si>
-    <t>ПЛАТІЖНА ВІДОМІСТЬ № 9</t>
+    <t>індексація за грудень</t>
+  </si>
+  <si>
+    <t>ПЛАТІЖНА ВІДОМІСТЬ № 12</t>
+  </si>
+  <si>
+    <t>за ГРУДЕНЬ 2021</t>
+  </si>
+  <si>
+    <t>03 СІЧНЯ 2022</t>
+  </si>
+  <si>
+    <t>03 ГРУДНЯ 2021</t>
+  </si>
+  <si>
+    <t>ПЛАТІЖНА ВІДОМІСТЬ № 012/А</t>
+  </si>
+  <si>
+    <t>20 ГРУДНЯ 2021</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1006,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1256,6 +1261,29 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1286,15 +1314,52 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1303,43 +1368,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1794,26 +1822,26 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="94" t="str">
+      <c r="A3" s="103" t="str">
         <f>'[1]12'!$A$3:$Q$3</f>
         <v xml:space="preserve">Розрахунково – платіжна відомість за Грудень 2020 р. </v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
     </row>
     <row r="4" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
@@ -1826,83 +1854,83 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="96" t="s">
+      <c r="E7" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="96" t="s">
+      <c r="F7" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="96" t="s">
+      <c r="G7" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="95" t="s">
+      <c r="H7" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="95" t="s">
+      <c r="I7" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="95" t="s">
+      <c r="J7" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="95" t="s">
+      <c r="K7" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="99" t="s">
+      <c r="L7" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="95" t="s">
+      <c r="M7" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="96" t="s">
+      <c r="N7" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="95" t="s">
+      <c r="O7" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="95" t="s">
+      <c r="P7" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="95" t="s">
+      <c r="Q7" s="104" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="95"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="95"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
     </row>
     <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2">
         <v>3371314500</v>
@@ -2009,18 +2037,18 @@
     </row>
     <row r="12" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -2042,18 +2070,18 @@
       <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
       <c r="M16" s="72">
         <f>O10+M13</f>
         <v>2095.75</v>
@@ -2094,6 +2122,342 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q16"/>
   <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.21875" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" customWidth="1"/>
+    <col min="15" max="15" width="8.44140625" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" customWidth="1"/>
+    <col min="17" max="17" width="10.44140625" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="23"/>
+    </row>
+    <row r="3" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A3" s="103" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
+    </row>
+    <row r="4" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="105" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="104" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="108" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="104" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="104" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" s="104" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+    </row>
+    <row r="9" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3371314500</v>
+      </c>
+      <c r="D9" s="3">
+        <v>6060</v>
+      </c>
+      <c r="E9" s="3">
+        <v>176</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <f>D9/E6*E9</f>
+        <v>6060</v>
+      </c>
+      <c r="H9" s="3">
+        <v>80.89</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K9" s="25">
+        <f>G9+H9+I9</f>
+        <v>6140.89</v>
+      </c>
+      <c r="L9" s="3">
+        <f>ROUND((K9)*18/100,2)</f>
+        <v>1105.3599999999999</v>
+      </c>
+      <c r="M9" s="3">
+        <f>K9*0.015</f>
+        <v>92.113349999999997</v>
+      </c>
+      <c r="N9" s="3">
+        <f>L9+M9</f>
+        <v>1197.47335</v>
+      </c>
+      <c r="O9" s="3">
+        <f>K9-N9</f>
+        <v>4943.4166500000001</v>
+      </c>
+      <c r="P9" s="3">
+        <f>O9-J9</f>
+        <v>1943.4166500000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48">
+        <f>SUM(D9:D9)</f>
+        <v>6060</v>
+      </c>
+      <c r="E10" s="48">
+        <f>SUM(E9)</f>
+        <v>176</v>
+      </c>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48">
+        <f>SUM(G9)</f>
+        <v>6060</v>
+      </c>
+      <c r="H10" s="48">
+        <f>SUM(H9)</f>
+        <v>80.89</v>
+      </c>
+      <c r="I10" s="48">
+        <v>0</v>
+      </c>
+      <c r="J10" s="48">
+        <f t="shared" ref="J10:P10" si="0">SUM(J9:J9)</f>
+        <v>3000</v>
+      </c>
+      <c r="K10" s="74">
+        <f t="shared" si="0"/>
+        <v>6140.89</v>
+      </c>
+      <c r="L10" s="73">
+        <f t="shared" si="0"/>
+        <v>1105.3599999999999</v>
+      </c>
+      <c r="M10" s="73">
+        <f t="shared" si="0"/>
+        <v>92.113349999999997</v>
+      </c>
+      <c r="N10" s="73">
+        <f t="shared" si="0"/>
+        <v>1197.47335</v>
+      </c>
+      <c r="O10" s="73">
+        <f t="shared" si="0"/>
+        <v>4943.4166500000001</v>
+      </c>
+      <c r="P10" s="73">
+        <f t="shared" si="0"/>
+        <v>1943.4166500000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M11" s="22"/>
+      <c r="Q11" s="46">
+        <f>P10+J10</f>
+        <v>4943.4166500000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="24">
+        <v>0.22</v>
+      </c>
+      <c r="M13" s="53">
+        <f>K9*22%</f>
+        <v>1350.9958000000001</v>
+      </c>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M14" s="49"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+    </row>
+    <row r="15" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N15" s="52"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+    </row>
+    <row r="16" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="107" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
+      <c r="M16" s="72">
+        <f>N10+M13</f>
+        <v>2548.4691499999999</v>
+      </c>
+      <c r="N16" s="84" t="e">
+        <f>'07-21'!M9-'07-21'!#REF!+'07-21'!N9-'07-21'!#REF!+'07-21'!M13-1320</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O16" s="85" t="e">
+        <f>M16+N16</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+  </mergeCells>
+  <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Q16"/>
+  <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
@@ -2121,25 +2485,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="94" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
+      <c r="A3" s="103" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
     </row>
     <row r="4" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
@@ -2152,79 +2516,79 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="96" t="s">
+      <c r="E7" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="96" t="s">
+      <c r="F7" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="96" t="s">
+      <c r="G7" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="95" t="s">
-        <v>89</v>
-      </c>
-      <c r="I7" s="95" t="s">
+      <c r="H7" s="104" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="95" t="s">
+      <c r="J7" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="99" t="s">
+      <c r="K7" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="L7" s="95" t="s">
+      <c r="L7" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="96" t="s">
+      <c r="M7" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="95" t="s">
+      <c r="N7" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="95" t="s">
+      <c r="O7" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="95" t="s">
+      <c r="P7" s="104" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="95"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="97"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
     </row>
     <row r="9" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2">
         <v>3371314500</v>
@@ -2340,18 +2704,18 @@
     </row>
     <row r="12" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -2373,18 +2737,18 @@
       <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
       <c r="M16" s="72">
         <f>N10+M13</f>
         <v>2548.4691499999999</v>
@@ -2426,7 +2790,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q16"/>
   <sheetViews>
@@ -2457,25 +2821,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="94" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
+      <c r="A3" s="103" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
     </row>
     <row r="4" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
@@ -2488,83 +2852,83 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="96" t="s">
+      <c r="E7" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="96" t="s">
+      <c r="F7" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="96" t="s">
+      <c r="G7" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="95" t="s">
+      <c r="H7" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="95" t="s">
+      <c r="I7" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="95" t="s">
+      <c r="J7" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="95" t="s">
+      <c r="K7" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="99" t="s">
+      <c r="L7" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="95" t="s">
+      <c r="M7" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="96" t="s">
+      <c r="N7" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="95" t="s">
+      <c r="O7" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="95" t="s">
+      <c r="P7" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="95" t="s">
+      <c r="Q7" s="104" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="95"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="95"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
     </row>
     <row r="9" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2">
         <v>3371314500</v>
@@ -2688,18 +3052,18 @@
     </row>
     <row r="12" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -2725,351 +3089,22 @@
       <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
       <c r="M16" s="72">
         <f>O10+M13</f>
         <v>2522.2070681818182</v>
       </c>
-      <c r="O16" s="51"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-  </mergeCells>
-  <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R16"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" customWidth="1"/>
-    <col min="13" max="13" width="12.44140625" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" customWidth="1"/>
-    <col min="15" max="15" width="8.44140625" customWidth="1"/>
-    <col min="16" max="16" width="10.5546875" customWidth="1"/>
-    <col min="17" max="17" width="10.44140625" customWidth="1"/>
-    <col min="18" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="23"/>
-    </row>
-    <row r="3" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="94" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-    </row>
-    <row r="4" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="95" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="95" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="96" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="96" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="95" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="95" t="s">
-        <v>64</v>
-      </c>
-      <c r="J7" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="95" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="99" t="s">
-        <v>66</v>
-      </c>
-      <c r="M7" s="95" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" s="96" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" s="95" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" s="95" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q7" s="95" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="95"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="95"/>
-    </row>
-    <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3371314500</v>
-      </c>
-      <c r="D9" s="3">
-        <v>6060</v>
-      </c>
-      <c r="E9" s="3">
-        <v>160</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <f>D9/E6*E9</f>
-        <v>6060</v>
-      </c>
-      <c r="H9" s="64"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3">
-        <v>3000</v>
-      </c>
-      <c r="L9" s="25">
-        <f>G9</f>
-        <v>6060</v>
-      </c>
-      <c r="M9" s="3">
-        <f>ROUND((L9)*18/100,2)</f>
-        <v>1090.8</v>
-      </c>
-      <c r="N9" s="3">
-        <f>L9*0.015</f>
-        <v>90.899999999999991</v>
-      </c>
-      <c r="O9" s="3">
-        <f>M9+N9</f>
-        <v>1181.7</v>
-      </c>
-      <c r="P9" s="3">
-        <f>L9-O9</f>
-        <v>4878.3</v>
-      </c>
-      <c r="Q9" s="3">
-        <f>P9-K9</f>
-        <v>1878.3000000000002</v>
-      </c>
-      <c r="R9" s="65"/>
-    </row>
-    <row r="10" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48">
-        <f>SUM(D9:D9)</f>
-        <v>6060</v>
-      </c>
-      <c r="E10" s="48">
-        <f>SUM(E9)</f>
-        <v>160</v>
-      </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48">
-        <f>SUM(G9)</f>
-        <v>6060</v>
-      </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48">
-        <f t="shared" ref="K10:Q10" si="0">SUM(K9:K9)</f>
-        <v>3000</v>
-      </c>
-      <c r="L10" s="74">
-        <f>SUM(L9:L9)</f>
-        <v>6060</v>
-      </c>
-      <c r="M10" s="73">
-        <f t="shared" si="0"/>
-        <v>1090.8</v>
-      </c>
-      <c r="N10" s="73">
-        <f t="shared" si="0"/>
-        <v>90.899999999999991</v>
-      </c>
-      <c r="O10" s="73">
-        <f t="shared" si="0"/>
-        <v>1181.7</v>
-      </c>
-      <c r="P10" s="73">
-        <f t="shared" si="0"/>
-        <v>4878.3</v>
-      </c>
-      <c r="Q10" s="73">
-        <f t="shared" si="0"/>
-        <v>1878.3000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M11" s="22"/>
-      <c r="Q11" s="46">
-        <f>Q10+K10</f>
-        <v>4878.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="98" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
-      <c r="L13" s="24">
-        <v>0.22</v>
-      </c>
-      <c r="M13" s="53">
-        <f>L9*22%</f>
-        <v>1333.2</v>
-      </c>
-      <c r="N13" s="49"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-    </row>
-    <row r="15" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-    </row>
-    <row r="16" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="98" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
-      <c r="M16" s="72">
-        <f>O10+M13</f>
-        <v>2514.9</v>
-      </c>
-      <c r="N16" s="52"/>
       <c r="O16" s="51"/>
     </row>
   </sheetData>
@@ -3106,6 +3141,335 @@
   <dimension ref="A2:R16"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" customWidth="1"/>
+    <col min="15" max="15" width="8.44140625" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" customWidth="1"/>
+    <col min="17" max="17" width="10.44140625" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="23"/>
+    </row>
+    <row r="3" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A3" s="103" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
+    </row>
+    <row r="4" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="105" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="104" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="108" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="104" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="104" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="104" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
+    </row>
+    <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3371314500</v>
+      </c>
+      <c r="D9" s="3">
+        <v>6060</v>
+      </c>
+      <c r="E9" s="3">
+        <v>160</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <f>D9/E6*E9</f>
+        <v>6060</v>
+      </c>
+      <c r="H9" s="64"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L9" s="25">
+        <f>G9</f>
+        <v>6060</v>
+      </c>
+      <c r="M9" s="3">
+        <f>ROUND((L9)*18/100,2)</f>
+        <v>1090.8</v>
+      </c>
+      <c r="N9" s="3">
+        <f>L9*0.015</f>
+        <v>90.899999999999991</v>
+      </c>
+      <c r="O9" s="3">
+        <f>M9+N9</f>
+        <v>1181.7</v>
+      </c>
+      <c r="P9" s="3">
+        <f>L9-O9</f>
+        <v>4878.3</v>
+      </c>
+      <c r="Q9" s="3">
+        <f>P9-K9</f>
+        <v>1878.3000000000002</v>
+      </c>
+      <c r="R9" s="65"/>
+    </row>
+    <row r="10" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48">
+        <f>SUM(D9:D9)</f>
+        <v>6060</v>
+      </c>
+      <c r="E10" s="48">
+        <f>SUM(E9)</f>
+        <v>160</v>
+      </c>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48">
+        <f>SUM(G9)</f>
+        <v>6060</v>
+      </c>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48">
+        <f t="shared" ref="K10:Q10" si="0">SUM(K9:K9)</f>
+        <v>3000</v>
+      </c>
+      <c r="L10" s="74">
+        <f>SUM(L9:L9)</f>
+        <v>6060</v>
+      </c>
+      <c r="M10" s="73">
+        <f t="shared" si="0"/>
+        <v>1090.8</v>
+      </c>
+      <c r="N10" s="73">
+        <f t="shared" si="0"/>
+        <v>90.899999999999991</v>
+      </c>
+      <c r="O10" s="73">
+        <f t="shared" si="0"/>
+        <v>1181.7</v>
+      </c>
+      <c r="P10" s="73">
+        <f t="shared" si="0"/>
+        <v>4878.3</v>
+      </c>
+      <c r="Q10" s="73">
+        <f t="shared" si="0"/>
+        <v>1878.3000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M11" s="22"/>
+      <c r="Q11" s="46">
+        <f>Q10+K10</f>
+        <v>4878.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="24">
+        <v>0.22</v>
+      </c>
+      <c r="M13" s="53">
+        <f>L9*22%</f>
+        <v>1333.2</v>
+      </c>
+      <c r="N13" s="49"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+    </row>
+    <row r="15" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+    </row>
+    <row r="16" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="107" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
+      <c r="M16" s="72">
+        <f>O10+M13</f>
+        <v>2514.9</v>
+      </c>
+      <c r="N16" s="52"/>
+      <c r="O16" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+  </mergeCells>
+  <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:R16"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -3132,25 +3496,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="94" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
+      <c r="A3" s="103" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
     </row>
     <row r="4" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
@@ -3163,83 +3527,83 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="96" t="s">
+      <c r="E7" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="96" t="s">
+      <c r="F7" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="96" t="s">
+      <c r="G7" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="95" t="s">
+      <c r="H7" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="95" t="s">
+      <c r="I7" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="95" t="s">
+      <c r="J7" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="95" t="s">
+      <c r="K7" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="99" t="s">
+      <c r="L7" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="95" t="s">
+      <c r="M7" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="96" t="s">
+      <c r="N7" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="95" t="s">
+      <c r="O7" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="95" t="s">
+      <c r="P7" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="95" t="s">
+      <c r="Q7" s="104" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="95"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="95"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
     </row>
     <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2">
         <v>3371314500</v>
@@ -3349,18 +3713,18 @@
     </row>
     <row r="12" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -3382,347 +3746,18 @@
       <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
-      <c r="M16" s="72">
-        <f>O10+M13</f>
-        <v>2514.9</v>
-      </c>
-      <c r="N16" s="52"/>
-      <c r="O16" s="51"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-  </mergeCells>
-  <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R16"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" customWidth="1"/>
-    <col min="10" max="10" width="9.88671875" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" customWidth="1"/>
-    <col min="15" max="15" width="8.44140625" customWidth="1"/>
-    <col min="16" max="16" width="10.5546875" customWidth="1"/>
-    <col min="17" max="17" width="10.44140625" customWidth="1"/>
-    <col min="18" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="23"/>
-    </row>
-    <row r="3" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="94" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-    </row>
-    <row r="4" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="95" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="95" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="96" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="96" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="95" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="95" t="s">
-        <v>64</v>
-      </c>
-      <c r="J7" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="95" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="99" t="s">
-        <v>66</v>
-      </c>
-      <c r="M7" s="95" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" s="96" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" s="95" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" s="95" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q7" s="95" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="95"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="95"/>
-    </row>
-    <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3371314500</v>
-      </c>
-      <c r="D9" s="3">
-        <v>6060</v>
-      </c>
-      <c r="E9" s="3">
-        <v>176</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <f>D9/E6*E9</f>
-        <v>6060</v>
-      </c>
-      <c r="H9" s="64"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3">
-        <v>3000</v>
-      </c>
-      <c r="L9" s="25">
-        <f>G9</f>
-        <v>6060</v>
-      </c>
-      <c r="M9" s="3">
-        <f>ROUND((L9)*18/100,2)</f>
-        <v>1090.8</v>
-      </c>
-      <c r="N9" s="3">
-        <f>L9*0.015</f>
-        <v>90.899999999999991</v>
-      </c>
-      <c r="O9" s="3">
-        <f>M9+N9</f>
-        <v>1181.7</v>
-      </c>
-      <c r="P9" s="3">
-        <f>L9-O9</f>
-        <v>4878.3</v>
-      </c>
-      <c r="Q9" s="3">
-        <f>P9-K9</f>
-        <v>1878.3000000000002</v>
-      </c>
-      <c r="R9" s="65"/>
-    </row>
-    <row r="10" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48">
-        <f>SUM(D9:D9)</f>
-        <v>6060</v>
-      </c>
-      <c r="E10" s="48">
-        <f>SUM(E9)</f>
-        <v>176</v>
-      </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48">
-        <f>G9</f>
-        <v>6060</v>
-      </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48">
-        <f t="shared" ref="K10:Q10" si="0">SUM(K9:K9)</f>
-        <v>3000</v>
-      </c>
-      <c r="L10" s="74">
-        <f>SUM(L9:L9)</f>
-        <v>6060</v>
-      </c>
-      <c r="M10" s="73">
-        <f t="shared" si="0"/>
-        <v>1090.8</v>
-      </c>
-      <c r="N10" s="73">
-        <f t="shared" si="0"/>
-        <v>90.899999999999991</v>
-      </c>
-      <c r="O10" s="73">
-        <f t="shared" si="0"/>
-        <v>1181.7</v>
-      </c>
-      <c r="P10" s="73">
-        <f t="shared" si="0"/>
-        <v>4878.3</v>
-      </c>
-      <c r="Q10" s="73">
-        <f t="shared" si="0"/>
-        <v>1878.3000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M11" s="22"/>
-      <c r="Q11" s="46">
-        <f>Q10+K10</f>
-        <v>4878.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="98" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
-      <c r="L13" s="24">
-        <v>0.22</v>
-      </c>
-      <c r="M13" s="53">
-        <f>L9*0.22</f>
-        <v>1333.2</v>
-      </c>
-      <c r="N13" s="49"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-    </row>
-    <row r="15" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-    </row>
-    <row r="16" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="98" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
       <c r="M16" s="72">
         <f>O10+M13</f>
         <v>2514.9</v>
@@ -3764,6 +3799,335 @@
   <dimension ref="A2:R16"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" customWidth="1"/>
+    <col min="15" max="15" width="8.44140625" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" customWidth="1"/>
+    <col min="17" max="17" width="10.44140625" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="23"/>
+    </row>
+    <row r="3" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A3" s="103" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
+    </row>
+    <row r="4" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="105" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="104" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="108" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="104" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="104" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="104" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
+    </row>
+    <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3371314500</v>
+      </c>
+      <c r="D9" s="3">
+        <v>6060</v>
+      </c>
+      <c r="E9" s="3">
+        <v>176</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <f>D9/E6*E9</f>
+        <v>6060</v>
+      </c>
+      <c r="H9" s="64"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L9" s="25">
+        <f>G9</f>
+        <v>6060</v>
+      </c>
+      <c r="M9" s="3">
+        <f>ROUND((L9)*18/100,2)</f>
+        <v>1090.8</v>
+      </c>
+      <c r="N9" s="3">
+        <f>L9*0.015</f>
+        <v>90.899999999999991</v>
+      </c>
+      <c r="O9" s="3">
+        <f>M9+N9</f>
+        <v>1181.7</v>
+      </c>
+      <c r="P9" s="3">
+        <f>L9-O9</f>
+        <v>4878.3</v>
+      </c>
+      <c r="Q9" s="3">
+        <f>P9-K9</f>
+        <v>1878.3000000000002</v>
+      </c>
+      <c r="R9" s="65"/>
+    </row>
+    <row r="10" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48">
+        <f>SUM(D9:D9)</f>
+        <v>6060</v>
+      </c>
+      <c r="E10" s="48">
+        <f>SUM(E9)</f>
+        <v>176</v>
+      </c>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48">
+        <f>G9</f>
+        <v>6060</v>
+      </c>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48">
+        <f t="shared" ref="K10:Q10" si="0">SUM(K9:K9)</f>
+        <v>3000</v>
+      </c>
+      <c r="L10" s="74">
+        <f>SUM(L9:L9)</f>
+        <v>6060</v>
+      </c>
+      <c r="M10" s="73">
+        <f t="shared" si="0"/>
+        <v>1090.8</v>
+      </c>
+      <c r="N10" s="73">
+        <f t="shared" si="0"/>
+        <v>90.899999999999991</v>
+      </c>
+      <c r="O10" s="73">
+        <f t="shared" si="0"/>
+        <v>1181.7</v>
+      </c>
+      <c r="P10" s="73">
+        <f t="shared" si="0"/>
+        <v>4878.3</v>
+      </c>
+      <c r="Q10" s="73">
+        <f t="shared" si="0"/>
+        <v>1878.3000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M11" s="22"/>
+      <c r="Q11" s="46">
+        <f>Q10+K10</f>
+        <v>4878.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="24">
+        <v>0.22</v>
+      </c>
+      <c r="M13" s="53">
+        <f>L9*0.22</f>
+        <v>1333.2</v>
+      </c>
+      <c r="N13" s="49"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+    </row>
+    <row r="15" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+    </row>
+    <row r="16" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="107" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
+      <c r="M16" s="72">
+        <f>O10+M13</f>
+        <v>2514.9</v>
+      </c>
+      <c r="N16" s="52"/>
+      <c r="O16" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+  </mergeCells>
+  <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:R16"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -3790,25 +4154,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="94" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
+      <c r="A3" s="103" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
     </row>
     <row r="4" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
@@ -3821,83 +4185,83 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="96" t="s">
+      <c r="E7" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="96" t="s">
+      <c r="F7" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="96" t="s">
+      <c r="G7" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="95" t="s">
+      <c r="H7" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="95" t="s">
+      <c r="I7" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="95" t="s">
+      <c r="J7" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="95" t="s">
+      <c r="K7" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="99" t="s">
+      <c r="L7" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="95" t="s">
+      <c r="M7" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="96" t="s">
+      <c r="N7" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="95" t="s">
+      <c r="O7" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="95" t="s">
+      <c r="P7" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="95" t="s">
+      <c r="Q7" s="104" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="95"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="95"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
     </row>
     <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2">
         <v>3371314500</v>
@@ -4007,18 +4371,18 @@
     </row>
     <row r="12" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -4040,18 +4404,18 @@
       <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
       <c r="M16" s="72">
         <f>O10+M13</f>
         <v>2514.9</v>
@@ -4088,7 +4452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R16"/>
   <sheetViews>
@@ -4122,25 +4486,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="94" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
+      <c r="A3" s="103" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
     </row>
     <row r="4" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
@@ -4153,83 +4517,83 @@
       </c>
     </row>
     <row r="7" spans="1:18" s="82" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="101" t="s">
+      <c r="C7" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="101" t="s">
+      <c r="D7" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="102" t="s">
+      <c r="E7" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="101" t="s">
+      <c r="F7" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="102" t="s">
+      <c r="G7" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="101" t="s">
+      <c r="H7" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="101" t="s">
+      <c r="I7" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="101" t="s">
+      <c r="J7" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="101" t="s">
+      <c r="K7" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="100" t="s">
+      <c r="L7" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="101" t="s">
+      <c r="M7" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="102" t="s">
+      <c r="N7" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="101" t="s">
+      <c r="O7" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="101" t="s">
+      <c r="P7" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="101" t="s">
+      <c r="Q7" s="110" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="82" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="101"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="101"/>
+      <c r="A8" s="110"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="112"/>
+      <c r="O8" s="110"/>
+      <c r="P8" s="110"/>
+      <c r="Q8" s="110"/>
     </row>
     <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2">
         <v>3371314500</v>
@@ -4337,18 +4701,18 @@
     </row>
     <row r="12" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -4370,18 +4734,18 @@
       <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
       <c r="M16" s="72">
         <f>O10+M13</f>
         <v>2514.9</v>
@@ -4418,7 +4782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R16"/>
   <sheetViews>
@@ -4452,25 +4816,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="94" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
+      <c r="A3" s="103" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
     </row>
     <row r="4" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
@@ -4483,83 +4847,83 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="104" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="105" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="96" t="s">
+      <c r="F7" s="105" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="96" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" s="96" t="s">
+      <c r="G7" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="95" t="s">
+      <c r="H7" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="95" t="s">
+      <c r="I7" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="95" t="s">
+      <c r="J7" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="95" t="s">
+      <c r="K7" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="99" t="s">
+      <c r="L7" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="95" t="s">
+      <c r="M7" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="96" t="s">
+      <c r="N7" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="95" t="s">
+      <c r="O7" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="95" t="s">
+      <c r="P7" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="95" t="s">
+      <c r="Q7" s="104" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="81" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="95"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="95"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
     </row>
     <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2">
         <v>3371314500</v>
@@ -4669,18 +5033,18 @@
     </row>
     <row r="12" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -4702,18 +5066,18 @@
       <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
       <c r="M16" s="72">
         <f>O10+M13</f>
         <v>2514.9</v>
@@ -4750,13 +5114,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист3"/>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4774,15 +5137,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="I1" s="50" t="s">
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="I1" s="94" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4790,13 +5153,13 @@
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
+      <c r="F2" s="96"/>
     </row>
     <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -4806,26 +5169,26 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="G3" s="112" t="s">
+      <c r="G3" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
     </row>
     <row r="4" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
     </row>
     <row r="5" spans="1:16" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="114" t="s">
+      <c r="G5" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="115"/>
-      <c r="I5" s="119" t="s">
+      <c r="H5" s="119"/>
+      <c r="I5" s="122" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4837,55 +5200,55 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="120"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="123"/>
     </row>
     <row r="7" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
       <c r="G7" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="121"/>
+      <c r="I7" s="124"/>
     </row>
     <row r="8" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="12"/>
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="21">
-        <v>1943.4166500000001</v>
+      <c r="B9" s="97"/>
+      <c r="C9" s="98">
+        <v>5487.1920689655171</v>
       </c>
       <c r="D9" s="18"/>
-      <c r="E9" s="15"/>
+      <c r="E9" s="97"/>
     </row>
     <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="105" t="str">
+      <c r="A10" s="126" t="str">
         <f>[2]!СумаПрописом(C9)</f>
-        <v>Одна тисяча дев`ятсот сорок три гривнi 42 копiйки</v>
-      </c>
-      <c r="B10" s="106"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
+        <v>П`ять тисяч чотириста вiсiмдесят сiм гривень 19 копiйок</v>
+      </c>
+      <c r="B10" s="127"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
@@ -4902,10 +5265,10 @@
       <c r="A12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="118" t="s">
-        <v>97</v>
-      </c>
-      <c r="H12" s="118"/>
+      <c r="G12" s="128" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" s="128"/>
     </row>
     <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
@@ -4913,54 +5276,54 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="107" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="107"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
+      <c r="A14" s="129" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="129"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="129"/>
     </row>
     <row r="15" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="108" t="s">
+      <c r="A15" s="130" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="108"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="130"/>
     </row>
     <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="109"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="131"/>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="110" t="str">
+      <c r="A17" s="113" t="str">
         <f>A10</f>
-        <v>Одна тисяча дев`ятсот сорок три гривнi 42 копiйки</v>
-      </c>
-      <c r="B17" s="110"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
+        <v>П`ять тисяч чотириста вiсiмдесят сiм гривень 19 копiйок</v>
+      </c>
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
     </row>
     <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -5006,204 +5369,21 @@
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="G5:H6"/>
-    <mergeCell ref="G12:H12"/>
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G12:H12"/>
     <mergeCell ref="A14:I14"/>
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="E16:I16"/>
   </mergeCells>
   <pageMargins left="0.42" right="0.23" top="0.44" bottom="0.98425196850393704" header="0.3" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист4"/>
-  <dimension ref="A1:F43"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="E7" sqref="E7:E8"/>
-      <selection pane="topRight" activeCell="E7" sqref="E7:E8"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7:E8"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.6640625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="35.44140625" style="29" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" style="29" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="29" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="29" customWidth="1"/>
-    <col min="7" max="8" width="15.109375" style="29" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="29"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="30">
-        <v>1</v>
-      </c>
-      <c r="B2" s="31">
-        <v>2</v>
-      </c>
-      <c r="C2" s="31">
-        <v>3</v>
-      </c>
-      <c r="D2" s="31">
-        <v>4</v>
-      </c>
-      <c r="E2" s="31">
-        <v>5</v>
-      </c>
-      <c r="F2" s="32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33">
-        <v>1</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="35">
-        <v>1943.4166500000001</v>
-      </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="36"/>
-    </row>
-    <row r="4" spans="1:6" s="93" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87">
-        <v>2</v>
-      </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="90">
-        <v>1143.4500000000003</v>
-      </c>
-      <c r="E4" s="91"/>
-      <c r="F4" s="92"/>
-    </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="36"/>
-    </row>
-    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="36"/>
-    </row>
-    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="36"/>
-    </row>
-    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="123" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="123"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="38">
-        <v>1943.4166500000001</v>
-      </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="36"/>
-    </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="42"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
-    </row>
-    <row r="41" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
-    </row>
-    <row r="43" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="39"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A8:C8"/>
-  </mergeCells>
-  <pageMargins left="0.51181102362204722" right="0" top="0.27559055118110237" bottom="0.98425196850393704" header="0.15748031496062992" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -5239,25 +5419,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="94" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
+      <c r="A3" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
     </row>
     <row r="4" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
@@ -5270,83 +5450,83 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="96" t="s">
+      <c r="E7" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="96" t="s">
+      <c r="F7" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="96" t="s">
+      <c r="G7" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="95" t="s">
+      <c r="H7" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="95" t="s">
+      <c r="I7" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="95" t="s">
+      <c r="J7" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="95" t="s">
+      <c r="K7" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="99" t="s">
+      <c r="L7" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="95" t="s">
+      <c r="M7" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="96" t="s">
+      <c r="N7" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="95" t="s">
+      <c r="O7" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="95" t="s">
+      <c r="P7" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="95" t="s">
+      <c r="Q7" s="104" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="95"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="95"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
     </row>
     <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2">
         <v>3371314500</v>
@@ -5453,18 +5633,18 @@
     </row>
     <row r="12" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -5486,18 +5666,18 @@
       <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
       <c r="M16" s="72">
         <f>O10+M13</f>
         <v>2095.75</v>
@@ -5536,11 +5716,468 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P39"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="4"/>
+    <col min="5" max="5" width="10.5546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="6" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="114" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="I1" s="99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="115" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="100"/>
+    </row>
+    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="G3" s="116" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+    </row>
+    <row r="4" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="117" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+    </row>
+    <row r="5" spans="1:16" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="118" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="119"/>
+      <c r="I5" s="122" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="123"/>
+    </row>
+    <row r="7" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="125" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="G7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="124"/>
+    </row>
+    <row r="8" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="102"/>
+      <c r="C9" s="98">
+        <v>863.08827586206917</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="102"/>
+    </row>
+    <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="126" t="str">
+        <f>[2]!СумаПрописом(C9)</f>
+        <v>Вiсiмсот шiстдесят три гривнi 09 копiйок</v>
+      </c>
+      <c r="B10" s="127"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+    </row>
+    <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="128" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" s="128"/>
+    </row>
+    <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="129" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="129"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="129"/>
+    </row>
+    <row r="15" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="130" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="130"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="130"/>
+    </row>
+    <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="131"/>
+    </row>
+    <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="113" t="str">
+        <f>A10</f>
+        <v>Вiсiмсот шiстдесят три гривнi 09 копiйок</v>
+      </c>
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+    </row>
+    <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+    </row>
+    <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="A7:E7"/>
+  </mergeCells>
+  <pageMargins left="0.42" right="0.23" top="0.44" bottom="0.98425196850393704" header="0.3" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист4"/>
+  <dimension ref="A1:F43"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B17" sqref="B17:K17"/>
+      <selection pane="topRight" activeCell="B17" sqref="B17:K17"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17:K17"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17:K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="35.44140625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" style="29" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="29" customWidth="1"/>
+    <col min="7" max="8" width="15.109375" style="29" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="30">
+        <v>1</v>
+      </c>
+      <c r="B2" s="31">
+        <v>2</v>
+      </c>
+      <c r="C2" s="31">
+        <v>3</v>
+      </c>
+      <c r="D2" s="31">
+        <v>4</v>
+      </c>
+      <c r="E2" s="31">
+        <v>5</v>
+      </c>
+      <c r="F2" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33">
+        <v>1</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="98">
+        <v>5487.1920689655171</v>
+      </c>
+      <c r="E3" s="34"/>
+      <c r="F3" s="36"/>
+    </row>
+    <row r="4" spans="1:6" s="93" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="87">
+        <v>2</v>
+      </c>
+      <c r="B4" s="88"/>
+      <c r="C4" s="89" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="90">
+        <v>1143.4500000000003</v>
+      </c>
+      <c r="E4" s="91"/>
+      <c r="F4" s="92"/>
+    </row>
+    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="36"/>
+    </row>
+    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="33"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="36"/>
+    </row>
+    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="36"/>
+    </row>
+    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="132"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="38">
+        <v>5487.1920689655171</v>
+      </c>
+      <c r="E8" s="34"/>
+      <c r="F8" s="36"/>
+    </row>
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="39"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="40"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="40"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="40"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="42"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="42"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="45"/>
+    </row>
+    <row r="41" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A41" s="39"/>
+    </row>
+    <row r="43" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A43" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:C8"/>
+  </mergeCells>
+  <pageMargins left="0.51181102362204722" right="0" top="0.27559055118110237" bottom="0.98425196850393704" header="0.15748031496062992" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист7"/>
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:I15"/>
+      <selection activeCell="B17" sqref="B17:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5558,15 +6195,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="str">
+      <c r="A1" s="114" t="str">
         <f>'пд1 зп'!A1:E1</f>
         <v>Приватний нотаріус Підхомна Олександра Дмитрівна</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
       <c r="G1" s="50"/>
       <c r="H1" s="50"/>
       <c r="I1" s="50" t="s">
@@ -5577,11 +6214,11 @@
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
     </row>
@@ -5593,26 +6230,26 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="G3" s="112" t="s">
+      <c r="G3" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
     </row>
     <row r="4" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
     </row>
     <row r="5" spans="1:16" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="114" t="s">
+      <c r="G5" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="115"/>
-      <c r="I5" s="119" t="s">
+      <c r="H5" s="119"/>
+      <c r="I5" s="122" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5624,29 +6261,29 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="120"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="123"/>
     </row>
     <row r="7" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
       <c r="G7" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="121"/>
+      <c r="I7" s="124"/>
     </row>
     <row r="8" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="12"/>
@@ -5656,21 +6293,21 @@
       <c r="A9" s="14"/>
       <c r="B9" s="15"/>
       <c r="C9" s="21">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="105" t="str">
+      <c r="A10" s="126" t="str">
         <f>[2]!СумаПрописом(C9)</f>
-        <v>Три тисячi гривень 00 копiйок</v>
-      </c>
-      <c r="B10" s="106"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
+        <v>Одна тисяча п`ятсот гривень 00 копiйок</v>
+      </c>
+      <c r="B10" s="127"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
@@ -5687,10 +6324,10 @@
       <c r="A12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="126" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" s="126"/>
+      <c r="G12" s="135" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="135"/>
     </row>
     <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
@@ -5698,55 +6335,55 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="107" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="107"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
+      <c r="A14" s="129" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="129"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="129"/>
     </row>
     <row r="15" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="125" t="str">
+      <c r="A15" s="134" t="str">
         <f>'пд1 зп'!A15:I15</f>
-        <v>за ВЕРЕСЕНЬ 2021</v>
-      </c>
-      <c r="B15" s="108"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
+        <v>за ГРУДЕНЬ 2021</v>
+      </c>
+      <c r="B15" s="130"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="130"/>
     </row>
     <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="109"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="131"/>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="110" t="str">
+      <c r="A17" s="113" t="str">
         <f>A10</f>
-        <v>Три тисячi гривень 00 копiйок</v>
-      </c>
-      <c r="B17" s="110"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
+        <v>Одна тисяча п`ятсот гривень 00 копiйок</v>
+      </c>
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
     </row>
     <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -5814,17 +6451,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист8"/>
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="E7" sqref="E7:E8"/>
-      <selection pane="topRight" activeCell="E7" sqref="E7:E8"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7:E8"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection activeCell="B17" sqref="B17:K17"/>
+      <selection pane="topRight" activeCell="B17" sqref="B17:K17"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17:K17"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5884,12 +6521,12 @@
         <v>1</v>
       </c>
       <c r="B3" s="34"/>
-      <c r="C3" s="20" t="s">
-        <v>68</v>
+      <c r="C3" s="75" t="s">
+        <v>92</v>
       </c>
       <c r="D3" s="35">
         <f>'пд1 аванс'!C9</f>
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="E3" s="34"/>
       <c r="F3" s="36"/>
@@ -5900,7 +6537,7 @@
       </c>
       <c r="B4" s="91"/>
       <c r="C4" s="89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="90">
         <v>1500</v>
@@ -5933,13 +6570,13 @@
       <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="123" t="s">
+      <c r="A8" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="123"/>
-      <c r="C8" s="124"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="133"/>
       <c r="D8" s="38">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="E8" s="34"/>
       <c r="F8" s="36"/>
@@ -5999,12 +6636,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6014,15 +6651,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="127" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="A1" s="136" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
     </row>
     <row r="3" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="128"/>
+      <c r="A3" s="137"/>
       <c r="B3" s="55" t="s">
         <v>61</v>
       </c>
@@ -6034,7 +6671,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="128"/>
+      <c r="A4" s="137"/>
       <c r="B4" s="56" t="s">
         <v>46</v>
       </c>
@@ -6218,9 +6855,15 @@
       <c r="A17" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="77"/>
+      <c r="B17" s="59">
+        <v>2640</v>
+      </c>
+      <c r="C17" s="59">
+        <v>1266.1000000000001</v>
+      </c>
+      <c r="D17" s="77">
+        <v>122.53374310344827</v>
+      </c>
       <c r="E17" s="78"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -6229,15 +6872,15 @@
       </c>
       <c r="B18" s="61">
         <f>SUM(B6:B17)</f>
-        <v>17380.2588</v>
+        <v>20020.2588</v>
       </c>
       <c r="C18" s="61">
         <f>SUM(C6:C17)</f>
-        <v>12742.41</v>
+        <v>14008.51</v>
       </c>
       <c r="D18" s="61">
         <f>SUM(D6:D17)</f>
-        <v>1095.9174681818181</v>
+        <v>1218.4512112852663</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6245,13 +6888,13 @@
         <v>59</v>
       </c>
       <c r="B19" s="71">
-        <v>12038.27</v>
+        <v>17380.27</v>
       </c>
       <c r="C19" s="63">
-        <v>9849.49</v>
+        <v>12742.41</v>
       </c>
       <c r="D19" s="63">
-        <v>820.79</v>
+        <v>1095.92</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6260,15 +6903,15 @@
       </c>
       <c r="B20" s="70">
         <f>B18-B19</f>
-        <v>5341.9887999999992</v>
+        <v>2639.9887999999992</v>
       </c>
       <c r="C20" s="70">
         <f>C18-C19</f>
-        <v>2892.92</v>
+        <v>1266.1000000000004</v>
       </c>
       <c r="D20" s="70">
         <f>D18-D19</f>
-        <v>275.12746818181813</v>
+        <v>122.53121128526618</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.4" x14ac:dyDescent="0.35">
@@ -6286,12 +6929,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6301,15 +6944,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="136" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
     </row>
     <row r="3" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="128"/>
+      <c r="A3" s="137"/>
       <c r="B3" s="55" t="s">
         <v>61</v>
       </c>
@@ -6321,7 +6964,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="128"/>
+      <c r="A4" s="137"/>
       <c r="B4" s="56" t="s">
         <v>46</v>
       </c>
@@ -6545,7 +7188,7 @@
         <v>590.28</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6572,12 +7215,12 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -6621,25 +7264,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="94" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
+      <c r="A3" s="103" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
     </row>
     <row r="4" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
@@ -6652,83 +7295,83 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="96" t="s">
+      <c r="E7" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="96" t="s">
+      <c r="F7" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="96" t="s">
+      <c r="G7" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="95" t="s">
+      <c r="H7" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="95" t="s">
+      <c r="I7" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="95" t="s">
+      <c r="J7" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="95" t="s">
+      <c r="K7" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="99" t="s">
+      <c r="L7" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="95" t="s">
+      <c r="M7" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="96" t="s">
+      <c r="N7" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="95" t="s">
+      <c r="O7" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="95" t="s">
+      <c r="P7" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="95" t="s">
+      <c r="Q7" s="104" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="95"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="95"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
     </row>
     <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2">
         <v>3371314500</v>
@@ -6835,18 +7478,18 @@
     </row>
     <row r="12" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -6868,18 +7511,18 @@
       <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
       <c r="M16" s="72">
         <f>O10+M13</f>
         <v>2095.75</v>
@@ -6947,25 +7590,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
+      <c r="A3" s="103" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
     </row>
     <row r="4" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
@@ -6978,83 +7621,83 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="96" t="s">
+      <c r="E7" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="96" t="s">
+      <c r="F7" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="96" t="s">
+      <c r="G7" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="95" t="s">
+      <c r="H7" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="95" t="s">
+      <c r="I7" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="95" t="s">
+      <c r="J7" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="95" t="s">
+      <c r="K7" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="99" t="s">
+      <c r="L7" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="95" t="s">
+      <c r="M7" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="96" t="s">
+      <c r="N7" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="95" t="s">
+      <c r="O7" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="95" t="s">
+      <c r="P7" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="95" t="s">
+      <c r="Q7" s="104" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="95"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="95"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
     </row>
     <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2">
         <v>3371314500</v>
@@ -7161,18 +7804,18 @@
     </row>
     <row r="12" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -7194,18 +7837,18 @@
       <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
       <c r="M16" s="72">
         <f>O10+M13</f>
         <v>2095.75</v>
@@ -7273,25 +7916,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="94" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
+      <c r="A3" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
     </row>
     <row r="4" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
@@ -7304,83 +7947,83 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="96" t="s">
+      <c r="E7" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="96" t="s">
+      <c r="F7" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="96" t="s">
+      <c r="G7" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="95" t="s">
+      <c r="H7" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="95" t="s">
+      <c r="I7" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="95" t="s">
+      <c r="J7" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="95" t="s">
+      <c r="K7" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="99" t="s">
+      <c r="L7" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="95" t="s">
+      <c r="M7" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="96" t="s">
+      <c r="N7" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="95" t="s">
+      <c r="O7" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="95" t="s">
+      <c r="P7" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="95" t="s">
+      <c r="Q7" s="104" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="95"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="95"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
     </row>
     <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2">
         <v>3371314500</v>
@@ -7487,18 +8130,18 @@
     </row>
     <row r="12" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -7520,18 +8163,18 @@
       <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
       <c r="M16" s="72">
         <f>O10+M13</f>
         <v>1979.5500000000002</v>
@@ -7599,25 +8242,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
     </row>
     <row r="4" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
@@ -7630,83 +8273,83 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="96" t="s">
+      <c r="E7" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="96" t="s">
+      <c r="F7" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="96" t="s">
+      <c r="G7" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="95" t="s">
+      <c r="H7" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="95" t="s">
+      <c r="I7" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="95" t="s">
+      <c r="J7" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="95" t="s">
+      <c r="K7" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="99" t="s">
+      <c r="L7" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="95" t="s">
+      <c r="M7" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="96" t="s">
+      <c r="N7" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="95" t="s">
+      <c r="O7" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="95" t="s">
+      <c r="P7" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="95" t="s">
+      <c r="Q7" s="104" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="95"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="95"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
     </row>
     <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2">
         <v>3371314500</v>
@@ -7813,18 +8456,18 @@
     </row>
     <row r="12" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -7846,18 +8489,18 @@
       <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
       <c r="M16" s="72">
         <f>O10+M13</f>
         <v>1979.5500000000002</v>
@@ -7898,8 +8541,404 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q17"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" customWidth="1"/>
+    <col min="15" max="15" width="8.44140625" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" customWidth="1"/>
+    <col min="17" max="17" width="10.44140625" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="23"/>
+    </row>
+    <row r="3" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A3" s="103" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
+    </row>
+    <row r="4" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="105" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="104" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="108" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="104" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="104" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" s="104" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+    </row>
+    <row r="9" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3371314500</v>
+      </c>
+      <c r="D9" s="3">
+        <v>6565</v>
+      </c>
+      <c r="E9" s="3">
+        <v>24</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <f>D9/E6*E9</f>
+        <v>905.51724137931035</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <f>203.53*22</f>
+        <v>4477.66</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4333.4595827586199</v>
+      </c>
+      <c r="K9" s="25">
+        <f>G9+H9+I9</f>
+        <v>5383.1772413793105</v>
+      </c>
+      <c r="L9" s="3">
+        <f>ROUND((K9)*18/100,2)</f>
+        <v>968.97</v>
+      </c>
+      <c r="M9" s="3">
+        <f>K9*0.015</f>
+        <v>80.747658620689649</v>
+      </c>
+      <c r="N9" s="3">
+        <f>L9+M9</f>
+        <v>1049.7176586206897</v>
+      </c>
+      <c r="O9" s="3">
+        <f>K9-N9</f>
+        <v>4333.4595827586209</v>
+      </c>
+      <c r="P9" s="3">
+        <f>O9-J9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3268013166</v>
+      </c>
+      <c r="D10" s="3">
+        <v>6565</v>
+      </c>
+      <c r="E10" s="3">
+        <v>87</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="3">
+        <f>D10/E6*E10</f>
+        <v>3282.5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K10" s="25">
+        <f>G10+H10+I10</f>
+        <v>3282.5</v>
+      </c>
+      <c r="L10" s="3">
+        <f>ROUND((K10-1135)*18/100,2)</f>
+        <v>386.55</v>
+      </c>
+      <c r="M10" s="3">
+        <f>K10*0.015</f>
+        <v>49.237499999999997</v>
+      </c>
+      <c r="N10" s="3">
+        <f>L10+M10</f>
+        <v>435.78750000000002</v>
+      </c>
+      <c r="O10" s="3">
+        <f>K10-N10</f>
+        <v>2846.7125000000001</v>
+      </c>
+      <c r="P10" s="3">
+        <f>O10-J10</f>
+        <v>1346.7125000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="47"/>
+      <c r="D11" s="48">
+        <f>SUM(D9:D10)</f>
+        <v>13130</v>
+      </c>
+      <c r="E11" s="48">
+        <f>SUM(E9)</f>
+        <v>24</v>
+      </c>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48">
+        <f>SUM(G9)</f>
+        <v>905.51724137931035</v>
+      </c>
+      <c r="H11" s="48">
+        <f>SUM(H9)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="48">
+        <v>0</v>
+      </c>
+      <c r="J11" s="48">
+        <f>SUM(J9:J9)</f>
+        <v>4333.4595827586199</v>
+      </c>
+      <c r="K11" s="74">
+        <f>SUM(K9:K9)</f>
+        <v>5383.1772413793105</v>
+      </c>
+      <c r="L11" s="73">
+        <f>SUM(L9:L10)</f>
+        <v>1355.52</v>
+      </c>
+      <c r="M11" s="73">
+        <f>SUM(M9:M10)</f>
+        <v>129.98515862068965</v>
+      </c>
+      <c r="N11" s="73">
+        <f>SUM(N9:N10)</f>
+        <v>1485.5051586206896</v>
+      </c>
+      <c r="O11" s="73">
+        <f>SUM(O9:O10)</f>
+        <v>7180.1720827586214</v>
+      </c>
+      <c r="P11" s="73">
+        <f>SUM(P9:P10)</f>
+        <v>1346.7125000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M12" s="22"/>
+      <c r="Q12" s="46">
+        <f>P11+J11</f>
+        <v>5680.1720827586196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="24">
+        <v>0.22</v>
+      </c>
+      <c r="M14" s="53">
+        <f>1430*2</f>
+        <v>2860</v>
+      </c>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M15" s="49"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+    </row>
+    <row r="16" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N16" s="52"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+    </row>
+    <row r="17" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="107" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="107"/>
+      <c r="M17" s="72">
+        <f>N11+M14</f>
+        <v>4345.5051586206901</v>
+      </c>
+      <c r="N17" s="84" t="e">
+        <f>'07-21'!M9-'07-21'!#REF!+'07-21'!N9-'07-21'!#REF!+'07-21'!M13-1320</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O17" s="85" t="e">
+        <f>M17+N17</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+  </mergeCells>
+  <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Q17"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7925,25 +8964,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="94" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
+      <c r="A3" s="103" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
     </row>
     <row r="4" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
@@ -7956,79 +8995,79 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="96" t="s">
+      <c r="E7" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="96" t="s">
+      <c r="F7" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="96" t="s">
+      <c r="G7" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="95" t="s">
-        <v>89</v>
-      </c>
-      <c r="I7" s="95" t="s">
+      <c r="H7" s="104" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="95" t="s">
+      <c r="J7" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="99" t="s">
+      <c r="K7" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="L7" s="95" t="s">
+      <c r="L7" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="96" t="s">
+      <c r="M7" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="95" t="s">
+      <c r="N7" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="95" t="s">
+      <c r="O7" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="95" t="s">
+      <c r="P7" s="104" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="95"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="97"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
     </row>
     <row r="9" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2">
         <v>3371314500</v>
@@ -8082,10 +9121,10 @@
     </row>
     <row r="10" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="2">
         <v>3268013166</v>
@@ -8201,18 +9240,18 @@
     </row>
     <row r="13" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="98"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
       <c r="L14" s="24">
         <v>0.22</v>
       </c>
@@ -8234,411 +9273,18 @@
       <c r="P16" s="51"/>
     </row>
     <row r="17" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="98"/>
-      <c r="M17" s="72">
-        <f>N11+M14</f>
-        <v>4255.0191500000001</v>
-      </c>
-      <c r="N17" s="84" t="e">
-        <f>'07-21'!M9-'07-21'!#REF!+'07-21'!N9-'07-21'!#REF!+'07-21'!M13-1320</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O17" s="85" t="e">
-        <f>M17+N17</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-  </mergeCells>
-  <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q17"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.21875" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" customWidth="1"/>
-    <col min="13" max="13" width="12.44140625" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" customWidth="1"/>
-    <col min="15" max="15" width="8.44140625" customWidth="1"/>
-    <col min="16" max="16" width="10.5546875" customWidth="1"/>
-    <col min="17" max="17" width="10.44140625" customWidth="1"/>
-    <col min="18" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="23"/>
-    </row>
-    <row r="3" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="94" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-    </row>
-    <row r="4" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="95" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="95" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="96" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="96" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="95" t="s">
-        <v>89</v>
-      </c>
-      <c r="I7" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="95" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="99" t="s">
-        <v>66</v>
-      </c>
-      <c r="L7" s="95" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" s="96" t="s">
-        <v>42</v>
-      </c>
-      <c r="N7" s="95" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7" s="95" t="s">
-        <v>35</v>
-      </c>
-      <c r="P7" s="95" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="95"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="97"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-    </row>
-    <row r="9" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3371314500</v>
-      </c>
-      <c r="D9" s="3">
-        <v>6060</v>
-      </c>
-      <c r="E9" s="3">
-        <v>159</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <f>D9/E6*E9</f>
-        <v>6060.0000000000009</v>
-      </c>
-      <c r="H9" s="3">
-        <v>80.89</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K9" s="25">
-        <f>G9+H9+I9</f>
-        <v>6140.8900000000012</v>
-      </c>
-      <c r="L9" s="3">
-        <f>ROUND((K9)*18/100,2)</f>
-        <v>1105.3599999999999</v>
-      </c>
-      <c r="M9" s="3">
-        <f>K9*0.015</f>
-        <v>92.113350000000011</v>
-      </c>
-      <c r="N9" s="3">
-        <f>L9+M9</f>
-        <v>1197.47335</v>
-      </c>
-      <c r="O9" s="3">
-        <f>K9-N9</f>
-        <v>4943.416650000001</v>
-      </c>
-      <c r="P9" s="3">
-        <f>O9-J9</f>
-        <v>1943.416650000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>1</v>
-      </c>
-      <c r="B10" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3268013166</v>
-      </c>
-      <c r="D10" s="3">
-        <v>6060</v>
-      </c>
-      <c r="E10" s="3">
-        <v>79.5</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="3">
-        <f>D10/E6*E10</f>
-        <v>3030.0000000000005</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K10" s="25">
-        <f>G10+H10+I10</f>
-        <v>3030.0000000000005</v>
-      </c>
-      <c r="L10" s="3">
-        <f>ROUND((K10-1135)*18/100,2)</f>
-        <v>341.1</v>
-      </c>
-      <c r="M10" s="3">
-        <f>K10*0.015</f>
-        <v>45.45</v>
-      </c>
-      <c r="N10" s="3">
-        <f>L10+M10</f>
-        <v>386.55</v>
-      </c>
-      <c r="O10" s="3">
-        <f>K10-N10</f>
-        <v>2643.4500000000003</v>
-      </c>
-      <c r="P10" s="3">
-        <f>O10-J10</f>
-        <v>1143.4500000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48">
-        <f>SUM(D9:D9)</f>
-        <v>6060</v>
-      </c>
-      <c r="E11" s="48">
-        <f>SUM(E9)</f>
-        <v>159</v>
-      </c>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48">
-        <f>SUM(G9)</f>
-        <v>6060.0000000000009</v>
-      </c>
-      <c r="H11" s="48">
-        <f>SUM(H9)</f>
-        <v>80.89</v>
-      </c>
-      <c r="I11" s="48">
-        <v>0</v>
-      </c>
-      <c r="J11" s="48">
-        <f>SUM(J9:J9)</f>
-        <v>3000</v>
-      </c>
-      <c r="K11" s="74">
-        <f>SUM(K9:K9)</f>
-        <v>6140.8900000000012</v>
-      </c>
-      <c r="L11" s="73">
-        <f>SUM(L9:L10)</f>
-        <v>1446.46</v>
-      </c>
-      <c r="M11" s="73">
-        <f>SUM(M9:M10)</f>
-        <v>137.56335000000001</v>
-      </c>
-      <c r="N11" s="73">
-        <f t="shared" ref="N11:P11" si="0">SUM(N9:N10)</f>
-        <v>1584.0233499999999</v>
-      </c>
-      <c r="O11" s="73">
-        <f t="shared" si="0"/>
-        <v>7586.8666500000018</v>
-      </c>
-      <c r="P11" s="73">
-        <f t="shared" si="0"/>
-        <v>3086.8666500000013</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M12" s="22"/>
-      <c r="Q12" s="46">
-        <f>P11+J11</f>
-        <v>6086.8666500000018</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="98" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="24">
-        <v>0.22</v>
-      </c>
-      <c r="M14" s="53">
-        <f>K9*22%+1320</f>
-        <v>2670.9958000000006</v>
-      </c>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-    </row>
-    <row r="15" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="M15" s="49"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-    </row>
-    <row r="16" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N16" s="52"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-    </row>
-    <row r="17" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="98" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="98"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="107"/>
       <c r="M17" s="72">
         <f>N11+M14</f>
         <v>4255.0191500000001</v>
@@ -8682,10 +9328,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q16"/>
+  <dimension ref="A2:Q17"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8711,25 +9357,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
     </row>
     <row r="4" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
@@ -8738,83 +9384,83 @@
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="96" t="s">
+      <c r="E7" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="96" t="s">
+      <c r="F7" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="96" t="s">
+      <c r="G7" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="95" t="s">
-        <v>89</v>
-      </c>
-      <c r="I7" s="95" t="s">
+      <c r="H7" s="104" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="95" t="s">
+      <c r="J7" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="99" t="s">
+      <c r="K7" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="L7" s="95" t="s">
+      <c r="L7" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="96" t="s">
+      <c r="M7" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="95" t="s">
+      <c r="N7" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="95" t="s">
+      <c r="O7" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="95" t="s">
+      <c r="P7" s="104" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="95"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="97"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
     </row>
     <row r="9" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2">
         <v>3371314500</v>
@@ -8823,14 +9469,14 @@
         <v>6060</v>
       </c>
       <c r="E9" s="3">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
       </c>
       <c r="G9" s="3">
         <f>D9/E6*E9</f>
-        <v>6060</v>
+        <v>6060.0000000000009</v>
       </c>
       <c r="H9" s="3">
         <v>80.89</v>
@@ -8843,7 +9489,7 @@
       </c>
       <c r="K9" s="25">
         <f>G9+H9+I9</f>
-        <v>6140.89</v>
+        <v>6140.8900000000012</v>
       </c>
       <c r="L9" s="3">
         <f>ROUND((K9)*18/100,2)</f>
@@ -8851,7 +9497,7 @@
       </c>
       <c r="M9" s="3">
         <f>K9*0.015</f>
-        <v>92.113349999999997</v>
+        <v>92.113350000000011</v>
       </c>
       <c r="N9" s="3">
         <f>L9+M9</f>
@@ -8859,137 +9505,199 @@
       </c>
       <c r="O9" s="3">
         <f>K9-N9</f>
-        <v>4943.4166500000001</v>
+        <v>4943.416650000001</v>
       </c>
       <c r="P9" s="3">
         <f>O9-J9</f>
-        <v>1943.4166500000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="47" t="s">
+        <v>1943.416650000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3268013166</v>
+      </c>
+      <c r="D10" s="3">
+        <v>6060</v>
+      </c>
+      <c r="E10" s="3">
+        <v>79.5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="3">
+        <f>D10/E6*E10</f>
+        <v>3030.0000000000005</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K10" s="25">
+        <f>G10+H10+I10</f>
+        <v>3030.0000000000005</v>
+      </c>
+      <c r="L10" s="3">
+        <f>ROUND((K10-1135)*18/100,2)</f>
+        <v>341.1</v>
+      </c>
+      <c r="M10" s="3">
+        <f>K10*0.015</f>
+        <v>45.45</v>
+      </c>
+      <c r="N10" s="3">
+        <f>L10+M10</f>
+        <v>386.55</v>
+      </c>
+      <c r="O10" s="3">
+        <f>K10-N10</f>
+        <v>2643.4500000000003</v>
+      </c>
+      <c r="P10" s="3">
+        <f>O10-J10</f>
+        <v>1143.4500000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48">
+      <c r="C11" s="47"/>
+      <c r="D11" s="48">
         <f>SUM(D9:D9)</f>
         <v>6060</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E11" s="48">
         <f>SUM(E9)</f>
-        <v>176</v>
-      </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48">
+        <v>159</v>
+      </c>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48">
         <f>SUM(G9)</f>
-        <v>6060</v>
-      </c>
-      <c r="H10" s="48">
+        <v>6060.0000000000009</v>
+      </c>
+      <c r="H11" s="48">
         <f>SUM(H9)</f>
         <v>80.89</v>
       </c>
-      <c r="I10" s="48">
+      <c r="I11" s="48">
         <v>0</v>
       </c>
-      <c r="J10" s="48">
-        <f t="shared" ref="J10:P10" si="0">SUM(J9:J9)</f>
+      <c r="J11" s="48">
+        <f>SUM(J9:J9)</f>
         <v>3000</v>
       </c>
-      <c r="K10" s="74">
+      <c r="K11" s="74">
+        <f>SUM(K9:K9)</f>
+        <v>6140.8900000000012</v>
+      </c>
+      <c r="L11" s="73">
+        <f>SUM(L9:L10)</f>
+        <v>1446.46</v>
+      </c>
+      <c r="M11" s="73">
+        <f>SUM(M9:M10)</f>
+        <v>137.56335000000001</v>
+      </c>
+      <c r="N11" s="73">
+        <f t="shared" ref="N11:P11" si="0">SUM(N9:N10)</f>
+        <v>1584.0233499999999</v>
+      </c>
+      <c r="O11" s="73">
         <f t="shared" si="0"/>
-        <v>6140.89</v>
-      </c>
-      <c r="L10" s="73">
+        <v>7586.8666500000018</v>
+      </c>
+      <c r="P11" s="73">
         <f t="shared" si="0"/>
-        <v>1105.3599999999999</v>
-      </c>
-      <c r="M10" s="73">
-        <f t="shared" si="0"/>
-        <v>92.113349999999997</v>
-      </c>
-      <c r="N10" s="73">
-        <f t="shared" si="0"/>
-        <v>1197.47335</v>
-      </c>
-      <c r="O10" s="73">
-        <f t="shared" si="0"/>
-        <v>4943.4166500000001</v>
-      </c>
-      <c r="P10" s="73">
-        <f t="shared" si="0"/>
-        <v>1943.4166500000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M11" s="22"/>
-      <c r="Q11" s="46">
-        <f>P10+J10</f>
-        <v>4943.4166500000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="98" t="s">
+        <v>3086.8666500000013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M12" s="22"/>
+      <c r="Q12" s="46">
+        <f>P11+J11</f>
+        <v>6086.8666500000018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
-      <c r="L13" s="24">
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="24">
         <v>0.22</v>
       </c>
-      <c r="M13" s="53">
-        <f>K9*22%</f>
-        <v>1350.9958000000001</v>
-      </c>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-    </row>
-    <row r="14" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="M14" s="49"/>
+      <c r="M14" s="53">
+        <f>K9*22%+1320</f>
+        <v>2670.9958000000006</v>
+      </c>
+      <c r="N14" s="51"/>
       <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-    </row>
-    <row r="15" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N15" s="52"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M15" s="49"/>
       <c r="O15" s="51"/>
       <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="98" t="s">
+      <c r="N16" s="52"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+    </row>
+    <row r="17" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
-      <c r="M16" s="72">
-        <f>N10+M13</f>
-        <v>2548.4691499999999</v>
-      </c>
-      <c r="N16" s="84" t="e">
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="107"/>
+      <c r="M17" s="72">
+        <f>N11+M14</f>
+        <v>4255.0191500000001</v>
+      </c>
+      <c r="N17" s="84" t="e">
         <f>'07-21'!M9-'07-21'!#REF!+'07-21'!N9-'07-21'!#REF!+'07-21'!M13-1320</f>
         <v>#REF!</v>
       </c>
-      <c r="O16" s="85" t="e">
-        <f>M16+N16</f>
+      <c r="O17" s="85" t="e">
+        <f>M17+N17</f>
         <v>#REF!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -9004,11 +9712,6 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>

--- a/Фопи/Зарплата ФОП 2021/Підхомна О 2021.xlsx
+++ b/Фопи/Зарплата ФОП 2021/Підхомна О 2021.xlsx
@@ -14,9 +14,9 @@
   <sheets>
     <sheet name="12" sheetId="149" r:id="rId1"/>
     <sheet name="11" sheetId="148" r:id="rId2"/>
-    <sheet name="10" sheetId="147" r:id="rId3"/>
-    <sheet name="09" sheetId="146" r:id="rId4"/>
-    <sheet name="08" sheetId="145" r:id="rId5"/>
+    <sheet name="08" sheetId="145" r:id="rId3"/>
+    <sheet name="10" sheetId="147" r:id="rId4"/>
+    <sheet name="09" sheetId="146" r:id="rId5"/>
     <sheet name="07" sheetId="144" r:id="rId6"/>
     <sheet name="12-21 " sheetId="157" r:id="rId7"/>
     <sheet name="11-21 " sheetId="156" r:id="rId8"/>
@@ -25,8 +25,8 @@
     <sheet name="08-21 " sheetId="153" r:id="rId11"/>
     <sheet name="07-21" sheetId="152" r:id="rId12"/>
     <sheet name="06" sheetId="151" r:id="rId13"/>
-    <sheet name="05" sheetId="142" r:id="rId14"/>
-    <sheet name="04" sheetId="141" r:id="rId15"/>
+    <sheet name="04" sheetId="141" r:id="rId14"/>
+    <sheet name="05" sheetId="142" r:id="rId15"/>
     <sheet name="03" sheetId="140" r:id="rId16"/>
     <sheet name="02" sheetId="139" r:id="rId17"/>
     <sheet name="01" sheetId="138" r:id="rId18"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="103">
   <si>
     <t>№</t>
   </si>
@@ -350,6 +350,12 @@
   </si>
   <si>
     <t>20 ГРУДНЯ 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Романович Юлія Андріївна 04.12.21</t>
+  </si>
+  <si>
+    <t>Розрахунково-платіжна відомість за ГРУДЕНЬ 2021 року</t>
   </si>
 </sst>
 </file>
@@ -1284,27 +1290,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1312,6 +1315,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1822,26 +1828,26 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="103" t="str">
+      <c r="A3" s="106" t="str">
         <f>'[1]12'!$A$3:$Q$3</f>
         <v xml:space="preserve">Розрахунково – платіжна відомість за Грудень 2020 р. </v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
     </row>
     <row r="4" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
@@ -1866,13 +1872,13 @@
       <c r="D7" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="105" t="s">
+      <c r="E7" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="105" t="s">
+      <c r="F7" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="105" t="s">
+      <c r="G7" s="107" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="104" t="s">
@@ -1887,13 +1893,13 @@
       <c r="K7" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="108" t="s">
+      <c r="L7" s="105" t="s">
         <v>66</v>
       </c>
       <c r="M7" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="105" t="s">
+      <c r="N7" s="107" t="s">
         <v>42</v>
       </c>
       <c r="O7" s="104" t="s">
@@ -1911,16 +1917,16 @@
       <c r="B8" s="104"/>
       <c r="C8" s="104"/>
       <c r="D8" s="104"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
       <c r="H8" s="104"/>
       <c r="I8" s="104"/>
       <c r="J8" s="104"/>
       <c r="K8" s="104"/>
-      <c r="L8" s="108"/>
+      <c r="L8" s="105"/>
       <c r="M8" s="104"/>
-      <c r="N8" s="106"/>
+      <c r="N8" s="108"/>
       <c r="O8" s="104"/>
       <c r="P8" s="104"/>
       <c r="Q8" s="104"/>
@@ -2037,18 +2043,18 @@
     </row>
     <row r="12" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -2070,18 +2076,18 @@
       <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
       <c r="M16" s="72">
         <f>O10+M13</f>
         <v>2095.75</v>
@@ -2091,11 +2097,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -2111,6 +2112,11 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
@@ -2149,25 +2155,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="106" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
     </row>
     <row r="4" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
@@ -2192,13 +2198,13 @@
       <c r="D7" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="105" t="s">
+      <c r="E7" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="105" t="s">
+      <c r="F7" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="105" t="s">
+      <c r="G7" s="107" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="104" t="s">
@@ -2210,13 +2216,13 @@
       <c r="J7" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="108" t="s">
+      <c r="K7" s="105" t="s">
         <v>66</v>
       </c>
       <c r="L7" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="105" t="s">
+      <c r="M7" s="107" t="s">
         <v>42</v>
       </c>
       <c r="N7" s="104" t="s">
@@ -2234,15 +2240,15 @@
       <c r="B8" s="104"/>
       <c r="C8" s="104"/>
       <c r="D8" s="104"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
       <c r="H8" s="104"/>
       <c r="I8" s="104"/>
       <c r="J8" s="104"/>
-      <c r="K8" s="108"/>
+      <c r="K8" s="105"/>
       <c r="L8" s="104"/>
-      <c r="M8" s="106"/>
+      <c r="M8" s="108"/>
       <c r="N8" s="104"/>
       <c r="O8" s="104"/>
       <c r="P8" s="104"/>
@@ -2368,18 +2374,18 @@
     </row>
     <row r="12" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -2401,18 +2407,18 @@
       <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
       <c r="M16" s="72">
         <f>N10+M13</f>
         <v>2548.4691499999999</v>
@@ -2428,6 +2434,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -2442,11 +2453,6 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -2485,25 +2491,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="106" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
     </row>
     <row r="4" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
@@ -2528,13 +2534,13 @@
       <c r="D7" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="105" t="s">
+      <c r="E7" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="105" t="s">
+      <c r="F7" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="105" t="s">
+      <c r="G7" s="107" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="104" t="s">
@@ -2546,13 +2552,13 @@
       <c r="J7" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="108" t="s">
+      <c r="K7" s="105" t="s">
         <v>66</v>
       </c>
       <c r="L7" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="105" t="s">
+      <c r="M7" s="107" t="s">
         <v>42</v>
       </c>
       <c r="N7" s="104" t="s">
@@ -2570,15 +2576,15 @@
       <c r="B8" s="104"/>
       <c r="C8" s="104"/>
       <c r="D8" s="104"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
       <c r="H8" s="104"/>
       <c r="I8" s="104"/>
       <c r="J8" s="104"/>
-      <c r="K8" s="108"/>
+      <c r="K8" s="105"/>
       <c r="L8" s="104"/>
-      <c r="M8" s="106"/>
+      <c r="M8" s="108"/>
       <c r="N8" s="104"/>
       <c r="O8" s="104"/>
       <c r="P8" s="104"/>
@@ -2704,18 +2710,18 @@
     </row>
     <row r="12" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -2737,18 +2743,18 @@
       <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
       <c r="M16" s="72">
         <f>N10+M13</f>
         <v>2548.4691499999999</v>
@@ -2764,11 +2770,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -2783,6 +2784,11 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -2821,25 +2827,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
     </row>
     <row r="4" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
@@ -2864,13 +2870,13 @@
       <c r="D7" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="105" t="s">
+      <c r="E7" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="105" t="s">
+      <c r="F7" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="105" t="s">
+      <c r="G7" s="107" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="104" t="s">
@@ -2885,13 +2891,13 @@
       <c r="K7" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="108" t="s">
+      <c r="L7" s="105" t="s">
         <v>66</v>
       </c>
       <c r="M7" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="105" t="s">
+      <c r="N7" s="107" t="s">
         <v>42</v>
       </c>
       <c r="O7" s="104" t="s">
@@ -2909,16 +2915,16 @@
       <c r="B8" s="104"/>
       <c r="C8" s="104"/>
       <c r="D8" s="104"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
       <c r="H8" s="104"/>
       <c r="I8" s="104"/>
       <c r="J8" s="104"/>
       <c r="K8" s="104"/>
-      <c r="L8" s="108"/>
+      <c r="L8" s="105"/>
       <c r="M8" s="104"/>
-      <c r="N8" s="106"/>
+      <c r="N8" s="108"/>
       <c r="O8" s="104"/>
       <c r="P8" s="104"/>
       <c r="Q8" s="104"/>
@@ -3052,18 +3058,18 @@
     </row>
     <row r="12" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -3089,18 +3095,18 @@
       <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
       <c r="M16" s="72">
         <f>O10+M13</f>
         <v>2522.2070681818182</v>
@@ -3109,11 +3115,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -3129,6 +3130,11 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -3167,25 +3173,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
     </row>
     <row r="4" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
@@ -3210,13 +3216,13 @@
       <c r="D7" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="105" t="s">
+      <c r="E7" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="105" t="s">
+      <c r="F7" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="105" t="s">
+      <c r="G7" s="107" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="104" t="s">
@@ -3231,13 +3237,13 @@
       <c r="K7" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="108" t="s">
+      <c r="L7" s="105" t="s">
         <v>66</v>
       </c>
       <c r="M7" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="105" t="s">
+      <c r="N7" s="107" t="s">
         <v>42</v>
       </c>
       <c r="O7" s="104" t="s">
@@ -3255,16 +3261,16 @@
       <c r="B8" s="104"/>
       <c r="C8" s="104"/>
       <c r="D8" s="104"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
       <c r="H8" s="104"/>
       <c r="I8" s="104"/>
       <c r="J8" s="104"/>
       <c r="K8" s="104"/>
-      <c r="L8" s="108"/>
+      <c r="L8" s="105"/>
       <c r="M8" s="104"/>
-      <c r="N8" s="106"/>
+      <c r="N8" s="108"/>
       <c r="O8" s="104"/>
       <c r="P8" s="104"/>
       <c r="Q8" s="104"/>
@@ -3384,18 +3390,18 @@
     </row>
     <row r="12" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -3417,18 +3423,347 @@
       <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
+      <c r="M16" s="72">
+        <f>O10+M13</f>
+        <v>2514.9</v>
+      </c>
+      <c r="N16" s="52"/>
+      <c r="O16" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+  </mergeCells>
+  <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:R16"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" customWidth="1"/>
+    <col min="15" max="15" width="8.44140625" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" customWidth="1"/>
+    <col min="17" max="17" width="10.44140625" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="23"/>
+    </row>
+    <row r="3" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A3" s="106" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
+    </row>
+    <row r="4" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="107" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="107" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="104" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="104" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="107" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="104" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="104" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
+    </row>
+    <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3371314500</v>
+      </c>
+      <c r="D9" s="3">
+        <v>6060</v>
+      </c>
+      <c r="E9" s="3">
+        <v>176</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <f>D9/E6*E9</f>
+        <v>6060</v>
+      </c>
+      <c r="H9" s="64"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L9" s="25">
+        <f>G9</f>
+        <v>6060</v>
+      </c>
+      <c r="M9" s="3">
+        <f>ROUND((L9)*18/100,2)</f>
+        <v>1090.8</v>
+      </c>
+      <c r="N9" s="3">
+        <f>L9*0.015</f>
+        <v>90.899999999999991</v>
+      </c>
+      <c r="O9" s="3">
+        <f>M9+N9</f>
+        <v>1181.7</v>
+      </c>
+      <c r="P9" s="3">
+        <f>L9-O9</f>
+        <v>4878.3</v>
+      </c>
+      <c r="Q9" s="3">
+        <f>P9-K9</f>
+        <v>1878.3000000000002</v>
+      </c>
+      <c r="R9" s="65"/>
+    </row>
+    <row r="10" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48">
+        <f>SUM(D9:D9)</f>
+        <v>6060</v>
+      </c>
+      <c r="E10" s="48">
+        <f>SUM(E9)</f>
+        <v>176</v>
+      </c>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48">
+        <f>G9</f>
+        <v>6060</v>
+      </c>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48">
+        <f t="shared" ref="K10:Q10" si="0">SUM(K9:K9)</f>
+        <v>3000</v>
+      </c>
+      <c r="L10" s="74">
+        <f>SUM(L9:L9)</f>
+        <v>6060</v>
+      </c>
+      <c r="M10" s="73">
+        <f t="shared" si="0"/>
+        <v>1090.8</v>
+      </c>
+      <c r="N10" s="73">
+        <f t="shared" si="0"/>
+        <v>90.899999999999991</v>
+      </c>
+      <c r="O10" s="73">
+        <f t="shared" si="0"/>
+        <v>1181.7</v>
+      </c>
+      <c r="P10" s="73">
+        <f t="shared" si="0"/>
+        <v>4878.3</v>
+      </c>
+      <c r="Q10" s="73">
+        <f t="shared" si="0"/>
+        <v>1878.3000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M11" s="22"/>
+      <c r="Q11" s="46">
+        <f>Q10+K10</f>
+        <v>4878.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="103" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="24">
+        <v>0.22</v>
+      </c>
+      <c r="M13" s="53">
+        <f>L9*0.22</f>
+        <v>1333.2</v>
+      </c>
+      <c r="N13" s="49"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+    </row>
+    <row r="15" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+    </row>
+    <row r="16" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="103" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
       <c r="M16" s="72">
         <f>O10+M13</f>
         <v>2514.9</v>
@@ -3465,7 +3800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R16"/>
   <sheetViews>
@@ -3496,25 +3831,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="106" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
     </row>
     <row r="4" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
@@ -3539,13 +3874,13 @@
       <c r="D7" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="105" t="s">
+      <c r="E7" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="105" t="s">
+      <c r="F7" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="105" t="s">
+      <c r="G7" s="107" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="104" t="s">
@@ -3560,13 +3895,13 @@
       <c r="K7" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="108" t="s">
+      <c r="L7" s="105" t="s">
         <v>66</v>
       </c>
       <c r="M7" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="105" t="s">
+      <c r="N7" s="107" t="s">
         <v>42</v>
       </c>
       <c r="O7" s="104" t="s">
@@ -3584,16 +3919,16 @@
       <c r="B8" s="104"/>
       <c r="C8" s="104"/>
       <c r="D8" s="104"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
       <c r="H8" s="104"/>
       <c r="I8" s="104"/>
       <c r="J8" s="104"/>
       <c r="K8" s="104"/>
-      <c r="L8" s="108"/>
+      <c r="L8" s="105"/>
       <c r="M8" s="104"/>
-      <c r="N8" s="106"/>
+      <c r="N8" s="108"/>
       <c r="O8" s="104"/>
       <c r="P8" s="104"/>
       <c r="Q8" s="104"/>
@@ -3713,18 +4048,18 @@
     </row>
     <row r="12" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -3746,18 +4081,18 @@
       <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
       <c r="M16" s="72">
         <f>O10+M13</f>
         <v>2514.9</v>
@@ -3767,6 +4102,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -3782,340 +4122,6 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-  </mergeCells>
-  <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R16"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" customWidth="1"/>
-    <col min="10" max="10" width="9.88671875" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" customWidth="1"/>
-    <col min="15" max="15" width="8.44140625" customWidth="1"/>
-    <col min="16" max="16" width="10.5546875" customWidth="1"/>
-    <col min="17" max="17" width="10.44140625" customWidth="1"/>
-    <col min="18" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="23"/>
-    </row>
-    <row r="3" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="103" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-    </row>
-    <row r="4" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="104" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="105" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="105" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="105" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="104" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="104" t="s">
-        <v>64</v>
-      </c>
-      <c r="J7" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="104" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="108" t="s">
-        <v>66</v>
-      </c>
-      <c r="M7" s="104" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" s="105" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" s="104" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" s="104" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q7" s="104" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
-    </row>
-    <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3371314500</v>
-      </c>
-      <c r="D9" s="3">
-        <v>6060</v>
-      </c>
-      <c r="E9" s="3">
-        <v>176</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <f>D9/E6*E9</f>
-        <v>6060</v>
-      </c>
-      <c r="H9" s="64"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3">
-        <v>3000</v>
-      </c>
-      <c r="L9" s="25">
-        <f>G9</f>
-        <v>6060</v>
-      </c>
-      <c r="M9" s="3">
-        <f>ROUND((L9)*18/100,2)</f>
-        <v>1090.8</v>
-      </c>
-      <c r="N9" s="3">
-        <f>L9*0.015</f>
-        <v>90.899999999999991</v>
-      </c>
-      <c r="O9" s="3">
-        <f>M9+N9</f>
-        <v>1181.7</v>
-      </c>
-      <c r="P9" s="3">
-        <f>L9-O9</f>
-        <v>4878.3</v>
-      </c>
-      <c r="Q9" s="3">
-        <f>P9-K9</f>
-        <v>1878.3000000000002</v>
-      </c>
-      <c r="R9" s="65"/>
-    </row>
-    <row r="10" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48">
-        <f>SUM(D9:D9)</f>
-        <v>6060</v>
-      </c>
-      <c r="E10" s="48">
-        <f>SUM(E9)</f>
-        <v>176</v>
-      </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48">
-        <f>G9</f>
-        <v>6060</v>
-      </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48">
-        <f t="shared" ref="K10:Q10" si="0">SUM(K9:K9)</f>
-        <v>3000</v>
-      </c>
-      <c r="L10" s="74">
-        <f>SUM(L9:L9)</f>
-        <v>6060</v>
-      </c>
-      <c r="M10" s="73">
-        <f t="shared" si="0"/>
-        <v>1090.8</v>
-      </c>
-      <c r="N10" s="73">
-        <f t="shared" si="0"/>
-        <v>90.899999999999991</v>
-      </c>
-      <c r="O10" s="73">
-        <f t="shared" si="0"/>
-        <v>1181.7</v>
-      </c>
-      <c r="P10" s="73">
-        <f t="shared" si="0"/>
-        <v>4878.3</v>
-      </c>
-      <c r="Q10" s="73">
-        <f t="shared" si="0"/>
-        <v>1878.3000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M11" s="22"/>
-      <c r="Q11" s="46">
-        <f>Q10+K10</f>
-        <v>4878.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="107" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
-      <c r="L13" s="24">
-        <v>0.22</v>
-      </c>
-      <c r="M13" s="53">
-        <f>L9*0.22</f>
-        <v>1333.2</v>
-      </c>
-      <c r="N13" s="49"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-    </row>
-    <row r="15" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-    </row>
-    <row r="16" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="107" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
-      <c r="M16" s="72">
-        <f>O10+M13</f>
-        <v>2514.9</v>
-      </c>
-      <c r="N16" s="52"/>
-      <c r="O16" s="51"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -4154,25 +4160,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
     </row>
     <row r="4" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
@@ -4197,13 +4203,13 @@
       <c r="D7" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="105" t="s">
+      <c r="E7" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="105" t="s">
+      <c r="F7" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="105" t="s">
+      <c r="G7" s="107" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="104" t="s">
@@ -4218,13 +4224,13 @@
       <c r="K7" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="108" t="s">
+      <c r="L7" s="105" t="s">
         <v>66</v>
       </c>
       <c r="M7" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="105" t="s">
+      <c r="N7" s="107" t="s">
         <v>42</v>
       </c>
       <c r="O7" s="104" t="s">
@@ -4242,16 +4248,16 @@
       <c r="B8" s="104"/>
       <c r="C8" s="104"/>
       <c r="D8" s="104"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
       <c r="H8" s="104"/>
       <c r="I8" s="104"/>
       <c r="J8" s="104"/>
       <c r="K8" s="104"/>
-      <c r="L8" s="108"/>
+      <c r="L8" s="105"/>
       <c r="M8" s="104"/>
-      <c r="N8" s="106"/>
+      <c r="N8" s="108"/>
       <c r="O8" s="104"/>
       <c r="P8" s="104"/>
       <c r="Q8" s="104"/>
@@ -4371,18 +4377,18 @@
     </row>
     <row r="12" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -4404,18 +4410,18 @@
       <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
       <c r="M16" s="72">
         <f>O10+M13</f>
         <v>2514.9</v>
@@ -4425,6 +4431,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -4439,12 +4451,6 @@
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="P7:P8"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="G7:G8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -4486,25 +4492,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="106" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
     </row>
     <row r="4" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
@@ -4517,76 +4523,76 @@
       </c>
     </row>
     <row r="7" spans="1:18" s="82" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="110" t="s">
+      <c r="D7" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="111" t="s">
+      <c r="E7" s="110" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="110" t="s">
+      <c r="F7" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="111" t="s">
+      <c r="G7" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="110" t="s">
+      <c r="H7" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="110" t="s">
+      <c r="J7" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="110" t="s">
+      <c r="K7" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="109" t="s">
+      <c r="L7" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="110" t="s">
+      <c r="M7" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="111" t="s">
+      <c r="N7" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="110" t="s">
+      <c r="O7" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="110" t="s">
+      <c r="P7" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="110" t="s">
+      <c r="Q7" s="109" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="82" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="110"/>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="110"/>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="110"/>
+      <c r="A8" s="109"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="112"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="109"/>
     </row>
     <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -4701,18 +4707,18 @@
     </row>
     <row r="12" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -4734,18 +4740,18 @@
       <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
       <c r="M16" s="72">
         <f>O10+M13</f>
         <v>2514.9</v>
@@ -4755,6 +4761,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="Q7:Q8"/>
     <mergeCell ref="A3:Q3"/>
@@ -4766,15 +4781,6 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -4816,25 +4822,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
     </row>
     <row r="4" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
@@ -4859,13 +4865,13 @@
       <c r="D7" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="105" t="s">
+      <c r="E7" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="105" t="s">
+      <c r="F7" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="105" t="s">
+      <c r="G7" s="107" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="104" t="s">
@@ -4880,13 +4886,13 @@
       <c r="K7" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="108" t="s">
+      <c r="L7" s="105" t="s">
         <v>33</v>
       </c>
       <c r="M7" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="105" t="s">
+      <c r="N7" s="107" t="s">
         <v>42</v>
       </c>
       <c r="O7" s="104" t="s">
@@ -4904,16 +4910,16 @@
       <c r="B8" s="104"/>
       <c r="C8" s="104"/>
       <c r="D8" s="104"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
       <c r="H8" s="104"/>
       <c r="I8" s="104"/>
       <c r="J8" s="104"/>
       <c r="K8" s="104"/>
-      <c r="L8" s="108"/>
+      <c r="L8" s="105"/>
       <c r="M8" s="104"/>
-      <c r="N8" s="106"/>
+      <c r="N8" s="108"/>
       <c r="O8" s="104"/>
       <c r="P8" s="104"/>
       <c r="Q8" s="104"/>
@@ -5033,18 +5039,18 @@
     </row>
     <row r="12" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -5066,18 +5072,18 @@
       <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
       <c r="M16" s="72">
         <f>O10+M13</f>
         <v>2514.9</v>
@@ -5087,11 +5093,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B16:K16"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -5107,6 +5108,11 @@
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="P7:P8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B16:K16"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
@@ -5119,7 +5125,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:K17"/>
+      <selection activeCell="A17" sqref="A17:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5419,25 +5425,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
     </row>
     <row r="4" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
@@ -5462,13 +5468,13 @@
       <c r="D7" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="105" t="s">
+      <c r="E7" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="105" t="s">
+      <c r="F7" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="105" t="s">
+      <c r="G7" s="107" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="104" t="s">
@@ -5483,13 +5489,13 @@
       <c r="K7" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="108" t="s">
+      <c r="L7" s="105" t="s">
         <v>66</v>
       </c>
       <c r="M7" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="105" t="s">
+      <c r="N7" s="107" t="s">
         <v>42</v>
       </c>
       <c r="O7" s="104" t="s">
@@ -5507,16 +5513,16 @@
       <c r="B8" s="104"/>
       <c r="C8" s="104"/>
       <c r="D8" s="104"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
       <c r="H8" s="104"/>
       <c r="I8" s="104"/>
       <c r="J8" s="104"/>
       <c r="K8" s="104"/>
-      <c r="L8" s="108"/>
+      <c r="L8" s="105"/>
       <c r="M8" s="104"/>
-      <c r="N8" s="106"/>
+      <c r="N8" s="108"/>
       <c r="O8" s="104"/>
       <c r="P8" s="104"/>
       <c r="Q8" s="104"/>
@@ -5633,18 +5639,18 @@
     </row>
     <row r="12" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -5666,18 +5672,18 @@
       <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
       <c r="M16" s="72">
         <f>O10+M13</f>
         <v>2095.75</v>
@@ -5687,11 +5693,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -5707,6 +5708,11 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
@@ -5968,11 +5974,6 @@
     <row r="39" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:I16"/>
     <mergeCell ref="A17:I17"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G3:I3"/>
@@ -5981,6 +5982,11 @@
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:I16"/>
   </mergeCells>
   <pageMargins left="0.42" right="0.23" top="0.44" bottom="0.98425196850393704" header="0.3" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -6177,7 +6183,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:K17"/>
+      <selection activeCell="A17" sqref="A17:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6430,6 +6436,12 @@
     <row r="39" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="G12:H12"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G3:I3"/>
@@ -6437,12 +6449,6 @@
     <mergeCell ref="G5:H6"/>
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.43307086614173229" bottom="0.98425196850393704" header="0.31496062992125984" footer="0.51181102362204722"/>
@@ -6641,7 +6647,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6856,13 +6862,13 @@
         <v>58</v>
       </c>
       <c r="B17" s="59">
-        <v>2640</v>
+        <v>4290</v>
       </c>
       <c r="C17" s="59">
-        <v>1266.1000000000001</v>
+        <v>1660.57</v>
       </c>
       <c r="D17" s="77">
-        <v>122.53374310344827</v>
+        <v>172.43127931034482</v>
       </c>
       <c r="E17" s="78"/>
     </row>
@@ -6872,15 +6878,15 @@
       </c>
       <c r="B18" s="61">
         <f>SUM(B6:B17)</f>
-        <v>20020.2588</v>
+        <v>21670.2588</v>
       </c>
       <c r="C18" s="61">
         <f>SUM(C6:C17)</f>
-        <v>14008.51</v>
+        <v>14402.98</v>
       </c>
       <c r="D18" s="61">
         <f>SUM(D6:D17)</f>
-        <v>1218.4512112852663</v>
+        <v>1268.3487474921628</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6903,15 +6909,15 @@
       </c>
       <c r="B20" s="70">
         <f>B18-B19</f>
-        <v>2639.9887999999992</v>
+        <v>4289.9887999999992</v>
       </c>
       <c r="C20" s="70">
         <f>C18-C19</f>
-        <v>1266.1000000000004</v>
+        <v>1660.5699999999997</v>
       </c>
       <c r="D20" s="70">
         <f>D18-D19</f>
-        <v>122.53121128526618</v>
+        <v>172.42874749216276</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.4" x14ac:dyDescent="0.35">
@@ -7234,6 +7240,332 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:R16"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" customWidth="1"/>
+    <col min="15" max="15" width="8.44140625" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" customWidth="1"/>
+    <col min="17" max="17" width="10.44140625" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="23"/>
+    </row>
+    <row r="3" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A3" s="106" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
+    </row>
+    <row r="4" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="107" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="107" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="104" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="104" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="107" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="104" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="104" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
+    </row>
+    <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3371314500</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4770</v>
+      </c>
+      <c r="E9" s="3">
+        <v>160</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <f>D9/E6*E9</f>
+        <v>4770</v>
+      </c>
+      <c r="H9" s="64"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L9" s="25">
+        <f>G9</f>
+        <v>4770</v>
+      </c>
+      <c r="M9" s="3">
+        <f>ROUND((L9)*18/100,2)</f>
+        <v>858.6</v>
+      </c>
+      <c r="N9" s="3">
+        <f>L9*0.015</f>
+        <v>71.55</v>
+      </c>
+      <c r="O9" s="3">
+        <f>N9+M9</f>
+        <v>930.15</v>
+      </c>
+      <c r="P9" s="3">
+        <f>L9-O9</f>
+        <v>3839.85</v>
+      </c>
+      <c r="Q9" s="3">
+        <f>P9-K9</f>
+        <v>1839.85</v>
+      </c>
+      <c r="R9" s="65"/>
+    </row>
+    <row r="10" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48">
+        <f>SUM(D9:D9)</f>
+        <v>4770</v>
+      </c>
+      <c r="E10" s="48">
+        <f>SUM(E9)</f>
+        <v>160</v>
+      </c>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48">
+        <f t="shared" ref="K10:Q10" si="0">SUM(K9:K9)</f>
+        <v>2000</v>
+      </c>
+      <c r="L10" s="74">
+        <f>SUM(L9:L9)</f>
+        <v>4770</v>
+      </c>
+      <c r="M10" s="73">
+        <f t="shared" si="0"/>
+        <v>858.6</v>
+      </c>
+      <c r="N10" s="73">
+        <f t="shared" si="0"/>
+        <v>71.55</v>
+      </c>
+      <c r="O10" s="73">
+        <f t="shared" si="0"/>
+        <v>930.15</v>
+      </c>
+      <c r="P10" s="73">
+        <f t="shared" si="0"/>
+        <v>3839.85</v>
+      </c>
+      <c r="Q10" s="73">
+        <f t="shared" si="0"/>
+        <v>1839.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M11" s="22"/>
+      <c r="Q11" s="46">
+        <f>Q10+K10</f>
+        <v>3839.85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="103" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="24">
+        <v>0.22</v>
+      </c>
+      <c r="M13" s="53">
+        <f>L9*0.22</f>
+        <v>1049.4000000000001</v>
+      </c>
+      <c r="N13" s="49"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+    </row>
+    <row r="15" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+    </row>
+    <row r="16" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="103" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
+      <c r="M16" s="72">
+        <f>O10+M13</f>
+        <v>1979.5500000000002</v>
+      </c>
+      <c r="N16" s="52"/>
+      <c r="O16" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+  </mergeCells>
+  <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R16"/>
   <sheetViews>
@@ -7264,25 +7596,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
     </row>
     <row r="4" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
@@ -7307,13 +7639,13 @@
       <c r="D7" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="105" t="s">
+      <c r="E7" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="105" t="s">
+      <c r="F7" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="105" t="s">
+      <c r="G7" s="107" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="104" t="s">
@@ -7328,13 +7660,13 @@
       <c r="K7" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="108" t="s">
+      <c r="L7" s="105" t="s">
         <v>66</v>
       </c>
       <c r="M7" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="105" t="s">
+      <c r="N7" s="107" t="s">
         <v>42</v>
       </c>
       <c r="O7" s="104" t="s">
@@ -7352,16 +7684,16 @@
       <c r="B8" s="104"/>
       <c r="C8" s="104"/>
       <c r="D8" s="104"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
       <c r="H8" s="104"/>
       <c r="I8" s="104"/>
       <c r="J8" s="104"/>
       <c r="K8" s="104"/>
-      <c r="L8" s="108"/>
+      <c r="L8" s="105"/>
       <c r="M8" s="104"/>
-      <c r="N8" s="106"/>
+      <c r="N8" s="108"/>
       <c r="O8" s="104"/>
       <c r="P8" s="104"/>
       <c r="Q8" s="104"/>
@@ -7478,18 +7810,18 @@
     </row>
     <row r="12" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -7511,18 +7843,18 @@
       <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
       <c r="M16" s="72">
         <f>O10+M13</f>
         <v>2095.75</v>
@@ -7532,11 +7864,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -7552,6 +7879,11 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
@@ -7559,7 +7891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R16"/>
   <sheetViews>
@@ -7590,25 +7922,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
     </row>
     <row r="4" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
@@ -7633,13 +7965,13 @@
       <c r="D7" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="105" t="s">
+      <c r="E7" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="105" t="s">
+      <c r="F7" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="105" t="s">
+      <c r="G7" s="107" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="104" t="s">
@@ -7654,13 +7986,13 @@
       <c r="K7" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="108" t="s">
+      <c r="L7" s="105" t="s">
         <v>66</v>
       </c>
       <c r="M7" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="105" t="s">
+      <c r="N7" s="107" t="s">
         <v>42</v>
       </c>
       <c r="O7" s="104" t="s">
@@ -7678,16 +8010,16 @@
       <c r="B8" s="104"/>
       <c r="C8" s="104"/>
       <c r="D8" s="104"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
       <c r="H8" s="104"/>
       <c r="I8" s="104"/>
       <c r="J8" s="104"/>
       <c r="K8" s="104"/>
-      <c r="L8" s="108"/>
+      <c r="L8" s="105"/>
       <c r="M8" s="104"/>
-      <c r="N8" s="106"/>
+      <c r="N8" s="108"/>
       <c r="O8" s="104"/>
       <c r="P8" s="104"/>
       <c r="Q8" s="104"/>
@@ -7804,18 +8136,18 @@
     </row>
     <row r="12" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -7837,18 +8169,18 @@
       <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
       <c r="M16" s="72">
         <f>O10+M13</f>
         <v>2095.75</v>
@@ -7858,11 +8190,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -7878,332 +8205,11 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
-  </mergeCells>
-  <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R16"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" customWidth="1"/>
-    <col min="15" max="15" width="8.44140625" customWidth="1"/>
-    <col min="16" max="16" width="10.5546875" customWidth="1"/>
-    <col min="17" max="17" width="10.44140625" customWidth="1"/>
-    <col min="18" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="23"/>
-    </row>
-    <row r="3" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="103" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-    </row>
-    <row r="4" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="104" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="105" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="105" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="105" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="104" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="104" t="s">
-        <v>64</v>
-      </c>
-      <c r="J7" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="104" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="108" t="s">
-        <v>66</v>
-      </c>
-      <c r="M7" s="104" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" s="105" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" s="104" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" s="104" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q7" s="104" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
-    </row>
-    <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3371314500</v>
-      </c>
-      <c r="D9" s="3">
-        <v>4770</v>
-      </c>
-      <c r="E9" s="3">
-        <v>160</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <f>D9/E6*E9</f>
-        <v>4770</v>
-      </c>
-      <c r="H9" s="64"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3">
-        <v>2000</v>
-      </c>
-      <c r="L9" s="25">
-        <f>G9</f>
-        <v>4770</v>
-      </c>
-      <c r="M9" s="3">
-        <f>ROUND((L9)*18/100,2)</f>
-        <v>858.6</v>
-      </c>
-      <c r="N9" s="3">
-        <f>L9*0.015</f>
-        <v>71.55</v>
-      </c>
-      <c r="O9" s="3">
-        <f>N9+M9</f>
-        <v>930.15</v>
-      </c>
-      <c r="P9" s="3">
-        <f>L9-O9</f>
-        <v>3839.85</v>
-      </c>
-      <c r="Q9" s="3">
-        <f>P9-K9</f>
-        <v>1839.85</v>
-      </c>
-      <c r="R9" s="65"/>
-    </row>
-    <row r="10" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48">
-        <f>SUM(D9:D9)</f>
-        <v>4770</v>
-      </c>
-      <c r="E10" s="48">
-        <f>SUM(E9)</f>
-        <v>160</v>
-      </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48">
-        <f t="shared" ref="K10:Q10" si="0">SUM(K9:K9)</f>
-        <v>2000</v>
-      </c>
-      <c r="L10" s="74">
-        <f>SUM(L9:L9)</f>
-        <v>4770</v>
-      </c>
-      <c r="M10" s="73">
-        <f t="shared" si="0"/>
-        <v>858.6</v>
-      </c>
-      <c r="N10" s="73">
-        <f t="shared" si="0"/>
-        <v>71.55</v>
-      </c>
-      <c r="O10" s="73">
-        <f t="shared" si="0"/>
-        <v>930.15</v>
-      </c>
-      <c r="P10" s="73">
-        <f t="shared" si="0"/>
-        <v>3839.85</v>
-      </c>
-      <c r="Q10" s="73">
-        <f t="shared" si="0"/>
-        <v>1839.85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M11" s="22"/>
-      <c r="Q11" s="46">
-        <f>Q10+K10</f>
-        <v>3839.85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="107" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
-      <c r="L13" s="24">
-        <v>0.22</v>
-      </c>
-      <c r="M13" s="53">
-        <f>L9*0.22</f>
-        <v>1049.4000000000001</v>
-      </c>
-      <c r="N13" s="49"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-    </row>
-    <row r="15" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-    </row>
-    <row r="16" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="107" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
-      <c r="M16" s="72">
-        <f>O10+M13</f>
-        <v>1979.5500000000002</v>
-      </c>
-      <c r="N16" s="52"/>
-      <c r="O16" s="51"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B16:K16"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="L7:L8"/>
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
@@ -8242,25 +8248,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
     </row>
     <row r="4" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
@@ -8285,13 +8291,13 @@
       <c r="D7" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="105" t="s">
+      <c r="E7" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="105" t="s">
+      <c r="F7" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="105" t="s">
+      <c r="G7" s="107" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="104" t="s">
@@ -8306,13 +8312,13 @@
       <c r="K7" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="108" t="s">
+      <c r="L7" s="105" t="s">
         <v>66</v>
       </c>
       <c r="M7" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="105" t="s">
+      <c r="N7" s="107" t="s">
         <v>42</v>
       </c>
       <c r="O7" s="104" t="s">
@@ -8330,16 +8336,16 @@
       <c r="B8" s="104"/>
       <c r="C8" s="104"/>
       <c r="D8" s="104"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
       <c r="H8" s="104"/>
       <c r="I8" s="104"/>
       <c r="J8" s="104"/>
       <c r="K8" s="104"/>
-      <c r="L8" s="108"/>
+      <c r="L8" s="105"/>
       <c r="M8" s="104"/>
-      <c r="N8" s="106"/>
+      <c r="N8" s="108"/>
       <c r="O8" s="104"/>
       <c r="P8" s="104"/>
       <c r="Q8" s="104"/>
@@ -8456,18 +8462,18 @@
     </row>
     <row r="12" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -8489,18 +8495,18 @@
       <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
       <c r="M16" s="72">
         <f>O10+M13</f>
         <v>1979.5500000000002</v>
@@ -8510,6 +8516,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -8525,11 +8536,6 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
@@ -8539,10 +8545,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q17"/>
+  <dimension ref="A2:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8556,11 +8562,10 @@
     <col min="8" max="8" width="8.6640625" customWidth="1"/>
     <col min="9" max="9" width="9.5546875" customWidth="1"/>
     <col min="10" max="10" width="10.109375" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="11" max="12" width="9.88671875" customWidth="1"/>
     <col min="13" max="13" width="12.44140625" customWidth="1"/>
     <col min="14" max="14" width="9.5546875" customWidth="1"/>
-    <col min="15" max="15" width="8.44140625" customWidth="1"/>
+    <col min="15" max="15" width="9.77734375" customWidth="1"/>
     <col min="16" max="16" width="10.5546875" customWidth="1"/>
     <col min="17" max="17" width="10.44140625" customWidth="1"/>
     <col min="18" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
@@ -8570,25 +8575,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="103" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
+      <c r="A3" s="106" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
     </row>
     <row r="4" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
@@ -8613,13 +8618,13 @@
       <c r="D7" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="105" t="s">
+      <c r="E7" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="105" t="s">
+      <c r="F7" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="105" t="s">
+      <c r="G7" s="107" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="104" t="s">
@@ -8631,13 +8636,13 @@
       <c r="J7" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="108" t="s">
+      <c r="K7" s="105" t="s">
         <v>66</v>
       </c>
       <c r="L7" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="105" t="s">
+      <c r="M7" s="107" t="s">
         <v>42</v>
       </c>
       <c r="N7" s="104" t="s">
@@ -8655,15 +8660,15 @@
       <c r="B8" s="104"/>
       <c r="C8" s="104"/>
       <c r="D8" s="104"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
       <c r="H8" s="104"/>
       <c r="I8" s="104"/>
       <c r="J8" s="104"/>
-      <c r="K8" s="108"/>
+      <c r="K8" s="105"/>
       <c r="L8" s="104"/>
-      <c r="M8" s="106"/>
+      <c r="M8" s="108"/>
       <c r="N8" s="104"/>
       <c r="O8" s="104"/>
       <c r="P8" s="104"/>
@@ -8783,130 +8788,192 @@
         <v>1346.7125000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="47" t="s">
+    <row r="11" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48">
+      <c r="B11" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3440907686</v>
+      </c>
+      <c r="D11" s="3">
+        <v>6565</v>
+      </c>
+      <c r="E11" s="3">
+        <f>87-3*4</f>
+        <v>75</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="3">
+        <f>D11/E6*E11</f>
+        <v>2829.7413793103447</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K11" s="25">
+        <f>G11+H11+I11</f>
+        <v>2829.7413793103447</v>
+      </c>
+      <c r="L11" s="3">
+        <f>ROUND((K11-1135)*18/100,2)</f>
+        <v>305.05</v>
+      </c>
+      <c r="M11" s="3">
+        <f>K11*0.015</f>
+        <v>42.446120689655167</v>
+      </c>
+      <c r="N11" s="3">
+        <f>L11+M11</f>
+        <v>347.49612068965519</v>
+      </c>
+      <c r="O11" s="3">
+        <f>K11-N11</f>
+        <v>2482.2452586206896</v>
+      </c>
+      <c r="P11" s="3">
+        <f>O11-J11</f>
+        <v>982.24525862068958</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48">
         <f>SUM(D9:D10)</f>
         <v>13130</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E12" s="48">
         <f>SUM(E9)</f>
         <v>24</v>
       </c>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48">
+      <c r="F12" s="48"/>
+      <c r="G12" s="48">
         <f>SUM(G9)</f>
         <v>905.51724137931035</v>
       </c>
-      <c r="H11" s="48">
+      <c r="H12" s="48">
         <f>SUM(H9)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="48">
-        <v>0</v>
-      </c>
-      <c r="J11" s="48">
-        <f>SUM(J9:J9)</f>
-        <v>4333.4595827586199</v>
-      </c>
-      <c r="K11" s="74">
-        <f>SUM(K9:K9)</f>
-        <v>5383.1772413793105</v>
-      </c>
-      <c r="L11" s="73">
-        <f>SUM(L9:L10)</f>
-        <v>1355.52</v>
-      </c>
-      <c r="M11" s="73">
-        <f>SUM(M9:M10)</f>
-        <v>129.98515862068965</v>
-      </c>
-      <c r="N11" s="73">
-        <f>SUM(N9:N10)</f>
-        <v>1485.5051586206896</v>
-      </c>
-      <c r="O11" s="73">
-        <f>SUM(O9:O10)</f>
-        <v>7180.1720827586214</v>
-      </c>
-      <c r="P11" s="73">
-        <f>SUM(P9:P10)</f>
-        <v>1346.7125000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M12" s="22"/>
-      <c r="Q12" s="46">
-        <f>P11+J11</f>
-        <v>5680.1720827586196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="107" t="s">
+      <c r="I12" s="48">
+        <f>SUM(I9:I11)</f>
+        <v>4477.66</v>
+      </c>
+      <c r="J12" s="48">
+        <f>SUM(J9:J11)</f>
+        <v>7333.4595827586199</v>
+      </c>
+      <c r="K12" s="74">
+        <f>SUM(K9:K11)</f>
+        <v>11495.418620689656</v>
+      </c>
+      <c r="L12" s="73">
+        <f t="shared" ref="L12:M12" si="0">SUM(L9:L11)</f>
+        <v>1660.57</v>
+      </c>
+      <c r="M12" s="73">
+        <f t="shared" si="0"/>
+        <v>172.43127931034482</v>
+      </c>
+      <c r="N12" s="73">
+        <f>SUM(N9:N11)</f>
+        <v>1833.0012793103447</v>
+      </c>
+      <c r="O12" s="73">
+        <f t="shared" ref="O12:P12" si="1">SUM(O9:O11)</f>
+        <v>9662.4173413793105</v>
+      </c>
+      <c r="P12" s="73">
+        <f t="shared" si="1"/>
+        <v>2328.9577586206897</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M13" s="22"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+    </row>
+    <row r="14" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="24">
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="24">
         <v>0.22</v>
       </c>
-      <c r="M14" s="53">
-        <f>1430*2</f>
-        <v>2860</v>
-      </c>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-    </row>
-    <row r="15" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="M15" s="49"/>
+      <c r="M15" s="53">
+        <f>1430*3</f>
+        <v>4290</v>
+      </c>
+      <c r="N15" s="51"/>
       <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-    </row>
-    <row r="16" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N16" s="52"/>
+    </row>
+    <row r="16" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M16" s="49"/>
       <c r="O16" s="51"/>
       <c r="P16" s="51"/>
     </row>
-    <row r="17" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="107" t="s">
+    <row r="17" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N17" s="52"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+    </row>
+    <row r="18" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
-      <c r="M17" s="72">
-        <f>N11+M14</f>
-        <v>4345.5051586206901</v>
-      </c>
-      <c r="N17" s="84" t="e">
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="103"/>
+      <c r="M18" s="72">
+        <f>N12+M15</f>
+        <v>6123.0012793103451</v>
+      </c>
+      <c r="N18" s="84" t="e">
         <f>'07-21'!M9-'07-21'!#REF!+'07-21'!N9-'07-21'!#REF!+'07-21'!M13-1320</f>
         <v>#REF!</v>
       </c>
-      <c r="O17" s="85" t="e">
-        <f>M17+N17</f>
+      <c r="O18" s="85" t="e">
+        <f>M18+N18</f>
         <v>#REF!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -8921,11 +8988,6 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -8964,25 +9026,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="106" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
     </row>
     <row r="4" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
@@ -9007,13 +9069,13 @@
       <c r="D7" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="105" t="s">
+      <c r="E7" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="105" t="s">
+      <c r="F7" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="105" t="s">
+      <c r="G7" s="107" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="104" t="s">
@@ -9025,13 +9087,13 @@
       <c r="J7" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="108" t="s">
+      <c r="K7" s="105" t="s">
         <v>66</v>
       </c>
       <c r="L7" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="105" t="s">
+      <c r="M7" s="107" t="s">
         <v>42</v>
       </c>
       <c r="N7" s="104" t="s">
@@ -9049,15 +9111,15 @@
       <c r="B8" s="104"/>
       <c r="C8" s="104"/>
       <c r="D8" s="104"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
       <c r="H8" s="104"/>
       <c r="I8" s="104"/>
       <c r="J8" s="104"/>
-      <c r="K8" s="108"/>
+      <c r="K8" s="105"/>
       <c r="L8" s="104"/>
-      <c r="M8" s="106"/>
+      <c r="M8" s="108"/>
       <c r="N8" s="104"/>
       <c r="O8" s="104"/>
       <c r="P8" s="104"/>
@@ -9240,18 +9302,18 @@
     </row>
     <row r="13" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
       <c r="L14" s="24">
         <v>0.22</v>
       </c>
@@ -9273,18 +9335,18 @@
       <c r="P16" s="51"/>
     </row>
     <row r="17" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="107" t="s">
+      <c r="B17" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="103"/>
       <c r="M17" s="72">
         <f>N11+M14</f>
         <v>4255.0191500000001</v>
@@ -9300,11 +9362,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -9319,6 +9376,11 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -9357,25 +9419,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="106" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
     </row>
     <row r="4" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
@@ -9400,13 +9462,13 @@
       <c r="D7" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="105" t="s">
+      <c r="E7" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="105" t="s">
+      <c r="F7" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="105" t="s">
+      <c r="G7" s="107" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="104" t="s">
@@ -9418,13 +9480,13 @@
       <c r="J7" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="108" t="s">
+      <c r="K7" s="105" t="s">
         <v>66</v>
       </c>
       <c r="L7" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="105" t="s">
+      <c r="M7" s="107" t="s">
         <v>42</v>
       </c>
       <c r="N7" s="104" t="s">
@@ -9442,15 +9504,15 @@
       <c r="B8" s="104"/>
       <c r="C8" s="104"/>
       <c r="D8" s="104"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
       <c r="H8" s="104"/>
       <c r="I8" s="104"/>
       <c r="J8" s="104"/>
-      <c r="K8" s="108"/>
+      <c r="K8" s="105"/>
       <c r="L8" s="104"/>
-      <c r="M8" s="106"/>
+      <c r="M8" s="108"/>
       <c r="N8" s="104"/>
       <c r="O8" s="104"/>
       <c r="P8" s="104"/>
@@ -9633,18 +9695,18 @@
     </row>
     <row r="13" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
       <c r="L14" s="24">
         <v>0.22</v>
       </c>
@@ -9666,18 +9728,18 @@
       <c r="P16" s="51"/>
     </row>
     <row r="17" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="107" t="s">
+      <c r="B17" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="103"/>
       <c r="M17" s="72">
         <f>N11+M14</f>
         <v>4255.0191500000001</v>
@@ -9693,11 +9755,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -9712,6 +9769,11 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>

--- a/Фопи/Зарплата ФОП 2021/Підхомна О 2021.xlsx
+++ b/Фопи/Зарплата ФОП 2021/Підхомна О 2021.xlsx
@@ -9,39 +9,40 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="180" windowWidth="11340" windowHeight="5916" tabRatio="798" activeTab="18"/>
+    <workbookView xWindow="360" yWindow="180" windowWidth="11340" windowHeight="5916" tabRatio="798" firstSheet="1" activeTab="14"/>
   </bookViews>
   <sheets>
-    <sheet name="1-22" sheetId="160" r:id="rId1"/>
-    <sheet name="12-21 " sheetId="157" r:id="rId2"/>
-    <sheet name="11-21 " sheetId="156" r:id="rId3"/>
-    <sheet name="10-21" sheetId="155" r:id="rId4"/>
-    <sheet name="09-21 " sheetId="154" r:id="rId5"/>
-    <sheet name="08-21 " sheetId="153" r:id="rId6"/>
-    <sheet name="07-21" sheetId="152" r:id="rId7"/>
-    <sheet name="06" sheetId="151" r:id="rId8"/>
-    <sheet name="04" sheetId="141" r:id="rId9"/>
-    <sheet name="05" sheetId="142" r:id="rId10"/>
-    <sheet name="03" sheetId="140" r:id="rId11"/>
-    <sheet name="02" sheetId="139" r:id="rId12"/>
-    <sheet name="01" sheetId="138" r:id="rId13"/>
-    <sheet name="пд1 зп (2)" sheetId="158" r:id="rId14"/>
-    <sheet name="пд1 зп" sheetId="159" r:id="rId15"/>
-    <sheet name="пд2 зп" sheetId="46" r:id="rId16"/>
-    <sheet name="пд1 аванс" sheetId="2" r:id="rId17"/>
-    <sheet name="пд2 аванс" sheetId="4" r:id="rId18"/>
-    <sheet name="Звірка21" sheetId="150" r:id="rId19"/>
-    <sheet name="звірка" sheetId="110" r:id="rId20"/>
+    <sheet name="2-22 " sheetId="161" r:id="rId1"/>
+    <sheet name="1-22" sheetId="160" r:id="rId2"/>
+    <sheet name="12-21 " sheetId="157" r:id="rId3"/>
+    <sheet name="11-21 " sheetId="156" r:id="rId4"/>
+    <sheet name="10-21" sheetId="155" r:id="rId5"/>
+    <sheet name="09-21 " sheetId="154" r:id="rId6"/>
+    <sheet name="08-21 " sheetId="153" r:id="rId7"/>
+    <sheet name="07-21" sheetId="152" r:id="rId8"/>
+    <sheet name="06" sheetId="151" r:id="rId9"/>
+    <sheet name="04" sheetId="141" r:id="rId10"/>
+    <sheet name="05" sheetId="142" r:id="rId11"/>
+    <sheet name="03" sheetId="140" r:id="rId12"/>
+    <sheet name="02" sheetId="139" r:id="rId13"/>
+    <sheet name="01" sheetId="138" r:id="rId14"/>
+    <sheet name="Звірка22" sheetId="162" r:id="rId15"/>
+    <sheet name="пд1 зп" sheetId="159" r:id="rId16"/>
+    <sheet name="пд2 зп" sheetId="46" r:id="rId17"/>
+    <sheet name="пд1 аванс" sheetId="2" r:id="rId18"/>
+    <sheet name="пд2 аванс" sheetId="4" r:id="rId19"/>
+    <sheet name="Звірка21" sheetId="150" r:id="rId20"/>
+    <sheet name="звірка" sheetId="110" r:id="rId21"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId21"/>
+    <externalReference r:id="rId22"/>
   </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="100">
   <si>
     <t>№</t>
   </si>
@@ -313,24 +314,6 @@
     <t>індексація за грудень</t>
   </si>
   <si>
-    <t>ПЛАТІЖНА ВІДОМІСТЬ № 12</t>
-  </si>
-  <si>
-    <t>за ГРУДЕНЬ 2021</t>
-  </si>
-  <si>
-    <t>03 СІЧНЯ 2022</t>
-  </si>
-  <si>
-    <t>03 ГРУДНЯ 2021</t>
-  </si>
-  <si>
-    <t>ПЛАТІЖНА ВІДОМІСТЬ № 012/А</t>
-  </si>
-  <si>
-    <t>20 ГРУДНЯ 2021</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Романович Юлія Андріївна 04.12.21</t>
   </si>
   <si>
@@ -338,6 +321,27 @@
   </si>
   <si>
     <t>Розрахунково-платіжна відомість за СІЧЕНЬ 2022 року</t>
+  </si>
+  <si>
+    <t>Розрахунково-платіжна відомість за ЛЮТИЙ 2022 року</t>
+  </si>
+  <si>
+    <t>2022р</t>
+  </si>
+  <si>
+    <t>ПЛАТІЖНА ВІДОМІСТЬ № 2</t>
+  </si>
+  <si>
+    <t>за ЛЮТИЙ 2021</t>
+  </si>
+  <si>
+    <t>ПЛАТІЖНА ВІДОМІСТЬ № 02/А</t>
+  </si>
+  <si>
+    <t>21 ЛЮТОГО 2021</t>
+  </si>
+  <si>
+    <t>04 БЕРЕЗНЯ 2022</t>
   </si>
 </sst>
 </file>
@@ -347,7 +351,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
   </numFmts>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -603,37 +607,6 @@
       <sz val="10"/>
       <color theme="0"/>
       <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -994,7 +967,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1225,37 +1198,6 @@
     <xf numFmtId="2" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="40" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="2" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1272,6 +1214,12 @@
     <xf numFmtId="4" fontId="28" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="28" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1375,8 +1323,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="28" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1702,7 +1650,7 @@
   <dimension ref="A2:P17"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="B9" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1728,24 +1676,24 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="103" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
+      <c r="A3" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
     </row>
     <row r="4" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
@@ -1754,76 +1702,76 @@
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="104" t="s">
+      <c r="D7" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="105" t="s">
+      <c r="E7" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="105" t="s">
+      <c r="F7" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="105" t="s">
+      <c r="G7" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="104" t="s">
+      <c r="H7" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="104" t="s">
+      <c r="I7" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="104" t="s">
+      <c r="J7" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="108" t="s">
+      <c r="K7" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="L7" s="104" t="s">
+      <c r="L7" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="105" t="s">
+      <c r="M7" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="104" t="s">
+      <c r="N7" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="104" t="s">
+      <c r="O7" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="104" t="s">
+      <c r="P7" s="95" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
     </row>
     <row r="9" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -1839,8 +1787,7 @@
         <v>6565</v>
       </c>
       <c r="E9" s="3">
-        <f>151/2</f>
-        <v>75.5</v>
+        <v>80</v>
       </c>
       <c r="F9" s="3">
         <v>0.5</v>
@@ -1856,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="K9" s="25">
         <f>G9+H9+I9</f>
@@ -1880,7 +1827,7 @@
       </c>
       <c r="P9" s="3">
         <f>O9-J9</f>
-        <v>1046.7125000000001</v>
+        <v>1346.7125000000001</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1888,7 +1835,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C10" s="2">
         <v>3440907686</v>
@@ -1897,8 +1844,7 @@
         <v>6565</v>
       </c>
       <c r="E10" s="3">
-        <f>151/2</f>
-        <v>75.5</v>
+        <v>80</v>
       </c>
       <c r="F10" s="3">
         <v>0.5</v>
@@ -1914,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="K10" s="25">
         <f>G10+H10+I10</f>
@@ -1938,7 +1884,7 @@
       </c>
       <c r="P10" s="3">
         <f>O10-J10</f>
-        <v>1046.7125000000001</v>
+        <v>1346.7125000000001</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1953,11 +1899,11 @@
       </c>
       <c r="E11" s="48">
         <f>SUM(E9:E10)</f>
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="F11" s="48"/>
       <c r="G11" s="48">
-        <f t="shared" ref="G11:H11" si="0">SUM(G9:G10)</f>
+        <f t="shared" ref="G11:P11" si="0">SUM(G9:G10)</f>
         <v>6565</v>
       </c>
       <c r="H11" s="48">
@@ -1965,36 +1911,36 @@
         <v>0</v>
       </c>
       <c r="I11" s="48">
-        <f t="shared" ref="I11:P11" si="1">SUM(I9:I10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J11" s="48">
-        <f t="shared" si="1"/>
-        <v>3600</v>
+        <f t="shared" si="0"/>
+        <v>3000</v>
       </c>
       <c r="K11" s="74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6565</v>
       </c>
       <c r="L11" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>773.1</v>
       </c>
       <c r="M11" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>98.474999999999994</v>
       </c>
       <c r="N11" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>871.57500000000005</v>
       </c>
       <c r="O11" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5693.4250000000002</v>
       </c>
       <c r="P11" s="73">
-        <f t="shared" si="1"/>
-        <v>2093.4250000000002</v>
+        <f t="shared" si="0"/>
+        <v>2693.4250000000002</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -2003,18 +1949,18 @@
     </row>
     <row r="13" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
       <c r="L14" s="24">
         <v>0.22</v>
       </c>
@@ -2036,18 +1982,18 @@
       <c r="P16" s="51"/>
     </row>
     <row r="17" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="107" t="s">
+      <c r="B17" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="98"/>
       <c r="M17" s="72">
         <f>N11+M14</f>
         <v>3731.5749999999998</v>
@@ -2063,11 +2009,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="P7:P8"/>
     <mergeCell ref="B14:K14"/>
     <mergeCell ref="B17:K17"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -2078,10 +2028,6 @@
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -2105,10 +2051,10 @@
     <col min="4" max="7" width="10.6640625" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
     <col min="9" max="9" width="7.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" customWidth="1"/>
     <col min="11" max="11" width="8.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" customWidth="1"/>
-    <col min="13" max="13" width="12.44140625" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5546875" customWidth="1"/>
     <col min="15" max="15" width="8.44140625" customWidth="1"/>
     <col min="16" max="16" width="10.5546875" customWidth="1"/>
@@ -2120,25 +2066,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="103" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
+      <c r="A3" s="94" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
     </row>
     <row r="4" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
@@ -2147,80 +2093,80 @@
     <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6">
-        <v>144</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="104" t="s">
+      <c r="D7" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="105" t="s">
+      <c r="E7" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="105" t="s">
+      <c r="F7" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="105" t="s">
+      <c r="G7" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="104" t="s">
+      <c r="H7" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="104" t="s">
+      <c r="I7" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="104" t="s">
+      <c r="J7" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="104" t="s">
+      <c r="K7" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="108" t="s">
+      <c r="L7" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="104" t="s">
+      <c r="M7" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="105" t="s">
+      <c r="N7" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="104" t="s">
+      <c r="O7" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="104" t="s">
+      <c r="P7" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="104" t="s">
+      <c r="Q7" s="95" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="95"/>
     </row>
     <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -2236,7 +2182,7 @@
         <v>6060</v>
       </c>
       <c r="E9" s="3">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
@@ -2289,11 +2235,11 @@
       </c>
       <c r="E10" s="48">
         <f>SUM(E9)</f>
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F10" s="48"/>
       <c r="G10" s="48">
-        <f>SUM(G9)</f>
+        <f>G9</f>
         <v>6060</v>
       </c>
       <c r="H10" s="48"/>
@@ -2337,23 +2283,23 @@
     </row>
     <row r="12" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
       <c r="M13" s="53">
-        <f>L9*22%</f>
+        <f>L9*0.22</f>
         <v>1333.2</v>
       </c>
       <c r="N13" s="49"/>
@@ -2370,18 +2316,18 @@
       <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
       <c r="M16" s="72">
         <f>O10+M13</f>
         <v>2514.9</v>
@@ -2423,6 +2369,335 @@
   <dimension ref="A2:R16"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" customWidth="1"/>
+    <col min="15" max="15" width="8.44140625" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" customWidth="1"/>
+    <col min="17" max="17" width="10.44140625" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="23"/>
+    </row>
+    <row r="3" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A3" s="94" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+    </row>
+    <row r="4" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="96" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="95" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="99" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="96" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="95" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="95" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="95"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="95"/>
+    </row>
+    <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3371314500</v>
+      </c>
+      <c r="D9" s="3">
+        <v>6060</v>
+      </c>
+      <c r="E9" s="3">
+        <v>144</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <f>D9/E6*E9</f>
+        <v>6060</v>
+      </c>
+      <c r="H9" s="64"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L9" s="25">
+        <f>G9</f>
+        <v>6060</v>
+      </c>
+      <c r="M9" s="3">
+        <f>ROUND((L9)*18/100,2)</f>
+        <v>1090.8</v>
+      </c>
+      <c r="N9" s="3">
+        <f>L9*0.015</f>
+        <v>90.899999999999991</v>
+      </c>
+      <c r="O9" s="3">
+        <f>M9+N9</f>
+        <v>1181.7</v>
+      </c>
+      <c r="P9" s="3">
+        <f>L9-O9</f>
+        <v>4878.3</v>
+      </c>
+      <c r="Q9" s="3">
+        <f>P9-K9</f>
+        <v>1878.3000000000002</v>
+      </c>
+      <c r="R9" s="65"/>
+    </row>
+    <row r="10" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48">
+        <f>SUM(D9:D9)</f>
+        <v>6060</v>
+      </c>
+      <c r="E10" s="48">
+        <f>SUM(E9)</f>
+        <v>144</v>
+      </c>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48">
+        <f>SUM(G9)</f>
+        <v>6060</v>
+      </c>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48">
+        <f t="shared" ref="K10:Q10" si="0">SUM(K9:K9)</f>
+        <v>3000</v>
+      </c>
+      <c r="L10" s="74">
+        <f>SUM(L9:L9)</f>
+        <v>6060</v>
+      </c>
+      <c r="M10" s="73">
+        <f t="shared" si="0"/>
+        <v>1090.8</v>
+      </c>
+      <c r="N10" s="73">
+        <f t="shared" si="0"/>
+        <v>90.899999999999991</v>
+      </c>
+      <c r="O10" s="73">
+        <f t="shared" si="0"/>
+        <v>1181.7</v>
+      </c>
+      <c r="P10" s="73">
+        <f t="shared" si="0"/>
+        <v>4878.3</v>
+      </c>
+      <c r="Q10" s="73">
+        <f t="shared" si="0"/>
+        <v>1878.3000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M11" s="22"/>
+      <c r="Q11" s="46">
+        <f>Q10+K10</f>
+        <v>4878.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="98" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="24">
+        <v>0.22</v>
+      </c>
+      <c r="M13" s="53">
+        <f>L9*22%</f>
+        <v>1333.2</v>
+      </c>
+      <c r="N13" s="49"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+    </row>
+    <row r="15" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+    </row>
+    <row r="16" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
+      <c r="M16" s="72">
+        <f>O10+M13</f>
+        <v>2514.9</v>
+      </c>
+      <c r="N16" s="52"/>
+      <c r="O16" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+  </mergeCells>
+  <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:R16"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -2449,25 +2724,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
     </row>
     <row r="4" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
@@ -2480,76 +2755,76 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="104" t="s">
+      <c r="D7" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="105" t="s">
+      <c r="E7" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="105" t="s">
+      <c r="F7" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="105" t="s">
+      <c r="G7" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="104" t="s">
+      <c r="H7" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="104" t="s">
+      <c r="I7" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="104" t="s">
+      <c r="J7" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="104" t="s">
+      <c r="K7" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="108" t="s">
+      <c r="L7" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="104" t="s">
+      <c r="M7" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="105" t="s">
+      <c r="N7" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="104" t="s">
+      <c r="O7" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="104" t="s">
+      <c r="P7" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="104" t="s">
+      <c r="Q7" s="95" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="95"/>
     </row>
     <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -2666,18 +2941,18 @@
     </row>
     <row r="12" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -2699,18 +2974,18 @@
       <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
       <c r="M16" s="72">
         <f>O10+M13</f>
         <v>2514.9</v>
@@ -2747,7 +3022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R16"/>
   <sheetViews>
@@ -2781,25 +3056,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
     </row>
     <row r="4" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
@@ -2812,76 +3087,76 @@
       </c>
     </row>
     <row r="7" spans="1:18" s="81" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="110" t="s">
+      <c r="D7" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="111" t="s">
+      <c r="E7" s="102" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="110" t="s">
+      <c r="F7" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="111" t="s">
+      <c r="G7" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="110" t="s">
+      <c r="H7" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="110" t="s">
+      <c r="J7" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="110" t="s">
+      <c r="K7" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="109" t="s">
+      <c r="L7" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="110" t="s">
+      <c r="M7" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="111" t="s">
+      <c r="N7" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="110" t="s">
+      <c r="O7" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="110" t="s">
+      <c r="P7" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="110" t="s">
+      <c r="Q7" s="101" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="81" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="110"/>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="110"/>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="110"/>
+      <c r="A8" s="101"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="101"/>
+      <c r="Q8" s="101"/>
     </row>
     <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -2996,18 +3271,18 @@
     </row>
     <row r="12" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -3029,18 +3304,18 @@
       <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
       <c r="M16" s="72">
         <f>O10+M13</f>
         <v>2514.9</v>
@@ -3077,7 +3352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R16"/>
   <sheetViews>
@@ -3111,25 +3386,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
     </row>
     <row r="4" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
@@ -3142,76 +3417,76 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="104" t="s">
+      <c r="D7" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="105" t="s">
+      <c r="E7" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="105" t="s">
+      <c r="F7" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="105" t="s">
+      <c r="G7" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="104" t="s">
+      <c r="H7" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="104" t="s">
+      <c r="I7" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="104" t="s">
+      <c r="J7" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="104" t="s">
+      <c r="K7" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="108" t="s">
+      <c r="L7" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="104" t="s">
+      <c r="M7" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="105" t="s">
+      <c r="N7" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="104" t="s">
+      <c r="O7" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="104" t="s">
+      <c r="P7" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="104" t="s">
+      <c r="Q7" s="95" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="80" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="95"/>
     </row>
     <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -3328,18 +3603,18 @@
     </row>
     <row r="12" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -3361,18 +3636,18 @@
       <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
       <c r="M16" s="72">
         <f>O10+M13</f>
         <v>2514.9</v>
@@ -3409,12 +3684,245 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="4" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A1" s="127" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+    </row>
+    <row r="3" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="128"/>
+      <c r="B3" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="128"/>
+      <c r="B4" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="93" t="str">
+        <f>A17</f>
+        <v>грудень</v>
+      </c>
+      <c r="B5" s="56">
+        <v>-245.71220689655092</v>
+      </c>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+    </row>
+    <row r="6" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="91">
+        <v>2860</v>
+      </c>
+      <c r="C6" s="91">
+        <v>773.1</v>
+      </c>
+      <c r="D6" s="91">
+        <v>98.474999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="91">
+        <v>2860</v>
+      </c>
+      <c r="C7" s="91">
+        <v>773.1</v>
+      </c>
+      <c r="D7" s="91">
+        <v>98.474999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+    </row>
+    <row r="9" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+    </row>
+    <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+    </row>
+    <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="77"/>
+    </row>
+    <row r="12" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+    </row>
+    <row r="13" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+    </row>
+    <row r="14" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+    </row>
+    <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+    </row>
+    <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+    </row>
+    <row r="17" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="77"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="61">
+        <f>SUM(B5:B17)</f>
+        <v>5474.2877931034491</v>
+      </c>
+      <c r="C18" s="61">
+        <f>SUM(C6:C17)</f>
+        <v>1546.2</v>
+      </c>
+      <c r="D18" s="61">
+        <f>SUM(D6:D17)</f>
+        <v>196.95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="71">
+        <v>2860</v>
+      </c>
+      <c r="C19" s="63">
+        <v>773.1</v>
+      </c>
+      <c r="D19" s="63">
+        <v>98.48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="70">
+        <f>B18-B19</f>
+        <v>2614.2877931034491</v>
+      </c>
+      <c r="C20" s="70">
+        <f>C18-C19</f>
+        <v>773.1</v>
+      </c>
+      <c r="D20" s="70">
+        <f>D18-D19</f>
+        <v>98.469999999999985</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.4" x14ac:dyDescent="0.35">
+      <c r="A21" s="66"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="78"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:A4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:K17"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3432,15 +3940,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="I1" s="93" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="I1" s="87" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3448,13 +3956,13 @@
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="95"/>
+      <c r="F2" s="88"/>
     </row>
     <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -3464,26 +3972,26 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="G3" s="116" t="s">
+      <c r="G3" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
     </row>
     <row r="4" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
     </row>
     <row r="5" spans="1:16" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="118" t="s">
+      <c r="G5" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="119"/>
-      <c r="I5" s="122" t="s">
+      <c r="H5" s="110"/>
+      <c r="I5" s="113" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3495,25 +4003,25 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="123"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="114"/>
     </row>
     <row r="7" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
       <c r="G7" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="124"/>
+      <c r="I7" s="115"/>
     </row>
     <row r="8" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
@@ -3524,26 +4032,26 @@
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="97">
-        <v>5487.1920689655171</v>
+      <c r="B9" s="90"/>
+      <c r="C9" s="86">
+        <v>2693.4250000000002</v>
       </c>
       <c r="D9" s="18"/>
-      <c r="E9" s="96"/>
+      <c r="E9" s="90"/>
     </row>
     <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="126" t="str">
+      <c r="A10" s="117" t="str">
         <f>[1]!СумаПрописом(C9)</f>
-        <v>П`ять тисяч чотириста вiсiмдесят сiм гривень 19 копiйок</v>
-      </c>
-      <c r="B10" s="127"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
+        <v>Двi тисячi шiстсот дев`яносто три гривнi 43 копiйки</v>
+      </c>
+      <c r="B10" s="118"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
@@ -3560,10 +4068,10 @@
       <c r="A12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="128" t="s">
-        <v>93</v>
-      </c>
-      <c r="H12" s="128"/>
+      <c r="G12" s="119" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" s="119"/>
     </row>
     <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
@@ -3571,328 +4079,54 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="129" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" s="129"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="129"/>
+      <c r="A14" s="120" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="120"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="120"/>
     </row>
     <row r="15" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="130" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="130"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="130"/>
+      <c r="A15" s="121" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="121"/>
     </row>
     <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="131"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="113" t="str">
+      <c r="A17" s="104" t="str">
         <f>A10</f>
-        <v>П`ять тисяч чотириста вiсiмдесят сiм гривень 19 копiйок</v>
-      </c>
-      <c r="B17" s="113"/>
-      <c r="C17" s="113"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="113"/>
-    </row>
-    <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="17"/>
-    </row>
-    <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-    </row>
-    <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G5:H6"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:I16"/>
-  </mergeCells>
-  <pageMargins left="0.42" right="0.23" top="0.44" bottom="0.98425196850393704" header="0.3" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P39"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:K17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="4"/>
-    <col min="5" max="5" width="10.5546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="6" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="I1" s="98" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="115" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="99"/>
-    </row>
-    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="G3" s="116" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-    </row>
-    <row r="4" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="117" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-    </row>
-    <row r="5" spans="1:16" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="118" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="119"/>
-      <c r="I5" s="122" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="123"/>
-    </row>
-    <row r="7" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="125" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="G7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="124"/>
-    </row>
-    <row r="8" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="100" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="101"/>
-      <c r="C9" s="97">
-        <v>863.08827586206917</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="101"/>
-    </row>
-    <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="126" t="str">
-        <f>[1]!СумаПрописом(C9)</f>
-        <v>Вiсiмсот шiстдесят три гривнi 09 копiйок</v>
-      </c>
-      <c r="B10" s="127"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-    </row>
-    <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="128" t="s">
-        <v>92</v>
-      </c>
-      <c r="H12" s="128"/>
-    </row>
-    <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="129" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" s="129"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="129"/>
-    </row>
-    <row r="15" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="130" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="130"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="130"/>
-    </row>
-    <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="131"/>
-    </row>
-    <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="113" t="str">
-        <f>A10</f>
-        <v>Вiсiмсот шiстдесят три гривнi 09 копiйок</v>
-      </c>
-      <c r="B17" s="113"/>
-      <c r="C17" s="113"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="113"/>
+        <v>Двi тисячi шiстсот дев`яносто три гривнi 43 копiйки</v>
+      </c>
+      <c r="B17" s="104"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104"/>
     </row>
     <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -3957,17 +4191,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист4"/>
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A17" sqref="A17:K17"/>
       <selection pane="topRight" activeCell="A17" sqref="A17:K17"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17:K17"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A17:K17"/>
+      <selection pane="bottomRight" activeCell="B29" sqref="B28:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4028,27 +4262,27 @@
       </c>
       <c r="B3" s="34"/>
       <c r="C3" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="97">
-        <v>5487.1920689655171</v>
+        <v>87</v>
+      </c>
+      <c r="D3" s="86">
+        <v>1346.7125000000001</v>
       </c>
       <c r="E3" s="34"/>
       <c r="F3" s="36"/>
     </row>
-    <row r="4" spans="1:6" s="92" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86">
+    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="33">
         <v>2</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="88" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="89">
-        <v>1143.4500000000003</v>
-      </c>
-      <c r="E4" s="90"/>
-      <c r="F4" s="91"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="35">
+        <v>1346.7125000000001</v>
+      </c>
+      <c r="E4" s="34"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
@@ -4075,13 +4309,14 @@
       <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="132" t="s">
+      <c r="A8" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="132"/>
-      <c r="C8" s="133"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="124"/>
       <c r="D8" s="38">
-        <v>5487.1920689655171</v>
+        <f>SUM(D3:D7)</f>
+        <v>2693.4250000000002</v>
       </c>
       <c r="E8" s="34"/>
       <c r="F8" s="36"/>
@@ -4140,13 +4375,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист7"/>
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:I14"/>
+      <selection activeCell="A10" sqref="A10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4164,15 +4399,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="str">
+      <c r="A1" s="105" t="str">
         <f>'пд1 зп'!A1:E1</f>
         <v>Приватний нотаріус Підхомна Олександра Дмитрівна</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
       <c r="G1" s="50"/>
       <c r="H1" s="50"/>
       <c r="I1" s="50" t="s">
@@ -4183,11 +4418,11 @@
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
     </row>
@@ -4199,26 +4434,26 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="G3" s="116" t="s">
+      <c r="G3" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
     </row>
     <row r="4" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
     </row>
     <row r="5" spans="1:16" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="118" t="s">
+      <c r="G5" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="119"/>
-      <c r="I5" s="122" t="s">
+      <c r="H5" s="110"/>
+      <c r="I5" s="113" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4230,25 +4465,25 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="123"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="114"/>
     </row>
     <row r="7" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
       <c r="G7" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="124"/>
+      <c r="I7" s="115"/>
     </row>
     <row r="8" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
@@ -4262,21 +4497,21 @@
       <c r="A9" s="14"/>
       <c r="B9" s="15"/>
       <c r="C9" s="21">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="126" t="str">
+      <c r="A10" s="117" t="str">
         <f>[1]!СумаПрописом(C9)</f>
-        <v>Одна тисяча п`ятсот гривень 00 копiйок</v>
-      </c>
-      <c r="B10" s="127"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
+        <v>Три тисячi гривень 00 копiйок</v>
+      </c>
+      <c r="B10" s="118"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
@@ -4293,10 +4528,10 @@
       <c r="A12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="135" t="s">
-        <v>95</v>
-      </c>
-      <c r="H12" s="135"/>
+      <c r="G12" s="126" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" s="126"/>
     </row>
     <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
@@ -4304,55 +4539,55 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="129" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="129"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="129"/>
+      <c r="A14" s="120" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="120"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="120"/>
     </row>
     <row r="15" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="134" t="str">
+      <c r="A15" s="125" t="str">
         <f>'пд1 зп'!A15:I15</f>
-        <v>за ГРУДЕНЬ 2021</v>
-      </c>
-      <c r="B15" s="130"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="130"/>
+        <v>за ЛЮТИЙ 2021</v>
+      </c>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="121"/>
     </row>
     <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="131"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="113" t="str">
+      <c r="A17" s="104" t="str">
         <f>A10</f>
-        <v>Одна тисяча п`ятсот гривень 00 копiйок</v>
-      </c>
-      <c r="B17" s="113"/>
-      <c r="C17" s="113"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="113"/>
+        <v>Три тисячi гривень 00 копiйок</v>
+      </c>
+      <c r="B17" s="104"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104"/>
     </row>
     <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -4420,7 +4655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист8"/>
   <dimension ref="A1:F43"/>
@@ -4430,7 +4665,7 @@
       <selection activeCell="A17" sqref="A17:K17"/>
       <selection pane="topRight" activeCell="A17" sqref="A17:K17"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17:K17"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A17:K17"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4494,25 +4729,24 @@
         <v>87</v>
       </c>
       <c r="D3" s="35">
-        <f>'пд1 аванс'!C9</f>
         <v>1500</v>
       </c>
       <c r="E3" s="34"/>
       <c r="F3" s="36"/>
     </row>
-    <row r="4" spans="1:6" s="92" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86">
+    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="33">
         <v>2</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="88" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="89">
+      <c r="B4" s="34"/>
+      <c r="C4" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="35">
         <v>1500</v>
       </c>
-      <c r="E4" s="90"/>
-      <c r="F4" s="91"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
@@ -4539,13 +4773,14 @@
       <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="132" t="s">
+      <c r="A8" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="132"/>
-      <c r="C8" s="133"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="124"/>
       <c r="D8" s="38">
-        <v>1500</v>
+        <f>SUM(D3:D7)</f>
+        <v>3000</v>
       </c>
       <c r="E8" s="34"/>
       <c r="F8" s="36"/>
@@ -4605,12 +4840,404 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:P17"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="12" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" customWidth="1"/>
+    <col min="15" max="15" width="9.77734375" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" customWidth="1"/>
+    <col min="17" max="17" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="23"/>
+    </row>
+    <row r="3" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A3" s="94" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+    </row>
+    <row r="4" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="96" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="99" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="96" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="95" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" s="95" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="95"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
+    </row>
+    <row r="9" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3268013166</v>
+      </c>
+      <c r="D9" s="3">
+        <v>6565</v>
+      </c>
+      <c r="E9" s="3">
+        <f>151/2</f>
+        <v>75.5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="3">
+        <f>D9/E6*E9</f>
+        <v>3282.5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K9" s="25">
+        <f>G9+H9+I9</f>
+        <v>3282.5</v>
+      </c>
+      <c r="L9" s="3">
+        <f>ROUND((K9-1135)*18/100,2)</f>
+        <v>386.55</v>
+      </c>
+      <c r="M9" s="3">
+        <f>K9*0.015</f>
+        <v>49.237499999999997</v>
+      </c>
+      <c r="N9" s="3">
+        <f>L9+M9</f>
+        <v>435.78750000000002</v>
+      </c>
+      <c r="O9" s="3">
+        <f>K9-N9</f>
+        <v>2846.7125000000001</v>
+      </c>
+      <c r="P9" s="3">
+        <f>O9-J9</f>
+        <v>1046.7125000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3440907686</v>
+      </c>
+      <c r="D10" s="3">
+        <v>6565</v>
+      </c>
+      <c r="E10" s="3">
+        <f>151/2</f>
+        <v>75.5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="3">
+        <f>D10/E6*E10</f>
+        <v>3282.5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K10" s="25">
+        <f>G10+H10+I10</f>
+        <v>3282.5</v>
+      </c>
+      <c r="L10" s="3">
+        <f>ROUND((K10-1135)*18/100,2)</f>
+        <v>386.55</v>
+      </c>
+      <c r="M10" s="3">
+        <f>K10*0.015</f>
+        <v>49.237499999999997</v>
+      </c>
+      <c r="N10" s="3">
+        <f>L10+M10</f>
+        <v>435.78750000000002</v>
+      </c>
+      <c r="O10" s="3">
+        <f>K10-N10</f>
+        <v>2846.7125000000001</v>
+      </c>
+      <c r="P10" s="3">
+        <f>O10-J10</f>
+        <v>1046.7125000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="47"/>
+      <c r="D11" s="48">
+        <f>SUM(D9:D9)</f>
+        <v>6565</v>
+      </c>
+      <c r="E11" s="48">
+        <f>SUM(E9:E10)</f>
+        <v>151</v>
+      </c>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48">
+        <f t="shared" ref="G11:H11" si="0">SUM(G9:G10)</f>
+        <v>6565</v>
+      </c>
+      <c r="H11" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="48">
+        <f t="shared" ref="I11:P11" si="1">SUM(I9:I10)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="48">
+        <f t="shared" si="1"/>
+        <v>3600</v>
+      </c>
+      <c r="K11" s="74">
+        <f t="shared" si="1"/>
+        <v>6565</v>
+      </c>
+      <c r="L11" s="73">
+        <f t="shared" si="1"/>
+        <v>773.1</v>
+      </c>
+      <c r="M11" s="73">
+        <f t="shared" si="1"/>
+        <v>98.474999999999994</v>
+      </c>
+      <c r="N11" s="73">
+        <f t="shared" si="1"/>
+        <v>871.57500000000005</v>
+      </c>
+      <c r="O11" s="73">
+        <f t="shared" si="1"/>
+        <v>5693.4250000000002</v>
+      </c>
+      <c r="P11" s="73">
+        <f t="shared" si="1"/>
+        <v>2093.4250000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M12" s="22"/>
+      <c r="P12" s="46"/>
+    </row>
+    <row r="13" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="98" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="24">
+        <v>0.22</v>
+      </c>
+      <c r="M14" s="53">
+        <f>1430*2</f>
+        <v>2860</v>
+      </c>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M15" s="49"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+    </row>
+    <row r="16" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N16" s="52"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+    </row>
+    <row r="17" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="98"/>
+      <c r="M17" s="72">
+        <f>N11+M14</f>
+        <v>3731.5749999999998</v>
+      </c>
+      <c r="N17" s="83" t="e">
+        <f>'07-21'!M9-'07-21'!#REF!+'07-21'!N9-'07-21'!#REF!+'07-21'!M13-1320</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O17" s="84" t="e">
+        <f>M17+N17</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+  </mergeCells>
+  <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4620,15 +5247,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="127" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
     </row>
     <row r="3" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="137"/>
+      <c r="A3" s="128"/>
       <c r="B3" s="55" t="s">
         <v>61</v>
       </c>
@@ -4640,7 +5267,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="137"/>
+      <c r="A4" s="128"/>
       <c r="B4" s="56" t="s">
         <v>46</v>
       </c>
@@ -4666,13 +5293,13 @@
       <c r="A6" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="102">
+      <c r="B6" s="91">
         <v>1333.2</v>
       </c>
-      <c r="C6" s="102">
+      <c r="C6" s="91">
         <v>1090.8</v>
       </c>
-      <c r="D6" s="102">
+      <c r="D6" s="91">
         <v>90.9</v>
       </c>
     </row>
@@ -4680,13 +5307,13 @@
       <c r="A7" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="102">
+      <c r="B7" s="91">
         <v>1333.2</v>
       </c>
-      <c r="C7" s="102">
+      <c r="C7" s="91">
         <v>1090.8</v>
       </c>
-      <c r="D7" s="102">
+      <c r="D7" s="91">
         <v>90.9</v>
       </c>
     </row>
@@ -4694,13 +5321,13 @@
       <c r="A8" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="102">
+      <c r="B8" s="91">
         <v>1333.2</v>
       </c>
-      <c r="C8" s="102">
+      <c r="C8" s="91">
         <v>1090.8</v>
       </c>
-      <c r="D8" s="102">
+      <c r="D8" s="91">
         <v>90.9</v>
       </c>
     </row>
@@ -4708,13 +5335,13 @@
       <c r="A9" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="102">
+      <c r="B9" s="91">
         <v>1333.2</v>
       </c>
-      <c r="C9" s="102">
+      <c r="C9" s="91">
         <v>1090.8</v>
       </c>
-      <c r="D9" s="102">
+      <c r="D9" s="91">
         <v>90.9</v>
       </c>
     </row>
@@ -4745,7 +5372,7 @@
       <c r="C11" s="59">
         <v>1090.8</v>
       </c>
-      <c r="D11" s="138">
+      <c r="D11" s="92">
         <v>90.9</v>
       </c>
       <c r="E11" s="77"/>
@@ -4830,7 +5457,7 @@
       <c r="C17" s="59">
         <v>1660.57</v>
       </c>
-      <c r="D17" s="138">
+      <c r="D17" s="92">
         <v>172.43127931034482</v>
       </c>
       <c r="E17" s="77"/>
@@ -4898,12 +5525,316 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="4" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A1" s="127" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+    </row>
+    <row r="3" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="128"/>
+      <c r="B3" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="128"/>
+      <c r="B4" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="str">
+        <f>A17</f>
+        <v>грудень</v>
+      </c>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+    </row>
+    <row r="6" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="59">
+        <v>1049.4000000000001</v>
+      </c>
+      <c r="C6" s="59">
+        <v>858.6</v>
+      </c>
+      <c r="D6" s="59">
+        <v>71.55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="59">
+        <v>1049.4000000000001</v>
+      </c>
+      <c r="C7" s="59">
+        <v>858.6</v>
+      </c>
+      <c r="D7" s="59">
+        <v>71.55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="59">
+        <v>1039.06</v>
+      </c>
+      <c r="C8" s="59">
+        <v>260.56</v>
+      </c>
+      <c r="D8" s="59">
+        <v>37.479999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="59">
+        <v>0</v>
+      </c>
+      <c r="C9" s="59">
+        <v>0</v>
+      </c>
+      <c r="D9" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="59">
+        <v>4301.04</v>
+      </c>
+      <c r="C10" s="59">
+        <v>0</v>
+      </c>
+      <c r="D10" s="59">
+        <v>0</v>
+      </c>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+    </row>
+    <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="59">
+        <v>577.16999999999996</v>
+      </c>
+      <c r="C11" s="59">
+        <v>283.05</v>
+      </c>
+      <c r="D11" s="59">
+        <v>39.35</v>
+      </c>
+      <c r="E11" s="59"/>
+    </row>
+    <row r="12" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="59">
+        <v>1049.4000000000001</v>
+      </c>
+      <c r="C12" s="59">
+        <v>858.6</v>
+      </c>
+      <c r="D12" s="59">
+        <v>71.55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="59">
+        <v>1049.4000000000001</v>
+      </c>
+      <c r="C13" s="59">
+        <v>858.6</v>
+      </c>
+      <c r="D13" s="59">
+        <v>71.55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="59">
+        <v>1111</v>
+      </c>
+      <c r="C14" s="59">
+        <v>909</v>
+      </c>
+      <c r="D14" s="59">
+        <v>75.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="59">
+        <v>1111</v>
+      </c>
+      <c r="C15" s="59">
+        <v>909</v>
+      </c>
+      <c r="D15" s="59">
+        <v>75.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="59">
+        <v>1111</v>
+      </c>
+      <c r="C16" s="59">
+        <v>909</v>
+      </c>
+      <c r="D16" s="59">
+        <v>75.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="59">
+        <v>1111</v>
+      </c>
+      <c r="C17" s="59">
+        <v>909</v>
+      </c>
+      <c r="D17" s="59">
+        <v>75.75</v>
+      </c>
+      <c r="E17" s="76"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="61">
+        <f>SUM(B6:B17)</f>
+        <v>14558.869999999999</v>
+      </c>
+      <c r="C18" s="61">
+        <f>SUM(C6:C17)</f>
+        <v>7614.01</v>
+      </c>
+      <c r="D18" s="61">
+        <f>SUM(D6:D17)</f>
+        <v>666.03</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="71">
+        <v>13497.23</v>
+      </c>
+      <c r="C19" s="63">
+        <v>6705.01</v>
+      </c>
+      <c r="D19" s="63">
+        <v>590.28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="70">
+        <f>B19-B18</f>
+        <v>-1061.6399999999994</v>
+      </c>
+      <c r="C20" s="70">
+        <f>C19-C18</f>
+        <v>-909</v>
+      </c>
+      <c r="D20" s="70">
+        <f>D19-D18</f>
+        <v>-75.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="66"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="67"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P19"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4930,24 +5861,24 @@
       <c r="B3" s="23"/>
     </row>
     <row r="4" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A4" s="103" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
+      <c r="A4" s="94" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
     </row>
     <row r="5" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
@@ -4960,72 +5891,72 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="104" t="s">
+      <c r="C8" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="104" t="s">
+      <c r="D8" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="105" t="s">
+      <c r="E8" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="105" t="s">
+      <c r="F8" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="105" t="s">
+      <c r="G8" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="104" t="s">
+      <c r="H8" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="I8" s="104" t="s">
+      <c r="I8" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="104" t="s">
+      <c r="J8" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="108" t="s">
+      <c r="K8" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="L8" s="104" t="s">
+      <c r="L8" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="M8" s="105" t="s">
+      <c r="M8" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N8" s="104" t="s">
+      <c r="N8" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="O8" s="104" t="s">
+      <c r="O8" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="P8" s="104" t="s">
+      <c r="P8" s="95" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="104"/>
-      <c r="B9" s="104"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="108"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
+      <c r="A9" s="95"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="95"/>
     </row>
     <row r="10" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -5147,7 +6078,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="75" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C12" s="2">
         <v>3440907686</v>
@@ -5262,18 +6193,18 @@
     </row>
     <row r="15" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
       <c r="L16" s="24">
         <v>0.22</v>
       </c>
@@ -5295,18 +6226,18 @@
       <c r="P18" s="51"/>
     </row>
     <row r="19" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="107" t="s">
+      <c r="B19" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="107"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="98"/>
       <c r="M19" s="72">
         <f>N13+M16</f>
         <v>5877.3002724137932</v>
@@ -5348,316 +6279,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="4" width="12.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="136" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-    </row>
-    <row r="3" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="137"/>
-      <c r="B3" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="137"/>
-      <c r="B4" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="56" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="str">
-        <f>A17</f>
-        <v>грудень</v>
-      </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
-    </row>
-    <row r="6" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="59">
-        <v>1049.4000000000001</v>
-      </c>
-      <c r="C6" s="59">
-        <v>858.6</v>
-      </c>
-      <c r="D6" s="59">
-        <v>71.55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="59">
-        <v>1049.4000000000001</v>
-      </c>
-      <c r="C7" s="59">
-        <v>858.6</v>
-      </c>
-      <c r="D7" s="59">
-        <v>71.55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="59">
-        <v>1039.06</v>
-      </c>
-      <c r="C8" s="59">
-        <v>260.56</v>
-      </c>
-      <c r="D8" s="59">
-        <v>37.479999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="59">
-        <v>0</v>
-      </c>
-      <c r="C9" s="59">
-        <v>0</v>
-      </c>
-      <c r="D9" s="59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="59">
-        <v>4301.04</v>
-      </c>
-      <c r="C10" s="59">
-        <v>0</v>
-      </c>
-      <c r="D10" s="59">
-        <v>0</v>
-      </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-    </row>
-    <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="59">
-        <v>577.16999999999996</v>
-      </c>
-      <c r="C11" s="59">
-        <v>283.05</v>
-      </c>
-      <c r="D11" s="59">
-        <v>39.35</v>
-      </c>
-      <c r="E11" s="59"/>
-    </row>
-    <row r="12" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="59">
-        <v>1049.4000000000001</v>
-      </c>
-      <c r="C12" s="59">
-        <v>858.6</v>
-      </c>
-      <c r="D12" s="59">
-        <v>71.55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="59">
-        <v>1049.4000000000001</v>
-      </c>
-      <c r="C13" s="59">
-        <v>858.6</v>
-      </c>
-      <c r="D13" s="59">
-        <v>71.55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="59">
-        <v>1111</v>
-      </c>
-      <c r="C14" s="59">
-        <v>909</v>
-      </c>
-      <c r="D14" s="59">
-        <v>75.75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="59">
-        <v>1111</v>
-      </c>
-      <c r="C15" s="59">
-        <v>909</v>
-      </c>
-      <c r="D15" s="59">
-        <v>75.75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="59">
-        <v>1111</v>
-      </c>
-      <c r="C16" s="59">
-        <v>909</v>
-      </c>
-      <c r="D16" s="59">
-        <v>75.75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="59">
-        <v>1111</v>
-      </c>
-      <c r="C17" s="59">
-        <v>909</v>
-      </c>
-      <c r="D17" s="59">
-        <v>75.75</v>
-      </c>
-      <c r="E17" s="76"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="61">
-        <f>SUM(B6:B17)</f>
-        <v>14558.869999999999</v>
-      </c>
-      <c r="C18" s="61">
-        <f>SUM(C6:C17)</f>
-        <v>7614.01</v>
-      </c>
-      <c r="D18" s="61">
-        <f>SUM(D6:D17)</f>
-        <v>666.03</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="71">
-        <v>13497.23</v>
-      </c>
-      <c r="C19" s="63">
-        <v>6705.01</v>
-      </c>
-      <c r="D19" s="63">
-        <v>590.28</v>
-      </c>
-      <c r="E19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="70">
-        <f>B19-B18</f>
-        <v>-1061.6399999999994</v>
-      </c>
-      <c r="C20" s="70">
-        <f>C19-C18</f>
-        <v>-909</v>
-      </c>
-      <c r="D20" s="70">
-        <f>D19-D18</f>
-        <v>-75.75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="66"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="67"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P18"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5683,24 +6310,24 @@
       <c r="B3" s="23"/>
     </row>
     <row r="4" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="94" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
     </row>
     <row r="5" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
@@ -5713,72 +6340,72 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="104" t="s">
+      <c r="C8" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="104" t="s">
+      <c r="D8" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="105" t="s">
+      <c r="E8" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="105" t="s">
+      <c r="F8" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="105" t="s">
+      <c r="G8" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="104" t="s">
+      <c r="H8" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="I8" s="104" t="s">
+      <c r="I8" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="104" t="s">
+      <c r="J8" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="108" t="s">
+      <c r="K8" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="L8" s="104" t="s">
+      <c r="L8" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="M8" s="105" t="s">
+      <c r="M8" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N8" s="104" t="s">
+      <c r="N8" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="O8" s="104" t="s">
+      <c r="O8" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="P8" s="104" t="s">
+      <c r="P8" s="95" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="104"/>
-      <c r="B9" s="104"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="108"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
+      <c r="A9" s="95"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="95"/>
     </row>
     <row r="10" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -5954,18 +6581,18 @@
     </row>
     <row r="14" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="107" t="s">
+      <c r="B15" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="98"/>
       <c r="L15" s="24">
         <v>0.22</v>
       </c>
@@ -5987,406 +6614,18 @@
       <c r="P17" s="51"/>
     </row>
     <row r="18" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="107" t="s">
+      <c r="B18" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
-      <c r="M18" s="72">
-        <f>N12+M15</f>
-        <v>4255.0191500000001</v>
-      </c>
-      <c r="N18" s="83" t="e">
-        <f>'07-21'!M9-'07-21'!#REF!+'07-21'!N9-'07-21'!#REF!+'07-21'!M13-1320</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O18" s="84" t="e">
-        <f>M18+N18</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-  </mergeCells>
-  <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P18"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.21875" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" customWidth="1"/>
-    <col min="13" max="13" width="12.44140625" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" customWidth="1"/>
-    <col min="15" max="15" width="8.44140625" customWidth="1"/>
-    <col min="16" max="16" width="10.5546875" customWidth="1"/>
-    <col min="17" max="17" width="9.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="23"/>
-    </row>
-    <row r="4" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A4" s="103" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-    </row>
-    <row r="5" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="104" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="105" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="105" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="105" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="104" t="s">
-        <v>83</v>
-      </c>
-      <c r="I8" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="104" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="108" t="s">
-        <v>66</v>
-      </c>
-      <c r="L8" s="104" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="105" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" s="104" t="s">
-        <v>34</v>
-      </c>
-      <c r="O8" s="104" t="s">
-        <v>35</v>
-      </c>
-      <c r="P8" s="104" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="104"/>
-      <c r="B9" s="104"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="108"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-    </row>
-    <row r="10" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>1</v>
-      </c>
-      <c r="B10" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3371314500</v>
-      </c>
-      <c r="D10" s="3">
-        <v>6060</v>
-      </c>
-      <c r="E10" s="3">
-        <v>159</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <f>D10/E7*E10</f>
-        <v>6060.0000000000009</v>
-      </c>
-      <c r="H10" s="3">
-        <v>80.89</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K10" s="25">
-        <f>G10+H10+I10</f>
-        <v>6140.8900000000012</v>
-      </c>
-      <c r="L10" s="3">
-        <f>ROUND((K10)*18/100,2)</f>
-        <v>1105.3599999999999</v>
-      </c>
-      <c r="M10" s="3">
-        <f>K10*0.015</f>
-        <v>92.113350000000011</v>
-      </c>
-      <c r="N10" s="3">
-        <f>L10+M10</f>
-        <v>1197.47335</v>
-      </c>
-      <c r="O10" s="3">
-        <f>K10-N10</f>
-        <v>4943.416650000001</v>
-      </c>
-      <c r="P10" s="3">
-        <f>O10-J10</f>
-        <v>1943.416650000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>2</v>
-      </c>
-      <c r="B11" s="75" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3268013166</v>
-      </c>
-      <c r="D11" s="3">
-        <v>6060</v>
-      </c>
-      <c r="E11" s="3">
-        <v>79.5</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G11" s="3">
-        <f>D11/E7*E11</f>
-        <v>3030.0000000000005</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K11" s="25">
-        <f>G11+H11+I11</f>
-        <v>3030.0000000000005</v>
-      </c>
-      <c r="L11" s="3">
-        <f>ROUND((K11-1135)*18/100,2)</f>
-        <v>341.1</v>
-      </c>
-      <c r="M11" s="3">
-        <f>K11*0.015</f>
-        <v>45.45</v>
-      </c>
-      <c r="N11" s="3">
-        <f>L11+M11</f>
-        <v>386.55</v>
-      </c>
-      <c r="O11" s="3">
-        <f>K11-N11</f>
-        <v>2643.4500000000003</v>
-      </c>
-      <c r="P11" s="3">
-        <f>O11-J11</f>
-        <v>1143.4500000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48">
-        <f>SUM(D10:D10)</f>
-        <v>6060</v>
-      </c>
-      <c r="E12" s="48">
-        <f>SUM(E10)</f>
-        <v>159</v>
-      </c>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48">
-        <f>SUM(G10)</f>
-        <v>6060.0000000000009</v>
-      </c>
-      <c r="H12" s="48">
-        <f>SUM(H10)</f>
-        <v>80.89</v>
-      </c>
-      <c r="I12" s="48">
-        <v>0</v>
-      </c>
-      <c r="J12" s="48">
-        <f>SUM(J10:J10)</f>
-        <v>3000</v>
-      </c>
-      <c r="K12" s="74">
-        <f>SUM(K10:K10)</f>
-        <v>6140.8900000000012</v>
-      </c>
-      <c r="L12" s="73">
-        <f>SUM(L10:L11)</f>
-        <v>1446.46</v>
-      </c>
-      <c r="M12" s="73">
-        <f>SUM(M10:M11)</f>
-        <v>137.56335000000001</v>
-      </c>
-      <c r="N12" s="73">
-        <f t="shared" ref="N12:P12" si="0">SUM(N10:N11)</f>
-        <v>1584.0233499999999</v>
-      </c>
-      <c r="O12" s="73">
-        <f t="shared" si="0"/>
-        <v>7586.8666500000018</v>
-      </c>
-      <c r="P12" s="73">
-        <f t="shared" si="0"/>
-        <v>3086.8666500000013</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M13" s="22"/>
-    </row>
-    <row r="14" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="107" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="24">
-        <v>0.22</v>
-      </c>
-      <c r="M15" s="53">
-        <f>K10*22%+1320</f>
-        <v>2670.9958000000006</v>
-      </c>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-    </row>
-    <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="M16" s="49"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-    </row>
-    <row r="17" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N17" s="52"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-    </row>
-    <row r="18" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="107" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="98"/>
       <c r="M18" s="72">
         <f>N12+M15</f>
         <v>4255.0191500000001</v>
@@ -6430,9 +6669,397 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:P18"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.21875" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" customWidth="1"/>
+    <col min="15" max="15" width="8.44140625" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" customWidth="1"/>
+    <col min="17" max="17" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="23"/>
+    </row>
+    <row r="4" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A4" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+    </row>
+    <row r="5" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="96" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="95" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="99" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="96" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="95" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="95" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="95"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="95"/>
+    </row>
+    <row r="10" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3371314500</v>
+      </c>
+      <c r="D10" s="3">
+        <v>6060</v>
+      </c>
+      <c r="E10" s="3">
+        <v>159</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <f>D10/E7*E10</f>
+        <v>6060.0000000000009</v>
+      </c>
+      <c r="H10" s="3">
+        <v>80.89</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K10" s="25">
+        <f>G10+H10+I10</f>
+        <v>6140.8900000000012</v>
+      </c>
+      <c r="L10" s="3">
+        <f>ROUND((K10)*18/100,2)</f>
+        <v>1105.3599999999999</v>
+      </c>
+      <c r="M10" s="3">
+        <f>K10*0.015</f>
+        <v>92.113350000000011</v>
+      </c>
+      <c r="N10" s="3">
+        <f>L10+M10</f>
+        <v>1197.47335</v>
+      </c>
+      <c r="O10" s="3">
+        <f>K10-N10</f>
+        <v>4943.416650000001</v>
+      </c>
+      <c r="P10" s="3">
+        <f>O10-J10</f>
+        <v>1943.416650000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3268013166</v>
+      </c>
+      <c r="D11" s="3">
+        <v>6060</v>
+      </c>
+      <c r="E11" s="3">
+        <v>79.5</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="3">
+        <f>D11/E7*E11</f>
+        <v>3030.0000000000005</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K11" s="25">
+        <f>G11+H11+I11</f>
+        <v>3030.0000000000005</v>
+      </c>
+      <c r="L11" s="3">
+        <f>ROUND((K11-1135)*18/100,2)</f>
+        <v>341.1</v>
+      </c>
+      <c r="M11" s="3">
+        <f>K11*0.015</f>
+        <v>45.45</v>
+      </c>
+      <c r="N11" s="3">
+        <f>L11+M11</f>
+        <v>386.55</v>
+      </c>
+      <c r="O11" s="3">
+        <f>K11-N11</f>
+        <v>2643.4500000000003</v>
+      </c>
+      <c r="P11" s="3">
+        <f>O11-J11</f>
+        <v>1143.4500000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48">
+        <f>SUM(D10:D10)</f>
+        <v>6060</v>
+      </c>
+      <c r="E12" s="48">
+        <f>SUM(E10)</f>
+        <v>159</v>
+      </c>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48">
+        <f>SUM(G10)</f>
+        <v>6060.0000000000009</v>
+      </c>
+      <c r="H12" s="48">
+        <f>SUM(H10)</f>
+        <v>80.89</v>
+      </c>
+      <c r="I12" s="48">
+        <v>0</v>
+      </c>
+      <c r="J12" s="48">
+        <f>SUM(J10:J10)</f>
+        <v>3000</v>
+      </c>
+      <c r="K12" s="74">
+        <f>SUM(K10:K11)</f>
+        <v>9170.8900000000012</v>
+      </c>
+      <c r="L12" s="73">
+        <f>SUM(L10:L11)</f>
+        <v>1446.46</v>
+      </c>
+      <c r="M12" s="73">
+        <f>SUM(M10:M11)</f>
+        <v>137.56335000000001</v>
+      </c>
+      <c r="N12" s="73">
+        <f t="shared" ref="N12:P12" si="0">SUM(N10:N11)</f>
+        <v>1584.0233499999999</v>
+      </c>
+      <c r="O12" s="73">
+        <f t="shared" si="0"/>
+        <v>7586.8666500000018</v>
+      </c>
+      <c r="P12" s="73">
+        <f t="shared" si="0"/>
+        <v>3086.8666500000013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M13" s="22"/>
+    </row>
+    <row r="14" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="98" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="24">
+        <v>0.22</v>
+      </c>
+      <c r="M15" s="53">
+        <f>K10*22%+1320</f>
+        <v>2670.9958000000006</v>
+      </c>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M16" s="49"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+    </row>
+    <row r="17" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N17" s="52"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+    </row>
+    <row r="18" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="98"/>
+      <c r="M18" s="72">
+        <f>N12+M15</f>
+        <v>4255.0191500000001</v>
+      </c>
+      <c r="N18" s="83" t="e">
+        <f>'07-21'!M9-'07-21'!#REF!+'07-21'!N9-'07-21'!#REF!+'07-21'!M13-1320</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O18" s="84" t="e">
+        <f>M18+N18</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+  </mergeCells>
+  <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P17"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
@@ -6459,24 +7086,24 @@
       <c r="B3" s="23"/>
     </row>
     <row r="4" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
     </row>
     <row r="5" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
@@ -6489,72 +7116,72 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="104" t="s">
+      <c r="C8" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="104" t="s">
+      <c r="D8" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="105" t="s">
+      <c r="E8" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="105" t="s">
+      <c r="F8" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="105" t="s">
+      <c r="G8" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="104" t="s">
+      <c r="H8" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="I8" s="104" t="s">
+      <c r="I8" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="104" t="s">
+      <c r="J8" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="108" t="s">
+      <c r="K8" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="L8" s="104" t="s">
+      <c r="L8" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="M8" s="105" t="s">
+      <c r="M8" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N8" s="104" t="s">
+      <c r="N8" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="O8" s="104" t="s">
+      <c r="O8" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="P8" s="104" t="s">
+      <c r="P8" s="95" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="104"/>
-      <c r="B9" s="104"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="108"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
+      <c r="A9" s="95"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="95"/>
     </row>
     <row r="10" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -6673,18 +7300,18 @@
     </row>
     <row r="13" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
       <c r="L14" s="24">
         <v>0.22</v>
       </c>
@@ -6706,18 +7333,18 @@
       <c r="P16" s="51"/>
     </row>
     <row r="17" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="107" t="s">
+      <c r="B17" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="98"/>
       <c r="M17" s="72">
         <f>N11+M14</f>
         <v>2548.4691499999999</v>
@@ -6759,7 +7386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q16"/>
   <sheetViews>
@@ -6790,25 +7417,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
     </row>
     <row r="4" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
@@ -6821,72 +7448,72 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="104" t="s">
+      <c r="D7" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="105" t="s">
+      <c r="E7" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="105" t="s">
+      <c r="F7" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="105" t="s">
+      <c r="G7" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="104" t="s">
+      <c r="H7" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="I7" s="104" t="s">
+      <c r="I7" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="104" t="s">
+      <c r="J7" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="108" t="s">
+      <c r="K7" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="L7" s="104" t="s">
+      <c r="L7" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="105" t="s">
+      <c r="M7" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="104" t="s">
+      <c r="N7" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="104" t="s">
+      <c r="O7" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="104" t="s">
+      <c r="P7" s="95" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
     </row>
     <row r="9" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -7009,18 +7636,18 @@
     </row>
     <row r="12" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -7042,18 +7669,18 @@
       <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
       <c r="M16" s="72">
         <f>N10+M13</f>
         <v>2548.4691499999999</v>
@@ -7095,7 +7722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q16"/>
   <sheetViews>
@@ -7126,25 +7753,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
     </row>
     <row r="4" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
@@ -7157,76 +7784,76 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="104" t="s">
+      <c r="D7" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="105" t="s">
+      <c r="E7" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="105" t="s">
+      <c r="F7" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="105" t="s">
+      <c r="G7" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="104" t="s">
+      <c r="H7" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="104" t="s">
+      <c r="I7" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="104" t="s">
+      <c r="J7" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="104" t="s">
+      <c r="K7" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="108" t="s">
+      <c r="L7" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="104" t="s">
+      <c r="M7" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="105" t="s">
+      <c r="N7" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="104" t="s">
+      <c r="O7" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="104" t="s">
+      <c r="P7" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="104" t="s">
+      <c r="Q7" s="95" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="95"/>
     </row>
     <row r="9" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -7357,18 +7984,18 @@
     </row>
     <row r="12" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
@@ -7394,351 +8021,22 @@
       <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
       <c r="M16" s="72">
         <f>O10+M13</f>
         <v>2522.2070681818182</v>
       </c>
-      <c r="O16" s="51"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-  </mergeCells>
-  <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R16"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" customWidth="1"/>
-    <col min="13" max="13" width="12.44140625" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" customWidth="1"/>
-    <col min="15" max="15" width="8.44140625" customWidth="1"/>
-    <col min="16" max="16" width="10.5546875" customWidth="1"/>
-    <col min="17" max="17" width="10.44140625" customWidth="1"/>
-    <col min="18" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="23"/>
-    </row>
-    <row r="3" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="103" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-    </row>
-    <row r="4" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="104" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="105" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="105" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="105" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="104" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="104" t="s">
-        <v>64</v>
-      </c>
-      <c r="J7" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="104" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="108" t="s">
-        <v>66</v>
-      </c>
-      <c r="M7" s="104" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" s="105" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" s="104" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" s="104" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q7" s="104" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
-    </row>
-    <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3371314500</v>
-      </c>
-      <c r="D9" s="3">
-        <v>6060</v>
-      </c>
-      <c r="E9" s="3">
-        <v>160</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <f>D9/E6*E9</f>
-        <v>6060</v>
-      </c>
-      <c r="H9" s="64"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3">
-        <v>3000</v>
-      </c>
-      <c r="L9" s="25">
-        <f>G9</f>
-        <v>6060</v>
-      </c>
-      <c r="M9" s="3">
-        <f>ROUND((L9)*18/100,2)</f>
-        <v>1090.8</v>
-      </c>
-      <c r="N9" s="3">
-        <f>L9*0.015</f>
-        <v>90.899999999999991</v>
-      </c>
-      <c r="O9" s="3">
-        <f>M9+N9</f>
-        <v>1181.7</v>
-      </c>
-      <c r="P9" s="3">
-        <f>L9-O9</f>
-        <v>4878.3</v>
-      </c>
-      <c r="Q9" s="3">
-        <f>P9-K9</f>
-        <v>1878.3000000000002</v>
-      </c>
-      <c r="R9" s="65"/>
-    </row>
-    <row r="10" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48">
-        <f>SUM(D9:D9)</f>
-        <v>6060</v>
-      </c>
-      <c r="E10" s="48">
-        <f>SUM(E9)</f>
-        <v>160</v>
-      </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48">
-        <f>SUM(G9)</f>
-        <v>6060</v>
-      </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48">
-        <f t="shared" ref="K10:Q10" si="0">SUM(K9:K9)</f>
-        <v>3000</v>
-      </c>
-      <c r="L10" s="74">
-        <f>SUM(L9:L9)</f>
-        <v>6060</v>
-      </c>
-      <c r="M10" s="73">
-        <f t="shared" si="0"/>
-        <v>1090.8</v>
-      </c>
-      <c r="N10" s="73">
-        <f t="shared" si="0"/>
-        <v>90.899999999999991</v>
-      </c>
-      <c r="O10" s="73">
-        <f t="shared" si="0"/>
-        <v>1181.7</v>
-      </c>
-      <c r="P10" s="73">
-        <f t="shared" si="0"/>
-        <v>4878.3</v>
-      </c>
-      <c r="Q10" s="73">
-        <f t="shared" si="0"/>
-        <v>1878.3000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M11" s="22"/>
-      <c r="Q11" s="46">
-        <f>Q10+K10</f>
-        <v>4878.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="107" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
-      <c r="L13" s="24">
-        <v>0.22</v>
-      </c>
-      <c r="M13" s="53">
-        <f>L9*22%</f>
-        <v>1333.2</v>
-      </c>
-      <c r="N13" s="49"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-    </row>
-    <row r="15" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-    </row>
-    <row r="16" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="107" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
-      <c r="M16" s="72">
-        <f>O10+M13</f>
-        <v>2514.9</v>
-      </c>
-      <c r="N16" s="52"/>
       <c r="O16" s="51"/>
     </row>
   </sheetData>
@@ -7775,7 +8073,7 @@
   <dimension ref="A2:R16"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7786,10 +8084,10 @@
     <col min="4" max="7" width="10.6640625" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
     <col min="9" max="9" width="7.6640625" customWidth="1"/>
-    <col min="10" max="10" width="9.88671875" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
     <col min="11" max="11" width="8.6640625" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" customWidth="1"/>
     <col min="14" max="14" width="9.5546875" customWidth="1"/>
     <col min="15" max="15" width="8.44140625" customWidth="1"/>
     <col min="16" max="16" width="10.5546875" customWidth="1"/>
@@ -7801,25 +8099,25 @@
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="103" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
+      <c r="A3" s="94" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
     </row>
     <row r="4" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
@@ -7828,80 +8126,80 @@
     <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="104" t="s">
+      <c r="D7" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="105" t="s">
+      <c r="E7" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="105" t="s">
+      <c r="F7" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="105" t="s">
+      <c r="G7" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="104" t="s">
+      <c r="H7" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="104" t="s">
+      <c r="I7" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="104" t="s">
+      <c r="J7" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="104" t="s">
+      <c r="K7" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="108" t="s">
+      <c r="L7" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="104" t="s">
+      <c r="M7" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="105" t="s">
+      <c r="N7" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="104" t="s">
+      <c r="O7" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="104" t="s">
+      <c r="P7" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="104" t="s">
+      <c r="Q7" s="95" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="95"/>
     </row>
     <row r="9" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -7917,7 +8215,7 @@
         <v>6060</v>
       </c>
       <c r="E9" s="3">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
@@ -7970,11 +8268,11 @@
       </c>
       <c r="E10" s="48">
         <f>SUM(E9)</f>
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="F10" s="48"/>
       <c r="G10" s="48">
-        <f>G9</f>
+        <f>SUM(G9)</f>
         <v>6060</v>
       </c>
       <c r="H10" s="48"/>
@@ -8018,23 +8316,23 @@
     </row>
     <row r="12" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
       <c r="L13" s="24">
         <v>0.22</v>
       </c>
       <c r="M13" s="53">
-        <f>L9*0.22</f>
+        <f>L9*22%</f>
         <v>1333.2</v>
       </c>
       <c r="N13" s="49"/>
@@ -8051,18 +8349,18 @@
       <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
       <c r="M16" s="72">
         <f>O10+M13</f>
         <v>2514.9</v>
@@ -8072,6 +8370,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -8087,11 +8390,6 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
